--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3557100</v>
+        <v>3691400</v>
       </c>
       <c r="E8" s="3">
-        <v>2945600</v>
+        <v>3126800</v>
       </c>
       <c r="F8" s="3">
-        <v>2386500</v>
+        <v>2589300</v>
       </c>
       <c r="G8" s="3">
-        <v>2133300</v>
+        <v>2097800</v>
       </c>
       <c r="H8" s="3">
-        <v>921000</v>
+        <v>1875200</v>
       </c>
       <c r="I8" s="3">
-        <v>998300</v>
+        <v>809600</v>
       </c>
       <c r="J8" s="3">
+        <v>877500</v>
+      </c>
+      <c r="K8" s="3">
         <v>979900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>920800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2363200</v>
+        <v>2508700</v>
       </c>
       <c r="E9" s="3">
-        <v>1896200</v>
+        <v>2077300</v>
       </c>
       <c r="F9" s="3">
-        <v>1540100</v>
+        <v>1666800</v>
       </c>
       <c r="G9" s="3">
-        <v>1297500</v>
+        <v>1353800</v>
       </c>
       <c r="H9" s="3">
-        <v>563900</v>
+        <v>1140500</v>
       </c>
       <c r="I9" s="3">
-        <v>617000</v>
+        <v>495700</v>
       </c>
       <c r="J9" s="3">
+        <v>542400</v>
+      </c>
+      <c r="K9" s="3">
         <v>605100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>579300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1193900</v>
+        <v>1182700</v>
       </c>
       <c r="E10" s="3">
         <v>1049500</v>
       </c>
       <c r="F10" s="3">
-        <v>846400</v>
+        <v>922500</v>
       </c>
       <c r="G10" s="3">
-        <v>835800</v>
+        <v>744000</v>
       </c>
       <c r="H10" s="3">
-        <v>357100</v>
+        <v>734700</v>
       </c>
       <c r="I10" s="3">
-        <v>381300</v>
+        <v>313900</v>
       </c>
       <c r="J10" s="3">
+        <v>335100</v>
+      </c>
+      <c r="K10" s="3">
         <v>374800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>341600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>54000</v>
+        <v>98300</v>
       </c>
       <c r="E14" s="3">
-        <v>102700</v>
+        <v>47500</v>
       </c>
       <c r="F14" s="3">
-        <v>24500</v>
+        <v>90300</v>
       </c>
       <c r="G14" s="3">
-        <v>13900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>21500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>4300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17300</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2554300</v>
+        <v>2772500</v>
       </c>
       <c r="E17" s="3">
-        <v>2319900</v>
+        <v>2245300</v>
       </c>
       <c r="F17" s="3">
-        <v>1810100</v>
+        <v>2039200</v>
       </c>
       <c r="G17" s="3">
-        <v>1565100</v>
+        <v>1591100</v>
       </c>
       <c r="H17" s="3">
-        <v>763600</v>
+        <v>1375800</v>
       </c>
       <c r="I17" s="3">
-        <v>830800</v>
+        <v>671200</v>
       </c>
       <c r="J17" s="3">
+        <v>730300</v>
+      </c>
+      <c r="K17" s="3">
         <v>819400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>806800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1002800</v>
+        <v>918900</v>
       </c>
       <c r="E18" s="3">
-        <v>625700</v>
+        <v>881500</v>
       </c>
       <c r="F18" s="3">
-        <v>576500</v>
+        <v>550000</v>
       </c>
       <c r="G18" s="3">
-        <v>568100</v>
+        <v>506700</v>
       </c>
       <c r="H18" s="3">
-        <v>157400</v>
+        <v>499400</v>
       </c>
       <c r="I18" s="3">
-        <v>167400</v>
+        <v>138300</v>
       </c>
       <c r="J18" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K18" s="3">
         <v>160500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>114100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-423900</v>
+        <v>-203500</v>
       </c>
       <c r="E20" s="3">
-        <v>-130300</v>
+        <v>-372600</v>
       </c>
       <c r="F20" s="3">
-        <v>-164400</v>
+        <v>-114500</v>
       </c>
       <c r="G20" s="3">
-        <v>-149500</v>
+        <v>-144500</v>
       </c>
       <c r="H20" s="3">
-        <v>19500</v>
+        <v>-131400</v>
       </c>
       <c r="I20" s="3">
-        <v>99100</v>
+        <v>17200</v>
       </c>
       <c r="J20" s="3">
+        <v>87100</v>
+      </c>
+      <c r="K20" s="3">
         <v>98600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>62100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1289800</v>
+        <v>1457800</v>
       </c>
       <c r="E21" s="3">
-        <v>922800</v>
+        <v>1136700</v>
       </c>
       <c r="F21" s="3">
-        <v>769900</v>
+        <v>812900</v>
       </c>
       <c r="G21" s="3">
-        <v>693500</v>
+        <v>678300</v>
       </c>
       <c r="H21" s="3">
-        <v>302000</v>
+        <v>610800</v>
       </c>
       <c r="I21" s="3">
-        <v>404800</v>
+        <v>266000</v>
       </c>
       <c r="J21" s="3">
+        <v>356400</v>
+      </c>
+      <c r="K21" s="3">
         <v>391000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>326600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>132400</v>
+        <v>232300</v>
       </c>
       <c r="E22" s="3">
-        <v>59500</v>
+        <v>116400</v>
       </c>
       <c r="F22" s="3">
-        <v>72600</v>
+        <v>52300</v>
       </c>
       <c r="G22" s="3">
-        <v>50000</v>
+        <v>63800</v>
       </c>
       <c r="H22" s="3">
-        <v>9000</v>
+        <v>44000</v>
       </c>
       <c r="I22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>18800</v>
+      </c>
+      <c r="L22" s="3">
         <v>9200</v>
       </c>
-      <c r="J22" s="3">
-        <v>18800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>9200</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>446500</v>
+        <v>483100</v>
       </c>
       <c r="E23" s="3">
-        <v>435900</v>
+        <v>392500</v>
       </c>
       <c r="F23" s="3">
-        <v>339500</v>
+        <v>383200</v>
       </c>
       <c r="G23" s="3">
-        <v>368600</v>
+        <v>298400</v>
       </c>
       <c r="H23" s="3">
-        <v>167900</v>
+        <v>324000</v>
       </c>
       <c r="I23" s="3">
-        <v>257300</v>
+        <v>147600</v>
       </c>
       <c r="J23" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K23" s="3">
         <v>240300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>167000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>82800</v>
+        <v>115400</v>
       </c>
       <c r="E24" s="3">
-        <v>95500</v>
+        <v>72800</v>
       </c>
       <c r="F24" s="3">
-        <v>71300</v>
+        <v>84000</v>
       </c>
       <c r="G24" s="3">
-        <v>111500</v>
+        <v>62600</v>
       </c>
       <c r="H24" s="3">
-        <v>55900</v>
+        <v>98000</v>
       </c>
       <c r="I24" s="3">
-        <v>51900</v>
+        <v>49100</v>
       </c>
       <c r="J24" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K24" s="3">
         <v>48700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>363700</v>
+        <v>367700</v>
       </c>
       <c r="E26" s="3">
-        <v>340400</v>
+        <v>319700</v>
       </c>
       <c r="F26" s="3">
-        <v>268200</v>
+        <v>299200</v>
       </c>
       <c r="G26" s="3">
-        <v>257000</v>
+        <v>235800</v>
       </c>
       <c r="H26" s="3">
-        <v>112000</v>
+        <v>225900</v>
       </c>
       <c r="I26" s="3">
-        <v>205400</v>
+        <v>98500</v>
       </c>
       <c r="J26" s="3">
+        <v>180500</v>
+      </c>
+      <c r="K26" s="3">
         <v>191600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>119000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>337600</v>
+        <v>363300</v>
       </c>
       <c r="E27" s="3">
-        <v>330600</v>
+        <v>296800</v>
       </c>
       <c r="F27" s="3">
-        <v>259600</v>
+        <v>290600</v>
       </c>
       <c r="G27" s="3">
-        <v>284400</v>
+        <v>228200</v>
       </c>
       <c r="H27" s="3">
-        <v>144500</v>
+        <v>250000</v>
       </c>
       <c r="I27" s="3">
-        <v>205200</v>
+        <v>127000</v>
       </c>
       <c r="J27" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K27" s="3">
         <v>193600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>123400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,26 +1343,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>113400</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-7000</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>61400</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>-6200</v>
+      </c>
+      <c r="H29" s="3">
+        <v>53900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>423900</v>
+        <v>203500</v>
       </c>
       <c r="E32" s="3">
-        <v>130300</v>
+        <v>372600</v>
       </c>
       <c r="F32" s="3">
-        <v>164400</v>
+        <v>114500</v>
       </c>
       <c r="G32" s="3">
-        <v>149500</v>
+        <v>144500</v>
       </c>
       <c r="H32" s="3">
-        <v>-19500</v>
+        <v>131400</v>
       </c>
       <c r="I32" s="3">
-        <v>-99100</v>
+        <v>-17200</v>
       </c>
       <c r="J32" s="3">
+        <v>-87100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-98600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-62100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>337600</v>
+        <v>476700</v>
       </c>
       <c r="E33" s="3">
-        <v>330600</v>
+        <v>296800</v>
       </c>
       <c r="F33" s="3">
-        <v>252600</v>
+        <v>290600</v>
       </c>
       <c r="G33" s="3">
-        <v>345800</v>
+        <v>222000</v>
       </c>
       <c r="H33" s="3">
-        <v>144500</v>
+        <v>304000</v>
       </c>
       <c r="I33" s="3">
-        <v>205200</v>
+        <v>127000</v>
       </c>
       <c r="J33" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K33" s="3">
         <v>193600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>123400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>337600</v>
+        <v>476700</v>
       </c>
       <c r="E35" s="3">
-        <v>330600</v>
+        <v>296800</v>
       </c>
       <c r="F35" s="3">
-        <v>252600</v>
+        <v>290600</v>
       </c>
       <c r="G35" s="3">
-        <v>345800</v>
+        <v>222000</v>
       </c>
       <c r="H35" s="3">
-        <v>144500</v>
+        <v>304000</v>
       </c>
       <c r="I35" s="3">
-        <v>205200</v>
+        <v>127000</v>
       </c>
       <c r="J35" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K35" s="3">
         <v>193600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>123400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1239500</v>
+        <v>92800</v>
       </c>
       <c r="E41" s="3">
-        <v>787200</v>
+        <v>87000</v>
       </c>
       <c r="F41" s="3">
-        <v>1011100</v>
+        <v>88600</v>
       </c>
       <c r="G41" s="3">
-        <v>487600</v>
+        <v>83700</v>
       </c>
       <c r="H41" s="3">
-        <v>650700</v>
+        <v>84900</v>
       </c>
       <c r="I41" s="3">
-        <v>636300</v>
+        <v>36600</v>
       </c>
       <c r="J41" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8700</v>
+        <v>1460400</v>
       </c>
       <c r="E42" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>1008800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>604300</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>804000</v>
       </c>
       <c r="H42" s="3">
-        <v>1400</v>
+        <v>343200</v>
       </c>
       <c r="I42" s="3">
-        <v>4500</v>
+        <v>535800</v>
       </c>
       <c r="J42" s="3">
+        <v>532200</v>
+      </c>
+      <c r="K42" s="3">
         <v>659500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>550400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1225900</v>
+        <v>1069400</v>
       </c>
       <c r="E43" s="3">
-        <v>1063500</v>
+        <v>1076300</v>
       </c>
       <c r="F43" s="3">
-        <v>828900</v>
+        <v>933700</v>
       </c>
       <c r="G43" s="3">
-        <v>763300</v>
+        <v>727700</v>
       </c>
       <c r="H43" s="3">
-        <v>267600</v>
+        <v>670100</v>
       </c>
       <c r="I43" s="3">
-        <v>229200</v>
+        <v>234900</v>
       </c>
       <c r="J43" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K43" s="3">
         <v>215500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>158300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30100</v>
+        <v>26200</v>
       </c>
       <c r="E44" s="3">
-        <v>17400</v>
+        <v>26500</v>
       </c>
       <c r="F44" s="3">
-        <v>22000</v>
+        <v>15300</v>
       </c>
       <c r="G44" s="3">
-        <v>12600</v>
+        <v>19400</v>
       </c>
       <c r="H44" s="3">
-        <v>5100</v>
+        <v>11100</v>
       </c>
       <c r="I44" s="3">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="J44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K44" s="3">
         <v>8200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>559200</v>
+        <v>186700</v>
       </c>
       <c r="E45" s="3">
-        <v>480300</v>
+        <v>491000</v>
       </c>
       <c r="F45" s="3">
-        <v>368400</v>
+        <v>421700</v>
       </c>
       <c r="G45" s="3">
-        <v>205700</v>
+        <v>323400</v>
       </c>
       <c r="H45" s="3">
-        <v>33900</v>
+        <v>180600</v>
       </c>
       <c r="I45" s="3">
-        <v>35900</v>
+        <v>29800</v>
       </c>
       <c r="J45" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K45" s="3">
         <v>32800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3063400</v>
+        <v>2835400</v>
       </c>
       <c r="E46" s="3">
-        <v>2350400</v>
+        <v>2689500</v>
       </c>
       <c r="F46" s="3">
-        <v>2230400</v>
+        <v>2063500</v>
       </c>
       <c r="G46" s="3">
-        <v>1469300</v>
+        <v>1958200</v>
       </c>
       <c r="H46" s="3">
-        <v>958700</v>
+        <v>1289900</v>
       </c>
       <c r="I46" s="3">
-        <v>911400</v>
+        <v>841700</v>
       </c>
       <c r="J46" s="3">
+        <v>800100</v>
+      </c>
+      <c r="K46" s="3">
         <v>916100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>732700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>187500</v>
+        <v>63200</v>
       </c>
       <c r="E47" s="3">
-        <v>259100</v>
+        <v>164600</v>
       </c>
       <c r="F47" s="3">
-        <v>208300</v>
+        <v>227400</v>
       </c>
       <c r="G47" s="3">
-        <v>321000</v>
+        <v>182900</v>
       </c>
       <c r="H47" s="3">
-        <v>104300</v>
+        <v>281900</v>
       </c>
       <c r="I47" s="3">
-        <v>84000</v>
+        <v>91600</v>
       </c>
       <c r="J47" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K47" s="3">
         <v>98200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>103000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2079700</v>
+        <v>2091200</v>
       </c>
       <c r="E48" s="3">
-        <v>1614900</v>
+        <v>1825900</v>
       </c>
       <c r="F48" s="3">
-        <v>1376900</v>
+        <v>1417800</v>
       </c>
       <c r="G48" s="3">
-        <v>1147000</v>
+        <v>1208900</v>
       </c>
       <c r="H48" s="3">
-        <v>425600</v>
+        <v>1007000</v>
       </c>
       <c r="I48" s="3">
-        <v>460300</v>
+        <v>373600</v>
       </c>
       <c r="J48" s="3">
+        <v>404100</v>
+      </c>
+      <c r="K48" s="3">
         <v>511400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>444800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1734500</v>
+        <v>1658600</v>
       </c>
       <c r="E49" s="3">
-        <v>1393300</v>
+        <v>1522800</v>
       </c>
       <c r="F49" s="3">
-        <v>1375900</v>
+        <v>1223300</v>
       </c>
       <c r="G49" s="3">
-        <v>1373300</v>
+        <v>1208000</v>
       </c>
       <c r="H49" s="3">
-        <v>176300</v>
+        <v>1205700</v>
       </c>
       <c r="I49" s="3">
-        <v>184900</v>
+        <v>154800</v>
       </c>
       <c r="J49" s="3">
+        <v>162300</v>
+      </c>
+      <c r="K49" s="3">
         <v>216500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>204600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79200</v>
+        <v>56600</v>
       </c>
       <c r="E52" s="3">
-        <v>59400</v>
+        <v>69500</v>
       </c>
       <c r="F52" s="3">
-        <v>87600</v>
+        <v>52200</v>
       </c>
       <c r="G52" s="3">
-        <v>63700</v>
+        <v>76900</v>
       </c>
       <c r="H52" s="3">
-        <v>42100</v>
+        <v>55900</v>
       </c>
       <c r="I52" s="3">
-        <v>25400</v>
+        <v>37000</v>
       </c>
       <c r="J52" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K52" s="3">
         <v>9100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7144400</v>
+        <v>6705000</v>
       </c>
       <c r="E54" s="3">
-        <v>5677100</v>
+        <v>6272400</v>
       </c>
       <c r="F54" s="3">
-        <v>5279100</v>
+        <v>4984200</v>
       </c>
       <c r="G54" s="3">
-        <v>4374300</v>
+        <v>4634800</v>
       </c>
       <c r="H54" s="3">
-        <v>1707000</v>
+        <v>3840400</v>
       </c>
       <c r="I54" s="3">
-        <v>1666000</v>
+        <v>1498700</v>
       </c>
       <c r="J54" s="3">
+        <v>1462700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1751300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1493600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>454700</v>
+        <v>433200</v>
       </c>
       <c r="E57" s="3">
-        <v>471500</v>
+        <v>399200</v>
       </c>
       <c r="F57" s="3">
-        <v>580400</v>
+        <v>413900</v>
       </c>
       <c r="G57" s="3">
-        <v>776300</v>
+        <v>509600</v>
       </c>
       <c r="H57" s="3">
-        <v>97300</v>
+        <v>681500</v>
       </c>
       <c r="I57" s="3">
-        <v>109600</v>
+        <v>85400</v>
       </c>
       <c r="J57" s="3">
+        <v>96200</v>
+      </c>
+      <c r="K57" s="3">
         <v>94900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>87100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1175400</v>
+        <v>1118800</v>
       </c>
       <c r="E58" s="3">
-        <v>714700</v>
+        <v>1032000</v>
       </c>
       <c r="F58" s="3">
-        <v>475500</v>
+        <v>627500</v>
       </c>
       <c r="G58" s="3">
-        <v>121400</v>
+        <v>417400</v>
       </c>
       <c r="H58" s="3">
-        <v>176600</v>
+        <v>106500</v>
       </c>
       <c r="I58" s="3">
-        <v>141400</v>
+        <v>155000</v>
       </c>
       <c r="J58" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K58" s="3">
         <v>181400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>133300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>331200</v>
+        <v>304200</v>
       </c>
       <c r="E59" s="3">
-        <v>354800</v>
+        <v>290800</v>
       </c>
       <c r="F59" s="3">
-        <v>173500</v>
+        <v>311500</v>
       </c>
       <c r="G59" s="3">
-        <v>155600</v>
+        <v>152300</v>
       </c>
       <c r="H59" s="3">
-        <v>85700</v>
+        <v>136600</v>
       </c>
       <c r="I59" s="3">
-        <v>86400</v>
+        <v>75300</v>
       </c>
       <c r="J59" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K59" s="3">
         <v>116600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>118400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1961300</v>
+        <v>1856200</v>
       </c>
       <c r="E60" s="3">
-        <v>1540900</v>
+        <v>1721900</v>
       </c>
       <c r="F60" s="3">
-        <v>1229400</v>
+        <v>1352900</v>
       </c>
       <c r="G60" s="3">
-        <v>1053200</v>
+        <v>1079300</v>
       </c>
       <c r="H60" s="3">
-        <v>359600</v>
+        <v>924700</v>
       </c>
       <c r="I60" s="3">
-        <v>337400</v>
+        <v>315700</v>
       </c>
       <c r="J60" s="3">
+        <v>296300</v>
+      </c>
+      <c r="K60" s="3">
         <v>392800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>338700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2191800</v>
+        <v>1859400</v>
       </c>
       <c r="E61" s="3">
-        <v>1379600</v>
+        <v>1924300</v>
       </c>
       <c r="F61" s="3">
-        <v>1158600</v>
+        <v>1211200</v>
       </c>
       <c r="G61" s="3">
-        <v>582700</v>
+        <v>1017200</v>
       </c>
       <c r="H61" s="3">
-        <v>89900</v>
+        <v>511600</v>
       </c>
       <c r="I61" s="3">
-        <v>119600</v>
+        <v>78900</v>
       </c>
       <c r="J61" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K61" s="3">
         <v>103400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>173600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>309400</v>
+        <v>337200</v>
       </c>
       <c r="E62" s="3">
-        <v>243200</v>
+        <v>271600</v>
       </c>
       <c r="F62" s="3">
-        <v>206800</v>
+        <v>213500</v>
       </c>
       <c r="G62" s="3">
-        <v>332900</v>
+        <v>181500</v>
       </c>
       <c r="H62" s="3">
-        <v>53600</v>
+        <v>292300</v>
       </c>
       <c r="I62" s="3">
-        <v>55600</v>
+        <v>47100</v>
       </c>
       <c r="J62" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K62" s="3">
         <v>58900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4484500</v>
+        <v>4058100</v>
       </c>
       <c r="E66" s="3">
-        <v>3173000</v>
+        <v>3937100</v>
       </c>
       <c r="F66" s="3">
-        <v>2604200</v>
+        <v>2785700</v>
       </c>
       <c r="G66" s="3">
-        <v>1979500</v>
+        <v>2286300</v>
       </c>
       <c r="H66" s="3">
-        <v>475500</v>
+        <v>1737900</v>
       </c>
       <c r="I66" s="3">
-        <v>498400</v>
+        <v>417500</v>
       </c>
       <c r="J66" s="3">
+        <v>437600</v>
+      </c>
+      <c r="K66" s="3">
         <v>542000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>542800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2271200</v>
+        <v>2343100</v>
       </c>
       <c r="E72" s="3">
-        <v>2164300</v>
+        <v>1994000</v>
       </c>
       <c r="F72" s="3">
-        <v>2334900</v>
+        <v>1900200</v>
       </c>
       <c r="G72" s="3">
-        <v>2079900</v>
+        <v>2049900</v>
       </c>
       <c r="H72" s="3">
-        <v>954200</v>
+        <v>1826100</v>
       </c>
       <c r="I72" s="3">
-        <v>890400</v>
+        <v>837800</v>
       </c>
       <c r="J72" s="3">
+        <v>781700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1250000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1041500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2659900</v>
+        <v>2646900</v>
       </c>
       <c r="E76" s="3">
-        <v>2504100</v>
+        <v>2335200</v>
       </c>
       <c r="F76" s="3">
-        <v>2674900</v>
+        <v>2198500</v>
       </c>
       <c r="G76" s="3">
-        <v>2394800</v>
+        <v>2348400</v>
       </c>
       <c r="H76" s="3">
-        <v>1231500</v>
+        <v>2102500</v>
       </c>
       <c r="I76" s="3">
-        <v>1167600</v>
+        <v>1081200</v>
       </c>
       <c r="J76" s="3">
+        <v>1025100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1209300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>950800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>337600</v>
+        <v>476700</v>
       </c>
       <c r="E81" s="3">
-        <v>330600</v>
+        <v>296800</v>
       </c>
       <c r="F81" s="3">
-        <v>252600</v>
+        <v>290600</v>
       </c>
       <c r="G81" s="3">
-        <v>345800</v>
+        <v>222000</v>
       </c>
       <c r="H81" s="3">
-        <v>144500</v>
+        <v>304000</v>
       </c>
       <c r="I81" s="3">
-        <v>205200</v>
+        <v>127000</v>
       </c>
       <c r="J81" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K81" s="3">
         <v>193600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>123400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>710100</v>
+        <v>738100</v>
       </c>
       <c r="E83" s="3">
-        <v>426900</v>
+        <v>624200</v>
       </c>
       <c r="F83" s="3">
-        <v>357400</v>
+        <v>375200</v>
       </c>
       <c r="G83" s="3">
-        <v>274600</v>
+        <v>314200</v>
       </c>
       <c r="H83" s="3">
-        <v>124900</v>
+        <v>241400</v>
       </c>
       <c r="I83" s="3">
-        <v>138100</v>
+        <v>109800</v>
       </c>
       <c r="J83" s="3">
+        <v>121400</v>
+      </c>
+      <c r="K83" s="3">
         <v>131700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>151800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1096200</v>
+        <v>1451000</v>
       </c>
       <c r="E89" s="3">
-        <v>610500</v>
+        <v>963600</v>
       </c>
       <c r="F89" s="3">
-        <v>203500</v>
+        <v>536600</v>
       </c>
       <c r="G89" s="3">
-        <v>444800</v>
+        <v>178900</v>
       </c>
       <c r="H89" s="3">
-        <v>134000</v>
+        <v>391000</v>
       </c>
       <c r="I89" s="3">
-        <v>166100</v>
+        <v>117700</v>
       </c>
       <c r="J89" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K89" s="3">
         <v>198500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>152000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-494600</v>
+        <v>-469200</v>
       </c>
       <c r="E91" s="3">
-        <v>-490700</v>
+        <v>-434800</v>
       </c>
       <c r="F91" s="3">
-        <v>-429700</v>
+        <v>-431300</v>
       </c>
       <c r="G91" s="3">
-        <v>-356700</v>
+        <v>-377800</v>
       </c>
       <c r="H91" s="3">
-        <v>-111900</v>
+        <v>-313600</v>
       </c>
       <c r="I91" s="3">
-        <v>-105500</v>
+        <v>-98400</v>
       </c>
       <c r="J91" s="3">
+        <v>-92700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-126800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-141000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-880000</v>
+        <v>-570000</v>
       </c>
       <c r="E94" s="3">
-        <v>-644500</v>
+        <v>-773500</v>
       </c>
       <c r="F94" s="3">
-        <v>-599300</v>
+        <v>-566500</v>
       </c>
       <c r="G94" s="3">
-        <v>-722400</v>
+        <v>-526800</v>
       </c>
       <c r="H94" s="3">
-        <v>-95700</v>
+        <v>-635000</v>
       </c>
       <c r="I94" s="3">
-        <v>-78500</v>
+        <v>-84200</v>
       </c>
       <c r="J94" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="K94" s="3">
         <v>50900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-231500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-325700</v>
+        <v>-165600</v>
       </c>
       <c r="E96" s="3">
-        <v>-509700</v>
+        <v>-286300</v>
       </c>
       <c r="F96" s="3">
-        <v>-8600</v>
+        <v>-448000</v>
       </c>
       <c r="G96" s="3">
-        <v>-672500</v>
+        <v>-7600</v>
       </c>
       <c r="H96" s="3">
+        <v>-591100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-89300</v>
+        <v>-510700</v>
       </c>
       <c r="E100" s="3">
-        <v>-261700</v>
+        <v>-78500</v>
       </c>
       <c r="F100" s="3">
-        <v>808400</v>
+        <v>-230100</v>
       </c>
       <c r="G100" s="3">
-        <v>-816500</v>
+        <v>710600</v>
       </c>
       <c r="H100" s="3">
-        <v>6600</v>
+        <v>-717700</v>
       </c>
       <c r="I100" s="3">
-        <v>-20300</v>
+        <v>5800</v>
       </c>
       <c r="J100" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-28600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>325300</v>
+        <v>43800</v>
       </c>
       <c r="E101" s="3">
-        <v>71900</v>
+        <v>285900</v>
       </c>
       <c r="F101" s="3">
-        <v>110900</v>
+        <v>63200</v>
       </c>
       <c r="G101" s="3">
-        <v>72800</v>
+        <v>97500</v>
       </c>
       <c r="H101" s="3">
-        <v>-30400</v>
+        <v>64000</v>
       </c>
       <c r="I101" s="3">
-        <v>-87000</v>
+        <v>-26700</v>
       </c>
       <c r="J101" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="K101" s="3">
         <v>16200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-55100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>452200</v>
+        <v>414000</v>
       </c>
       <c r="E102" s="3">
-        <v>-223900</v>
+        <v>397500</v>
       </c>
       <c r="F102" s="3">
-        <v>523500</v>
+        <v>-196800</v>
       </c>
       <c r="G102" s="3">
-        <v>-1021300</v>
+        <v>460200</v>
       </c>
       <c r="H102" s="3">
-        <v>14400</v>
+        <v>-897700</v>
       </c>
       <c r="I102" s="3">
-        <v>-19700</v>
+        <v>12700</v>
       </c>
       <c r="J102" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K102" s="3">
         <v>237000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-129500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3691400</v>
+        <v>3412600</v>
       </c>
       <c r="E8" s="3">
-        <v>3126800</v>
+        <v>2890700</v>
       </c>
       <c r="F8" s="3">
-        <v>2589300</v>
+        <v>2393700</v>
       </c>
       <c r="G8" s="3">
-        <v>2097800</v>
+        <v>1939400</v>
       </c>
       <c r="H8" s="3">
-        <v>1875200</v>
+        <v>1733600</v>
       </c>
       <c r="I8" s="3">
-        <v>809600</v>
+        <v>748400</v>
       </c>
       <c r="J8" s="3">
-        <v>877500</v>
+        <v>811200</v>
       </c>
       <c r="K8" s="3">
         <v>979900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2508700</v>
+        <v>2319300</v>
       </c>
       <c r="E9" s="3">
-        <v>2077300</v>
+        <v>1920500</v>
       </c>
       <c r="F9" s="3">
-        <v>1666800</v>
+        <v>1540900</v>
       </c>
       <c r="G9" s="3">
-        <v>1353800</v>
+        <v>1251600</v>
       </c>
       <c r="H9" s="3">
-        <v>1140500</v>
+        <v>1054400</v>
       </c>
       <c r="I9" s="3">
-        <v>495700</v>
+        <v>458300</v>
       </c>
       <c r="J9" s="3">
-        <v>542400</v>
+        <v>501400</v>
       </c>
       <c r="K9" s="3">
         <v>605100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1182700</v>
+        <v>1093400</v>
       </c>
       <c r="E10" s="3">
-        <v>1049500</v>
+        <v>970200</v>
       </c>
       <c r="F10" s="3">
-        <v>922500</v>
+        <v>852800</v>
       </c>
       <c r="G10" s="3">
-        <v>744000</v>
+        <v>687800</v>
       </c>
       <c r="H10" s="3">
-        <v>734700</v>
+        <v>679200</v>
       </c>
       <c r="I10" s="3">
-        <v>313900</v>
+        <v>290200</v>
       </c>
       <c r="J10" s="3">
-        <v>335100</v>
+        <v>309800</v>
       </c>
       <c r="K10" s="3">
         <v>374800</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>98300</v>
+        <v>90800</v>
       </c>
       <c r="E14" s="3">
-        <v>47500</v>
+        <v>43900</v>
       </c>
       <c r="F14" s="3">
-        <v>90300</v>
+        <v>83500</v>
       </c>
       <c r="G14" s="3">
-        <v>21500</v>
+        <v>19900</v>
       </c>
       <c r="H14" s="3">
-        <v>12200</v>
+        <v>11300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2772500</v>
+        <v>2563100</v>
       </c>
       <c r="E17" s="3">
-        <v>2245300</v>
+        <v>2075700</v>
       </c>
       <c r="F17" s="3">
-        <v>2039200</v>
+        <v>1885200</v>
       </c>
       <c r="G17" s="3">
-        <v>1591100</v>
+        <v>1470900</v>
       </c>
       <c r="H17" s="3">
-        <v>1375800</v>
+        <v>1271900</v>
       </c>
       <c r="I17" s="3">
-        <v>671200</v>
+        <v>620500</v>
       </c>
       <c r="J17" s="3">
-        <v>730300</v>
+        <v>675200</v>
       </c>
       <c r="K17" s="3">
         <v>819400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>918900</v>
+        <v>849500</v>
       </c>
       <c r="E18" s="3">
-        <v>881500</v>
+        <v>814900</v>
       </c>
       <c r="F18" s="3">
-        <v>550000</v>
+        <v>508500</v>
       </c>
       <c r="G18" s="3">
-        <v>506700</v>
+        <v>468500</v>
       </c>
       <c r="H18" s="3">
-        <v>499400</v>
+        <v>461700</v>
       </c>
       <c r="I18" s="3">
-        <v>138300</v>
+        <v>127900</v>
       </c>
       <c r="J18" s="3">
-        <v>147200</v>
+        <v>136000</v>
       </c>
       <c r="K18" s="3">
         <v>160500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-203500</v>
+        <v>-188200</v>
       </c>
       <c r="E20" s="3">
-        <v>-372600</v>
+        <v>-344500</v>
       </c>
       <c r="F20" s="3">
-        <v>-114500</v>
+        <v>-105900</v>
       </c>
       <c r="G20" s="3">
-        <v>-144500</v>
+        <v>-133600</v>
       </c>
       <c r="H20" s="3">
-        <v>-131400</v>
+        <v>-121500</v>
       </c>
       <c r="I20" s="3">
-        <v>17200</v>
+        <v>15900</v>
       </c>
       <c r="J20" s="3">
-        <v>87100</v>
+        <v>80500</v>
       </c>
       <c r="K20" s="3">
         <v>98600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1457800</v>
+        <v>1341500</v>
       </c>
       <c r="E21" s="3">
-        <v>1136700</v>
+        <v>1045700</v>
       </c>
       <c r="F21" s="3">
-        <v>812900</v>
+        <v>748400</v>
       </c>
       <c r="G21" s="3">
-        <v>678300</v>
+        <v>624400</v>
       </c>
       <c r="H21" s="3">
-        <v>610800</v>
+        <v>562600</v>
       </c>
       <c r="I21" s="3">
-        <v>266000</v>
+        <v>245000</v>
       </c>
       <c r="J21" s="3">
-        <v>356400</v>
+        <v>328400</v>
       </c>
       <c r="K21" s="3">
         <v>391000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>232300</v>
+        <v>214700</v>
       </c>
       <c r="E22" s="3">
-        <v>116400</v>
+        <v>107600</v>
       </c>
       <c r="F22" s="3">
-        <v>52300</v>
+        <v>48300</v>
       </c>
       <c r="G22" s="3">
-        <v>63800</v>
+        <v>59000</v>
       </c>
       <c r="H22" s="3">
-        <v>44000</v>
+        <v>40700</v>
       </c>
       <c r="I22" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="J22" s="3">
-        <v>8100</v>
+        <v>7500</v>
       </c>
       <c r="K22" s="3">
         <v>18800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>483100</v>
+        <v>446600</v>
       </c>
       <c r="E23" s="3">
-        <v>392500</v>
+        <v>362900</v>
       </c>
       <c r="F23" s="3">
-        <v>383200</v>
+        <v>354300</v>
       </c>
       <c r="G23" s="3">
-        <v>298400</v>
+        <v>275900</v>
       </c>
       <c r="H23" s="3">
-        <v>324000</v>
+        <v>299500</v>
       </c>
       <c r="I23" s="3">
-        <v>147600</v>
+        <v>136500</v>
       </c>
       <c r="J23" s="3">
-        <v>226200</v>
+        <v>209100</v>
       </c>
       <c r="K23" s="3">
         <v>240300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115400</v>
+        <v>106700</v>
       </c>
       <c r="E24" s="3">
-        <v>72800</v>
+        <v>67300</v>
       </c>
       <c r="F24" s="3">
-        <v>84000</v>
+        <v>77600</v>
       </c>
       <c r="G24" s="3">
-        <v>62600</v>
+        <v>57900</v>
       </c>
       <c r="H24" s="3">
-        <v>98000</v>
+        <v>90600</v>
       </c>
       <c r="I24" s="3">
-        <v>49100</v>
+        <v>45400</v>
       </c>
       <c r="J24" s="3">
-        <v>45600</v>
+        <v>42200</v>
       </c>
       <c r="K24" s="3">
         <v>48700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>367700</v>
+        <v>340000</v>
       </c>
       <c r="E26" s="3">
-        <v>319700</v>
+        <v>295600</v>
       </c>
       <c r="F26" s="3">
-        <v>299200</v>
+        <v>276600</v>
       </c>
       <c r="G26" s="3">
-        <v>235800</v>
+        <v>218000</v>
       </c>
       <c r="H26" s="3">
-        <v>225900</v>
+        <v>208900</v>
       </c>
       <c r="I26" s="3">
-        <v>98500</v>
+        <v>91000</v>
       </c>
       <c r="J26" s="3">
-        <v>180500</v>
+        <v>166900</v>
       </c>
       <c r="K26" s="3">
         <v>191600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>363300</v>
+        <v>335900</v>
       </c>
       <c r="E27" s="3">
-        <v>296800</v>
+        <v>274400</v>
       </c>
       <c r="F27" s="3">
-        <v>290600</v>
+        <v>268700</v>
       </c>
       <c r="G27" s="3">
-        <v>228200</v>
+        <v>211000</v>
       </c>
       <c r="H27" s="3">
-        <v>250000</v>
+        <v>231100</v>
       </c>
       <c r="I27" s="3">
-        <v>127000</v>
+        <v>117400</v>
       </c>
       <c r="J27" s="3">
-        <v>180400</v>
+        <v>166700</v>
       </c>
       <c r="K27" s="3">
         <v>193600</v>
@@ -1353,7 +1353,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>113400</v>
+        <v>104900</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-6200</v>
+        <v>-5700</v>
       </c>
       <c r="H29" s="3">
-        <v>53900</v>
+        <v>49900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>203500</v>
+        <v>188200</v>
       </c>
       <c r="E32" s="3">
-        <v>372600</v>
+        <v>344500</v>
       </c>
       <c r="F32" s="3">
-        <v>114500</v>
+        <v>105900</v>
       </c>
       <c r="G32" s="3">
-        <v>144500</v>
+        <v>133600</v>
       </c>
       <c r="H32" s="3">
-        <v>131400</v>
+        <v>121500</v>
       </c>
       <c r="I32" s="3">
-        <v>-17200</v>
+        <v>-15900</v>
       </c>
       <c r="J32" s="3">
-        <v>-87100</v>
+        <v>-80500</v>
       </c>
       <c r="K32" s="3">
         <v>-98600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>476700</v>
+        <v>440700</v>
       </c>
       <c r="E33" s="3">
-        <v>296800</v>
+        <v>274400</v>
       </c>
       <c r="F33" s="3">
-        <v>290600</v>
+        <v>268700</v>
       </c>
       <c r="G33" s="3">
-        <v>222000</v>
+        <v>205200</v>
       </c>
       <c r="H33" s="3">
-        <v>304000</v>
+        <v>281000</v>
       </c>
       <c r="I33" s="3">
-        <v>127000</v>
+        <v>117400</v>
       </c>
       <c r="J33" s="3">
-        <v>180400</v>
+        <v>166700</v>
       </c>
       <c r="K33" s="3">
         <v>193600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>476700</v>
+        <v>440700</v>
       </c>
       <c r="E35" s="3">
-        <v>296800</v>
+        <v>274400</v>
       </c>
       <c r="F35" s="3">
-        <v>290600</v>
+        <v>268700</v>
       </c>
       <c r="G35" s="3">
-        <v>222000</v>
+        <v>205200</v>
       </c>
       <c r="H35" s="3">
-        <v>304000</v>
+        <v>281000</v>
       </c>
       <c r="I35" s="3">
-        <v>127000</v>
+        <v>117400</v>
       </c>
       <c r="J35" s="3">
-        <v>180400</v>
+        <v>166700</v>
       </c>
       <c r="K35" s="3">
         <v>193600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>92800</v>
+        <v>85900</v>
       </c>
       <c r="E41" s="3">
-        <v>87000</v>
+        <v>80500</v>
       </c>
       <c r="F41" s="3">
-        <v>88600</v>
+        <v>82000</v>
       </c>
       <c r="G41" s="3">
-        <v>83700</v>
+        <v>77500</v>
       </c>
       <c r="H41" s="3">
-        <v>84900</v>
+        <v>78600</v>
       </c>
       <c r="I41" s="3">
-        <v>36600</v>
+        <v>33900</v>
       </c>
       <c r="J41" s="3">
-        <v>30400</v>
+        <v>28100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1460400</v>
+        <v>1351800</v>
       </c>
       <c r="E42" s="3">
-        <v>1008800</v>
+        <v>933800</v>
       </c>
       <c r="F42" s="3">
-        <v>604300</v>
+        <v>559300</v>
       </c>
       <c r="G42" s="3">
-        <v>804000</v>
+        <v>744200</v>
       </c>
       <c r="H42" s="3">
-        <v>343200</v>
+        <v>317700</v>
       </c>
       <c r="I42" s="3">
-        <v>535800</v>
+        <v>496000</v>
       </c>
       <c r="J42" s="3">
-        <v>532200</v>
+        <v>492600</v>
       </c>
       <c r="K42" s="3">
         <v>659500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1069400</v>
+        <v>989800</v>
       </c>
       <c r="E43" s="3">
-        <v>1076300</v>
+        <v>996200</v>
       </c>
       <c r="F43" s="3">
-        <v>933700</v>
+        <v>864300</v>
       </c>
       <c r="G43" s="3">
-        <v>727700</v>
+        <v>673600</v>
       </c>
       <c r="H43" s="3">
-        <v>670100</v>
+        <v>620300</v>
       </c>
       <c r="I43" s="3">
-        <v>234900</v>
+        <v>217400</v>
       </c>
       <c r="J43" s="3">
-        <v>201200</v>
+        <v>186200</v>
       </c>
       <c r="K43" s="3">
         <v>215500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26200</v>
+        <v>24200</v>
       </c>
       <c r="E44" s="3">
-        <v>26500</v>
+        <v>24500</v>
       </c>
       <c r="F44" s="3">
-        <v>15300</v>
+        <v>14100</v>
       </c>
       <c r="G44" s="3">
-        <v>19400</v>
+        <v>17900</v>
       </c>
       <c r="H44" s="3">
-        <v>11100</v>
+        <v>10200</v>
       </c>
       <c r="I44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J44" s="3">
         <v>4500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>4800</v>
       </c>
       <c r="K44" s="3">
         <v>8200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>186700</v>
+        <v>172800</v>
       </c>
       <c r="E45" s="3">
-        <v>491000</v>
+        <v>454500</v>
       </c>
       <c r="F45" s="3">
-        <v>421700</v>
+        <v>390300</v>
       </c>
       <c r="G45" s="3">
-        <v>323400</v>
+        <v>299400</v>
       </c>
       <c r="H45" s="3">
-        <v>180600</v>
+        <v>167200</v>
       </c>
       <c r="I45" s="3">
-        <v>29800</v>
+        <v>27600</v>
       </c>
       <c r="J45" s="3">
-        <v>31500</v>
+        <v>29200</v>
       </c>
       <c r="K45" s="3">
         <v>32800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2835400</v>
+        <v>2624500</v>
       </c>
       <c r="E46" s="3">
-        <v>2689500</v>
+        <v>2489400</v>
       </c>
       <c r="F46" s="3">
-        <v>2063500</v>
+        <v>1910000</v>
       </c>
       <c r="G46" s="3">
-        <v>1958200</v>
+        <v>1812500</v>
       </c>
       <c r="H46" s="3">
-        <v>1289900</v>
+        <v>1194000</v>
       </c>
       <c r="I46" s="3">
-        <v>841700</v>
+        <v>779100</v>
       </c>
       <c r="J46" s="3">
-        <v>800100</v>
+        <v>740600</v>
       </c>
       <c r="K46" s="3">
         <v>916100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>63200</v>
+        <v>58500</v>
       </c>
       <c r="E47" s="3">
-        <v>164600</v>
+        <v>152400</v>
       </c>
       <c r="F47" s="3">
-        <v>227400</v>
+        <v>210500</v>
       </c>
       <c r="G47" s="3">
-        <v>182900</v>
+        <v>169300</v>
       </c>
       <c r="H47" s="3">
-        <v>281900</v>
+        <v>260900</v>
       </c>
       <c r="I47" s="3">
-        <v>91600</v>
+        <v>84700</v>
       </c>
       <c r="J47" s="3">
-        <v>73700</v>
+        <v>68200</v>
       </c>
       <c r="K47" s="3">
         <v>98200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2091200</v>
+        <v>1935600</v>
       </c>
       <c r="E48" s="3">
-        <v>1825900</v>
+        <v>1690100</v>
       </c>
       <c r="F48" s="3">
-        <v>1417800</v>
+        <v>1312300</v>
       </c>
       <c r="G48" s="3">
-        <v>1208900</v>
+        <v>1118900</v>
       </c>
       <c r="H48" s="3">
-        <v>1007000</v>
+        <v>932100</v>
       </c>
       <c r="I48" s="3">
-        <v>373600</v>
+        <v>345800</v>
       </c>
       <c r="J48" s="3">
-        <v>404100</v>
+        <v>374100</v>
       </c>
       <c r="K48" s="3">
         <v>511400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1658600</v>
+        <v>1535200</v>
       </c>
       <c r="E49" s="3">
-        <v>1522800</v>
+        <v>1409500</v>
       </c>
       <c r="F49" s="3">
-        <v>1223300</v>
+        <v>1132300</v>
       </c>
       <c r="G49" s="3">
-        <v>1208000</v>
+        <v>1118100</v>
       </c>
       <c r="H49" s="3">
-        <v>1205700</v>
+        <v>1116000</v>
       </c>
       <c r="I49" s="3">
-        <v>154800</v>
+        <v>143300</v>
       </c>
       <c r="J49" s="3">
-        <v>162300</v>
+        <v>150300</v>
       </c>
       <c r="K49" s="3">
         <v>216500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>56600</v>
+        <v>52400</v>
       </c>
       <c r="E52" s="3">
-        <v>69500</v>
+        <v>64400</v>
       </c>
       <c r="F52" s="3">
-        <v>52200</v>
+        <v>48300</v>
       </c>
       <c r="G52" s="3">
-        <v>76900</v>
+        <v>71200</v>
       </c>
       <c r="H52" s="3">
-        <v>55900</v>
+        <v>51800</v>
       </c>
       <c r="I52" s="3">
-        <v>37000</v>
+        <v>34200</v>
       </c>
       <c r="J52" s="3">
-        <v>22300</v>
+        <v>20700</v>
       </c>
       <c r="K52" s="3">
         <v>9100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6705000</v>
+        <v>6206300</v>
       </c>
       <c r="E54" s="3">
-        <v>6272400</v>
+        <v>5805800</v>
       </c>
       <c r="F54" s="3">
-        <v>4984200</v>
+        <v>4613500</v>
       </c>
       <c r="G54" s="3">
-        <v>4634800</v>
+        <v>4290000</v>
       </c>
       <c r="H54" s="3">
-        <v>3840400</v>
+        <v>3554800</v>
       </c>
       <c r="I54" s="3">
-        <v>1498700</v>
+        <v>1387200</v>
       </c>
       <c r="J54" s="3">
-        <v>1462700</v>
+        <v>1353900</v>
       </c>
       <c r="K54" s="3">
         <v>1751300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>433200</v>
+        <v>400900</v>
       </c>
       <c r="E57" s="3">
-        <v>399200</v>
+        <v>369500</v>
       </c>
       <c r="F57" s="3">
-        <v>413900</v>
+        <v>383100</v>
       </c>
       <c r="G57" s="3">
-        <v>509600</v>
+        <v>471700</v>
       </c>
       <c r="H57" s="3">
-        <v>681500</v>
+        <v>630800</v>
       </c>
       <c r="I57" s="3">
-        <v>85400</v>
+        <v>79100</v>
       </c>
       <c r="J57" s="3">
-        <v>96200</v>
+        <v>89100</v>
       </c>
       <c r="K57" s="3">
         <v>94900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1118800</v>
+        <v>1035600</v>
       </c>
       <c r="E58" s="3">
-        <v>1032000</v>
+        <v>955200</v>
       </c>
       <c r="F58" s="3">
-        <v>627500</v>
+        <v>580800</v>
       </c>
       <c r="G58" s="3">
-        <v>417400</v>
+        <v>386400</v>
       </c>
       <c r="H58" s="3">
-        <v>106500</v>
+        <v>98600</v>
       </c>
       <c r="I58" s="3">
-        <v>155000</v>
+        <v>143500</v>
       </c>
       <c r="J58" s="3">
-        <v>124200</v>
+        <v>114900</v>
       </c>
       <c r="K58" s="3">
         <v>181400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>304200</v>
+        <v>281500</v>
       </c>
       <c r="E59" s="3">
-        <v>290800</v>
+        <v>269100</v>
       </c>
       <c r="F59" s="3">
-        <v>311500</v>
+        <v>288300</v>
       </c>
       <c r="G59" s="3">
-        <v>152300</v>
+        <v>141000</v>
       </c>
       <c r="H59" s="3">
-        <v>136600</v>
+        <v>126400</v>
       </c>
       <c r="I59" s="3">
-        <v>75300</v>
+        <v>69700</v>
       </c>
       <c r="J59" s="3">
-        <v>75900</v>
+        <v>70200</v>
       </c>
       <c r="K59" s="3">
         <v>116600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1856200</v>
+        <v>1718100</v>
       </c>
       <c r="E60" s="3">
-        <v>1721900</v>
+        <v>1593800</v>
       </c>
       <c r="F60" s="3">
-        <v>1352900</v>
+        <v>1252200</v>
       </c>
       <c r="G60" s="3">
-        <v>1079300</v>
+        <v>999000</v>
       </c>
       <c r="H60" s="3">
-        <v>924700</v>
+        <v>855900</v>
       </c>
       <c r="I60" s="3">
-        <v>315700</v>
+        <v>292200</v>
       </c>
       <c r="J60" s="3">
-        <v>296300</v>
+        <v>274200</v>
       </c>
       <c r="K60" s="3">
         <v>392800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1859400</v>
+        <v>1721100</v>
       </c>
       <c r="E61" s="3">
-        <v>1924300</v>
+        <v>1781100</v>
       </c>
       <c r="F61" s="3">
-        <v>1211200</v>
+        <v>1121100</v>
       </c>
       <c r="G61" s="3">
-        <v>1017200</v>
+        <v>941500</v>
       </c>
       <c r="H61" s="3">
-        <v>511600</v>
+        <v>473500</v>
       </c>
       <c r="I61" s="3">
-        <v>78900</v>
+        <v>73100</v>
       </c>
       <c r="J61" s="3">
-        <v>105000</v>
+        <v>97200</v>
       </c>
       <c r="K61" s="3">
         <v>103400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>337200</v>
+        <v>312100</v>
       </c>
       <c r="E62" s="3">
-        <v>271600</v>
+        <v>251400</v>
       </c>
       <c r="F62" s="3">
-        <v>213500</v>
+        <v>197600</v>
       </c>
       <c r="G62" s="3">
-        <v>181500</v>
+        <v>168000</v>
       </c>
       <c r="H62" s="3">
-        <v>292300</v>
+        <v>270500</v>
       </c>
       <c r="I62" s="3">
-        <v>47100</v>
+        <v>43600</v>
       </c>
       <c r="J62" s="3">
-        <v>48800</v>
+        <v>45200</v>
       </c>
       <c r="K62" s="3">
         <v>58900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4058100</v>
+        <v>3756300</v>
       </c>
       <c r="E66" s="3">
-        <v>3937100</v>
+        <v>3644300</v>
       </c>
       <c r="F66" s="3">
-        <v>2785700</v>
+        <v>2578500</v>
       </c>
       <c r="G66" s="3">
-        <v>2286300</v>
+        <v>2116300</v>
       </c>
       <c r="H66" s="3">
-        <v>1737900</v>
+        <v>1608600</v>
       </c>
       <c r="I66" s="3">
-        <v>417500</v>
+        <v>386400</v>
       </c>
       <c r="J66" s="3">
-        <v>437600</v>
+        <v>405100</v>
       </c>
       <c r="K66" s="3">
         <v>542000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2343100</v>
+        <v>2168900</v>
       </c>
       <c r="E72" s="3">
-        <v>1994000</v>
+        <v>1845700</v>
       </c>
       <c r="F72" s="3">
-        <v>1900200</v>
+        <v>1758800</v>
       </c>
       <c r="G72" s="3">
-        <v>2049900</v>
+        <v>1897400</v>
       </c>
       <c r="H72" s="3">
-        <v>1826100</v>
+        <v>1690200</v>
       </c>
       <c r="I72" s="3">
-        <v>837800</v>
+        <v>775500</v>
       </c>
       <c r="J72" s="3">
-        <v>781700</v>
+        <v>723500</v>
       </c>
       <c r="K72" s="3">
         <v>1250000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2646900</v>
+        <v>2450000</v>
       </c>
       <c r="E76" s="3">
-        <v>2335200</v>
+        <v>2161500</v>
       </c>
       <c r="F76" s="3">
-        <v>2198500</v>
+        <v>2034900</v>
       </c>
       <c r="G76" s="3">
-        <v>2348400</v>
+        <v>2173800</v>
       </c>
       <c r="H76" s="3">
-        <v>2102500</v>
+        <v>1946100</v>
       </c>
       <c r="I76" s="3">
-        <v>1081200</v>
+        <v>1000700</v>
       </c>
       <c r="J76" s="3">
-        <v>1025100</v>
+        <v>948800</v>
       </c>
       <c r="K76" s="3">
         <v>1209300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>476700</v>
+        <v>440700</v>
       </c>
       <c r="E81" s="3">
-        <v>296800</v>
+        <v>274400</v>
       </c>
       <c r="F81" s="3">
-        <v>290600</v>
+        <v>268700</v>
       </c>
       <c r="G81" s="3">
-        <v>222000</v>
+        <v>205200</v>
       </c>
       <c r="H81" s="3">
-        <v>304000</v>
+        <v>281000</v>
       </c>
       <c r="I81" s="3">
-        <v>127000</v>
+        <v>117400</v>
       </c>
       <c r="J81" s="3">
-        <v>180400</v>
+        <v>166700</v>
       </c>
       <c r="K81" s="3">
         <v>193600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>738100</v>
+        <v>682300</v>
       </c>
       <c r="E83" s="3">
-        <v>624200</v>
+        <v>577000</v>
       </c>
       <c r="F83" s="3">
-        <v>375200</v>
+        <v>346900</v>
       </c>
       <c r="G83" s="3">
-        <v>314200</v>
+        <v>290400</v>
       </c>
       <c r="H83" s="3">
-        <v>241400</v>
+        <v>223200</v>
       </c>
       <c r="I83" s="3">
-        <v>109800</v>
+        <v>101500</v>
       </c>
       <c r="J83" s="3">
-        <v>121400</v>
+        <v>112200</v>
       </c>
       <c r="K83" s="3">
         <v>131700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1451000</v>
+        <v>1341400</v>
       </c>
       <c r="E89" s="3">
-        <v>963600</v>
+        <v>890800</v>
       </c>
       <c r="F89" s="3">
-        <v>536600</v>
+        <v>496100</v>
       </c>
       <c r="G89" s="3">
-        <v>178900</v>
+        <v>165400</v>
       </c>
       <c r="H89" s="3">
-        <v>391000</v>
+        <v>361500</v>
       </c>
       <c r="I89" s="3">
-        <v>117700</v>
+        <v>108900</v>
       </c>
       <c r="J89" s="3">
-        <v>146000</v>
+        <v>134900</v>
       </c>
       <c r="K89" s="3">
         <v>198500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-469200</v>
+        <v>-433800</v>
       </c>
       <c r="E91" s="3">
-        <v>-434800</v>
+        <v>-401900</v>
       </c>
       <c r="F91" s="3">
-        <v>-431300</v>
+        <v>-398800</v>
       </c>
       <c r="G91" s="3">
-        <v>-377800</v>
+        <v>-349200</v>
       </c>
       <c r="H91" s="3">
-        <v>-313600</v>
+        <v>-289900</v>
       </c>
       <c r="I91" s="3">
-        <v>-98400</v>
+        <v>-91000</v>
       </c>
       <c r="J91" s="3">
-        <v>-92700</v>
+        <v>-85700</v>
       </c>
       <c r="K91" s="3">
         <v>-126800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-570000</v>
+        <v>-526900</v>
       </c>
       <c r="E94" s="3">
-        <v>-773500</v>
+        <v>-715100</v>
       </c>
       <c r="F94" s="3">
-        <v>-566500</v>
+        <v>-523700</v>
       </c>
       <c r="G94" s="3">
-        <v>-526800</v>
+        <v>-487000</v>
       </c>
       <c r="H94" s="3">
-        <v>-635000</v>
+        <v>-587100</v>
       </c>
       <c r="I94" s="3">
-        <v>-84200</v>
+        <v>-77800</v>
       </c>
       <c r="J94" s="3">
-        <v>-69000</v>
+        <v>-63800</v>
       </c>
       <c r="K94" s="3">
         <v>50900</v>
@@ -3298,22 +3298,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-165600</v>
+        <v>-153100</v>
       </c>
       <c r="E96" s="3">
-        <v>-286300</v>
+        <v>-264600</v>
       </c>
       <c r="F96" s="3">
-        <v>-448000</v>
+        <v>-414200</v>
       </c>
       <c r="G96" s="3">
-        <v>-7600</v>
+        <v>-7000</v>
       </c>
       <c r="H96" s="3">
-        <v>-591100</v>
+        <v>-546500</v>
       </c>
       <c r="I96" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J96" s="3">
         <v>-100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-510700</v>
+        <v>-472200</v>
       </c>
       <c r="E100" s="3">
-        <v>-78500</v>
+        <v>-72500</v>
       </c>
       <c r="F100" s="3">
-        <v>-230100</v>
+        <v>-212700</v>
       </c>
       <c r="G100" s="3">
-        <v>710600</v>
+        <v>656900</v>
       </c>
       <c r="H100" s="3">
-        <v>-717700</v>
+        <v>-663500</v>
       </c>
       <c r="I100" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="J100" s="3">
-        <v>-17900</v>
+        <v>-16500</v>
       </c>
       <c r="K100" s="3">
         <v>-28600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43800</v>
+        <v>40500</v>
       </c>
       <c r="E101" s="3">
-        <v>285900</v>
+        <v>264300</v>
       </c>
       <c r="F101" s="3">
-        <v>63200</v>
+        <v>58400</v>
       </c>
       <c r="G101" s="3">
-        <v>97500</v>
+        <v>90200</v>
       </c>
       <c r="H101" s="3">
-        <v>64000</v>
+        <v>59200</v>
       </c>
       <c r="I101" s="3">
-        <v>-26700</v>
+        <v>-24700</v>
       </c>
       <c r="J101" s="3">
-        <v>-76400</v>
+        <v>-70700</v>
       </c>
       <c r="K101" s="3">
         <v>16200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>414000</v>
+        <v>382800</v>
       </c>
       <c r="E102" s="3">
-        <v>397500</v>
+        <v>367500</v>
       </c>
       <c r="F102" s="3">
-        <v>-196800</v>
+        <v>-181900</v>
       </c>
       <c r="G102" s="3">
-        <v>460200</v>
+        <v>425400</v>
       </c>
       <c r="H102" s="3">
-        <v>-897700</v>
+        <v>-829900</v>
       </c>
       <c r="I102" s="3">
-        <v>12700</v>
+        <v>11700</v>
       </c>
       <c r="J102" s="3">
-        <v>-17300</v>
+        <v>-16000</v>
       </c>
       <c r="K102" s="3">
         <v>237000</v>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3412600</v>
+        <v>3209000</v>
       </c>
       <c r="E8" s="3">
-        <v>2890700</v>
+        <v>2718200</v>
       </c>
       <c r="F8" s="3">
-        <v>2393700</v>
+        <v>2250900</v>
       </c>
       <c r="G8" s="3">
-        <v>1939400</v>
+        <v>1823700</v>
       </c>
       <c r="H8" s="3">
-        <v>1733600</v>
+        <v>1630100</v>
       </c>
       <c r="I8" s="3">
-        <v>748400</v>
+        <v>703800</v>
       </c>
       <c r="J8" s="3">
-        <v>811200</v>
+        <v>762800</v>
       </c>
       <c r="K8" s="3">
         <v>979900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2319300</v>
+        <v>2180900</v>
       </c>
       <c r="E9" s="3">
-        <v>1920500</v>
+        <v>1805900</v>
       </c>
       <c r="F9" s="3">
-        <v>1540900</v>
+        <v>1449000</v>
       </c>
       <c r="G9" s="3">
-        <v>1251600</v>
+        <v>1176900</v>
       </c>
       <c r="H9" s="3">
-        <v>1054400</v>
+        <v>991500</v>
       </c>
       <c r="I9" s="3">
-        <v>458300</v>
+        <v>430900</v>
       </c>
       <c r="J9" s="3">
-        <v>501400</v>
+        <v>471500</v>
       </c>
       <c r="K9" s="3">
         <v>605100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1093400</v>
+        <v>1028100</v>
       </c>
       <c r="E10" s="3">
-        <v>970200</v>
+        <v>912300</v>
       </c>
       <c r="F10" s="3">
-        <v>852800</v>
+        <v>801900</v>
       </c>
       <c r="G10" s="3">
-        <v>687800</v>
+        <v>646800</v>
       </c>
       <c r="H10" s="3">
-        <v>679200</v>
+        <v>638700</v>
       </c>
       <c r="I10" s="3">
-        <v>290200</v>
+        <v>272900</v>
       </c>
       <c r="J10" s="3">
-        <v>309800</v>
+        <v>291300</v>
       </c>
       <c r="K10" s="3">
         <v>374800</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>90800</v>
+        <v>85400</v>
       </c>
       <c r="E14" s="3">
-        <v>43900</v>
+        <v>41300</v>
       </c>
       <c r="F14" s="3">
-        <v>83500</v>
+        <v>78500</v>
       </c>
       <c r="G14" s="3">
-        <v>19900</v>
+        <v>18700</v>
       </c>
       <c r="H14" s="3">
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2563100</v>
+        <v>2410200</v>
       </c>
       <c r="E17" s="3">
-        <v>2075700</v>
+        <v>1951900</v>
       </c>
       <c r="F17" s="3">
-        <v>1885200</v>
+        <v>1772700</v>
       </c>
       <c r="G17" s="3">
-        <v>1470900</v>
+        <v>1383200</v>
       </c>
       <c r="H17" s="3">
-        <v>1271900</v>
+        <v>1196000</v>
       </c>
       <c r="I17" s="3">
-        <v>620500</v>
+        <v>583500</v>
       </c>
       <c r="J17" s="3">
-        <v>675200</v>
+        <v>634900</v>
       </c>
       <c r="K17" s="3">
         <v>819400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>849500</v>
+        <v>798800</v>
       </c>
       <c r="E18" s="3">
-        <v>814900</v>
+        <v>766300</v>
       </c>
       <c r="F18" s="3">
-        <v>508500</v>
+        <v>478200</v>
       </c>
       <c r="G18" s="3">
-        <v>468500</v>
+        <v>440500</v>
       </c>
       <c r="H18" s="3">
-        <v>461700</v>
+        <v>434100</v>
       </c>
       <c r="I18" s="3">
+        <v>120300</v>
+      </c>
+      <c r="J18" s="3">
         <v>127900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>136000</v>
       </c>
       <c r="K18" s="3">
         <v>160500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-188200</v>
+        <v>-176900</v>
       </c>
       <c r="E20" s="3">
-        <v>-344500</v>
+        <v>-323900</v>
       </c>
       <c r="F20" s="3">
-        <v>-105900</v>
+        <v>-99600</v>
       </c>
       <c r="G20" s="3">
-        <v>-133600</v>
+        <v>-125600</v>
       </c>
       <c r="H20" s="3">
-        <v>-121500</v>
+        <v>-114300</v>
       </c>
       <c r="I20" s="3">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="J20" s="3">
-        <v>80500</v>
+        <v>75700</v>
       </c>
       <c r="K20" s="3">
         <v>98600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1341500</v>
+        <v>1260600</v>
       </c>
       <c r="E21" s="3">
-        <v>1045700</v>
+        <v>982500</v>
       </c>
       <c r="F21" s="3">
-        <v>748400</v>
+        <v>703300</v>
       </c>
       <c r="G21" s="3">
-        <v>624400</v>
+        <v>586800</v>
       </c>
       <c r="H21" s="3">
-        <v>562600</v>
+        <v>528800</v>
       </c>
       <c r="I21" s="3">
-        <v>245000</v>
+        <v>230200</v>
       </c>
       <c r="J21" s="3">
-        <v>328400</v>
+        <v>308700</v>
       </c>
       <c r="K21" s="3">
         <v>391000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>214700</v>
+        <v>201900</v>
       </c>
       <c r="E22" s="3">
-        <v>107600</v>
+        <v>101200</v>
       </c>
       <c r="F22" s="3">
-        <v>48300</v>
+        <v>45500</v>
       </c>
       <c r="G22" s="3">
-        <v>59000</v>
+        <v>55500</v>
       </c>
       <c r="H22" s="3">
-        <v>40700</v>
+        <v>38200</v>
       </c>
       <c r="I22" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="J22" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="K22" s="3">
         <v>18800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>446600</v>
+        <v>420000</v>
       </c>
       <c r="E23" s="3">
-        <v>362900</v>
+        <v>341200</v>
       </c>
       <c r="F23" s="3">
-        <v>354300</v>
+        <v>333100</v>
       </c>
       <c r="G23" s="3">
-        <v>275900</v>
+        <v>259400</v>
       </c>
       <c r="H23" s="3">
-        <v>299500</v>
+        <v>281600</v>
       </c>
       <c r="I23" s="3">
-        <v>136500</v>
+        <v>128300</v>
       </c>
       <c r="J23" s="3">
-        <v>209100</v>
+        <v>196600</v>
       </c>
       <c r="K23" s="3">
         <v>240300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>106700</v>
+        <v>100300</v>
       </c>
       <c r="E24" s="3">
-        <v>67300</v>
+        <v>63300</v>
       </c>
       <c r="F24" s="3">
-        <v>77600</v>
+        <v>73000</v>
       </c>
       <c r="G24" s="3">
-        <v>57900</v>
+        <v>54500</v>
       </c>
       <c r="H24" s="3">
-        <v>90600</v>
+        <v>85200</v>
       </c>
       <c r="I24" s="3">
-        <v>45400</v>
+        <v>42700</v>
       </c>
       <c r="J24" s="3">
-        <v>42200</v>
+        <v>39700</v>
       </c>
       <c r="K24" s="3">
         <v>48700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>340000</v>
+        <v>319700</v>
       </c>
       <c r="E26" s="3">
-        <v>295600</v>
+        <v>278000</v>
       </c>
       <c r="F26" s="3">
-        <v>276600</v>
+        <v>260100</v>
       </c>
       <c r="G26" s="3">
-        <v>218000</v>
+        <v>205000</v>
       </c>
       <c r="H26" s="3">
-        <v>208900</v>
+        <v>196400</v>
       </c>
       <c r="I26" s="3">
-        <v>91000</v>
+        <v>85600</v>
       </c>
       <c r="J26" s="3">
-        <v>166900</v>
+        <v>157000</v>
       </c>
       <c r="K26" s="3">
         <v>191600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>335900</v>
+        <v>315800</v>
       </c>
       <c r="E27" s="3">
-        <v>274400</v>
+        <v>258000</v>
       </c>
       <c r="F27" s="3">
-        <v>268700</v>
+        <v>252700</v>
       </c>
       <c r="G27" s="3">
-        <v>211000</v>
+        <v>198400</v>
       </c>
       <c r="H27" s="3">
-        <v>231100</v>
+        <v>217300</v>
       </c>
       <c r="I27" s="3">
-        <v>117400</v>
+        <v>110400</v>
       </c>
       <c r="J27" s="3">
-        <v>166700</v>
+        <v>156800</v>
       </c>
       <c r="K27" s="3">
         <v>193600</v>
@@ -1353,7 +1353,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>104900</v>
+        <v>98600</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="H29" s="3">
-        <v>49900</v>
+        <v>46900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>188200</v>
+        <v>176900</v>
       </c>
       <c r="E32" s="3">
-        <v>344500</v>
+        <v>323900</v>
       </c>
       <c r="F32" s="3">
-        <v>105900</v>
+        <v>99600</v>
       </c>
       <c r="G32" s="3">
-        <v>133600</v>
+        <v>125600</v>
       </c>
       <c r="H32" s="3">
-        <v>121500</v>
+        <v>114300</v>
       </c>
       <c r="I32" s="3">
-        <v>-15900</v>
+        <v>-14900</v>
       </c>
       <c r="J32" s="3">
-        <v>-80500</v>
+        <v>-75700</v>
       </c>
       <c r="K32" s="3">
         <v>-98600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>440700</v>
+        <v>414400</v>
       </c>
       <c r="E33" s="3">
-        <v>274400</v>
+        <v>258000</v>
       </c>
       <c r="F33" s="3">
-        <v>268700</v>
+        <v>252700</v>
       </c>
       <c r="G33" s="3">
-        <v>205200</v>
+        <v>193000</v>
       </c>
       <c r="H33" s="3">
-        <v>281000</v>
+        <v>264200</v>
       </c>
       <c r="I33" s="3">
-        <v>117400</v>
+        <v>110400</v>
       </c>
       <c r="J33" s="3">
-        <v>166700</v>
+        <v>156800</v>
       </c>
       <c r="K33" s="3">
         <v>193600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>440700</v>
+        <v>414400</v>
       </c>
       <c r="E35" s="3">
-        <v>274400</v>
+        <v>258000</v>
       </c>
       <c r="F35" s="3">
-        <v>268700</v>
+        <v>252700</v>
       </c>
       <c r="G35" s="3">
-        <v>205200</v>
+        <v>193000</v>
       </c>
       <c r="H35" s="3">
-        <v>281000</v>
+        <v>264200</v>
       </c>
       <c r="I35" s="3">
-        <v>117400</v>
+        <v>110400</v>
       </c>
       <c r="J35" s="3">
-        <v>166700</v>
+        <v>156800</v>
       </c>
       <c r="K35" s="3">
         <v>193600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>85900</v>
+        <v>80700</v>
       </c>
       <c r="E41" s="3">
-        <v>80500</v>
+        <v>75700</v>
       </c>
       <c r="F41" s="3">
-        <v>82000</v>
+        <v>77100</v>
       </c>
       <c r="G41" s="3">
-        <v>77500</v>
+        <v>72900</v>
       </c>
       <c r="H41" s="3">
-        <v>78600</v>
+        <v>73900</v>
       </c>
       <c r="I41" s="3">
-        <v>33900</v>
+        <v>31900</v>
       </c>
       <c r="J41" s="3">
-        <v>28100</v>
+        <v>26400</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1351800</v>
+        <v>1271100</v>
       </c>
       <c r="E42" s="3">
-        <v>933800</v>
+        <v>878000</v>
       </c>
       <c r="F42" s="3">
-        <v>559300</v>
+        <v>525900</v>
       </c>
       <c r="G42" s="3">
-        <v>744200</v>
+        <v>699800</v>
       </c>
       <c r="H42" s="3">
-        <v>317700</v>
+        <v>298700</v>
       </c>
       <c r="I42" s="3">
-        <v>496000</v>
+        <v>466400</v>
       </c>
       <c r="J42" s="3">
-        <v>492600</v>
+        <v>463200</v>
       </c>
       <c r="K42" s="3">
         <v>659500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>989800</v>
+        <v>930800</v>
       </c>
       <c r="E43" s="3">
-        <v>996200</v>
+        <v>936800</v>
       </c>
       <c r="F43" s="3">
-        <v>864300</v>
+        <v>812700</v>
       </c>
       <c r="G43" s="3">
-        <v>673600</v>
+        <v>633400</v>
       </c>
       <c r="H43" s="3">
-        <v>620300</v>
+        <v>583300</v>
       </c>
       <c r="I43" s="3">
-        <v>217400</v>
+        <v>204500</v>
       </c>
       <c r="J43" s="3">
-        <v>186200</v>
+        <v>175100</v>
       </c>
       <c r="K43" s="3">
         <v>215500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24200</v>
+        <v>22800</v>
       </c>
       <c r="E44" s="3">
-        <v>24500</v>
+        <v>23000</v>
       </c>
       <c r="F44" s="3">
-        <v>14100</v>
+        <v>13300</v>
       </c>
       <c r="G44" s="3">
-        <v>17900</v>
+        <v>16800</v>
       </c>
       <c r="H44" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="I44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J44" s="3">
         <v>4200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>4500</v>
       </c>
       <c r="K44" s="3">
         <v>8200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>172800</v>
+        <v>162500</v>
       </c>
       <c r="E45" s="3">
-        <v>454500</v>
+        <v>427300</v>
       </c>
       <c r="F45" s="3">
-        <v>390300</v>
+        <v>367100</v>
       </c>
       <c r="G45" s="3">
-        <v>299400</v>
+        <v>281500</v>
       </c>
       <c r="H45" s="3">
-        <v>167200</v>
+        <v>157200</v>
       </c>
       <c r="I45" s="3">
-        <v>27600</v>
+        <v>25900</v>
       </c>
       <c r="J45" s="3">
-        <v>29200</v>
+        <v>27400</v>
       </c>
       <c r="K45" s="3">
         <v>32800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2624500</v>
+        <v>2467900</v>
       </c>
       <c r="E46" s="3">
-        <v>2489400</v>
+        <v>2340900</v>
       </c>
       <c r="F46" s="3">
-        <v>1910000</v>
+        <v>1796100</v>
       </c>
       <c r="G46" s="3">
-        <v>1812500</v>
+        <v>1704400</v>
       </c>
       <c r="H46" s="3">
-        <v>1194000</v>
+        <v>1122800</v>
       </c>
       <c r="I46" s="3">
-        <v>779100</v>
+        <v>732600</v>
       </c>
       <c r="J46" s="3">
-        <v>740600</v>
+        <v>696400</v>
       </c>
       <c r="K46" s="3">
         <v>916100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>58500</v>
+        <v>55000</v>
       </c>
       <c r="E47" s="3">
-        <v>152400</v>
+        <v>143300</v>
       </c>
       <c r="F47" s="3">
-        <v>210500</v>
+        <v>198000</v>
       </c>
       <c r="G47" s="3">
-        <v>169300</v>
+        <v>159200</v>
       </c>
       <c r="H47" s="3">
-        <v>260900</v>
+        <v>245300</v>
       </c>
       <c r="I47" s="3">
-        <v>84700</v>
+        <v>79700</v>
       </c>
       <c r="J47" s="3">
-        <v>68200</v>
+        <v>64200</v>
       </c>
       <c r="K47" s="3">
         <v>98200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1935600</v>
+        <v>1820200</v>
       </c>
       <c r="E48" s="3">
-        <v>1690100</v>
+        <v>1589200</v>
       </c>
       <c r="F48" s="3">
-        <v>1312300</v>
+        <v>1234000</v>
       </c>
       <c r="G48" s="3">
-        <v>1118900</v>
+        <v>1052200</v>
       </c>
       <c r="H48" s="3">
-        <v>932100</v>
+        <v>876500</v>
       </c>
       <c r="I48" s="3">
-        <v>345800</v>
+        <v>325200</v>
       </c>
       <c r="J48" s="3">
-        <v>374100</v>
+        <v>351800</v>
       </c>
       <c r="K48" s="3">
         <v>511400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1535200</v>
+        <v>1443600</v>
       </c>
       <c r="E49" s="3">
-        <v>1409500</v>
+        <v>1325400</v>
       </c>
       <c r="F49" s="3">
-        <v>1132300</v>
+        <v>1064700</v>
       </c>
       <c r="G49" s="3">
-        <v>1118100</v>
+        <v>1051400</v>
       </c>
       <c r="H49" s="3">
-        <v>1116000</v>
+        <v>1049400</v>
       </c>
       <c r="I49" s="3">
-        <v>143300</v>
+        <v>134700</v>
       </c>
       <c r="J49" s="3">
-        <v>150300</v>
+        <v>141300</v>
       </c>
       <c r="K49" s="3">
         <v>216500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>52400</v>
+        <v>49300</v>
       </c>
       <c r="E52" s="3">
-        <v>64400</v>
+        <v>60500</v>
       </c>
       <c r="F52" s="3">
-        <v>48300</v>
+        <v>45400</v>
       </c>
       <c r="G52" s="3">
-        <v>71200</v>
+        <v>67000</v>
       </c>
       <c r="H52" s="3">
-        <v>51800</v>
+        <v>48700</v>
       </c>
       <c r="I52" s="3">
-        <v>34200</v>
+        <v>32200</v>
       </c>
       <c r="J52" s="3">
-        <v>20700</v>
+        <v>19400</v>
       </c>
       <c r="K52" s="3">
         <v>9100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6206300</v>
+        <v>5836000</v>
       </c>
       <c r="E54" s="3">
-        <v>5805800</v>
+        <v>5459400</v>
       </c>
       <c r="F54" s="3">
-        <v>4613500</v>
+        <v>4338200</v>
       </c>
       <c r="G54" s="3">
-        <v>4290000</v>
+        <v>4034100</v>
       </c>
       <c r="H54" s="3">
-        <v>3554800</v>
+        <v>3342700</v>
       </c>
       <c r="I54" s="3">
-        <v>1387200</v>
+        <v>1304400</v>
       </c>
       <c r="J54" s="3">
-        <v>1353900</v>
+        <v>1273100</v>
       </c>
       <c r="K54" s="3">
         <v>1751300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400900</v>
+        <v>377000</v>
       </c>
       <c r="E57" s="3">
-        <v>369500</v>
+        <v>347400</v>
       </c>
       <c r="F57" s="3">
-        <v>383100</v>
+        <v>360300</v>
       </c>
       <c r="G57" s="3">
-        <v>471700</v>
+        <v>443500</v>
       </c>
       <c r="H57" s="3">
-        <v>630800</v>
+        <v>593200</v>
       </c>
       <c r="I57" s="3">
-        <v>79100</v>
+        <v>74300</v>
       </c>
       <c r="J57" s="3">
-        <v>89100</v>
+        <v>83700</v>
       </c>
       <c r="K57" s="3">
         <v>94900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1035600</v>
+        <v>973800</v>
       </c>
       <c r="E58" s="3">
-        <v>955200</v>
+        <v>898200</v>
       </c>
       <c r="F58" s="3">
-        <v>580800</v>
+        <v>546100</v>
       </c>
       <c r="G58" s="3">
-        <v>386400</v>
+        <v>363300</v>
       </c>
       <c r="H58" s="3">
-        <v>98600</v>
+        <v>92700</v>
       </c>
       <c r="I58" s="3">
-        <v>143500</v>
+        <v>134900</v>
       </c>
       <c r="J58" s="3">
-        <v>114900</v>
+        <v>108100</v>
       </c>
       <c r="K58" s="3">
         <v>181400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>281500</v>
+        <v>264700</v>
       </c>
       <c r="E59" s="3">
-        <v>269100</v>
+        <v>253100</v>
       </c>
       <c r="F59" s="3">
-        <v>288300</v>
+        <v>271100</v>
       </c>
       <c r="G59" s="3">
-        <v>141000</v>
+        <v>132600</v>
       </c>
       <c r="H59" s="3">
-        <v>126400</v>
+        <v>118900</v>
       </c>
       <c r="I59" s="3">
-        <v>69700</v>
+        <v>65500</v>
       </c>
       <c r="J59" s="3">
-        <v>70200</v>
+        <v>66100</v>
       </c>
       <c r="K59" s="3">
         <v>116600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1718100</v>
+        <v>1615600</v>
       </c>
       <c r="E60" s="3">
-        <v>1593800</v>
+        <v>1498700</v>
       </c>
       <c r="F60" s="3">
-        <v>1252200</v>
+        <v>1177500</v>
       </c>
       <c r="G60" s="3">
-        <v>999000</v>
+        <v>939400</v>
       </c>
       <c r="H60" s="3">
-        <v>855900</v>
+        <v>804800</v>
       </c>
       <c r="I60" s="3">
-        <v>292200</v>
+        <v>274800</v>
       </c>
       <c r="J60" s="3">
-        <v>274200</v>
+        <v>257900</v>
       </c>
       <c r="K60" s="3">
         <v>392800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1721100</v>
+        <v>1618400</v>
       </c>
       <c r="E61" s="3">
-        <v>1781100</v>
+        <v>1674900</v>
       </c>
       <c r="F61" s="3">
-        <v>1121100</v>
+        <v>1054200</v>
       </c>
       <c r="G61" s="3">
-        <v>941500</v>
+        <v>885300</v>
       </c>
       <c r="H61" s="3">
-        <v>473500</v>
+        <v>445300</v>
       </c>
       <c r="I61" s="3">
-        <v>73100</v>
+        <v>68700</v>
       </c>
       <c r="J61" s="3">
-        <v>97200</v>
+        <v>91400</v>
       </c>
       <c r="K61" s="3">
         <v>103400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>312100</v>
+        <v>293500</v>
       </c>
       <c r="E62" s="3">
-        <v>251400</v>
+        <v>236400</v>
       </c>
       <c r="F62" s="3">
-        <v>197600</v>
+        <v>185800</v>
       </c>
       <c r="G62" s="3">
-        <v>168000</v>
+        <v>158000</v>
       </c>
       <c r="H62" s="3">
-        <v>270500</v>
+        <v>254400</v>
       </c>
       <c r="I62" s="3">
-        <v>43600</v>
+        <v>41000</v>
       </c>
       <c r="J62" s="3">
-        <v>45200</v>
+        <v>42500</v>
       </c>
       <c r="K62" s="3">
         <v>58900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3756300</v>
+        <v>3532200</v>
       </c>
       <c r="E66" s="3">
-        <v>3644300</v>
+        <v>3426800</v>
       </c>
       <c r="F66" s="3">
-        <v>2578500</v>
+        <v>2424700</v>
       </c>
       <c r="G66" s="3">
-        <v>2116300</v>
+        <v>1990000</v>
       </c>
       <c r="H66" s="3">
-        <v>1608600</v>
+        <v>1512700</v>
       </c>
       <c r="I66" s="3">
-        <v>386400</v>
+        <v>363400</v>
       </c>
       <c r="J66" s="3">
-        <v>405100</v>
+        <v>380900</v>
       </c>
       <c r="K66" s="3">
         <v>542000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2168900</v>
+        <v>2039400</v>
       </c>
       <c r="E72" s="3">
-        <v>1845700</v>
+        <v>1735600</v>
       </c>
       <c r="F72" s="3">
-        <v>1758800</v>
+        <v>1653900</v>
       </c>
       <c r="G72" s="3">
-        <v>1897400</v>
+        <v>1784200</v>
       </c>
       <c r="H72" s="3">
-        <v>1690200</v>
+        <v>1589400</v>
       </c>
       <c r="I72" s="3">
-        <v>775500</v>
+        <v>729200</v>
       </c>
       <c r="J72" s="3">
-        <v>723500</v>
+        <v>680400</v>
       </c>
       <c r="K72" s="3">
         <v>1250000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2450000</v>
+        <v>2303800</v>
       </c>
       <c r="E76" s="3">
-        <v>2161500</v>
+        <v>2032600</v>
       </c>
       <c r="F76" s="3">
-        <v>2034900</v>
+        <v>1913500</v>
       </c>
       <c r="G76" s="3">
-        <v>2173800</v>
+        <v>2044100</v>
       </c>
       <c r="H76" s="3">
-        <v>1946100</v>
+        <v>1830000</v>
       </c>
       <c r="I76" s="3">
-        <v>1000700</v>
+        <v>941000</v>
       </c>
       <c r="J76" s="3">
-        <v>948800</v>
+        <v>892200</v>
       </c>
       <c r="K76" s="3">
         <v>1209300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>440700</v>
+        <v>414400</v>
       </c>
       <c r="E81" s="3">
-        <v>274400</v>
+        <v>258000</v>
       </c>
       <c r="F81" s="3">
-        <v>268700</v>
+        <v>252700</v>
       </c>
       <c r="G81" s="3">
-        <v>205200</v>
+        <v>193000</v>
       </c>
       <c r="H81" s="3">
-        <v>281000</v>
+        <v>264200</v>
       </c>
       <c r="I81" s="3">
-        <v>117400</v>
+        <v>110400</v>
       </c>
       <c r="J81" s="3">
-        <v>166700</v>
+        <v>156800</v>
       </c>
       <c r="K81" s="3">
         <v>193600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>682300</v>
+        <v>641600</v>
       </c>
       <c r="E83" s="3">
-        <v>577000</v>
+        <v>542600</v>
       </c>
       <c r="F83" s="3">
-        <v>346900</v>
+        <v>326200</v>
       </c>
       <c r="G83" s="3">
-        <v>290400</v>
+        <v>273100</v>
       </c>
       <c r="H83" s="3">
-        <v>223200</v>
+        <v>209800</v>
       </c>
       <c r="I83" s="3">
-        <v>101500</v>
+        <v>95400</v>
       </c>
       <c r="J83" s="3">
-        <v>112200</v>
+        <v>105500</v>
       </c>
       <c r="K83" s="3">
         <v>131700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1341400</v>
+        <v>1261400</v>
       </c>
       <c r="E89" s="3">
-        <v>890800</v>
+        <v>837700</v>
       </c>
       <c r="F89" s="3">
-        <v>496100</v>
+        <v>466500</v>
       </c>
       <c r="G89" s="3">
-        <v>165400</v>
+        <v>155500</v>
       </c>
       <c r="H89" s="3">
-        <v>361500</v>
+        <v>339900</v>
       </c>
       <c r="I89" s="3">
-        <v>108900</v>
+        <v>102400</v>
       </c>
       <c r="J89" s="3">
-        <v>134900</v>
+        <v>126900</v>
       </c>
       <c r="K89" s="3">
         <v>198500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-433800</v>
+        <v>-407900</v>
       </c>
       <c r="E91" s="3">
-        <v>-401900</v>
+        <v>-378000</v>
       </c>
       <c r="F91" s="3">
-        <v>-398800</v>
+        <v>-375000</v>
       </c>
       <c r="G91" s="3">
-        <v>-349200</v>
+        <v>-328400</v>
       </c>
       <c r="H91" s="3">
-        <v>-289900</v>
+        <v>-272600</v>
       </c>
       <c r="I91" s="3">
-        <v>-91000</v>
+        <v>-85500</v>
       </c>
       <c r="J91" s="3">
-        <v>-85700</v>
+        <v>-80600</v>
       </c>
       <c r="K91" s="3">
         <v>-126800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-526900</v>
+        <v>-495500</v>
       </c>
       <c r="E94" s="3">
-        <v>-715100</v>
+        <v>-672400</v>
       </c>
       <c r="F94" s="3">
-        <v>-523700</v>
+        <v>-492500</v>
       </c>
       <c r="G94" s="3">
-        <v>-487000</v>
+        <v>-458000</v>
       </c>
       <c r="H94" s="3">
-        <v>-587100</v>
+        <v>-552000</v>
       </c>
       <c r="I94" s="3">
-        <v>-77800</v>
+        <v>-73200</v>
       </c>
       <c r="J94" s="3">
-        <v>-63800</v>
+        <v>-60000</v>
       </c>
       <c r="K94" s="3">
         <v>50900</v>
@@ -3298,19 +3298,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-153100</v>
+        <v>-144000</v>
       </c>
       <c r="E96" s="3">
-        <v>-264600</v>
+        <v>-248900</v>
       </c>
       <c r="F96" s="3">
-        <v>-414200</v>
+        <v>-389500</v>
       </c>
       <c r="G96" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="H96" s="3">
-        <v>-546500</v>
+        <v>-513900</v>
       </c>
       <c r="I96" s="3">
         <v>-500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-472200</v>
+        <v>-444000</v>
       </c>
       <c r="E100" s="3">
-        <v>-72500</v>
+        <v>-68200</v>
       </c>
       <c r="F100" s="3">
-        <v>-212700</v>
+        <v>-200000</v>
       </c>
       <c r="G100" s="3">
-        <v>656900</v>
+        <v>617800</v>
       </c>
       <c r="H100" s="3">
-        <v>-663500</v>
+        <v>-623900</v>
       </c>
       <c r="I100" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="J100" s="3">
-        <v>-16500</v>
+        <v>-15500</v>
       </c>
       <c r="K100" s="3">
         <v>-28600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40500</v>
+        <v>38100</v>
       </c>
       <c r="E101" s="3">
-        <v>264300</v>
+        <v>248600</v>
       </c>
       <c r="F101" s="3">
-        <v>58400</v>
+        <v>54900</v>
       </c>
       <c r="G101" s="3">
-        <v>90200</v>
+        <v>84800</v>
       </c>
       <c r="H101" s="3">
-        <v>59200</v>
+        <v>55700</v>
       </c>
       <c r="I101" s="3">
-        <v>-24700</v>
+        <v>-23200</v>
       </c>
       <c r="J101" s="3">
-        <v>-70700</v>
+        <v>-66400</v>
       </c>
       <c r="K101" s="3">
         <v>16200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>382800</v>
+        <v>359900</v>
       </c>
       <c r="E102" s="3">
-        <v>367500</v>
+        <v>345600</v>
       </c>
       <c r="F102" s="3">
-        <v>-181900</v>
+        <v>-171100</v>
       </c>
       <c r="G102" s="3">
-        <v>425400</v>
+        <v>400000</v>
       </c>
       <c r="H102" s="3">
-        <v>-829900</v>
+        <v>-780400</v>
       </c>
       <c r="I102" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="J102" s="3">
-        <v>-16000</v>
+        <v>-15000</v>
       </c>
       <c r="K102" s="3">
         <v>237000</v>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>TKC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3209000</v>
+        <v>3665000</v>
       </c>
       <c r="E8" s="3">
-        <v>2718200</v>
+        <v>3165500</v>
       </c>
       <c r="F8" s="3">
-        <v>2250900</v>
+        <v>2681400</v>
       </c>
       <c r="G8" s="3">
-        <v>1823700</v>
+        <v>2220400</v>
       </c>
       <c r="H8" s="3">
-        <v>1630100</v>
+        <v>1799000</v>
       </c>
       <c r="I8" s="3">
-        <v>703800</v>
+        <v>1608100</v>
       </c>
       <c r="J8" s="3">
+        <v>694200</v>
+      </c>
+      <c r="K8" s="3">
         <v>762800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>979900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>920800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2180900</v>
+        <v>2560900</v>
       </c>
       <c r="E9" s="3">
-        <v>1805900</v>
+        <v>2151300</v>
       </c>
       <c r="F9" s="3">
-        <v>1449000</v>
+        <v>1781400</v>
       </c>
       <c r="G9" s="3">
-        <v>1176900</v>
+        <v>1429300</v>
       </c>
       <c r="H9" s="3">
-        <v>991500</v>
+        <v>1161000</v>
       </c>
       <c r="I9" s="3">
-        <v>430900</v>
+        <v>978000</v>
       </c>
       <c r="J9" s="3">
+        <v>425100</v>
+      </c>
+      <c r="K9" s="3">
         <v>471500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>605100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>579300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1028100</v>
+        <v>1104100</v>
       </c>
       <c r="E10" s="3">
-        <v>912300</v>
+        <v>1014200</v>
       </c>
       <c r="F10" s="3">
-        <v>801900</v>
+        <v>900000</v>
       </c>
       <c r="G10" s="3">
-        <v>646800</v>
+        <v>791100</v>
       </c>
       <c r="H10" s="3">
-        <v>638700</v>
+        <v>638000</v>
       </c>
       <c r="I10" s="3">
-        <v>272900</v>
+        <v>630000</v>
       </c>
       <c r="J10" s="3">
+        <v>269200</v>
+      </c>
+      <c r="K10" s="3">
         <v>291300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>374800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>341600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>85400</v>
+        <v>96800</v>
       </c>
       <c r="E14" s="3">
-        <v>41300</v>
+        <v>84300</v>
       </c>
       <c r="F14" s="3">
-        <v>78500</v>
+        <v>40700</v>
       </c>
       <c r="G14" s="3">
-        <v>18700</v>
+        <v>77400</v>
       </c>
       <c r="H14" s="3">
-        <v>10600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>18400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>4300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17300</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2410200</v>
+        <v>2677900</v>
       </c>
       <c r="E17" s="3">
-        <v>1951900</v>
+        <v>2377500</v>
       </c>
       <c r="F17" s="3">
-        <v>1772700</v>
+        <v>1925400</v>
       </c>
       <c r="G17" s="3">
-        <v>1383200</v>
+        <v>1748700</v>
       </c>
       <c r="H17" s="3">
-        <v>1196000</v>
+        <v>1364400</v>
       </c>
       <c r="I17" s="3">
-        <v>583500</v>
+        <v>1179800</v>
       </c>
       <c r="J17" s="3">
+        <v>575600</v>
+      </c>
+      <c r="K17" s="3">
         <v>634900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>819400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>806800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>798800</v>
+        <v>987200</v>
       </c>
       <c r="E18" s="3">
-        <v>766300</v>
+        <v>788000</v>
       </c>
       <c r="F18" s="3">
-        <v>478200</v>
+        <v>755900</v>
       </c>
       <c r="G18" s="3">
-        <v>440500</v>
+        <v>471700</v>
       </c>
       <c r="H18" s="3">
-        <v>434100</v>
+        <v>434600</v>
       </c>
       <c r="I18" s="3">
-        <v>120300</v>
+        <v>428200</v>
       </c>
       <c r="J18" s="3">
+        <v>118600</v>
+      </c>
+      <c r="K18" s="3">
         <v>127900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>160500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>114100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-176900</v>
+        <v>-278500</v>
       </c>
       <c r="E20" s="3">
-        <v>-323900</v>
+        <v>-174500</v>
       </c>
       <c r="F20" s="3">
-        <v>-99600</v>
+        <v>-319500</v>
       </c>
       <c r="G20" s="3">
-        <v>-125600</v>
+        <v>-98200</v>
       </c>
       <c r="H20" s="3">
-        <v>-114300</v>
+        <v>-123900</v>
       </c>
       <c r="I20" s="3">
-        <v>14900</v>
+        <v>-112700</v>
       </c>
       <c r="J20" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K20" s="3">
         <v>75700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>98600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>62100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1260600</v>
+        <v>1460300</v>
       </c>
       <c r="E21" s="3">
-        <v>982500</v>
+        <v>1248200</v>
       </c>
       <c r="F21" s="3">
-        <v>703300</v>
+        <v>973200</v>
       </c>
       <c r="G21" s="3">
-        <v>586800</v>
+        <v>696100</v>
       </c>
       <c r="H21" s="3">
-        <v>528800</v>
+        <v>580800</v>
       </c>
       <c r="I21" s="3">
-        <v>230200</v>
+        <v>523100</v>
       </c>
       <c r="J21" s="3">
+        <v>227800</v>
+      </c>
+      <c r="K21" s="3">
         <v>308700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>391000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>326600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>201900</v>
+        <v>126000</v>
       </c>
       <c r="E22" s="3">
-        <v>101200</v>
+        <v>199200</v>
       </c>
       <c r="F22" s="3">
-        <v>45500</v>
+        <v>99800</v>
       </c>
       <c r="G22" s="3">
-        <v>55500</v>
+        <v>44800</v>
       </c>
       <c r="H22" s="3">
-        <v>38200</v>
+        <v>54700</v>
       </c>
       <c r="I22" s="3">
-        <v>6900</v>
+        <v>37700</v>
       </c>
       <c r="J22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K22" s="3">
         <v>7000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>420000</v>
+        <v>582700</v>
       </c>
       <c r="E23" s="3">
-        <v>341200</v>
+        <v>414300</v>
       </c>
       <c r="F23" s="3">
-        <v>333100</v>
+        <v>336600</v>
       </c>
       <c r="G23" s="3">
-        <v>259400</v>
+        <v>328600</v>
       </c>
       <c r="H23" s="3">
-        <v>281600</v>
+        <v>255900</v>
       </c>
       <c r="I23" s="3">
-        <v>128300</v>
+        <v>277800</v>
       </c>
       <c r="J23" s="3">
+        <v>126600</v>
+      </c>
+      <c r="K23" s="3">
         <v>196600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>240300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>167000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100300</v>
+        <v>48800</v>
       </c>
       <c r="E24" s="3">
-        <v>63300</v>
+        <v>98900</v>
       </c>
       <c r="F24" s="3">
-        <v>73000</v>
+        <v>62400</v>
       </c>
       <c r="G24" s="3">
-        <v>54500</v>
+        <v>72000</v>
       </c>
       <c r="H24" s="3">
-        <v>85200</v>
+        <v>53700</v>
       </c>
       <c r="I24" s="3">
-        <v>42700</v>
+        <v>84100</v>
       </c>
       <c r="J24" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K24" s="3">
         <v>39700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>319700</v>
+        <v>533900</v>
       </c>
       <c r="E26" s="3">
-        <v>278000</v>
+        <v>315400</v>
       </c>
       <c r="F26" s="3">
-        <v>260100</v>
+        <v>274200</v>
       </c>
       <c r="G26" s="3">
-        <v>205000</v>
+        <v>256600</v>
       </c>
       <c r="H26" s="3">
-        <v>196400</v>
+        <v>202200</v>
       </c>
       <c r="I26" s="3">
-        <v>85600</v>
+        <v>193700</v>
       </c>
       <c r="J26" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K26" s="3">
         <v>157000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>191600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>119000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>315800</v>
+        <v>533600</v>
       </c>
       <c r="E27" s="3">
-        <v>258000</v>
+        <v>311600</v>
       </c>
       <c r="F27" s="3">
-        <v>252700</v>
+        <v>254500</v>
       </c>
       <c r="G27" s="3">
-        <v>198400</v>
+        <v>249200</v>
       </c>
       <c r="H27" s="3">
-        <v>217300</v>
+        <v>195700</v>
       </c>
       <c r="I27" s="3">
-        <v>110400</v>
+        <v>214400</v>
       </c>
       <c r="J27" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K27" s="3">
         <v>156800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>193600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>123400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,29 +1403,32 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>98600</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>97300</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-5400</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>46900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>-5300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>46300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>176900</v>
+        <v>278500</v>
       </c>
       <c r="E32" s="3">
-        <v>323900</v>
+        <v>174500</v>
       </c>
       <c r="F32" s="3">
-        <v>99600</v>
+        <v>319500</v>
       </c>
       <c r="G32" s="3">
-        <v>125600</v>
+        <v>98200</v>
       </c>
       <c r="H32" s="3">
-        <v>114300</v>
+        <v>123900</v>
       </c>
       <c r="I32" s="3">
-        <v>-14900</v>
+        <v>112700</v>
       </c>
       <c r="J32" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-75700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-98600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-62100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>414400</v>
+        <v>533600</v>
       </c>
       <c r="E33" s="3">
-        <v>258000</v>
+        <v>408800</v>
       </c>
       <c r="F33" s="3">
-        <v>252700</v>
+        <v>254500</v>
       </c>
       <c r="G33" s="3">
-        <v>193000</v>
+        <v>249200</v>
       </c>
       <c r="H33" s="3">
-        <v>264200</v>
+        <v>190400</v>
       </c>
       <c r="I33" s="3">
-        <v>110400</v>
+        <v>260700</v>
       </c>
       <c r="J33" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K33" s="3">
         <v>156800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>193600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>123400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>414400</v>
+        <v>533600</v>
       </c>
       <c r="E35" s="3">
-        <v>258000</v>
+        <v>408800</v>
       </c>
       <c r="F35" s="3">
-        <v>252700</v>
+        <v>254500</v>
       </c>
       <c r="G35" s="3">
-        <v>193000</v>
+        <v>249200</v>
       </c>
       <c r="H35" s="3">
-        <v>264200</v>
+        <v>190400</v>
       </c>
       <c r="I35" s="3">
-        <v>110400</v>
+        <v>260700</v>
       </c>
       <c r="J35" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K35" s="3">
         <v>156800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>193600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>123400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80700</v>
+        <v>124000</v>
       </c>
       <c r="E41" s="3">
-        <v>75700</v>
+        <v>79600</v>
       </c>
       <c r="F41" s="3">
-        <v>77100</v>
+        <v>74700</v>
       </c>
       <c r="G41" s="3">
+        <v>76000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>71900</v>
+      </c>
+      <c r="I41" s="3">
         <v>72900</v>
       </c>
-      <c r="H41" s="3">
-        <v>73900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>31900</v>
-      </c>
       <c r="J41" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K41" s="3">
         <v>26400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1271100</v>
+        <v>1458000</v>
       </c>
       <c r="E42" s="3">
-        <v>878000</v>
+        <v>1253900</v>
       </c>
       <c r="F42" s="3">
-        <v>525900</v>
+        <v>866100</v>
       </c>
       <c r="G42" s="3">
-        <v>699800</v>
+        <v>518800</v>
       </c>
       <c r="H42" s="3">
-        <v>298700</v>
+        <v>690300</v>
       </c>
       <c r="I42" s="3">
-        <v>466400</v>
+        <v>294700</v>
       </c>
       <c r="J42" s="3">
+        <v>460100</v>
+      </c>
+      <c r="K42" s="3">
         <v>463200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>659500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>550400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>930800</v>
+        <v>831400</v>
       </c>
       <c r="E43" s="3">
-        <v>936800</v>
+        <v>918100</v>
       </c>
       <c r="F43" s="3">
-        <v>812700</v>
+        <v>924100</v>
       </c>
       <c r="G43" s="3">
-        <v>633400</v>
+        <v>801700</v>
       </c>
       <c r="H43" s="3">
-        <v>583300</v>
+        <v>624800</v>
       </c>
       <c r="I43" s="3">
-        <v>204500</v>
+        <v>575400</v>
       </c>
       <c r="J43" s="3">
+        <v>201700</v>
+      </c>
+      <c r="K43" s="3">
         <v>175100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>215500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>158300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22800</v>
+        <v>25700</v>
       </c>
       <c r="E44" s="3">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="F44" s="3">
-        <v>13300</v>
+        <v>22700</v>
       </c>
       <c r="G44" s="3">
-        <v>16800</v>
+        <v>13100</v>
       </c>
       <c r="H44" s="3">
-        <v>9600</v>
+        <v>16600</v>
       </c>
       <c r="I44" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J44" s="3">
         <v>3900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>162500</v>
+        <v>153100</v>
       </c>
       <c r="E45" s="3">
-        <v>427300</v>
+        <v>160300</v>
       </c>
       <c r="F45" s="3">
-        <v>367100</v>
+        <v>421500</v>
       </c>
       <c r="G45" s="3">
-        <v>281500</v>
+        <v>362100</v>
       </c>
       <c r="H45" s="3">
-        <v>157200</v>
+        <v>277700</v>
       </c>
       <c r="I45" s="3">
-        <v>25900</v>
+        <v>155100</v>
       </c>
       <c r="J45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K45" s="3">
         <v>27400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2467900</v>
+        <v>2592100</v>
       </c>
       <c r="E46" s="3">
-        <v>2340900</v>
+        <v>2434500</v>
       </c>
       <c r="F46" s="3">
-        <v>1796100</v>
+        <v>2309200</v>
       </c>
       <c r="G46" s="3">
-        <v>1704400</v>
+        <v>1771700</v>
       </c>
       <c r="H46" s="3">
-        <v>1122800</v>
+        <v>1681300</v>
       </c>
       <c r="I46" s="3">
-        <v>732600</v>
+        <v>1107500</v>
       </c>
       <c r="J46" s="3">
+        <v>722700</v>
+      </c>
+      <c r="K46" s="3">
         <v>696400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>916100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>732700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>55000</v>
+        <v>85800</v>
       </c>
       <c r="E47" s="3">
-        <v>143300</v>
+        <v>54200</v>
       </c>
       <c r="F47" s="3">
-        <v>198000</v>
+        <v>141400</v>
       </c>
       <c r="G47" s="3">
-        <v>159200</v>
+        <v>195300</v>
       </c>
       <c r="H47" s="3">
-        <v>245300</v>
+        <v>157000</v>
       </c>
       <c r="I47" s="3">
-        <v>79700</v>
+        <v>242000</v>
       </c>
       <c r="J47" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K47" s="3">
         <v>64200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>98200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>103000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1820200</v>
+        <v>2052200</v>
       </c>
       <c r="E48" s="3">
-        <v>1589200</v>
+        <v>1795500</v>
       </c>
       <c r="F48" s="3">
-        <v>1234000</v>
+        <v>1567700</v>
       </c>
       <c r="G48" s="3">
-        <v>1052200</v>
+        <v>1217300</v>
       </c>
       <c r="H48" s="3">
-        <v>876500</v>
+        <v>1037900</v>
       </c>
       <c r="I48" s="3">
-        <v>325200</v>
+        <v>864600</v>
       </c>
       <c r="J48" s="3">
+        <v>320800</v>
+      </c>
+      <c r="K48" s="3">
         <v>351800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>511400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>444800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1443600</v>
+        <v>1557500</v>
       </c>
       <c r="E49" s="3">
-        <v>1325400</v>
+        <v>1424000</v>
       </c>
       <c r="F49" s="3">
-        <v>1064700</v>
+        <v>1307500</v>
       </c>
       <c r="G49" s="3">
-        <v>1051400</v>
+        <v>1050300</v>
       </c>
       <c r="H49" s="3">
-        <v>1049400</v>
+        <v>1037200</v>
       </c>
       <c r="I49" s="3">
-        <v>134700</v>
+        <v>1035200</v>
       </c>
       <c r="J49" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K49" s="3">
         <v>141300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>216500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>204600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49300</v>
+        <v>197600</v>
       </c>
       <c r="E52" s="3">
-        <v>60500</v>
+        <v>48600</v>
       </c>
       <c r="F52" s="3">
-        <v>45400</v>
+        <v>59700</v>
       </c>
       <c r="G52" s="3">
-        <v>67000</v>
+        <v>44800</v>
       </c>
       <c r="H52" s="3">
-        <v>48700</v>
+        <v>66000</v>
       </c>
       <c r="I52" s="3">
-        <v>32200</v>
+        <v>48000</v>
       </c>
       <c r="J52" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K52" s="3">
         <v>19400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5836000</v>
+        <v>6485200</v>
       </c>
       <c r="E54" s="3">
-        <v>5459400</v>
+        <v>5756900</v>
       </c>
       <c r="F54" s="3">
-        <v>4338200</v>
+        <v>5385400</v>
       </c>
       <c r="G54" s="3">
-        <v>4034100</v>
+        <v>4279400</v>
       </c>
       <c r="H54" s="3">
-        <v>3342700</v>
+        <v>3979400</v>
       </c>
       <c r="I54" s="3">
-        <v>1304400</v>
+        <v>3297400</v>
       </c>
       <c r="J54" s="3">
+        <v>1286700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1273100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1751300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1493600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>377000</v>
+        <v>466600</v>
       </c>
       <c r="E57" s="3">
-        <v>347400</v>
+        <v>371900</v>
       </c>
       <c r="F57" s="3">
-        <v>360300</v>
+        <v>342700</v>
       </c>
       <c r="G57" s="3">
-        <v>443500</v>
+        <v>355400</v>
       </c>
       <c r="H57" s="3">
-        <v>593200</v>
+        <v>437500</v>
       </c>
       <c r="I57" s="3">
-        <v>74300</v>
+        <v>585200</v>
       </c>
       <c r="J57" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K57" s="3">
         <v>83700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>94900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>87100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>973800</v>
+        <v>659000</v>
       </c>
       <c r="E58" s="3">
-        <v>898200</v>
+        <v>960600</v>
       </c>
       <c r="F58" s="3">
-        <v>546100</v>
+        <v>886000</v>
       </c>
       <c r="G58" s="3">
-        <v>363300</v>
+        <v>538700</v>
       </c>
       <c r="H58" s="3">
-        <v>92700</v>
+        <v>358400</v>
       </c>
       <c r="I58" s="3">
-        <v>134900</v>
+        <v>91500</v>
       </c>
       <c r="J58" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K58" s="3">
         <v>108100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>181400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>133300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>264700</v>
+        <v>330800</v>
       </c>
       <c r="E59" s="3">
-        <v>253100</v>
+        <v>261200</v>
       </c>
       <c r="F59" s="3">
-        <v>271100</v>
+        <v>249700</v>
       </c>
       <c r="G59" s="3">
-        <v>132600</v>
+        <v>267400</v>
       </c>
       <c r="H59" s="3">
-        <v>118900</v>
+        <v>130800</v>
       </c>
       <c r="I59" s="3">
-        <v>65500</v>
+        <v>117300</v>
       </c>
       <c r="J59" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K59" s="3">
         <v>66100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>116600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>118400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1615600</v>
+        <v>1456400</v>
       </c>
       <c r="E60" s="3">
-        <v>1498700</v>
+        <v>1593700</v>
       </c>
       <c r="F60" s="3">
-        <v>1177500</v>
+        <v>1478400</v>
       </c>
       <c r="G60" s="3">
-        <v>939400</v>
+        <v>1161600</v>
       </c>
       <c r="H60" s="3">
-        <v>804800</v>
+        <v>926700</v>
       </c>
       <c r="I60" s="3">
-        <v>274800</v>
+        <v>793900</v>
       </c>
       <c r="J60" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K60" s="3">
         <v>257900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>392800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>338700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1618400</v>
+        <v>2059400</v>
       </c>
       <c r="E61" s="3">
-        <v>1674900</v>
+        <v>1596500</v>
       </c>
       <c r="F61" s="3">
-        <v>1054200</v>
+        <v>1652200</v>
       </c>
       <c r="G61" s="3">
-        <v>885300</v>
+        <v>1039900</v>
       </c>
       <c r="H61" s="3">
-        <v>445300</v>
+        <v>873300</v>
       </c>
       <c r="I61" s="3">
-        <v>68700</v>
+        <v>439200</v>
       </c>
       <c r="J61" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K61" s="3">
         <v>91400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>103400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>173600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>293500</v>
+        <v>351900</v>
       </c>
       <c r="E62" s="3">
-        <v>236400</v>
+        <v>289500</v>
       </c>
       <c r="F62" s="3">
-        <v>185800</v>
+        <v>233200</v>
       </c>
       <c r="G62" s="3">
-        <v>158000</v>
+        <v>183300</v>
       </c>
       <c r="H62" s="3">
-        <v>254400</v>
+        <v>155900</v>
       </c>
       <c r="I62" s="3">
-        <v>41000</v>
+        <v>250900</v>
       </c>
       <c r="J62" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K62" s="3">
         <v>42500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>58900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3532200</v>
+        <v>3867800</v>
       </c>
       <c r="E66" s="3">
-        <v>3426800</v>
+        <v>3484300</v>
       </c>
       <c r="F66" s="3">
-        <v>2424700</v>
+        <v>3380400</v>
       </c>
       <c r="G66" s="3">
-        <v>1990000</v>
+        <v>2391800</v>
       </c>
       <c r="H66" s="3">
-        <v>1512700</v>
+        <v>1963000</v>
       </c>
       <c r="I66" s="3">
-        <v>363400</v>
+        <v>1492200</v>
       </c>
       <c r="J66" s="3">
+        <v>358500</v>
+      </c>
+      <c r="K66" s="3">
         <v>380900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>542000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>542800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2039400</v>
+        <v>2443200</v>
       </c>
       <c r="E72" s="3">
-        <v>1735600</v>
+        <v>2011800</v>
       </c>
       <c r="F72" s="3">
-        <v>1653900</v>
+        <v>1712000</v>
       </c>
       <c r="G72" s="3">
-        <v>1784200</v>
+        <v>1631500</v>
       </c>
       <c r="H72" s="3">
-        <v>1589400</v>
+        <v>1760000</v>
       </c>
       <c r="I72" s="3">
-        <v>729200</v>
+        <v>1567800</v>
       </c>
       <c r="J72" s="3">
+        <v>719300</v>
+      </c>
+      <c r="K72" s="3">
         <v>680400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1250000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1041500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2303800</v>
+        <v>2617400</v>
       </c>
       <c r="E76" s="3">
-        <v>2032600</v>
+        <v>2272600</v>
       </c>
       <c r="F76" s="3">
-        <v>1913500</v>
+        <v>2005000</v>
       </c>
       <c r="G76" s="3">
-        <v>2044100</v>
+        <v>1887600</v>
       </c>
       <c r="H76" s="3">
-        <v>1830000</v>
+        <v>2016400</v>
       </c>
       <c r="I76" s="3">
-        <v>941000</v>
+        <v>1805200</v>
       </c>
       <c r="J76" s="3">
+        <v>928300</v>
+      </c>
+      <c r="K76" s="3">
         <v>892200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1209300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>950800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>414400</v>
+        <v>533600</v>
       </c>
       <c r="E81" s="3">
-        <v>258000</v>
+        <v>408800</v>
       </c>
       <c r="F81" s="3">
-        <v>252700</v>
+        <v>254500</v>
       </c>
       <c r="G81" s="3">
-        <v>193000</v>
+        <v>249200</v>
       </c>
       <c r="H81" s="3">
-        <v>264200</v>
+        <v>190400</v>
       </c>
       <c r="I81" s="3">
-        <v>110400</v>
+        <v>260700</v>
       </c>
       <c r="J81" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K81" s="3">
         <v>156800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>193600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>123400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>641600</v>
+        <v>749600</v>
       </c>
       <c r="E83" s="3">
-        <v>542600</v>
+        <v>632900</v>
       </c>
       <c r="F83" s="3">
-        <v>326200</v>
+        <v>535200</v>
       </c>
       <c r="G83" s="3">
-        <v>273100</v>
+        <v>321800</v>
       </c>
       <c r="H83" s="3">
-        <v>209800</v>
+        <v>269400</v>
       </c>
       <c r="I83" s="3">
-        <v>95400</v>
+        <v>207000</v>
       </c>
       <c r="J83" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K83" s="3">
         <v>105500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>131700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>151800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1261400</v>
+        <v>1774100</v>
       </c>
       <c r="E89" s="3">
-        <v>837700</v>
+        <v>1244300</v>
       </c>
       <c r="F89" s="3">
-        <v>466500</v>
+        <v>826300</v>
       </c>
       <c r="G89" s="3">
-        <v>155500</v>
+        <v>460200</v>
       </c>
       <c r="H89" s="3">
-        <v>339900</v>
+        <v>153400</v>
       </c>
       <c r="I89" s="3">
-        <v>102400</v>
+        <v>335300</v>
       </c>
       <c r="J89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="K89" s="3">
         <v>126900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>198500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>152000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-407900</v>
+        <v>-491700</v>
       </c>
       <c r="E91" s="3">
-        <v>-378000</v>
+        <v>-402400</v>
       </c>
       <c r="F91" s="3">
-        <v>-375000</v>
+        <v>-372800</v>
       </c>
       <c r="G91" s="3">
-        <v>-328400</v>
+        <v>-369900</v>
       </c>
       <c r="H91" s="3">
-        <v>-272600</v>
+        <v>-323900</v>
       </c>
       <c r="I91" s="3">
-        <v>-85500</v>
+        <v>-268900</v>
       </c>
       <c r="J91" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-80600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-126800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-141000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-495500</v>
+        <v>-979200</v>
       </c>
       <c r="E94" s="3">
-        <v>-672400</v>
+        <v>-488800</v>
       </c>
       <c r="F94" s="3">
-        <v>-492500</v>
+        <v>-663300</v>
       </c>
       <c r="G94" s="3">
-        <v>-458000</v>
+        <v>-485800</v>
       </c>
       <c r="H94" s="3">
-        <v>-552000</v>
+        <v>-451800</v>
       </c>
       <c r="I94" s="3">
-        <v>-73200</v>
+        <v>-544600</v>
       </c>
       <c r="J94" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-60000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>50900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-231500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-144000</v>
+        <v>-105600</v>
       </c>
       <c r="E96" s="3">
-        <v>-248900</v>
+        <v>-142000</v>
       </c>
       <c r="F96" s="3">
-        <v>-389500</v>
+        <v>-245500</v>
       </c>
       <c r="G96" s="3">
-        <v>-6600</v>
+        <v>-384200</v>
       </c>
       <c r="H96" s="3">
-        <v>-513900</v>
+        <v>-6500</v>
       </c>
       <c r="I96" s="3">
+        <v>-506900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-700</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-444000</v>
+        <v>-537400</v>
       </c>
       <c r="E100" s="3">
-        <v>-68200</v>
+        <v>-438000</v>
       </c>
       <c r="F100" s="3">
-        <v>-200000</v>
+        <v>-67300</v>
       </c>
       <c r="G100" s="3">
-        <v>617800</v>
+        <v>-197300</v>
       </c>
       <c r="H100" s="3">
-        <v>-623900</v>
+        <v>609400</v>
       </c>
       <c r="I100" s="3">
+        <v>-615500</v>
+      </c>
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>38100</v>
+        <v>-53200</v>
       </c>
       <c r="E101" s="3">
-        <v>248600</v>
+        <v>37600</v>
       </c>
       <c r="F101" s="3">
+        <v>245200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>54200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>83600</v>
+      </c>
+      <c r="I101" s="3">
         <v>54900</v>
       </c>
-      <c r="G101" s="3">
-        <v>84800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>55700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-23200</v>
-      </c>
       <c r="J101" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-66400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-55100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>359900</v>
+        <v>204200</v>
       </c>
       <c r="E102" s="3">
-        <v>345600</v>
+        <v>355100</v>
       </c>
       <c r="F102" s="3">
-        <v>-171100</v>
+        <v>340900</v>
       </c>
       <c r="G102" s="3">
-        <v>400000</v>
+        <v>-168700</v>
       </c>
       <c r="H102" s="3">
-        <v>-780400</v>
+        <v>394600</v>
       </c>
       <c r="I102" s="3">
-        <v>11000</v>
+        <v>-769800</v>
       </c>
       <c r="J102" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-15000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>237000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-129500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3665000</v>
+        <v>3444100</v>
       </c>
       <c r="E8" s="3">
-        <v>3165500</v>
+        <v>2974700</v>
       </c>
       <c r="F8" s="3">
-        <v>2681400</v>
+        <v>2519800</v>
       </c>
       <c r="G8" s="3">
-        <v>2220400</v>
+        <v>2086600</v>
       </c>
       <c r="H8" s="3">
-        <v>1799000</v>
+        <v>1690600</v>
       </c>
       <c r="I8" s="3">
-        <v>1608100</v>
+        <v>1511100</v>
       </c>
       <c r="J8" s="3">
-        <v>694200</v>
+        <v>652400</v>
       </c>
       <c r="K8" s="3">
         <v>762800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2560900</v>
+        <v>2406600</v>
       </c>
       <c r="E9" s="3">
-        <v>2151300</v>
+        <v>2021700</v>
       </c>
       <c r="F9" s="3">
-        <v>1781400</v>
+        <v>1674000</v>
       </c>
       <c r="G9" s="3">
-        <v>1429300</v>
+        <v>1343200</v>
       </c>
       <c r="H9" s="3">
-        <v>1161000</v>
+        <v>1091000</v>
       </c>
       <c r="I9" s="3">
-        <v>978000</v>
+        <v>919100</v>
       </c>
       <c r="J9" s="3">
-        <v>425100</v>
+        <v>399500</v>
       </c>
       <c r="K9" s="3">
         <v>471500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1104100</v>
+        <v>1037600</v>
       </c>
       <c r="E10" s="3">
-        <v>1014200</v>
+        <v>953100</v>
       </c>
       <c r="F10" s="3">
-        <v>900000</v>
+        <v>845700</v>
       </c>
       <c r="G10" s="3">
-        <v>791100</v>
+        <v>743400</v>
       </c>
       <c r="H10" s="3">
-        <v>638000</v>
+        <v>599600</v>
       </c>
       <c r="I10" s="3">
-        <v>630000</v>
+        <v>592000</v>
       </c>
       <c r="J10" s="3">
-        <v>269200</v>
+        <v>252900</v>
       </c>
       <c r="K10" s="3">
         <v>291300</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>96800</v>
+        <v>91000</v>
       </c>
       <c r="E14" s="3">
-        <v>84300</v>
+        <v>79200</v>
       </c>
       <c r="F14" s="3">
-        <v>40700</v>
+        <v>38200</v>
       </c>
       <c r="G14" s="3">
-        <v>77400</v>
+        <v>72700</v>
       </c>
       <c r="H14" s="3">
-        <v>18400</v>
+        <v>17300</v>
       </c>
       <c r="I14" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2677900</v>
+        <v>2516500</v>
       </c>
       <c r="E17" s="3">
-        <v>2377500</v>
+        <v>2234200</v>
       </c>
       <c r="F17" s="3">
-        <v>1925400</v>
+        <v>1809400</v>
       </c>
       <c r="G17" s="3">
-        <v>1748700</v>
+        <v>1643300</v>
       </c>
       <c r="H17" s="3">
-        <v>1364400</v>
+        <v>1282200</v>
       </c>
       <c r="I17" s="3">
-        <v>1179800</v>
+        <v>1108700</v>
       </c>
       <c r="J17" s="3">
-        <v>575600</v>
+        <v>540900</v>
       </c>
       <c r="K17" s="3">
         <v>634900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>987200</v>
+        <v>927700</v>
       </c>
       <c r="E18" s="3">
-        <v>788000</v>
+        <v>740500</v>
       </c>
       <c r="F18" s="3">
-        <v>755900</v>
+        <v>710400</v>
       </c>
       <c r="G18" s="3">
-        <v>471700</v>
+        <v>443300</v>
       </c>
       <c r="H18" s="3">
-        <v>434600</v>
+        <v>408400</v>
       </c>
       <c r="I18" s="3">
-        <v>428200</v>
+        <v>402400</v>
       </c>
       <c r="J18" s="3">
-        <v>118600</v>
+        <v>111500</v>
       </c>
       <c r="K18" s="3">
         <v>127900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-278500</v>
+        <v>-261700</v>
       </c>
       <c r="E20" s="3">
-        <v>-174500</v>
+        <v>-164000</v>
       </c>
       <c r="F20" s="3">
-        <v>-319500</v>
+        <v>-300300</v>
       </c>
       <c r="G20" s="3">
-        <v>-98200</v>
+        <v>-92300</v>
       </c>
       <c r="H20" s="3">
-        <v>-123900</v>
+        <v>-116400</v>
       </c>
       <c r="I20" s="3">
-        <v>-112700</v>
+        <v>-105900</v>
       </c>
       <c r="J20" s="3">
-        <v>14700</v>
+        <v>13800</v>
       </c>
       <c r="K20" s="3">
         <v>75700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1460300</v>
+        <v>1376300</v>
       </c>
       <c r="E21" s="3">
-        <v>1248200</v>
+        <v>1176400</v>
       </c>
       <c r="F21" s="3">
-        <v>973200</v>
+        <v>917400</v>
       </c>
       <c r="G21" s="3">
-        <v>696100</v>
+        <v>655900</v>
       </c>
       <c r="H21" s="3">
-        <v>580800</v>
+        <v>547300</v>
       </c>
       <c r="I21" s="3">
-        <v>523100</v>
+        <v>492700</v>
       </c>
       <c r="J21" s="3">
-        <v>227800</v>
+        <v>214600</v>
       </c>
       <c r="K21" s="3">
         <v>308700</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>126000</v>
+        <v>118400</v>
       </c>
       <c r="E22" s="3">
-        <v>199200</v>
+        <v>187200</v>
       </c>
       <c r="F22" s="3">
-        <v>99800</v>
+        <v>93800</v>
       </c>
       <c r="G22" s="3">
-        <v>44800</v>
+        <v>42100</v>
       </c>
       <c r="H22" s="3">
-        <v>54700</v>
+        <v>51400</v>
       </c>
       <c r="I22" s="3">
-        <v>37700</v>
+        <v>35400</v>
       </c>
       <c r="J22" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="K22" s="3">
         <v>7000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>582700</v>
+        <v>547500</v>
       </c>
       <c r="E23" s="3">
-        <v>414300</v>
+        <v>389300</v>
       </c>
       <c r="F23" s="3">
-        <v>336600</v>
+        <v>316300</v>
       </c>
       <c r="G23" s="3">
-        <v>328600</v>
+        <v>308800</v>
       </c>
       <c r="H23" s="3">
-        <v>255900</v>
+        <v>240500</v>
       </c>
       <c r="I23" s="3">
-        <v>277800</v>
+        <v>261100</v>
       </c>
       <c r="J23" s="3">
-        <v>126600</v>
+        <v>119000</v>
       </c>
       <c r="K23" s="3">
         <v>196600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48800</v>
+        <v>45800</v>
       </c>
       <c r="E24" s="3">
-        <v>98900</v>
+        <v>93000</v>
       </c>
       <c r="F24" s="3">
-        <v>62400</v>
+        <v>58600</v>
       </c>
       <c r="G24" s="3">
-        <v>72000</v>
+        <v>67700</v>
       </c>
       <c r="H24" s="3">
-        <v>53700</v>
+        <v>50500</v>
       </c>
       <c r="I24" s="3">
-        <v>84100</v>
+        <v>79000</v>
       </c>
       <c r="J24" s="3">
-        <v>42100</v>
+        <v>39600</v>
       </c>
       <c r="K24" s="3">
         <v>39700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>533900</v>
+        <v>501700</v>
       </c>
       <c r="E26" s="3">
-        <v>315400</v>
+        <v>296400</v>
       </c>
       <c r="F26" s="3">
-        <v>274200</v>
+        <v>257700</v>
       </c>
       <c r="G26" s="3">
-        <v>256600</v>
+        <v>241100</v>
       </c>
       <c r="H26" s="3">
-        <v>202200</v>
+        <v>190000</v>
       </c>
       <c r="I26" s="3">
-        <v>193700</v>
+        <v>182100</v>
       </c>
       <c r="J26" s="3">
-        <v>84400</v>
+        <v>79400</v>
       </c>
       <c r="K26" s="3">
         <v>157000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>533600</v>
+        <v>501400</v>
       </c>
       <c r="E27" s="3">
-        <v>311600</v>
+        <v>292800</v>
       </c>
       <c r="F27" s="3">
-        <v>254500</v>
+        <v>239200</v>
       </c>
       <c r="G27" s="3">
-        <v>249200</v>
+        <v>234200</v>
       </c>
       <c r="H27" s="3">
-        <v>195700</v>
+        <v>183900</v>
       </c>
       <c r="I27" s="3">
-        <v>214400</v>
+        <v>201500</v>
       </c>
       <c r="J27" s="3">
-        <v>108900</v>
+        <v>102400</v>
       </c>
       <c r="K27" s="3">
         <v>156800</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>97300</v>
+        <v>91400</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="I29" s="3">
-        <v>46300</v>
+        <v>43500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>278500</v>
+        <v>261700</v>
       </c>
       <c r="E32" s="3">
-        <v>174500</v>
+        <v>164000</v>
       </c>
       <c r="F32" s="3">
-        <v>319500</v>
+        <v>300300</v>
       </c>
       <c r="G32" s="3">
-        <v>98200</v>
+        <v>92300</v>
       </c>
       <c r="H32" s="3">
-        <v>123900</v>
+        <v>116400</v>
       </c>
       <c r="I32" s="3">
-        <v>112700</v>
+        <v>105900</v>
       </c>
       <c r="J32" s="3">
-        <v>-14700</v>
+        <v>-13800</v>
       </c>
       <c r="K32" s="3">
         <v>-75700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>533600</v>
+        <v>501400</v>
       </c>
       <c r="E33" s="3">
-        <v>408800</v>
+        <v>384200</v>
       </c>
       <c r="F33" s="3">
-        <v>254500</v>
+        <v>239200</v>
       </c>
       <c r="G33" s="3">
-        <v>249200</v>
+        <v>234200</v>
       </c>
       <c r="H33" s="3">
-        <v>190400</v>
+        <v>178900</v>
       </c>
       <c r="I33" s="3">
-        <v>260700</v>
+        <v>245000</v>
       </c>
       <c r="J33" s="3">
-        <v>108900</v>
+        <v>102400</v>
       </c>
       <c r="K33" s="3">
         <v>156800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>533600</v>
+        <v>501400</v>
       </c>
       <c r="E35" s="3">
-        <v>408800</v>
+        <v>384200</v>
       </c>
       <c r="F35" s="3">
-        <v>254500</v>
+        <v>239200</v>
       </c>
       <c r="G35" s="3">
-        <v>249200</v>
+        <v>234200</v>
       </c>
       <c r="H35" s="3">
-        <v>190400</v>
+        <v>178900</v>
       </c>
       <c r="I35" s="3">
-        <v>260700</v>
+        <v>245000</v>
       </c>
       <c r="J35" s="3">
-        <v>108900</v>
+        <v>102400</v>
       </c>
       <c r="K35" s="3">
         <v>156800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124000</v>
+        <v>116500</v>
       </c>
       <c r="E41" s="3">
-        <v>79600</v>
+        <v>74800</v>
       </c>
       <c r="F41" s="3">
-        <v>74700</v>
+        <v>70200</v>
       </c>
       <c r="G41" s="3">
-        <v>76000</v>
+        <v>71400</v>
       </c>
       <c r="H41" s="3">
-        <v>71900</v>
+        <v>67500</v>
       </c>
       <c r="I41" s="3">
-        <v>72900</v>
+        <v>68500</v>
       </c>
       <c r="J41" s="3">
-        <v>31500</v>
+        <v>29600</v>
       </c>
       <c r="K41" s="3">
         <v>26400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1458000</v>
+        <v>1370200</v>
       </c>
       <c r="E42" s="3">
-        <v>1253900</v>
+        <v>1178300</v>
       </c>
       <c r="F42" s="3">
-        <v>866100</v>
+        <v>813900</v>
       </c>
       <c r="G42" s="3">
-        <v>518800</v>
+        <v>487600</v>
       </c>
       <c r="H42" s="3">
-        <v>690300</v>
+        <v>648700</v>
       </c>
       <c r="I42" s="3">
-        <v>294700</v>
+        <v>276900</v>
       </c>
       <c r="J42" s="3">
-        <v>460100</v>
+        <v>432300</v>
       </c>
       <c r="K42" s="3">
         <v>463200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>831400</v>
+        <v>781200</v>
       </c>
       <c r="E43" s="3">
-        <v>918100</v>
+        <v>862800</v>
       </c>
       <c r="F43" s="3">
-        <v>924100</v>
+        <v>868400</v>
       </c>
       <c r="G43" s="3">
-        <v>801700</v>
+        <v>753400</v>
       </c>
       <c r="H43" s="3">
-        <v>624800</v>
+        <v>587100</v>
       </c>
       <c r="I43" s="3">
-        <v>575400</v>
+        <v>540700</v>
       </c>
       <c r="J43" s="3">
-        <v>201700</v>
+        <v>189500</v>
       </c>
       <c r="K43" s="3">
         <v>175100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25700</v>
+        <v>24100</v>
       </c>
       <c r="E44" s="3">
-        <v>22500</v>
+        <v>21100</v>
       </c>
       <c r="F44" s="3">
-        <v>22700</v>
+        <v>21400</v>
       </c>
       <c r="G44" s="3">
-        <v>13100</v>
+        <v>12300</v>
       </c>
       <c r="H44" s="3">
-        <v>16600</v>
+        <v>15600</v>
       </c>
       <c r="I44" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="J44" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="K44" s="3">
         <v>4200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>153100</v>
+        <v>143800</v>
       </c>
       <c r="E45" s="3">
-        <v>160300</v>
+        <v>150700</v>
       </c>
       <c r="F45" s="3">
-        <v>421500</v>
+        <v>396100</v>
       </c>
       <c r="G45" s="3">
-        <v>362100</v>
+        <v>340300</v>
       </c>
       <c r="H45" s="3">
-        <v>277700</v>
+        <v>260900</v>
       </c>
       <c r="I45" s="3">
-        <v>155100</v>
+        <v>145700</v>
       </c>
       <c r="J45" s="3">
-        <v>25600</v>
+        <v>24000</v>
       </c>
       <c r="K45" s="3">
         <v>27400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2592100</v>
+        <v>2435800</v>
       </c>
       <c r="E46" s="3">
-        <v>2434500</v>
+        <v>2287800</v>
       </c>
       <c r="F46" s="3">
-        <v>2309200</v>
+        <v>2170000</v>
       </c>
       <c r="G46" s="3">
-        <v>1771700</v>
+        <v>1664900</v>
       </c>
       <c r="H46" s="3">
-        <v>1681300</v>
+        <v>1579900</v>
       </c>
       <c r="I46" s="3">
-        <v>1107500</v>
+        <v>1040800</v>
       </c>
       <c r="J46" s="3">
-        <v>722700</v>
+        <v>679100</v>
       </c>
       <c r="K46" s="3">
         <v>696400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>85800</v>
+        <v>80600</v>
       </c>
       <c r="E47" s="3">
-        <v>54200</v>
+        <v>51000</v>
       </c>
       <c r="F47" s="3">
-        <v>141400</v>
+        <v>132800</v>
       </c>
       <c r="G47" s="3">
-        <v>195300</v>
+        <v>183500</v>
       </c>
       <c r="H47" s="3">
-        <v>157000</v>
+        <v>147600</v>
       </c>
       <c r="I47" s="3">
-        <v>242000</v>
+        <v>227400</v>
       </c>
       <c r="J47" s="3">
-        <v>78600</v>
+        <v>73900</v>
       </c>
       <c r="K47" s="3">
         <v>64200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2052200</v>
+        <v>1928500</v>
       </c>
       <c r="E48" s="3">
-        <v>1795500</v>
+        <v>1687300</v>
       </c>
       <c r="F48" s="3">
-        <v>1567700</v>
+        <v>1473200</v>
       </c>
       <c r="G48" s="3">
-        <v>1217300</v>
+        <v>1143900</v>
       </c>
       <c r="H48" s="3">
-        <v>1037900</v>
+        <v>975400</v>
       </c>
       <c r="I48" s="3">
-        <v>864600</v>
+        <v>812500</v>
       </c>
       <c r="J48" s="3">
-        <v>320800</v>
+        <v>301500</v>
       </c>
       <c r="K48" s="3">
         <v>351800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1557500</v>
+        <v>1463600</v>
       </c>
       <c r="E49" s="3">
-        <v>1424000</v>
+        <v>1338200</v>
       </c>
       <c r="F49" s="3">
-        <v>1307500</v>
+        <v>1228700</v>
       </c>
       <c r="G49" s="3">
-        <v>1050300</v>
+        <v>987000</v>
       </c>
       <c r="H49" s="3">
-        <v>1037200</v>
+        <v>974600</v>
       </c>
       <c r="I49" s="3">
-        <v>1035200</v>
+        <v>972800</v>
       </c>
       <c r="J49" s="3">
-        <v>132900</v>
+        <v>124900</v>
       </c>
       <c r="K49" s="3">
         <v>141300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>197600</v>
+        <v>185700</v>
       </c>
       <c r="E52" s="3">
-        <v>48600</v>
+        <v>45700</v>
       </c>
       <c r="F52" s="3">
-        <v>59700</v>
+        <v>56100</v>
       </c>
       <c r="G52" s="3">
-        <v>44800</v>
+        <v>42100</v>
       </c>
       <c r="H52" s="3">
-        <v>66000</v>
+        <v>62100</v>
       </c>
       <c r="I52" s="3">
-        <v>48000</v>
+        <v>45100</v>
       </c>
       <c r="J52" s="3">
-        <v>31800</v>
+        <v>29800</v>
       </c>
       <c r="K52" s="3">
         <v>19400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6485200</v>
+        <v>6094300</v>
       </c>
       <c r="E54" s="3">
-        <v>5756900</v>
+        <v>5409900</v>
       </c>
       <c r="F54" s="3">
-        <v>5385400</v>
+        <v>5060800</v>
       </c>
       <c r="G54" s="3">
-        <v>4279400</v>
+        <v>4021500</v>
       </c>
       <c r="H54" s="3">
-        <v>3979400</v>
+        <v>3739600</v>
       </c>
       <c r="I54" s="3">
-        <v>3297400</v>
+        <v>3098600</v>
       </c>
       <c r="J54" s="3">
-        <v>1286700</v>
+        <v>1209200</v>
       </c>
       <c r="K54" s="3">
         <v>1273100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>466600</v>
+        <v>438500</v>
       </c>
       <c r="E57" s="3">
-        <v>371900</v>
+        <v>349500</v>
       </c>
       <c r="F57" s="3">
-        <v>342700</v>
+        <v>322100</v>
       </c>
       <c r="G57" s="3">
-        <v>355400</v>
+        <v>334000</v>
       </c>
       <c r="H57" s="3">
-        <v>437500</v>
+        <v>411100</v>
       </c>
       <c r="I57" s="3">
-        <v>585200</v>
+        <v>549900</v>
       </c>
       <c r="J57" s="3">
-        <v>73300</v>
+        <v>68900</v>
       </c>
       <c r="K57" s="3">
         <v>83700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>659000</v>
+        <v>619200</v>
       </c>
       <c r="E58" s="3">
-        <v>960600</v>
+        <v>902700</v>
       </c>
       <c r="F58" s="3">
-        <v>886000</v>
+        <v>832600</v>
       </c>
       <c r="G58" s="3">
-        <v>538700</v>
+        <v>506300</v>
       </c>
       <c r="H58" s="3">
-        <v>358400</v>
+        <v>336800</v>
       </c>
       <c r="I58" s="3">
-        <v>91500</v>
+        <v>86000</v>
       </c>
       <c r="J58" s="3">
-        <v>133100</v>
+        <v>125100</v>
       </c>
       <c r="K58" s="3">
         <v>108100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>330800</v>
+        <v>310900</v>
       </c>
       <c r="E59" s="3">
-        <v>261200</v>
+        <v>245400</v>
       </c>
       <c r="F59" s="3">
-        <v>249700</v>
+        <v>234600</v>
       </c>
       <c r="G59" s="3">
-        <v>267400</v>
+        <v>251300</v>
       </c>
       <c r="H59" s="3">
-        <v>130800</v>
+        <v>122900</v>
       </c>
       <c r="I59" s="3">
-        <v>117300</v>
+        <v>110200</v>
       </c>
       <c r="J59" s="3">
-        <v>64600</v>
+        <v>60700</v>
       </c>
       <c r="K59" s="3">
         <v>66100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1456400</v>
+        <v>1368600</v>
       </c>
       <c r="E60" s="3">
-        <v>1593700</v>
+        <v>1497700</v>
       </c>
       <c r="F60" s="3">
-        <v>1478400</v>
+        <v>1389300</v>
       </c>
       <c r="G60" s="3">
-        <v>1161600</v>
+        <v>1091500</v>
       </c>
       <c r="H60" s="3">
-        <v>926700</v>
+        <v>870800</v>
       </c>
       <c r="I60" s="3">
-        <v>793900</v>
+        <v>746100</v>
       </c>
       <c r="J60" s="3">
-        <v>271100</v>
+        <v>254700</v>
       </c>
       <c r="K60" s="3">
         <v>257900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2059400</v>
+        <v>1935300</v>
       </c>
       <c r="E61" s="3">
-        <v>1596500</v>
+        <v>1500200</v>
       </c>
       <c r="F61" s="3">
-        <v>1652200</v>
+        <v>1552600</v>
       </c>
       <c r="G61" s="3">
-        <v>1039900</v>
+        <v>977300</v>
       </c>
       <c r="H61" s="3">
-        <v>873300</v>
+        <v>820700</v>
       </c>
       <c r="I61" s="3">
-        <v>439200</v>
+        <v>412700</v>
       </c>
       <c r="J61" s="3">
-        <v>67800</v>
+        <v>63700</v>
       </c>
       <c r="K61" s="3">
         <v>91400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>351900</v>
+        <v>330700</v>
       </c>
       <c r="E62" s="3">
-        <v>289500</v>
+        <v>272100</v>
       </c>
       <c r="F62" s="3">
-        <v>233200</v>
+        <v>219200</v>
       </c>
       <c r="G62" s="3">
-        <v>183300</v>
+        <v>172200</v>
       </c>
       <c r="H62" s="3">
-        <v>155900</v>
+        <v>146500</v>
       </c>
       <c r="I62" s="3">
-        <v>250900</v>
+        <v>235800</v>
       </c>
       <c r="J62" s="3">
-        <v>40400</v>
+        <v>38000</v>
       </c>
       <c r="K62" s="3">
         <v>42500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3867800</v>
+        <v>3634700</v>
       </c>
       <c r="E66" s="3">
-        <v>3484300</v>
+        <v>3274300</v>
       </c>
       <c r="F66" s="3">
-        <v>3380400</v>
+        <v>3176700</v>
       </c>
       <c r="G66" s="3">
-        <v>2391800</v>
+        <v>2247700</v>
       </c>
       <c r="H66" s="3">
-        <v>1963000</v>
+        <v>1844700</v>
       </c>
       <c r="I66" s="3">
-        <v>1492200</v>
+        <v>1402200</v>
       </c>
       <c r="J66" s="3">
-        <v>358500</v>
+        <v>336900</v>
       </c>
       <c r="K66" s="3">
         <v>380900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2443200</v>
+        <v>2295900</v>
       </c>
       <c r="E72" s="3">
-        <v>2011800</v>
+        <v>1890600</v>
       </c>
       <c r="F72" s="3">
-        <v>1712000</v>
+        <v>1608900</v>
       </c>
       <c r="G72" s="3">
-        <v>1631500</v>
+        <v>1533100</v>
       </c>
       <c r="H72" s="3">
-        <v>1760000</v>
+        <v>1653900</v>
       </c>
       <c r="I72" s="3">
-        <v>1567800</v>
+        <v>1473300</v>
       </c>
       <c r="J72" s="3">
-        <v>719300</v>
+        <v>676000</v>
       </c>
       <c r="K72" s="3">
         <v>680400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2617400</v>
+        <v>2459700</v>
       </c>
       <c r="E76" s="3">
-        <v>2272600</v>
+        <v>2135600</v>
       </c>
       <c r="F76" s="3">
-        <v>2005000</v>
+        <v>1884200</v>
       </c>
       <c r="G76" s="3">
-        <v>1887600</v>
+        <v>1773800</v>
       </c>
       <c r="H76" s="3">
-        <v>2016400</v>
+        <v>1894800</v>
       </c>
       <c r="I76" s="3">
-        <v>1805200</v>
+        <v>1696400</v>
       </c>
       <c r="J76" s="3">
-        <v>928300</v>
+        <v>872300</v>
       </c>
       <c r="K76" s="3">
         <v>892200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>533600</v>
+        <v>501400</v>
       </c>
       <c r="E81" s="3">
-        <v>408800</v>
+        <v>384200</v>
       </c>
       <c r="F81" s="3">
-        <v>254500</v>
+        <v>239200</v>
       </c>
       <c r="G81" s="3">
-        <v>249200</v>
+        <v>234200</v>
       </c>
       <c r="H81" s="3">
-        <v>190400</v>
+        <v>178900</v>
       </c>
       <c r="I81" s="3">
-        <v>260700</v>
+        <v>245000</v>
       </c>
       <c r="J81" s="3">
-        <v>108900</v>
+        <v>102400</v>
       </c>
       <c r="K81" s="3">
         <v>156800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>749600</v>
+        <v>704400</v>
       </c>
       <c r="E83" s="3">
-        <v>632900</v>
+        <v>594800</v>
       </c>
       <c r="F83" s="3">
-        <v>535200</v>
+        <v>503000</v>
       </c>
       <c r="G83" s="3">
-        <v>321800</v>
+        <v>302400</v>
       </c>
       <c r="H83" s="3">
-        <v>269400</v>
+        <v>253200</v>
       </c>
       <c r="I83" s="3">
-        <v>207000</v>
+        <v>194500</v>
       </c>
       <c r="J83" s="3">
-        <v>94200</v>
+        <v>88500</v>
       </c>
       <c r="K83" s="3">
         <v>105500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1774100</v>
+        <v>1667100</v>
       </c>
       <c r="E89" s="3">
-        <v>1244300</v>
+        <v>1169300</v>
       </c>
       <c r="F89" s="3">
-        <v>826300</v>
+        <v>776500</v>
       </c>
       <c r="G89" s="3">
-        <v>460200</v>
+        <v>432500</v>
       </c>
       <c r="H89" s="3">
-        <v>153400</v>
+        <v>144100</v>
       </c>
       <c r="I89" s="3">
-        <v>335300</v>
+        <v>315100</v>
       </c>
       <c r="J89" s="3">
-        <v>101000</v>
+        <v>94900</v>
       </c>
       <c r="K89" s="3">
         <v>126900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-491700</v>
+        <v>-462100</v>
       </c>
       <c r="E91" s="3">
-        <v>-402400</v>
+        <v>-378100</v>
       </c>
       <c r="F91" s="3">
-        <v>-372800</v>
+        <v>-350400</v>
       </c>
       <c r="G91" s="3">
-        <v>-369900</v>
+        <v>-347600</v>
       </c>
       <c r="H91" s="3">
-        <v>-323900</v>
+        <v>-304400</v>
       </c>
       <c r="I91" s="3">
-        <v>-268900</v>
+        <v>-252700</v>
       </c>
       <c r="J91" s="3">
-        <v>-84400</v>
+        <v>-79300</v>
       </c>
       <c r="K91" s="3">
         <v>-80600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-979200</v>
+        <v>-920200</v>
       </c>
       <c r="E94" s="3">
-        <v>-488800</v>
+        <v>-459300</v>
       </c>
       <c r="F94" s="3">
-        <v>-663300</v>
+        <v>-623300</v>
       </c>
       <c r="G94" s="3">
-        <v>-485800</v>
+        <v>-456500</v>
       </c>
       <c r="H94" s="3">
-        <v>-451800</v>
+        <v>-424600</v>
       </c>
       <c r="I94" s="3">
-        <v>-544600</v>
+        <v>-511700</v>
       </c>
       <c r="J94" s="3">
-        <v>-72200</v>
+        <v>-67800</v>
       </c>
       <c r="K94" s="3">
         <v>-60000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-105600</v>
+        <v>-99200</v>
       </c>
       <c r="E96" s="3">
-        <v>-142000</v>
+        <v>-133400</v>
       </c>
       <c r="F96" s="3">
-        <v>-245500</v>
+        <v>-230700</v>
       </c>
       <c r="G96" s="3">
-        <v>-384200</v>
+        <v>-361000</v>
       </c>
       <c r="H96" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="I96" s="3">
-        <v>-506900</v>
+        <v>-476400</v>
       </c>
       <c r="J96" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K96" s="3">
         <v>-100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-537400</v>
+        <v>-505100</v>
       </c>
       <c r="E100" s="3">
-        <v>-438000</v>
+        <v>-411600</v>
       </c>
       <c r="F100" s="3">
-        <v>-67300</v>
+        <v>-63200</v>
       </c>
       <c r="G100" s="3">
-        <v>-197300</v>
+        <v>-185400</v>
       </c>
       <c r="H100" s="3">
-        <v>609400</v>
+        <v>572700</v>
       </c>
       <c r="I100" s="3">
-        <v>-615500</v>
+        <v>-578400</v>
       </c>
       <c r="J100" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="K100" s="3">
         <v>-15500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-53200</v>
+        <v>-50000</v>
       </c>
       <c r="E101" s="3">
-        <v>37600</v>
+        <v>35300</v>
       </c>
       <c r="F101" s="3">
-        <v>245200</v>
+        <v>230400</v>
       </c>
       <c r="G101" s="3">
-        <v>54200</v>
+        <v>50900</v>
       </c>
       <c r="H101" s="3">
-        <v>83600</v>
+        <v>78600</v>
       </c>
       <c r="I101" s="3">
-        <v>54900</v>
+        <v>51600</v>
       </c>
       <c r="J101" s="3">
-        <v>-22900</v>
+        <v>-21500</v>
       </c>
       <c r="K101" s="3">
         <v>-66400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>204200</v>
+        <v>191900</v>
       </c>
       <c r="E102" s="3">
-        <v>355100</v>
+        <v>333700</v>
       </c>
       <c r="F102" s="3">
-        <v>340900</v>
+        <v>320300</v>
       </c>
       <c r="G102" s="3">
-        <v>-168700</v>
+        <v>-158600</v>
       </c>
       <c r="H102" s="3">
-        <v>394600</v>
+        <v>370800</v>
       </c>
       <c r="I102" s="3">
-        <v>-769800</v>
+        <v>-723400</v>
       </c>
       <c r="J102" s="3">
-        <v>10900</v>
+        <v>10200</v>
       </c>
       <c r="K102" s="3">
         <v>-15000</v>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TKC</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3444100</v>
+        <v>3426400</v>
       </c>
       <c r="E8" s="3">
-        <v>2974700</v>
+        <v>2959400</v>
       </c>
       <c r="F8" s="3">
-        <v>2519800</v>
+        <v>2506800</v>
       </c>
       <c r="G8" s="3">
-        <v>2086600</v>
+        <v>2075800</v>
       </c>
       <c r="H8" s="3">
-        <v>1690600</v>
+        <v>1681800</v>
       </c>
       <c r="I8" s="3">
-        <v>1511100</v>
+        <v>1503300</v>
       </c>
       <c r="J8" s="3">
-        <v>652400</v>
+        <v>649000</v>
       </c>
       <c r="K8" s="3">
         <v>762800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2406600</v>
+        <v>2394200</v>
       </c>
       <c r="E9" s="3">
-        <v>2021700</v>
+        <v>2011200</v>
       </c>
       <c r="F9" s="3">
-        <v>1674000</v>
+        <v>1665400</v>
       </c>
       <c r="G9" s="3">
-        <v>1343200</v>
+        <v>1336300</v>
       </c>
       <c r="H9" s="3">
-        <v>1091000</v>
+        <v>1085400</v>
       </c>
       <c r="I9" s="3">
-        <v>919100</v>
+        <v>914300</v>
       </c>
       <c r="J9" s="3">
-        <v>399500</v>
+        <v>397400</v>
       </c>
       <c r="K9" s="3">
         <v>471500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1037600</v>
+        <v>1032200</v>
       </c>
       <c r="E10" s="3">
-        <v>953100</v>
+        <v>948200</v>
       </c>
       <c r="F10" s="3">
-        <v>845700</v>
+        <v>841400</v>
       </c>
       <c r="G10" s="3">
-        <v>743400</v>
+        <v>739600</v>
       </c>
       <c r="H10" s="3">
-        <v>599600</v>
+        <v>596500</v>
       </c>
       <c r="I10" s="3">
-        <v>592000</v>
+        <v>589000</v>
       </c>
       <c r="J10" s="3">
-        <v>252900</v>
+        <v>251600</v>
       </c>
       <c r="K10" s="3">
         <v>291300</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>91000</v>
+        <v>90500</v>
       </c>
       <c r="E14" s="3">
-        <v>79200</v>
+        <v>78800</v>
       </c>
       <c r="F14" s="3">
-        <v>38200</v>
+        <v>38000</v>
       </c>
       <c r="G14" s="3">
-        <v>72700</v>
+        <v>72400</v>
       </c>
       <c r="H14" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="I14" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2516500</v>
+        <v>2503500</v>
       </c>
       <c r="E17" s="3">
-        <v>2234200</v>
+        <v>2222700</v>
       </c>
       <c r="F17" s="3">
-        <v>1809400</v>
+        <v>1800100</v>
       </c>
       <c r="G17" s="3">
-        <v>1643300</v>
+        <v>1634900</v>
       </c>
       <c r="H17" s="3">
-        <v>1282200</v>
+        <v>1275600</v>
       </c>
       <c r="I17" s="3">
-        <v>1108700</v>
+        <v>1103000</v>
       </c>
       <c r="J17" s="3">
-        <v>540900</v>
+        <v>538100</v>
       </c>
       <c r="K17" s="3">
         <v>634900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>927700</v>
+        <v>922900</v>
       </c>
       <c r="E18" s="3">
-        <v>740500</v>
+        <v>736700</v>
       </c>
       <c r="F18" s="3">
-        <v>710400</v>
+        <v>706700</v>
       </c>
       <c r="G18" s="3">
-        <v>443300</v>
+        <v>441000</v>
       </c>
       <c r="H18" s="3">
-        <v>408400</v>
+        <v>406300</v>
       </c>
       <c r="I18" s="3">
-        <v>402400</v>
+        <v>400400</v>
       </c>
       <c r="J18" s="3">
-        <v>111500</v>
+        <v>110900</v>
       </c>
       <c r="K18" s="3">
         <v>127900</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-261700</v>
+        <v>-260400</v>
       </c>
       <c r="E20" s="3">
-        <v>-164000</v>
+        <v>-163200</v>
       </c>
       <c r="F20" s="3">
-        <v>-300300</v>
+        <v>-298700</v>
       </c>
       <c r="G20" s="3">
-        <v>-92300</v>
+        <v>-91800</v>
       </c>
       <c r="H20" s="3">
-        <v>-116400</v>
+        <v>-115800</v>
       </c>
       <c r="I20" s="3">
-        <v>-105900</v>
+        <v>-105400</v>
       </c>
       <c r="J20" s="3">
         <v>13800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1376300</v>
+        <v>1367000</v>
       </c>
       <c r="E21" s="3">
-        <v>1176400</v>
+        <v>1168400</v>
       </c>
       <c r="F21" s="3">
-        <v>917400</v>
+        <v>911100</v>
       </c>
       <c r="G21" s="3">
-        <v>655900</v>
+        <v>651600</v>
       </c>
       <c r="H21" s="3">
-        <v>547300</v>
+        <v>543600</v>
       </c>
       <c r="I21" s="3">
-        <v>492700</v>
+        <v>489500</v>
       </c>
       <c r="J21" s="3">
-        <v>214600</v>
+        <v>213200</v>
       </c>
       <c r="K21" s="3">
         <v>308700</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>118400</v>
+        <v>117800</v>
       </c>
       <c r="E22" s="3">
-        <v>187200</v>
+        <v>186200</v>
       </c>
       <c r="F22" s="3">
-        <v>93800</v>
+        <v>93300</v>
       </c>
       <c r="G22" s="3">
-        <v>42100</v>
+        <v>41900</v>
       </c>
       <c r="H22" s="3">
-        <v>51400</v>
+        <v>51200</v>
       </c>
       <c r="I22" s="3">
-        <v>35400</v>
+        <v>35300</v>
       </c>
       <c r="J22" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="K22" s="3">
         <v>7000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>547500</v>
+        <v>544700</v>
       </c>
       <c r="E23" s="3">
-        <v>389300</v>
+        <v>387300</v>
       </c>
       <c r="F23" s="3">
-        <v>316300</v>
+        <v>314700</v>
       </c>
       <c r="G23" s="3">
-        <v>308800</v>
+        <v>307200</v>
       </c>
       <c r="H23" s="3">
-        <v>240500</v>
+        <v>239300</v>
       </c>
       <c r="I23" s="3">
-        <v>261100</v>
+        <v>259700</v>
       </c>
       <c r="J23" s="3">
-        <v>119000</v>
+        <v>118300</v>
       </c>
       <c r="K23" s="3">
         <v>196600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45800</v>
+        <v>45600</v>
       </c>
       <c r="E24" s="3">
-        <v>93000</v>
+        <v>92500</v>
       </c>
       <c r="F24" s="3">
-        <v>58600</v>
+        <v>58300</v>
       </c>
       <c r="G24" s="3">
-        <v>67700</v>
+        <v>67300</v>
       </c>
       <c r="H24" s="3">
-        <v>50500</v>
+        <v>50200</v>
       </c>
       <c r="I24" s="3">
-        <v>79000</v>
+        <v>78600</v>
       </c>
       <c r="J24" s="3">
-        <v>39600</v>
+        <v>39400</v>
       </c>
       <c r="K24" s="3">
         <v>39700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>501700</v>
+        <v>499100</v>
       </c>
       <c r="E26" s="3">
-        <v>296400</v>
+        <v>294800</v>
       </c>
       <c r="F26" s="3">
-        <v>257700</v>
+        <v>256300</v>
       </c>
       <c r="G26" s="3">
-        <v>241100</v>
+        <v>239900</v>
       </c>
       <c r="H26" s="3">
-        <v>190000</v>
+        <v>189000</v>
       </c>
       <c r="I26" s="3">
-        <v>182100</v>
+        <v>181100</v>
       </c>
       <c r="J26" s="3">
-        <v>79400</v>
+        <v>78900</v>
       </c>
       <c r="K26" s="3">
         <v>157000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>501400</v>
+        <v>498800</v>
       </c>
       <c r="E27" s="3">
-        <v>292800</v>
+        <v>291300</v>
       </c>
       <c r="F27" s="3">
-        <v>239200</v>
+        <v>237900</v>
       </c>
       <c r="G27" s="3">
-        <v>234200</v>
+        <v>233000</v>
       </c>
       <c r="H27" s="3">
-        <v>183900</v>
+        <v>182900</v>
       </c>
       <c r="I27" s="3">
-        <v>201500</v>
+        <v>200400</v>
       </c>
       <c r="J27" s="3">
-        <v>102400</v>
+        <v>101800</v>
       </c>
       <c r="K27" s="3">
         <v>156800</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>91400</v>
+        <v>90900</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>-5000</v>
       </c>
       <c r="I29" s="3">
-        <v>43500</v>
+        <v>43200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>261700</v>
+        <v>260400</v>
       </c>
       <c r="E32" s="3">
-        <v>164000</v>
+        <v>163200</v>
       </c>
       <c r="F32" s="3">
-        <v>300300</v>
+        <v>298700</v>
       </c>
       <c r="G32" s="3">
-        <v>92300</v>
+        <v>91800</v>
       </c>
       <c r="H32" s="3">
-        <v>116400</v>
+        <v>115800</v>
       </c>
       <c r="I32" s="3">
-        <v>105900</v>
+        <v>105400</v>
       </c>
       <c r="J32" s="3">
         <v>-13800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>501400</v>
+        <v>498800</v>
       </c>
       <c r="E33" s="3">
-        <v>384200</v>
+        <v>382200</v>
       </c>
       <c r="F33" s="3">
-        <v>239200</v>
+        <v>237900</v>
       </c>
       <c r="G33" s="3">
-        <v>234200</v>
+        <v>233000</v>
       </c>
       <c r="H33" s="3">
-        <v>178900</v>
+        <v>178000</v>
       </c>
       <c r="I33" s="3">
-        <v>245000</v>
+        <v>243700</v>
       </c>
       <c r="J33" s="3">
-        <v>102400</v>
+        <v>101800</v>
       </c>
       <c r="K33" s="3">
         <v>156800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>501400</v>
+        <v>498800</v>
       </c>
       <c r="E35" s="3">
-        <v>384200</v>
+        <v>382200</v>
       </c>
       <c r="F35" s="3">
-        <v>239200</v>
+        <v>237900</v>
       </c>
       <c r="G35" s="3">
-        <v>234200</v>
+        <v>233000</v>
       </c>
       <c r="H35" s="3">
-        <v>178900</v>
+        <v>178000</v>
       </c>
       <c r="I35" s="3">
-        <v>245000</v>
+        <v>243700</v>
       </c>
       <c r="J35" s="3">
-        <v>102400</v>
+        <v>101800</v>
       </c>
       <c r="K35" s="3">
         <v>156800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116500</v>
+        <v>1396300</v>
       </c>
       <c r="E41" s="3">
-        <v>74800</v>
+        <v>1205400</v>
       </c>
       <c r="F41" s="3">
-        <v>70200</v>
+        <v>873500</v>
       </c>
       <c r="G41" s="3">
-        <v>71400</v>
+        <v>554800</v>
       </c>
       <c r="H41" s="3">
-        <v>67500</v>
+        <v>712500</v>
       </c>
       <c r="I41" s="3">
-        <v>68500</v>
+        <v>343600</v>
       </c>
       <c r="J41" s="3">
-        <v>29600</v>
+        <v>458500</v>
       </c>
       <c r="K41" s="3">
         <v>26400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1370200</v>
+        <v>82600</v>
       </c>
       <c r="E42" s="3">
-        <v>1178300</v>
+        <v>41300</v>
       </c>
       <c r="F42" s="3">
-        <v>813900</v>
+        <v>6100</v>
       </c>
       <c r="G42" s="3">
-        <v>487600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>648700</v>
+        <v>1300</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>276900</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>432300</v>
+        <v>1000</v>
       </c>
       <c r="K42" s="3">
         <v>463200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>781200</v>
+        <v>777200</v>
       </c>
       <c r="E43" s="3">
-        <v>862800</v>
+        <v>858400</v>
       </c>
       <c r="F43" s="3">
-        <v>868400</v>
+        <v>863900</v>
       </c>
       <c r="G43" s="3">
-        <v>753400</v>
+        <v>749500</v>
       </c>
       <c r="H43" s="3">
-        <v>587100</v>
+        <v>584100</v>
       </c>
       <c r="I43" s="3">
-        <v>540700</v>
+        <v>537900</v>
       </c>
       <c r="J43" s="3">
-        <v>189500</v>
+        <v>188600</v>
       </c>
       <c r="K43" s="3">
         <v>175100</v>
@@ -1846,19 +1846,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="E44" s="3">
-        <v>21100</v>
+        <v>21000</v>
       </c>
       <c r="F44" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="G44" s="3">
         <v>12300</v>
       </c>
       <c r="H44" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="I44" s="3">
         <v>8900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>143800</v>
+        <v>143100</v>
       </c>
       <c r="E45" s="3">
-        <v>150700</v>
+        <v>149900</v>
       </c>
       <c r="F45" s="3">
-        <v>396100</v>
+        <v>394100</v>
       </c>
       <c r="G45" s="3">
-        <v>340300</v>
+        <v>338500</v>
       </c>
       <c r="H45" s="3">
-        <v>260900</v>
+        <v>259600</v>
       </c>
       <c r="I45" s="3">
-        <v>145700</v>
+        <v>145000</v>
       </c>
       <c r="J45" s="3">
-        <v>24000</v>
+        <v>23900</v>
       </c>
       <c r="K45" s="3">
         <v>27400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2435800</v>
+        <v>2423300</v>
       </c>
       <c r="E46" s="3">
-        <v>2287800</v>
+        <v>2276000</v>
       </c>
       <c r="F46" s="3">
-        <v>2170000</v>
+        <v>2158800</v>
       </c>
       <c r="G46" s="3">
-        <v>1664900</v>
+        <v>1656400</v>
       </c>
       <c r="H46" s="3">
-        <v>1579900</v>
+        <v>1571800</v>
       </c>
       <c r="I46" s="3">
-        <v>1040800</v>
+        <v>1035400</v>
       </c>
       <c r="J46" s="3">
-        <v>679100</v>
+        <v>675600</v>
       </c>
       <c r="K46" s="3">
         <v>696400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80600</v>
+        <v>80200</v>
       </c>
       <c r="E47" s="3">
-        <v>51000</v>
+        <v>50700</v>
       </c>
       <c r="F47" s="3">
-        <v>132800</v>
+        <v>132200</v>
       </c>
       <c r="G47" s="3">
-        <v>183500</v>
+        <v>182600</v>
       </c>
       <c r="H47" s="3">
-        <v>147600</v>
+        <v>146800</v>
       </c>
       <c r="I47" s="3">
-        <v>227400</v>
+        <v>226200</v>
       </c>
       <c r="J47" s="3">
-        <v>73900</v>
+        <v>73500</v>
       </c>
       <c r="K47" s="3">
         <v>64200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1928500</v>
+        <v>1918600</v>
       </c>
       <c r="E48" s="3">
-        <v>1687300</v>
+        <v>1678600</v>
       </c>
       <c r="F48" s="3">
-        <v>1473200</v>
+        <v>1465600</v>
       </c>
       <c r="G48" s="3">
-        <v>1143900</v>
+        <v>1138000</v>
       </c>
       <c r="H48" s="3">
-        <v>975400</v>
+        <v>970300</v>
       </c>
       <c r="I48" s="3">
-        <v>812500</v>
+        <v>808300</v>
       </c>
       <c r="J48" s="3">
-        <v>301500</v>
+        <v>299900</v>
       </c>
       <c r="K48" s="3">
         <v>351800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1463600</v>
+        <v>1456100</v>
       </c>
       <c r="E49" s="3">
-        <v>1338200</v>
+        <v>1331300</v>
       </c>
       <c r="F49" s="3">
-        <v>1228700</v>
+        <v>1222300</v>
       </c>
       <c r="G49" s="3">
-        <v>987000</v>
+        <v>981900</v>
       </c>
       <c r="H49" s="3">
-        <v>974600</v>
+        <v>969600</v>
       </c>
       <c r="I49" s="3">
-        <v>972800</v>
+        <v>967800</v>
       </c>
       <c r="J49" s="3">
-        <v>124900</v>
+        <v>124300</v>
       </c>
       <c r="K49" s="3">
         <v>141300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>185700</v>
+        <v>184700</v>
       </c>
       <c r="E52" s="3">
-        <v>45700</v>
+        <v>45500</v>
       </c>
       <c r="F52" s="3">
-        <v>56100</v>
+        <v>55800</v>
       </c>
       <c r="G52" s="3">
-        <v>42100</v>
+        <v>41900</v>
       </c>
       <c r="H52" s="3">
-        <v>62100</v>
+        <v>61700</v>
       </c>
       <c r="I52" s="3">
-        <v>45100</v>
+        <v>44900</v>
       </c>
       <c r="J52" s="3">
-        <v>29800</v>
+        <v>29700</v>
       </c>
       <c r="K52" s="3">
         <v>19400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6094300</v>
+        <v>6062900</v>
       </c>
       <c r="E54" s="3">
-        <v>5409900</v>
+        <v>5382000</v>
       </c>
       <c r="F54" s="3">
-        <v>5060800</v>
+        <v>5034800</v>
       </c>
       <c r="G54" s="3">
-        <v>4021500</v>
+        <v>4000800</v>
       </c>
       <c r="H54" s="3">
-        <v>3739600</v>
+        <v>3720300</v>
       </c>
       <c r="I54" s="3">
-        <v>3098600</v>
+        <v>3082700</v>
       </c>
       <c r="J54" s="3">
-        <v>1209200</v>
+        <v>1202900</v>
       </c>
       <c r="K54" s="3">
         <v>1273100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>438500</v>
+        <v>436300</v>
       </c>
       <c r="E57" s="3">
-        <v>349500</v>
+        <v>347700</v>
       </c>
       <c r="F57" s="3">
-        <v>322100</v>
+        <v>320400</v>
       </c>
       <c r="G57" s="3">
-        <v>334000</v>
+        <v>332200</v>
       </c>
       <c r="H57" s="3">
-        <v>411100</v>
+        <v>409000</v>
       </c>
       <c r="I57" s="3">
-        <v>549900</v>
+        <v>547100</v>
       </c>
       <c r="J57" s="3">
-        <v>68900</v>
+        <v>68600</v>
       </c>
       <c r="K57" s="3">
         <v>83700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>619200</v>
+        <v>616100</v>
       </c>
       <c r="E58" s="3">
-        <v>902700</v>
+        <v>898100</v>
       </c>
       <c r="F58" s="3">
-        <v>832600</v>
+        <v>828300</v>
       </c>
       <c r="G58" s="3">
-        <v>506300</v>
+        <v>503700</v>
       </c>
       <c r="H58" s="3">
-        <v>336800</v>
+        <v>335100</v>
       </c>
       <c r="I58" s="3">
-        <v>86000</v>
+        <v>85500</v>
       </c>
       <c r="J58" s="3">
-        <v>125100</v>
+        <v>124400</v>
       </c>
       <c r="K58" s="3">
         <v>108100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>310900</v>
+        <v>309300</v>
       </c>
       <c r="E59" s="3">
-        <v>245400</v>
+        <v>244200</v>
       </c>
       <c r="F59" s="3">
-        <v>234600</v>
+        <v>233400</v>
       </c>
       <c r="G59" s="3">
-        <v>251300</v>
+        <v>250000</v>
       </c>
       <c r="H59" s="3">
-        <v>122900</v>
+        <v>122300</v>
       </c>
       <c r="I59" s="3">
-        <v>110200</v>
+        <v>109600</v>
       </c>
       <c r="J59" s="3">
-        <v>60700</v>
+        <v>60400</v>
       </c>
       <c r="K59" s="3">
         <v>66100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1368600</v>
+        <v>1361600</v>
       </c>
       <c r="E60" s="3">
-        <v>1497700</v>
+        <v>1489900</v>
       </c>
       <c r="F60" s="3">
-        <v>1389300</v>
+        <v>1382200</v>
       </c>
       <c r="G60" s="3">
-        <v>1091500</v>
+        <v>1085900</v>
       </c>
       <c r="H60" s="3">
-        <v>870800</v>
+        <v>866400</v>
       </c>
       <c r="I60" s="3">
-        <v>746100</v>
+        <v>742200</v>
       </c>
       <c r="J60" s="3">
-        <v>254700</v>
+        <v>253400</v>
       </c>
       <c r="K60" s="3">
         <v>257900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1935300</v>
+        <v>1925300</v>
       </c>
       <c r="E61" s="3">
-        <v>1500200</v>
+        <v>1492500</v>
       </c>
       <c r="F61" s="3">
-        <v>1552600</v>
+        <v>1544600</v>
       </c>
       <c r="G61" s="3">
-        <v>977300</v>
+        <v>972200</v>
       </c>
       <c r="H61" s="3">
-        <v>820700</v>
+        <v>816500</v>
       </c>
       <c r="I61" s="3">
-        <v>412700</v>
+        <v>410600</v>
       </c>
       <c r="J61" s="3">
-        <v>63700</v>
+        <v>63400</v>
       </c>
       <c r="K61" s="3">
         <v>91400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>330700</v>
+        <v>329000</v>
       </c>
       <c r="E62" s="3">
-        <v>272100</v>
+        <v>270700</v>
       </c>
       <c r="F62" s="3">
-        <v>219200</v>
+        <v>218000</v>
       </c>
       <c r="G62" s="3">
-        <v>172200</v>
+        <v>171400</v>
       </c>
       <c r="H62" s="3">
-        <v>146500</v>
+        <v>145700</v>
       </c>
       <c r="I62" s="3">
-        <v>235800</v>
+        <v>234600</v>
       </c>
       <c r="J62" s="3">
-        <v>38000</v>
+        <v>37800</v>
       </c>
       <c r="K62" s="3">
         <v>42500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3634700</v>
+        <v>3615900</v>
       </c>
       <c r="E66" s="3">
-        <v>3274300</v>
+        <v>3257400</v>
       </c>
       <c r="F66" s="3">
-        <v>3176700</v>
+        <v>3160300</v>
       </c>
       <c r="G66" s="3">
-        <v>2247700</v>
+        <v>2236100</v>
       </c>
       <c r="H66" s="3">
-        <v>1844700</v>
+        <v>1835200</v>
       </c>
       <c r="I66" s="3">
-        <v>1402200</v>
+        <v>1395000</v>
       </c>
       <c r="J66" s="3">
-        <v>336900</v>
+        <v>335100</v>
       </c>
       <c r="K66" s="3">
         <v>380900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2295900</v>
+        <v>2284100</v>
       </c>
       <c r="E72" s="3">
-        <v>1890600</v>
+        <v>1880800</v>
       </c>
       <c r="F72" s="3">
-        <v>1608900</v>
+        <v>1600600</v>
       </c>
       <c r="G72" s="3">
-        <v>1533100</v>
+        <v>1525200</v>
       </c>
       <c r="H72" s="3">
-        <v>1653900</v>
+        <v>1645400</v>
       </c>
       <c r="I72" s="3">
-        <v>1473300</v>
+        <v>1465800</v>
       </c>
       <c r="J72" s="3">
-        <v>676000</v>
+        <v>672500</v>
       </c>
       <c r="K72" s="3">
         <v>680400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2459700</v>
+        <v>2447000</v>
       </c>
       <c r="E76" s="3">
-        <v>2135600</v>
+        <v>2124600</v>
       </c>
       <c r="F76" s="3">
-        <v>1884200</v>
+        <v>1874500</v>
       </c>
       <c r="G76" s="3">
-        <v>1773800</v>
+        <v>1764700</v>
       </c>
       <c r="H76" s="3">
-        <v>1894800</v>
+        <v>1885100</v>
       </c>
       <c r="I76" s="3">
-        <v>1696400</v>
+        <v>1687700</v>
       </c>
       <c r="J76" s="3">
-        <v>872300</v>
+        <v>867800</v>
       </c>
       <c r="K76" s="3">
         <v>892200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>501400</v>
+        <v>498800</v>
       </c>
       <c r="E81" s="3">
-        <v>384200</v>
+        <v>382200</v>
       </c>
       <c r="F81" s="3">
-        <v>239200</v>
+        <v>237900</v>
       </c>
       <c r="G81" s="3">
-        <v>234200</v>
+        <v>233000</v>
       </c>
       <c r="H81" s="3">
-        <v>178900</v>
+        <v>178000</v>
       </c>
       <c r="I81" s="3">
-        <v>245000</v>
+        <v>243700</v>
       </c>
       <c r="J81" s="3">
-        <v>102400</v>
+        <v>101800</v>
       </c>
       <c r="K81" s="3">
         <v>156800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>704400</v>
+        <v>700700</v>
       </c>
       <c r="E83" s="3">
-        <v>594800</v>
+        <v>591700</v>
       </c>
       <c r="F83" s="3">
-        <v>503000</v>
+        <v>500400</v>
       </c>
       <c r="G83" s="3">
-        <v>302400</v>
+        <v>300800</v>
       </c>
       <c r="H83" s="3">
-        <v>253200</v>
+        <v>251900</v>
       </c>
       <c r="I83" s="3">
-        <v>194500</v>
+        <v>193500</v>
       </c>
       <c r="J83" s="3">
-        <v>88500</v>
+        <v>88000</v>
       </c>
       <c r="K83" s="3">
         <v>105500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1667100</v>
+        <v>1658500</v>
       </c>
       <c r="E89" s="3">
-        <v>1169300</v>
+        <v>1163200</v>
       </c>
       <c r="F89" s="3">
-        <v>776500</v>
+        <v>772500</v>
       </c>
       <c r="G89" s="3">
-        <v>432500</v>
+        <v>430200</v>
       </c>
       <c r="H89" s="3">
-        <v>144100</v>
+        <v>143400</v>
       </c>
       <c r="I89" s="3">
-        <v>315100</v>
+        <v>313500</v>
       </c>
       <c r="J89" s="3">
-        <v>94900</v>
+        <v>94400</v>
       </c>
       <c r="K89" s="3">
         <v>126900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-462100</v>
+        <v>-459700</v>
       </c>
       <c r="E91" s="3">
-        <v>-378100</v>
+        <v>-376200</v>
       </c>
       <c r="F91" s="3">
-        <v>-350400</v>
+        <v>-348600</v>
       </c>
       <c r="G91" s="3">
-        <v>-347600</v>
+        <v>-345800</v>
       </c>
       <c r="H91" s="3">
-        <v>-304400</v>
+        <v>-302800</v>
       </c>
       <c r="I91" s="3">
-        <v>-252700</v>
+        <v>-251400</v>
       </c>
       <c r="J91" s="3">
-        <v>-79300</v>
+        <v>-78900</v>
       </c>
       <c r="K91" s="3">
         <v>-80600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-920200</v>
+        <v>-915400</v>
       </c>
       <c r="E94" s="3">
-        <v>-459300</v>
+        <v>-457000</v>
       </c>
       <c r="F94" s="3">
-        <v>-623300</v>
+        <v>-620100</v>
       </c>
       <c r="G94" s="3">
-        <v>-456500</v>
+        <v>-454200</v>
       </c>
       <c r="H94" s="3">
-        <v>-424600</v>
+        <v>-422400</v>
       </c>
       <c r="I94" s="3">
-        <v>-511700</v>
+        <v>-509100</v>
       </c>
       <c r="J94" s="3">
-        <v>-67800</v>
+        <v>-67500</v>
       </c>
       <c r="K94" s="3">
         <v>-60000</v>
@@ -3531,22 +3531,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-99200</v>
+        <v>-98700</v>
       </c>
       <c r="E96" s="3">
-        <v>-133400</v>
+        <v>-132800</v>
       </c>
       <c r="F96" s="3">
-        <v>-230700</v>
+        <v>-229500</v>
       </c>
       <c r="G96" s="3">
-        <v>-361000</v>
+        <v>-359200</v>
       </c>
       <c r="H96" s="3">
         <v>-6100</v>
       </c>
       <c r="I96" s="3">
-        <v>-476400</v>
+        <v>-473900</v>
       </c>
       <c r="J96" s="3">
         <v>-400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-505100</v>
+        <v>-502400</v>
       </c>
       <c r="E100" s="3">
-        <v>-411600</v>
+        <v>-409500</v>
       </c>
       <c r="F100" s="3">
-        <v>-63200</v>
+        <v>-62900</v>
       </c>
       <c r="G100" s="3">
-        <v>-185400</v>
+        <v>-184500</v>
       </c>
       <c r="H100" s="3">
-        <v>572700</v>
+        <v>569700</v>
       </c>
       <c r="I100" s="3">
-        <v>-578400</v>
+        <v>-575400</v>
       </c>
       <c r="J100" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K100" s="3">
         <v>-15500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-50000</v>
+        <v>-49700</v>
       </c>
       <c r="E101" s="3">
-        <v>35300</v>
+        <v>35100</v>
       </c>
       <c r="F101" s="3">
-        <v>230400</v>
+        <v>229200</v>
       </c>
       <c r="G101" s="3">
-        <v>50900</v>
+        <v>50600</v>
       </c>
       <c r="H101" s="3">
-        <v>78600</v>
+        <v>78200</v>
       </c>
       <c r="I101" s="3">
-        <v>51600</v>
+        <v>51300</v>
       </c>
       <c r="J101" s="3">
-        <v>-21500</v>
+        <v>-21400</v>
       </c>
       <c r="K101" s="3">
         <v>-66400</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>191900</v>
+        <v>190900</v>
       </c>
       <c r="E102" s="3">
-        <v>333700</v>
+        <v>331900</v>
       </c>
       <c r="F102" s="3">
-        <v>320300</v>
+        <v>318700</v>
       </c>
       <c r="G102" s="3">
-        <v>-158600</v>
+        <v>-157800</v>
       </c>
       <c r="H102" s="3">
-        <v>370800</v>
+        <v>368900</v>
       </c>
       <c r="I102" s="3">
-        <v>-723400</v>
+        <v>-719700</v>
       </c>
       <c r="J102" s="3">
         <v>10200</v>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3426400</v>
+        <v>2273300</v>
       </c>
       <c r="E8" s="3">
-        <v>2959400</v>
+        <v>1963500</v>
       </c>
       <c r="F8" s="3">
-        <v>2506800</v>
+        <v>1663200</v>
       </c>
       <c r="G8" s="3">
-        <v>2075800</v>
+        <v>1377200</v>
       </c>
       <c r="H8" s="3">
-        <v>1681800</v>
+        <v>1115800</v>
       </c>
       <c r="I8" s="3">
-        <v>1503300</v>
+        <v>997400</v>
       </c>
       <c r="J8" s="3">
-        <v>649000</v>
+        <v>430600</v>
       </c>
       <c r="K8" s="3">
         <v>762800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2394200</v>
+        <v>1588400</v>
       </c>
       <c r="E9" s="3">
-        <v>2011200</v>
+        <v>1334400</v>
       </c>
       <c r="F9" s="3">
-        <v>1665400</v>
+        <v>1104900</v>
       </c>
       <c r="G9" s="3">
-        <v>1336300</v>
+        <v>886600</v>
       </c>
       <c r="H9" s="3">
-        <v>1085400</v>
+        <v>720100</v>
       </c>
       <c r="I9" s="3">
-        <v>914300</v>
+        <v>606600</v>
       </c>
       <c r="J9" s="3">
-        <v>397400</v>
+        <v>263700</v>
       </c>
       <c r="K9" s="3">
         <v>471500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1032200</v>
+        <v>684800</v>
       </c>
       <c r="E10" s="3">
-        <v>948200</v>
+        <v>629100</v>
       </c>
       <c r="F10" s="3">
-        <v>841400</v>
+        <v>558200</v>
       </c>
       <c r="G10" s="3">
-        <v>739600</v>
+        <v>490700</v>
       </c>
       <c r="H10" s="3">
-        <v>596500</v>
+        <v>395700</v>
       </c>
       <c r="I10" s="3">
-        <v>589000</v>
+        <v>390800</v>
       </c>
       <c r="J10" s="3">
-        <v>251600</v>
+        <v>166900</v>
       </c>
       <c r="K10" s="3">
         <v>291300</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>90500</v>
+        <v>60100</v>
       </c>
       <c r="E14" s="3">
-        <v>78800</v>
+        <v>52300</v>
       </c>
       <c r="F14" s="3">
-        <v>38000</v>
+        <v>25200</v>
       </c>
       <c r="G14" s="3">
-        <v>72400</v>
+        <v>48000</v>
       </c>
       <c r="H14" s="3">
-        <v>17200</v>
+        <v>11400</v>
       </c>
       <c r="I14" s="3">
-        <v>9800</v>
+        <v>6500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2503500</v>
+        <v>1661000</v>
       </c>
       <c r="E17" s="3">
-        <v>2222700</v>
+        <v>1474700</v>
       </c>
       <c r="F17" s="3">
-        <v>1800100</v>
+        <v>1194300</v>
       </c>
       <c r="G17" s="3">
-        <v>1634900</v>
+        <v>1084700</v>
       </c>
       <c r="H17" s="3">
-        <v>1275600</v>
+        <v>846300</v>
       </c>
       <c r="I17" s="3">
-        <v>1103000</v>
+        <v>731800</v>
       </c>
       <c r="J17" s="3">
-        <v>538100</v>
+        <v>357000</v>
       </c>
       <c r="K17" s="3">
         <v>634900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>922900</v>
+        <v>612300</v>
       </c>
       <c r="E18" s="3">
-        <v>736700</v>
+        <v>488800</v>
       </c>
       <c r="F18" s="3">
-        <v>706700</v>
+        <v>468900</v>
       </c>
       <c r="G18" s="3">
-        <v>441000</v>
+        <v>292600</v>
       </c>
       <c r="H18" s="3">
-        <v>406300</v>
+        <v>269500</v>
       </c>
       <c r="I18" s="3">
-        <v>400400</v>
+        <v>265600</v>
       </c>
       <c r="J18" s="3">
-        <v>110900</v>
+        <v>73600</v>
       </c>
       <c r="K18" s="3">
         <v>127900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-260400</v>
+        <v>-172700</v>
       </c>
       <c r="E20" s="3">
-        <v>-163200</v>
+        <v>-108300</v>
       </c>
       <c r="F20" s="3">
-        <v>-298700</v>
+        <v>-198200</v>
       </c>
       <c r="G20" s="3">
-        <v>-91800</v>
+        <v>-60900</v>
       </c>
       <c r="H20" s="3">
-        <v>-115800</v>
+        <v>-76900</v>
       </c>
       <c r="I20" s="3">
-        <v>-105400</v>
+        <v>-69900</v>
       </c>
       <c r="J20" s="3">
-        <v>13800</v>
+        <v>9100</v>
       </c>
       <c r="K20" s="3">
         <v>75700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1367000</v>
+        <v>918700</v>
       </c>
       <c r="E21" s="3">
-        <v>1168400</v>
+        <v>785100</v>
       </c>
       <c r="F21" s="3">
-        <v>911100</v>
+        <v>612800</v>
       </c>
       <c r="G21" s="3">
-        <v>651600</v>
+        <v>437300</v>
       </c>
       <c r="H21" s="3">
-        <v>543600</v>
+        <v>364900</v>
       </c>
       <c r="I21" s="3">
-        <v>489500</v>
+        <v>328000</v>
       </c>
       <c r="J21" s="3">
-        <v>213200</v>
+        <v>142900</v>
       </c>
       <c r="K21" s="3">
         <v>308700</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>117800</v>
+        <v>78100</v>
       </c>
       <c r="E22" s="3">
-        <v>186200</v>
+        <v>123600</v>
       </c>
       <c r="F22" s="3">
-        <v>93300</v>
+        <v>61900</v>
       </c>
       <c r="G22" s="3">
-        <v>41900</v>
+        <v>27800</v>
       </c>
       <c r="H22" s="3">
-        <v>51200</v>
+        <v>33900</v>
       </c>
       <c r="I22" s="3">
-        <v>35300</v>
+        <v>23400</v>
       </c>
       <c r="J22" s="3">
-        <v>6300</v>
+        <v>4200</v>
       </c>
       <c r="K22" s="3">
         <v>7000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>544700</v>
+        <v>361400</v>
       </c>
       <c r="E23" s="3">
-        <v>387300</v>
+        <v>257000</v>
       </c>
       <c r="F23" s="3">
-        <v>314700</v>
+        <v>208800</v>
       </c>
       <c r="G23" s="3">
-        <v>307200</v>
+        <v>203800</v>
       </c>
       <c r="H23" s="3">
-        <v>239300</v>
+        <v>158700</v>
       </c>
       <c r="I23" s="3">
-        <v>259700</v>
+        <v>172300</v>
       </c>
       <c r="J23" s="3">
-        <v>118300</v>
+        <v>78500</v>
       </c>
       <c r="K23" s="3">
         <v>196600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45600</v>
+        <v>30200</v>
       </c>
       <c r="E24" s="3">
-        <v>92500</v>
+        <v>61400</v>
       </c>
       <c r="F24" s="3">
-        <v>58300</v>
+        <v>38700</v>
       </c>
       <c r="G24" s="3">
-        <v>67300</v>
+        <v>44700</v>
       </c>
       <c r="H24" s="3">
-        <v>50200</v>
+        <v>33300</v>
       </c>
       <c r="I24" s="3">
-        <v>78600</v>
+        <v>52200</v>
       </c>
       <c r="J24" s="3">
-        <v>39400</v>
+        <v>26100</v>
       </c>
       <c r="K24" s="3">
         <v>39700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>499100</v>
+        <v>331200</v>
       </c>
       <c r="E26" s="3">
-        <v>294800</v>
+        <v>195600</v>
       </c>
       <c r="F26" s="3">
-        <v>256300</v>
+        <v>170100</v>
       </c>
       <c r="G26" s="3">
-        <v>239900</v>
+        <v>159200</v>
       </c>
       <c r="H26" s="3">
-        <v>189000</v>
+        <v>125400</v>
       </c>
       <c r="I26" s="3">
-        <v>181100</v>
+        <v>120200</v>
       </c>
       <c r="J26" s="3">
-        <v>78900</v>
+        <v>52400</v>
       </c>
       <c r="K26" s="3">
         <v>157000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>498800</v>
+        <v>331000</v>
       </c>
       <c r="E27" s="3">
-        <v>291300</v>
+        <v>193200</v>
       </c>
       <c r="F27" s="3">
-        <v>237900</v>
+        <v>157900</v>
       </c>
       <c r="G27" s="3">
-        <v>233000</v>
+        <v>154600</v>
       </c>
       <c r="H27" s="3">
-        <v>182900</v>
+        <v>121400</v>
       </c>
       <c r="I27" s="3">
-        <v>200400</v>
+        <v>133000</v>
       </c>
       <c r="J27" s="3">
-        <v>101800</v>
+        <v>67600</v>
       </c>
       <c r="K27" s="3">
         <v>156800</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>90900</v>
+        <v>60300</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-5000</v>
+        <v>-3300</v>
       </c>
       <c r="I29" s="3">
-        <v>43200</v>
+        <v>28700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>260400</v>
+        <v>172700</v>
       </c>
       <c r="E32" s="3">
-        <v>163200</v>
+        <v>108300</v>
       </c>
       <c r="F32" s="3">
-        <v>298700</v>
+        <v>198200</v>
       </c>
       <c r="G32" s="3">
-        <v>91800</v>
+        <v>60900</v>
       </c>
       <c r="H32" s="3">
-        <v>115800</v>
+        <v>76900</v>
       </c>
       <c r="I32" s="3">
-        <v>105400</v>
+        <v>69900</v>
       </c>
       <c r="J32" s="3">
-        <v>-13800</v>
+        <v>-9100</v>
       </c>
       <c r="K32" s="3">
         <v>-75700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>498800</v>
+        <v>331000</v>
       </c>
       <c r="E33" s="3">
-        <v>382200</v>
+        <v>253600</v>
       </c>
       <c r="F33" s="3">
-        <v>237900</v>
+        <v>157900</v>
       </c>
       <c r="G33" s="3">
-        <v>233000</v>
+        <v>154600</v>
       </c>
       <c r="H33" s="3">
-        <v>178000</v>
+        <v>118100</v>
       </c>
       <c r="I33" s="3">
-        <v>243700</v>
+        <v>161700</v>
       </c>
       <c r="J33" s="3">
-        <v>101800</v>
+        <v>67600</v>
       </c>
       <c r="K33" s="3">
         <v>156800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>498800</v>
+        <v>331000</v>
       </c>
       <c r="E35" s="3">
-        <v>382200</v>
+        <v>253600</v>
       </c>
       <c r="F35" s="3">
-        <v>237900</v>
+        <v>157900</v>
       </c>
       <c r="G35" s="3">
-        <v>233000</v>
+        <v>154600</v>
       </c>
       <c r="H35" s="3">
-        <v>178000</v>
+        <v>118100</v>
       </c>
       <c r="I35" s="3">
-        <v>243700</v>
+        <v>161700</v>
       </c>
       <c r="J35" s="3">
-        <v>101800</v>
+        <v>67600</v>
       </c>
       <c r="K35" s="3">
         <v>156800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1396300</v>
+        <v>926400</v>
       </c>
       <c r="E41" s="3">
-        <v>1205400</v>
+        <v>799700</v>
       </c>
       <c r="F41" s="3">
-        <v>873500</v>
+        <v>579500</v>
       </c>
       <c r="G41" s="3">
-        <v>554800</v>
+        <v>368100</v>
       </c>
       <c r="H41" s="3">
-        <v>712500</v>
+        <v>472700</v>
       </c>
       <c r="I41" s="3">
-        <v>343600</v>
+        <v>228000</v>
       </c>
       <c r="J41" s="3">
-        <v>458500</v>
+        <v>304200</v>
       </c>
       <c r="K41" s="3">
         <v>26400</v>
@@ -1774,16 +1774,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>82600</v>
+        <v>54800</v>
       </c>
       <c r="E42" s="3">
-        <v>41300</v>
+        <v>27400</v>
       </c>
       <c r="F42" s="3">
-        <v>6100</v>
+        <v>4100</v>
       </c>
       <c r="G42" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K42" s="3">
         <v>463200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>777200</v>
+        <v>515700</v>
       </c>
       <c r="E43" s="3">
-        <v>858400</v>
+        <v>569500</v>
       </c>
       <c r="F43" s="3">
-        <v>863900</v>
+        <v>573200</v>
       </c>
       <c r="G43" s="3">
-        <v>749500</v>
+        <v>497300</v>
       </c>
       <c r="H43" s="3">
-        <v>584100</v>
+        <v>387500</v>
       </c>
       <c r="I43" s="3">
-        <v>537900</v>
+        <v>356900</v>
       </c>
       <c r="J43" s="3">
-        <v>188600</v>
+        <v>125100</v>
       </c>
       <c r="K43" s="3">
         <v>175100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24000</v>
+        <v>15900</v>
       </c>
       <c r="E44" s="3">
-        <v>21000</v>
+        <v>13900</v>
       </c>
       <c r="F44" s="3">
-        <v>21200</v>
+        <v>14100</v>
       </c>
       <c r="G44" s="3">
-        <v>12300</v>
+        <v>8100</v>
       </c>
       <c r="H44" s="3">
-        <v>15500</v>
+        <v>10300</v>
       </c>
       <c r="I44" s="3">
-        <v>8900</v>
+        <v>5900</v>
       </c>
       <c r="J44" s="3">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="K44" s="3">
         <v>4200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>143100</v>
+        <v>94900</v>
       </c>
       <c r="E45" s="3">
-        <v>149900</v>
+        <v>99400</v>
       </c>
       <c r="F45" s="3">
-        <v>394100</v>
+        <v>261500</v>
       </c>
       <c r="G45" s="3">
-        <v>338500</v>
+        <v>224600</v>
       </c>
       <c r="H45" s="3">
-        <v>259600</v>
+        <v>172200</v>
       </c>
       <c r="I45" s="3">
-        <v>145000</v>
+        <v>96200</v>
       </c>
       <c r="J45" s="3">
-        <v>23900</v>
+        <v>15900</v>
       </c>
       <c r="K45" s="3">
         <v>27400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2423300</v>
+        <v>1607800</v>
       </c>
       <c r="E46" s="3">
-        <v>2276000</v>
+        <v>1510000</v>
       </c>
       <c r="F46" s="3">
-        <v>2158800</v>
+        <v>1432300</v>
       </c>
       <c r="G46" s="3">
-        <v>1656400</v>
+        <v>1098900</v>
       </c>
       <c r="H46" s="3">
-        <v>1571800</v>
+        <v>1042800</v>
       </c>
       <c r="I46" s="3">
-        <v>1035400</v>
+        <v>687000</v>
       </c>
       <c r="J46" s="3">
-        <v>675600</v>
+        <v>448300</v>
       </c>
       <c r="K46" s="3">
         <v>696400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80200</v>
+        <v>53200</v>
       </c>
       <c r="E47" s="3">
-        <v>50700</v>
+        <v>33600</v>
       </c>
       <c r="F47" s="3">
-        <v>132200</v>
+        <v>87700</v>
       </c>
       <c r="G47" s="3">
-        <v>182600</v>
+        <v>121100</v>
       </c>
       <c r="H47" s="3">
-        <v>146800</v>
+        <v>97400</v>
       </c>
       <c r="I47" s="3">
-        <v>226200</v>
+        <v>150100</v>
       </c>
       <c r="J47" s="3">
-        <v>73500</v>
+        <v>48800</v>
       </c>
       <c r="K47" s="3">
         <v>64200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1918600</v>
+        <v>1272900</v>
       </c>
       <c r="E48" s="3">
-        <v>1678600</v>
+        <v>1113700</v>
       </c>
       <c r="F48" s="3">
-        <v>1465600</v>
+        <v>972400</v>
       </c>
       <c r="G48" s="3">
-        <v>1138000</v>
+        <v>755000</v>
       </c>
       <c r="H48" s="3">
-        <v>970300</v>
+        <v>643800</v>
       </c>
       <c r="I48" s="3">
-        <v>808300</v>
+        <v>536300</v>
       </c>
       <c r="J48" s="3">
-        <v>299900</v>
+        <v>199000</v>
       </c>
       <c r="K48" s="3">
         <v>351800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1456100</v>
+        <v>966000</v>
       </c>
       <c r="E49" s="3">
-        <v>1331300</v>
+        <v>883300</v>
       </c>
       <c r="F49" s="3">
-        <v>1222300</v>
+        <v>811000</v>
       </c>
       <c r="G49" s="3">
-        <v>981900</v>
+        <v>651500</v>
       </c>
       <c r="H49" s="3">
-        <v>969600</v>
+        <v>643300</v>
       </c>
       <c r="I49" s="3">
-        <v>967800</v>
+        <v>642100</v>
       </c>
       <c r="J49" s="3">
-        <v>124300</v>
+        <v>82400</v>
       </c>
       <c r="K49" s="3">
         <v>141300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>184700</v>
+        <v>122600</v>
       </c>
       <c r="E52" s="3">
-        <v>45500</v>
+        <v>30200</v>
       </c>
       <c r="F52" s="3">
-        <v>55800</v>
+        <v>37000</v>
       </c>
       <c r="G52" s="3">
-        <v>41900</v>
+        <v>27800</v>
       </c>
       <c r="H52" s="3">
-        <v>61700</v>
+        <v>41000</v>
       </c>
       <c r="I52" s="3">
-        <v>44900</v>
+        <v>29800</v>
       </c>
       <c r="J52" s="3">
-        <v>29700</v>
+        <v>19700</v>
       </c>
       <c r="K52" s="3">
         <v>19400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6062900</v>
+        <v>4022500</v>
       </c>
       <c r="E54" s="3">
-        <v>5382000</v>
+        <v>3570800</v>
       </c>
       <c r="F54" s="3">
-        <v>5034800</v>
+        <v>3340400</v>
       </c>
       <c r="G54" s="3">
-        <v>4000800</v>
+        <v>2654400</v>
       </c>
       <c r="H54" s="3">
-        <v>3720300</v>
+        <v>2468300</v>
       </c>
       <c r="I54" s="3">
-        <v>3082700</v>
+        <v>2045200</v>
       </c>
       <c r="J54" s="3">
-        <v>1202900</v>
+        <v>798100</v>
       </c>
       <c r="K54" s="3">
         <v>1273100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>436300</v>
+        <v>289400</v>
       </c>
       <c r="E57" s="3">
-        <v>347700</v>
+        <v>230700</v>
       </c>
       <c r="F57" s="3">
-        <v>320400</v>
+        <v>212600</v>
       </c>
       <c r="G57" s="3">
-        <v>332200</v>
+        <v>220400</v>
       </c>
       <c r="H57" s="3">
-        <v>409000</v>
+        <v>271400</v>
       </c>
       <c r="I57" s="3">
-        <v>547100</v>
+        <v>363000</v>
       </c>
       <c r="J57" s="3">
-        <v>68600</v>
+        <v>45500</v>
       </c>
       <c r="K57" s="3">
         <v>83700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>616100</v>
+        <v>408700</v>
       </c>
       <c r="E58" s="3">
-        <v>898100</v>
+        <v>595800</v>
       </c>
       <c r="F58" s="3">
-        <v>828300</v>
+        <v>549600</v>
       </c>
       <c r="G58" s="3">
-        <v>503700</v>
+        <v>334200</v>
       </c>
       <c r="H58" s="3">
-        <v>335100</v>
+        <v>222300</v>
       </c>
       <c r="I58" s="3">
-        <v>85500</v>
+        <v>56700</v>
       </c>
       <c r="J58" s="3">
-        <v>124400</v>
+        <v>82500</v>
       </c>
       <c r="K58" s="3">
         <v>108100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>309300</v>
+        <v>205200</v>
       </c>
       <c r="E59" s="3">
-        <v>244200</v>
+        <v>162000</v>
       </c>
       <c r="F59" s="3">
-        <v>233400</v>
+        <v>154900</v>
       </c>
       <c r="G59" s="3">
-        <v>250000</v>
+        <v>165900</v>
       </c>
       <c r="H59" s="3">
-        <v>122300</v>
+        <v>81100</v>
       </c>
       <c r="I59" s="3">
-        <v>109600</v>
+        <v>72700</v>
       </c>
       <c r="J59" s="3">
-        <v>60400</v>
+        <v>40100</v>
       </c>
       <c r="K59" s="3">
         <v>66100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1361600</v>
+        <v>903400</v>
       </c>
       <c r="E60" s="3">
-        <v>1489900</v>
+        <v>988500</v>
       </c>
       <c r="F60" s="3">
-        <v>1382200</v>
+        <v>917000</v>
       </c>
       <c r="G60" s="3">
-        <v>1085900</v>
+        <v>720500</v>
       </c>
       <c r="H60" s="3">
-        <v>866400</v>
+        <v>574800</v>
       </c>
       <c r="I60" s="3">
-        <v>742200</v>
+        <v>492400</v>
       </c>
       <c r="J60" s="3">
-        <v>253400</v>
+        <v>168100</v>
       </c>
       <c r="K60" s="3">
         <v>257900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1925300</v>
+        <v>1277400</v>
       </c>
       <c r="E61" s="3">
-        <v>1492500</v>
+        <v>990200</v>
       </c>
       <c r="F61" s="3">
-        <v>1544600</v>
+        <v>1024800</v>
       </c>
       <c r="G61" s="3">
-        <v>972200</v>
+        <v>645000</v>
       </c>
       <c r="H61" s="3">
-        <v>816500</v>
+        <v>541700</v>
       </c>
       <c r="I61" s="3">
-        <v>410600</v>
+        <v>272400</v>
       </c>
       <c r="J61" s="3">
-        <v>63400</v>
+        <v>42000</v>
       </c>
       <c r="K61" s="3">
         <v>91400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>329000</v>
+        <v>218300</v>
       </c>
       <c r="E62" s="3">
-        <v>270700</v>
+        <v>179600</v>
       </c>
       <c r="F62" s="3">
-        <v>218000</v>
+        <v>144700</v>
       </c>
       <c r="G62" s="3">
-        <v>171400</v>
+        <v>113700</v>
       </c>
       <c r="H62" s="3">
-        <v>145700</v>
+        <v>96700</v>
       </c>
       <c r="I62" s="3">
-        <v>234600</v>
+        <v>155700</v>
       </c>
       <c r="J62" s="3">
-        <v>37800</v>
+        <v>25100</v>
       </c>
       <c r="K62" s="3">
         <v>42500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3615900</v>
+        <v>2399000</v>
       </c>
       <c r="E66" s="3">
-        <v>3257400</v>
+        <v>2161200</v>
       </c>
       <c r="F66" s="3">
-        <v>3160300</v>
+        <v>2096700</v>
       </c>
       <c r="G66" s="3">
-        <v>2236100</v>
+        <v>1483600</v>
       </c>
       <c r="H66" s="3">
-        <v>1835200</v>
+        <v>1217600</v>
       </c>
       <c r="I66" s="3">
-        <v>1395000</v>
+        <v>925500</v>
       </c>
       <c r="J66" s="3">
-        <v>335100</v>
+        <v>222300</v>
       </c>
       <c r="K66" s="3">
         <v>380900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2284100</v>
+        <v>1515400</v>
       </c>
       <c r="E72" s="3">
-        <v>1880800</v>
+        <v>1247900</v>
       </c>
       <c r="F72" s="3">
-        <v>1600600</v>
+        <v>1061900</v>
       </c>
       <c r="G72" s="3">
-        <v>1525200</v>
+        <v>1011900</v>
       </c>
       <c r="H72" s="3">
-        <v>1645400</v>
+        <v>1091700</v>
       </c>
       <c r="I72" s="3">
-        <v>1465800</v>
+        <v>972500</v>
       </c>
       <c r="J72" s="3">
-        <v>672500</v>
+        <v>446200</v>
       </c>
       <c r="K72" s="3">
         <v>680400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2447000</v>
+        <v>1623500</v>
       </c>
       <c r="E76" s="3">
-        <v>2124600</v>
+        <v>1409600</v>
       </c>
       <c r="F76" s="3">
-        <v>1874500</v>
+        <v>1243600</v>
       </c>
       <c r="G76" s="3">
-        <v>1764700</v>
+        <v>1170800</v>
       </c>
       <c r="H76" s="3">
-        <v>1885100</v>
+        <v>1250700</v>
       </c>
       <c r="I76" s="3">
-        <v>1687700</v>
+        <v>1119700</v>
       </c>
       <c r="J76" s="3">
-        <v>867800</v>
+        <v>575800</v>
       </c>
       <c r="K76" s="3">
         <v>892200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>498800</v>
+        <v>331000</v>
       </c>
       <c r="E81" s="3">
-        <v>382200</v>
+        <v>253600</v>
       </c>
       <c r="F81" s="3">
-        <v>237900</v>
+        <v>157900</v>
       </c>
       <c r="G81" s="3">
-        <v>233000</v>
+        <v>154600</v>
       </c>
       <c r="H81" s="3">
-        <v>178000</v>
+        <v>118100</v>
       </c>
       <c r="I81" s="3">
-        <v>243700</v>
+        <v>161700</v>
       </c>
       <c r="J81" s="3">
-        <v>101800</v>
+        <v>67600</v>
       </c>
       <c r="K81" s="3">
         <v>156800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700700</v>
+        <v>464900</v>
       </c>
       <c r="E83" s="3">
-        <v>591700</v>
+        <v>392600</v>
       </c>
       <c r="F83" s="3">
-        <v>500400</v>
+        <v>332000</v>
       </c>
       <c r="G83" s="3">
-        <v>300800</v>
+        <v>199600</v>
       </c>
       <c r="H83" s="3">
-        <v>251900</v>
+        <v>167100</v>
       </c>
       <c r="I83" s="3">
-        <v>193500</v>
+        <v>128400</v>
       </c>
       <c r="J83" s="3">
-        <v>88000</v>
+        <v>58400</v>
       </c>
       <c r="K83" s="3">
         <v>105500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1658500</v>
+        <v>1100400</v>
       </c>
       <c r="E89" s="3">
-        <v>1163200</v>
+        <v>771800</v>
       </c>
       <c r="F89" s="3">
-        <v>772500</v>
+        <v>512500</v>
       </c>
       <c r="G89" s="3">
-        <v>430200</v>
+        <v>285400</v>
       </c>
       <c r="H89" s="3">
-        <v>143400</v>
+        <v>95100</v>
       </c>
       <c r="I89" s="3">
-        <v>313500</v>
+        <v>208000</v>
       </c>
       <c r="J89" s="3">
-        <v>94400</v>
+        <v>62600</v>
       </c>
       <c r="K89" s="3">
         <v>126900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-459700</v>
+        <v>-305000</v>
       </c>
       <c r="E91" s="3">
-        <v>-376200</v>
+        <v>-249600</v>
       </c>
       <c r="F91" s="3">
-        <v>-348600</v>
+        <v>-231300</v>
       </c>
       <c r="G91" s="3">
-        <v>-345800</v>
+        <v>-229400</v>
       </c>
       <c r="H91" s="3">
-        <v>-302800</v>
+        <v>-200900</v>
       </c>
       <c r="I91" s="3">
-        <v>-251400</v>
+        <v>-166800</v>
       </c>
       <c r="J91" s="3">
-        <v>-78900</v>
+        <v>-52300</v>
       </c>
       <c r="K91" s="3">
         <v>-80600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-915400</v>
+        <v>-607300</v>
       </c>
       <c r="E94" s="3">
-        <v>-457000</v>
+        <v>-303200</v>
       </c>
       <c r="F94" s="3">
-        <v>-620100</v>
+        <v>-411400</v>
       </c>
       <c r="G94" s="3">
-        <v>-454200</v>
+        <v>-301300</v>
       </c>
       <c r="H94" s="3">
-        <v>-422400</v>
+        <v>-280200</v>
       </c>
       <c r="I94" s="3">
-        <v>-509100</v>
+        <v>-337800</v>
       </c>
       <c r="J94" s="3">
-        <v>-67500</v>
+        <v>-44800</v>
       </c>
       <c r="K94" s="3">
         <v>-60000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-98700</v>
+        <v>-65500</v>
       </c>
       <c r="E96" s="3">
-        <v>-132800</v>
+        <v>-88100</v>
       </c>
       <c r="F96" s="3">
-        <v>-229500</v>
+        <v>-152300</v>
       </c>
       <c r="G96" s="3">
-        <v>-359200</v>
+        <v>-238300</v>
       </c>
       <c r="H96" s="3">
-        <v>-6100</v>
+        <v>-4000</v>
       </c>
       <c r="I96" s="3">
-        <v>-473900</v>
+        <v>-314400</v>
       </c>
       <c r="J96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K96" s="3">
         <v>-100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-502400</v>
+        <v>-333400</v>
       </c>
       <c r="E100" s="3">
-        <v>-409500</v>
+        <v>-271700</v>
       </c>
       <c r="F100" s="3">
-        <v>-62900</v>
+        <v>-41700</v>
       </c>
       <c r="G100" s="3">
-        <v>-184500</v>
+        <v>-122400</v>
       </c>
       <c r="H100" s="3">
-        <v>569700</v>
+        <v>378000</v>
       </c>
       <c r="I100" s="3">
-        <v>-575400</v>
+        <v>-381800</v>
       </c>
       <c r="J100" s="3">
-        <v>4600</v>
+        <v>3100</v>
       </c>
       <c r="K100" s="3">
         <v>-15500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-49700</v>
+        <v>-33000</v>
       </c>
       <c r="E101" s="3">
-        <v>35100</v>
+        <v>23300</v>
       </c>
       <c r="F101" s="3">
-        <v>229200</v>
+        <v>152100</v>
       </c>
       <c r="G101" s="3">
-        <v>50600</v>
+        <v>33600</v>
       </c>
       <c r="H101" s="3">
-        <v>78200</v>
+        <v>51900</v>
       </c>
       <c r="I101" s="3">
-        <v>51300</v>
+        <v>34100</v>
       </c>
       <c r="J101" s="3">
-        <v>-21400</v>
+        <v>-14200</v>
       </c>
       <c r="K101" s="3">
         <v>-66400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>190900</v>
+        <v>126700</v>
       </c>
       <c r="E102" s="3">
-        <v>331900</v>
+        <v>220200</v>
       </c>
       <c r="F102" s="3">
-        <v>318700</v>
+        <v>211400</v>
       </c>
       <c r="G102" s="3">
-        <v>-157800</v>
+        <v>-104700</v>
       </c>
       <c r="H102" s="3">
-        <v>368900</v>
+        <v>244800</v>
       </c>
       <c r="I102" s="3">
-        <v>-719700</v>
+        <v>-477500</v>
       </c>
       <c r="J102" s="3">
-        <v>10200</v>
+        <v>6800</v>
       </c>
       <c r="K102" s="3">
         <v>-15000</v>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TKC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2273300</v>
+        <v>2433600</v>
       </c>
       <c r="E8" s="3">
-        <v>1963500</v>
+        <v>1971800</v>
       </c>
       <c r="F8" s="3">
-        <v>1663200</v>
+        <v>1703000</v>
       </c>
       <c r="G8" s="3">
-        <v>1377200</v>
+        <v>1442600</v>
       </c>
       <c r="H8" s="3">
-        <v>1115800</v>
+        <v>1194600</v>
       </c>
       <c r="I8" s="3">
-        <v>997400</v>
+        <v>967800</v>
       </c>
       <c r="J8" s="3">
+        <v>865100</v>
+      </c>
+      <c r="K8" s="3">
         <v>430600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>762800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>979900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>920800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1588400</v>
+        <v>1709300</v>
       </c>
       <c r="E9" s="3">
-        <v>1334400</v>
+        <v>1377800</v>
       </c>
       <c r="F9" s="3">
-        <v>1104900</v>
+        <v>1157400</v>
       </c>
       <c r="G9" s="3">
-        <v>886600</v>
+        <v>958400</v>
       </c>
       <c r="H9" s="3">
-        <v>720100</v>
+        <v>769000</v>
       </c>
       <c r="I9" s="3">
-        <v>606600</v>
+        <v>624600</v>
       </c>
       <c r="J9" s="3">
+        <v>526200</v>
+      </c>
+      <c r="K9" s="3">
         <v>263700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>471500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>605100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>579300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>684800</v>
+        <v>724300</v>
       </c>
       <c r="E10" s="3">
-        <v>629100</v>
+        <v>594000</v>
       </c>
       <c r="F10" s="3">
-        <v>558200</v>
+        <v>545600</v>
       </c>
       <c r="G10" s="3">
-        <v>490700</v>
+        <v>484200</v>
       </c>
       <c r="H10" s="3">
-        <v>395700</v>
+        <v>425600</v>
       </c>
       <c r="I10" s="3">
-        <v>390800</v>
+        <v>343300</v>
       </c>
       <c r="J10" s="3">
+        <v>338900</v>
+      </c>
+      <c r="K10" s="3">
         <v>166900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>291300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>374800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>341600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>60100</v>
+        <v>40000</v>
       </c>
       <c r="E14" s="3">
-        <v>52300</v>
+        <v>52100</v>
       </c>
       <c r="F14" s="3">
-        <v>25200</v>
+        <v>45300</v>
       </c>
       <c r="G14" s="3">
-        <v>48000</v>
+        <v>21900</v>
       </c>
       <c r="H14" s="3">
-        <v>11400</v>
+        <v>41600</v>
       </c>
       <c r="I14" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>9900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>4300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17300</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1661000</v>
+        <v>1476200</v>
       </c>
       <c r="E17" s="3">
-        <v>1474700</v>
+        <v>1440700</v>
       </c>
       <c r="F17" s="3">
-        <v>1194300</v>
+        <v>1279100</v>
       </c>
       <c r="G17" s="3">
-        <v>1084700</v>
+        <v>1035900</v>
       </c>
       <c r="H17" s="3">
-        <v>846300</v>
+        <v>940800</v>
       </c>
       <c r="I17" s="3">
-        <v>731800</v>
+        <v>734100</v>
       </c>
       <c r="J17" s="3">
+        <v>634700</v>
+      </c>
+      <c r="K17" s="3">
         <v>357000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>634900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>819400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>806800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>612300</v>
+        <v>957400</v>
       </c>
       <c r="E18" s="3">
-        <v>488800</v>
+        <v>531100</v>
       </c>
       <c r="F18" s="3">
-        <v>468900</v>
+        <v>424000</v>
       </c>
       <c r="G18" s="3">
-        <v>292600</v>
+        <v>406700</v>
       </c>
       <c r="H18" s="3">
-        <v>269500</v>
+        <v>253800</v>
       </c>
       <c r="I18" s="3">
-        <v>265600</v>
+        <v>233800</v>
       </c>
       <c r="J18" s="3">
+        <v>230400</v>
+      </c>
+      <c r="K18" s="3">
         <v>73600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>127900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>160500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>114100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-172700</v>
+        <v>-568500</v>
       </c>
       <c r="E20" s="3">
-        <v>-108300</v>
+        <v>-149800</v>
       </c>
       <c r="F20" s="3">
-        <v>-198200</v>
+        <v>-93900</v>
       </c>
       <c r="G20" s="3">
-        <v>-60900</v>
+        <v>-171900</v>
       </c>
       <c r="H20" s="3">
-        <v>-76900</v>
+        <v>-52800</v>
       </c>
       <c r="I20" s="3">
-        <v>-69900</v>
+        <v>-66700</v>
       </c>
       <c r="J20" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K20" s="3">
         <v>9100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>75700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>98600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>62100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>918700</v>
+        <v>884300</v>
       </c>
       <c r="E21" s="3">
-        <v>785100</v>
+        <v>787900</v>
       </c>
       <c r="F21" s="3">
-        <v>612800</v>
+        <v>673400</v>
       </c>
       <c r="G21" s="3">
-        <v>437300</v>
+        <v>525200</v>
       </c>
       <c r="H21" s="3">
-        <v>364900</v>
+        <v>375500</v>
       </c>
       <c r="I21" s="3">
-        <v>328000</v>
+        <v>313300</v>
       </c>
       <c r="J21" s="3">
+        <v>282100</v>
+      </c>
+      <c r="K21" s="3">
         <v>142900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>308700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>391000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>326600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>78100</v>
+        <v>81200</v>
       </c>
       <c r="E22" s="3">
-        <v>123600</v>
+        <v>67800</v>
       </c>
       <c r="F22" s="3">
-        <v>61900</v>
+        <v>107200</v>
       </c>
       <c r="G22" s="3">
-        <v>27800</v>
+        <v>53700</v>
       </c>
       <c r="H22" s="3">
-        <v>33900</v>
+        <v>24100</v>
       </c>
       <c r="I22" s="3">
-        <v>23400</v>
+        <v>29400</v>
       </c>
       <c r="J22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>361400</v>
+        <v>307700</v>
       </c>
       <c r="E23" s="3">
-        <v>257000</v>
+        <v>313500</v>
       </c>
       <c r="F23" s="3">
-        <v>208800</v>
+        <v>222900</v>
       </c>
       <c r="G23" s="3">
-        <v>203800</v>
+        <v>181100</v>
       </c>
       <c r="H23" s="3">
-        <v>158700</v>
+        <v>176800</v>
       </c>
       <c r="I23" s="3">
-        <v>172300</v>
+        <v>137700</v>
       </c>
       <c r="J23" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K23" s="3">
         <v>78500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>196600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>240300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>167000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30200</v>
+        <v>-33200</v>
       </c>
       <c r="E24" s="3">
-        <v>61400</v>
+        <v>26200</v>
       </c>
       <c r="F24" s="3">
+        <v>53200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>33600</v>
+      </c>
+      <c r="H24" s="3">
         <v>38700</v>
       </c>
-      <c r="G24" s="3">
-        <v>44700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>33300</v>
-      </c>
       <c r="I24" s="3">
-        <v>52200</v>
+        <v>28900</v>
       </c>
       <c r="J24" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K24" s="3">
         <v>26100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>331200</v>
+        <v>340900</v>
       </c>
       <c r="E26" s="3">
-        <v>195600</v>
+        <v>287200</v>
       </c>
       <c r="F26" s="3">
-        <v>170100</v>
+        <v>169700</v>
       </c>
       <c r="G26" s="3">
-        <v>159200</v>
+        <v>147500</v>
       </c>
       <c r="H26" s="3">
-        <v>125400</v>
+        <v>138100</v>
       </c>
       <c r="I26" s="3">
-        <v>120200</v>
+        <v>108800</v>
       </c>
       <c r="J26" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K26" s="3">
         <v>52400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>157000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>191600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>119000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>331000</v>
+        <v>340900</v>
       </c>
       <c r="E27" s="3">
-        <v>193200</v>
+        <v>287100</v>
       </c>
       <c r="F27" s="3">
-        <v>157900</v>
+        <v>167600</v>
       </c>
       <c r="G27" s="3">
-        <v>154600</v>
+        <v>136900</v>
       </c>
       <c r="H27" s="3">
-        <v>121400</v>
+        <v>134100</v>
       </c>
       <c r="I27" s="3">
-        <v>133000</v>
+        <v>105300</v>
       </c>
       <c r="J27" s="3">
+        <v>115300</v>
+      </c>
+      <c r="K27" s="3">
         <v>67600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>156800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>193600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>123400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,32 +1463,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>60300</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>52300</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-3300</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>28700</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>-2900</v>
+      </c>
+      <c r="J29" s="3">
+        <v>24900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>172700</v>
+        <v>568500</v>
       </c>
       <c r="E32" s="3">
-        <v>108300</v>
+        <v>149800</v>
       </c>
       <c r="F32" s="3">
-        <v>198200</v>
+        <v>93900</v>
       </c>
       <c r="G32" s="3">
-        <v>60900</v>
+        <v>171900</v>
       </c>
       <c r="H32" s="3">
-        <v>76900</v>
+        <v>52800</v>
       </c>
       <c r="I32" s="3">
-        <v>69900</v>
+        <v>66700</v>
       </c>
       <c r="J32" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-75700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-98600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-62100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>331000</v>
+        <v>340900</v>
       </c>
       <c r="E33" s="3">
-        <v>253600</v>
+        <v>287100</v>
       </c>
       <c r="F33" s="3">
-        <v>157900</v>
+        <v>219900</v>
       </c>
       <c r="G33" s="3">
-        <v>154600</v>
+        <v>136900</v>
       </c>
       <c r="H33" s="3">
-        <v>118100</v>
+        <v>134100</v>
       </c>
       <c r="I33" s="3">
-        <v>161700</v>
+        <v>102400</v>
       </c>
       <c r="J33" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K33" s="3">
         <v>67600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>156800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>193600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>123400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>331000</v>
+        <v>340900</v>
       </c>
       <c r="E35" s="3">
-        <v>253600</v>
+        <v>287100</v>
       </c>
       <c r="F35" s="3">
-        <v>157900</v>
+        <v>219900</v>
       </c>
       <c r="G35" s="3">
-        <v>154600</v>
+        <v>136900</v>
       </c>
       <c r="H35" s="3">
-        <v>118100</v>
+        <v>134100</v>
       </c>
       <c r="I35" s="3">
-        <v>161700</v>
+        <v>102400</v>
       </c>
       <c r="J35" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K35" s="3">
         <v>67600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>156800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>193600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>123400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>926400</v>
+        <v>1262100</v>
       </c>
       <c r="E41" s="3">
-        <v>799700</v>
+        <v>803600</v>
       </c>
       <c r="F41" s="3">
-        <v>579500</v>
+        <v>693700</v>
       </c>
       <c r="G41" s="3">
-        <v>368100</v>
+        <v>502700</v>
       </c>
       <c r="H41" s="3">
-        <v>472700</v>
+        <v>319300</v>
       </c>
       <c r="I41" s="3">
-        <v>228000</v>
+        <v>410000</v>
       </c>
       <c r="J41" s="3">
+        <v>197700</v>
+      </c>
+      <c r="K41" s="3">
         <v>304200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54800</v>
+        <v>3700</v>
       </c>
       <c r="E42" s="3">
-        <v>27400</v>
+        <v>47600</v>
       </c>
       <c r="F42" s="3">
-        <v>4100</v>
+        <v>23800</v>
       </c>
       <c r="G42" s="3">
-        <v>900</v>
-      </c>
-      <c r="H42" s="3" t="s">
+        <v>3500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>800</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>463200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>659500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>550400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>515700</v>
+        <v>545700</v>
       </c>
       <c r="E43" s="3">
-        <v>569500</v>
+        <v>447300</v>
       </c>
       <c r="F43" s="3">
-        <v>573200</v>
+        <v>494000</v>
       </c>
       <c r="G43" s="3">
-        <v>497300</v>
+        <v>497200</v>
       </c>
       <c r="H43" s="3">
-        <v>387500</v>
+        <v>431300</v>
       </c>
       <c r="I43" s="3">
-        <v>356900</v>
+        <v>336100</v>
       </c>
       <c r="J43" s="3">
+        <v>309600</v>
+      </c>
+      <c r="K43" s="3">
         <v>125100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>175100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>215500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>158300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15900</v>
+        <v>17700</v>
       </c>
       <c r="E44" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="F44" s="3">
-        <v>14100</v>
+        <v>12100</v>
       </c>
       <c r="G44" s="3">
-        <v>8100</v>
+        <v>12200</v>
       </c>
       <c r="H44" s="3">
-        <v>10300</v>
+        <v>7100</v>
       </c>
       <c r="I44" s="3">
-        <v>5900</v>
+        <v>8900</v>
       </c>
       <c r="J44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>94900</v>
+        <v>170200</v>
       </c>
       <c r="E45" s="3">
-        <v>99400</v>
+        <v>82300</v>
       </c>
       <c r="F45" s="3">
-        <v>261500</v>
+        <v>86300</v>
       </c>
       <c r="G45" s="3">
-        <v>224600</v>
+        <v>226800</v>
       </c>
       <c r="H45" s="3">
-        <v>172200</v>
+        <v>194800</v>
       </c>
       <c r="I45" s="3">
-        <v>96200</v>
+        <v>149400</v>
       </c>
       <c r="J45" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K45" s="3">
         <v>15900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1607800</v>
+        <v>1999400</v>
       </c>
       <c r="E46" s="3">
-        <v>1510000</v>
+        <v>1394500</v>
       </c>
       <c r="F46" s="3">
-        <v>1432300</v>
+        <v>1309800</v>
       </c>
       <c r="G46" s="3">
-        <v>1098900</v>
+        <v>1242300</v>
       </c>
       <c r="H46" s="3">
-        <v>1042800</v>
+        <v>953200</v>
       </c>
       <c r="I46" s="3">
-        <v>687000</v>
+        <v>904500</v>
       </c>
       <c r="J46" s="3">
+        <v>595900</v>
+      </c>
+      <c r="K46" s="3">
         <v>448300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>696400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>916100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>732700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>53200</v>
+        <v>181600</v>
       </c>
       <c r="E47" s="3">
-        <v>33600</v>
+        <v>46200</v>
       </c>
       <c r="F47" s="3">
-        <v>87700</v>
+        <v>29200</v>
       </c>
       <c r="G47" s="3">
-        <v>121100</v>
+        <v>76100</v>
       </c>
       <c r="H47" s="3">
-        <v>97400</v>
+        <v>105100</v>
       </c>
       <c r="I47" s="3">
-        <v>150100</v>
+        <v>84500</v>
       </c>
       <c r="J47" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K47" s="3">
         <v>48800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>64200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>98200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>103000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1272900</v>
+        <v>1423000</v>
       </c>
       <c r="E48" s="3">
-        <v>1113700</v>
+        <v>1104100</v>
       </c>
       <c r="F48" s="3">
-        <v>972400</v>
+        <v>966000</v>
       </c>
       <c r="G48" s="3">
-        <v>755000</v>
+        <v>843400</v>
       </c>
       <c r="H48" s="3">
-        <v>643800</v>
+        <v>654900</v>
       </c>
       <c r="I48" s="3">
-        <v>536300</v>
+        <v>558400</v>
       </c>
       <c r="J48" s="3">
+        <v>465200</v>
+      </c>
+      <c r="K48" s="3">
         <v>199000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>351800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>511400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>444800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>966000</v>
+        <v>993300</v>
       </c>
       <c r="E49" s="3">
-        <v>883300</v>
+        <v>837900</v>
       </c>
       <c r="F49" s="3">
-        <v>811000</v>
+        <v>766100</v>
       </c>
       <c r="G49" s="3">
-        <v>651500</v>
+        <v>703400</v>
       </c>
       <c r="H49" s="3">
-        <v>643300</v>
+        <v>565100</v>
       </c>
       <c r="I49" s="3">
-        <v>642100</v>
+        <v>558000</v>
       </c>
       <c r="J49" s="3">
+        <v>556900</v>
+      </c>
+      <c r="K49" s="3">
         <v>82400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>141300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>216500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>204600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>122600</v>
+        <v>191500</v>
       </c>
       <c r="E52" s="3">
-        <v>30200</v>
+        <v>106300</v>
       </c>
       <c r="F52" s="3">
-        <v>37000</v>
+        <v>26200</v>
       </c>
       <c r="G52" s="3">
-        <v>27800</v>
+        <v>32100</v>
       </c>
       <c r="H52" s="3">
-        <v>41000</v>
+        <v>24100</v>
       </c>
       <c r="I52" s="3">
-        <v>29800</v>
+        <v>35500</v>
       </c>
       <c r="J52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K52" s="3">
         <v>19700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4022500</v>
+        <v>4788700</v>
       </c>
       <c r="E54" s="3">
-        <v>3570800</v>
+        <v>3489000</v>
       </c>
       <c r="F54" s="3">
-        <v>3340400</v>
+        <v>3097200</v>
       </c>
       <c r="G54" s="3">
-        <v>2654400</v>
+        <v>2897300</v>
       </c>
       <c r="H54" s="3">
-        <v>2468300</v>
+        <v>2302300</v>
       </c>
       <c r="I54" s="3">
-        <v>2045200</v>
+        <v>2140900</v>
       </c>
       <c r="J54" s="3">
+        <v>1774000</v>
+      </c>
+      <c r="K54" s="3">
         <v>798100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1273100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1751300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1493600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>289400</v>
+        <v>341300</v>
       </c>
       <c r="E57" s="3">
-        <v>230700</v>
+        <v>251000</v>
       </c>
       <c r="F57" s="3">
-        <v>212600</v>
+        <v>200100</v>
       </c>
       <c r="G57" s="3">
-        <v>220400</v>
+        <v>184400</v>
       </c>
       <c r="H57" s="3">
-        <v>271400</v>
+        <v>191200</v>
       </c>
       <c r="I57" s="3">
-        <v>363000</v>
+        <v>235400</v>
       </c>
       <c r="J57" s="3">
+        <v>314800</v>
+      </c>
+      <c r="K57" s="3">
         <v>45500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>83700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>94900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>87100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>408700</v>
+        <v>599500</v>
       </c>
       <c r="E58" s="3">
-        <v>595800</v>
+        <v>354500</v>
       </c>
       <c r="F58" s="3">
-        <v>549600</v>
+        <v>516800</v>
       </c>
       <c r="G58" s="3">
-        <v>334200</v>
+        <v>476700</v>
       </c>
       <c r="H58" s="3">
-        <v>222300</v>
+        <v>289800</v>
       </c>
       <c r="I58" s="3">
-        <v>56700</v>
+        <v>192800</v>
       </c>
       <c r="J58" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K58" s="3">
         <v>82500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>108100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>181400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>133300</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>205200</v>
+        <v>217200</v>
       </c>
       <c r="E59" s="3">
-        <v>162000</v>
+        <v>178000</v>
       </c>
       <c r="F59" s="3">
-        <v>154900</v>
+        <v>140500</v>
       </c>
       <c r="G59" s="3">
-        <v>165900</v>
+        <v>134300</v>
       </c>
       <c r="H59" s="3">
-        <v>81100</v>
+        <v>143900</v>
       </c>
       <c r="I59" s="3">
-        <v>72700</v>
+        <v>70400</v>
       </c>
       <c r="J59" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K59" s="3">
         <v>40100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>116600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>118400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>903400</v>
+        <v>1157900</v>
       </c>
       <c r="E60" s="3">
-        <v>988500</v>
+        <v>783500</v>
       </c>
       <c r="F60" s="3">
-        <v>917000</v>
+        <v>857400</v>
       </c>
       <c r="G60" s="3">
-        <v>720500</v>
+        <v>795400</v>
       </c>
       <c r="H60" s="3">
-        <v>574800</v>
+        <v>624900</v>
       </c>
       <c r="I60" s="3">
-        <v>492400</v>
+        <v>498600</v>
       </c>
       <c r="J60" s="3">
+        <v>427100</v>
+      </c>
+      <c r="K60" s="3">
         <v>168100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>257900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>392800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>338700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1277400</v>
+        <v>1892200</v>
       </c>
       <c r="E61" s="3">
-        <v>990200</v>
+        <v>1108000</v>
       </c>
       <c r="F61" s="3">
-        <v>1024800</v>
+        <v>858900</v>
       </c>
       <c r="G61" s="3">
-        <v>645000</v>
+        <v>888900</v>
       </c>
       <c r="H61" s="3">
-        <v>541700</v>
+        <v>559500</v>
       </c>
       <c r="I61" s="3">
-        <v>272400</v>
+        <v>469900</v>
       </c>
       <c r="J61" s="3">
+        <v>236300</v>
+      </c>
+      <c r="K61" s="3">
         <v>42000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>91400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>103400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>173600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>218300</v>
+        <v>210000</v>
       </c>
       <c r="E62" s="3">
-        <v>179600</v>
+        <v>189300</v>
       </c>
       <c r="F62" s="3">
-        <v>144700</v>
+        <v>155800</v>
       </c>
       <c r="G62" s="3">
-        <v>113700</v>
+        <v>125500</v>
       </c>
       <c r="H62" s="3">
-        <v>96700</v>
+        <v>98600</v>
       </c>
       <c r="I62" s="3">
-        <v>155700</v>
+        <v>83900</v>
       </c>
       <c r="J62" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K62" s="3">
         <v>25100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>58900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2399000</v>
+        <v>3260200</v>
       </c>
       <c r="E66" s="3">
-        <v>2161200</v>
+        <v>2080800</v>
       </c>
       <c r="F66" s="3">
-        <v>2096700</v>
+        <v>1874500</v>
       </c>
       <c r="G66" s="3">
-        <v>1483600</v>
+        <v>1818600</v>
       </c>
       <c r="H66" s="3">
-        <v>1217600</v>
+        <v>1286800</v>
       </c>
       <c r="I66" s="3">
-        <v>925500</v>
+        <v>1056100</v>
       </c>
       <c r="J66" s="3">
+        <v>802800</v>
+      </c>
+      <c r="K66" s="3">
         <v>222300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>380900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>542000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>542800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1515400</v>
+        <v>1480100</v>
       </c>
       <c r="E72" s="3">
-        <v>1247900</v>
+        <v>1314400</v>
       </c>
       <c r="F72" s="3">
-        <v>1061900</v>
+        <v>1082300</v>
       </c>
       <c r="G72" s="3">
-        <v>1011900</v>
+        <v>921100</v>
       </c>
       <c r="H72" s="3">
-        <v>1091700</v>
+        <v>877700</v>
       </c>
       <c r="I72" s="3">
-        <v>972500</v>
+        <v>946900</v>
       </c>
       <c r="J72" s="3">
+        <v>843500</v>
+      </c>
+      <c r="K72" s="3">
         <v>446200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>680400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1250000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1041500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1623500</v>
+        <v>1528600</v>
       </c>
       <c r="E76" s="3">
-        <v>1409600</v>
+        <v>1408200</v>
       </c>
       <c r="F76" s="3">
-        <v>1243600</v>
+        <v>1222600</v>
       </c>
       <c r="G76" s="3">
-        <v>1170800</v>
+        <v>1078700</v>
       </c>
       <c r="H76" s="3">
-        <v>1250700</v>
+        <v>1015500</v>
       </c>
       <c r="I76" s="3">
-        <v>1119700</v>
+        <v>1084800</v>
       </c>
       <c r="J76" s="3">
+        <v>971200</v>
+      </c>
+      <c r="K76" s="3">
         <v>575800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>892200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1209300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>950800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>331000</v>
+        <v>340900</v>
       </c>
       <c r="E81" s="3">
-        <v>253600</v>
+        <v>287100</v>
       </c>
       <c r="F81" s="3">
-        <v>157900</v>
+        <v>219900</v>
       </c>
       <c r="G81" s="3">
-        <v>154600</v>
+        <v>136900</v>
       </c>
       <c r="H81" s="3">
-        <v>118100</v>
+        <v>134100</v>
       </c>
       <c r="I81" s="3">
-        <v>161700</v>
+        <v>102400</v>
       </c>
       <c r="J81" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K81" s="3">
         <v>67600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>156800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>193600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>123400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>464900</v>
+        <v>491300</v>
       </c>
       <c r="E83" s="3">
-        <v>392600</v>
+        <v>403300</v>
       </c>
       <c r="F83" s="3">
-        <v>332000</v>
+        <v>340500</v>
       </c>
       <c r="G83" s="3">
-        <v>199600</v>
+        <v>288000</v>
       </c>
       <c r="H83" s="3">
-        <v>167100</v>
+        <v>173100</v>
       </c>
       <c r="I83" s="3">
-        <v>128400</v>
+        <v>144900</v>
       </c>
       <c r="J83" s="3">
+        <v>111400</v>
+      </c>
+      <c r="K83" s="3">
         <v>58400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>105500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>131700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>151800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1100400</v>
+        <v>1434300</v>
       </c>
       <c r="E89" s="3">
-        <v>771800</v>
+        <v>954400</v>
       </c>
       <c r="F89" s="3">
-        <v>512500</v>
+        <v>669400</v>
       </c>
       <c r="G89" s="3">
-        <v>285400</v>
+        <v>444600</v>
       </c>
       <c r="H89" s="3">
-        <v>95100</v>
+        <v>247600</v>
       </c>
       <c r="I89" s="3">
-        <v>208000</v>
+        <v>82500</v>
       </c>
       <c r="J89" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K89" s="3">
         <v>62600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>126900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>198500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>152000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-305000</v>
+        <v>-377300</v>
       </c>
       <c r="E91" s="3">
-        <v>-249600</v>
+        <v>-264500</v>
       </c>
       <c r="F91" s="3">
-        <v>-231300</v>
+        <v>-216500</v>
       </c>
       <c r="G91" s="3">
-        <v>-229400</v>
+        <v>-200600</v>
       </c>
       <c r="H91" s="3">
-        <v>-200900</v>
+        <v>-199000</v>
       </c>
       <c r="I91" s="3">
-        <v>-166800</v>
+        <v>-174300</v>
       </c>
       <c r="J91" s="3">
+        <v>-144700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-52300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-80600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-126800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-141000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-607300</v>
+        <v>-702000</v>
       </c>
       <c r="E94" s="3">
-        <v>-303200</v>
+        <v>-526800</v>
       </c>
       <c r="F94" s="3">
-        <v>-411400</v>
+        <v>-263000</v>
       </c>
       <c r="G94" s="3">
-        <v>-301300</v>
+        <v>-356900</v>
       </c>
       <c r="H94" s="3">
-        <v>-280200</v>
+        <v>-261400</v>
       </c>
       <c r="I94" s="3">
-        <v>-337800</v>
+        <v>-243100</v>
       </c>
       <c r="J94" s="3">
+        <v>-293000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-44800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-60000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>50900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-231500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-65500</v>
+        <v>-173800</v>
       </c>
       <c r="E96" s="3">
-        <v>-88100</v>
+        <v>-56800</v>
       </c>
       <c r="F96" s="3">
-        <v>-152300</v>
+        <v>-76400</v>
       </c>
       <c r="G96" s="3">
-        <v>-238300</v>
+        <v>-132100</v>
       </c>
       <c r="H96" s="3">
-        <v>-4000</v>
+        <v>-206700</v>
       </c>
       <c r="I96" s="3">
-        <v>-314400</v>
+        <v>-3500</v>
       </c>
       <c r="J96" s="3">
+        <v>-272700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-700</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-333400</v>
+        <v>-267100</v>
       </c>
       <c r="E100" s="3">
-        <v>-271700</v>
+        <v>-289100</v>
       </c>
       <c r="F100" s="3">
-        <v>-41700</v>
+        <v>-235600</v>
       </c>
       <c r="G100" s="3">
-        <v>-122400</v>
+        <v>-36200</v>
       </c>
       <c r="H100" s="3">
-        <v>378000</v>
+        <v>-106100</v>
       </c>
       <c r="I100" s="3">
-        <v>-381800</v>
+        <v>327800</v>
       </c>
       <c r="J100" s="3">
+        <v>-331100</v>
+      </c>
+      <c r="K100" s="3">
         <v>3100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-33000</v>
+        <v>-7300</v>
       </c>
       <c r="E101" s="3">
-        <v>23300</v>
+        <v>-28600</v>
       </c>
       <c r="F101" s="3">
-        <v>152100</v>
+        <v>20200</v>
       </c>
       <c r="G101" s="3">
-        <v>33600</v>
+        <v>131900</v>
       </c>
       <c r="H101" s="3">
-        <v>51900</v>
+        <v>29100</v>
       </c>
       <c r="I101" s="3">
-        <v>34100</v>
+        <v>45000</v>
       </c>
       <c r="J101" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-14200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-66400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-55100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>126700</v>
+        <v>457900</v>
       </c>
       <c r="E102" s="3">
-        <v>220200</v>
+        <v>109900</v>
       </c>
       <c r="F102" s="3">
-        <v>211400</v>
+        <v>191000</v>
       </c>
       <c r="G102" s="3">
-        <v>-104700</v>
+        <v>183400</v>
       </c>
       <c r="H102" s="3">
-        <v>244800</v>
+        <v>-90800</v>
       </c>
       <c r="I102" s="3">
-        <v>-477500</v>
+        <v>212300</v>
       </c>
       <c r="J102" s="3">
+        <v>-414200</v>
+      </c>
+      <c r="K102" s="3">
         <v>6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>237000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-129500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2433600</v>
+        <v>2338100</v>
       </c>
       <c r="E8" s="3">
-        <v>1971800</v>
+        <v>1894400</v>
       </c>
       <c r="F8" s="3">
-        <v>1703000</v>
+        <v>1636200</v>
       </c>
       <c r="G8" s="3">
-        <v>1442600</v>
+        <v>1385900</v>
       </c>
       <c r="H8" s="3">
-        <v>1194600</v>
+        <v>1147700</v>
       </c>
       <c r="I8" s="3">
-        <v>967800</v>
+        <v>929800</v>
       </c>
       <c r="J8" s="3">
-        <v>865100</v>
+        <v>831200</v>
       </c>
       <c r="K8" s="3">
         <v>430600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1709300</v>
+        <v>1642200</v>
       </c>
       <c r="E9" s="3">
-        <v>1377800</v>
+        <v>1323700</v>
       </c>
       <c r="F9" s="3">
-        <v>1157400</v>
+        <v>1112000</v>
       </c>
       <c r="G9" s="3">
-        <v>958400</v>
+        <v>920800</v>
       </c>
       <c r="H9" s="3">
-        <v>769000</v>
+        <v>738800</v>
       </c>
       <c r="I9" s="3">
-        <v>624600</v>
+        <v>600100</v>
       </c>
       <c r="J9" s="3">
-        <v>526200</v>
+        <v>505500</v>
       </c>
       <c r="K9" s="3">
         <v>263700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>724300</v>
+        <v>695800</v>
       </c>
       <c r="E10" s="3">
-        <v>594000</v>
+        <v>570700</v>
       </c>
       <c r="F10" s="3">
-        <v>545600</v>
+        <v>524200</v>
       </c>
       <c r="G10" s="3">
-        <v>484200</v>
+        <v>465200</v>
       </c>
       <c r="H10" s="3">
-        <v>425600</v>
+        <v>408900</v>
       </c>
       <c r="I10" s="3">
-        <v>343300</v>
+        <v>329800</v>
       </c>
       <c r="J10" s="3">
-        <v>338900</v>
+        <v>325600</v>
       </c>
       <c r="K10" s="3">
         <v>166900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>43500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H14" s="3">
         <v>40000</v>
       </c>
-      <c r="E14" s="3">
-        <v>52100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45300</v>
-      </c>
-      <c r="G14" s="3">
-        <v>21900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>41600</v>
-      </c>
       <c r="I14" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="J14" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1476200</v>
+        <v>1418200</v>
       </c>
       <c r="E17" s="3">
-        <v>1440700</v>
+        <v>1384100</v>
       </c>
       <c r="F17" s="3">
-        <v>1279100</v>
+        <v>1228900</v>
       </c>
       <c r="G17" s="3">
-        <v>1035900</v>
+        <v>995200</v>
       </c>
       <c r="H17" s="3">
-        <v>940800</v>
+        <v>903900</v>
       </c>
       <c r="I17" s="3">
-        <v>734100</v>
+        <v>705200</v>
       </c>
       <c r="J17" s="3">
-        <v>634700</v>
+        <v>609800</v>
       </c>
       <c r="K17" s="3">
         <v>357000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>957400</v>
+        <v>919800</v>
       </c>
       <c r="E18" s="3">
-        <v>531100</v>
+        <v>510200</v>
       </c>
       <c r="F18" s="3">
-        <v>424000</v>
+        <v>407300</v>
       </c>
       <c r="G18" s="3">
-        <v>406700</v>
+        <v>390700</v>
       </c>
       <c r="H18" s="3">
-        <v>253800</v>
+        <v>243800</v>
       </c>
       <c r="I18" s="3">
-        <v>233800</v>
+        <v>224600</v>
       </c>
       <c r="J18" s="3">
-        <v>230400</v>
+        <v>221300</v>
       </c>
       <c r="K18" s="3">
         <v>73600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-568500</v>
+        <v>-546200</v>
       </c>
       <c r="E20" s="3">
-        <v>-149800</v>
+        <v>-144000</v>
       </c>
       <c r="F20" s="3">
-        <v>-93900</v>
+        <v>-90200</v>
       </c>
       <c r="G20" s="3">
-        <v>-171900</v>
+        <v>-165100</v>
       </c>
       <c r="H20" s="3">
-        <v>-52800</v>
+        <v>-50800</v>
       </c>
       <c r="I20" s="3">
-        <v>-66700</v>
+        <v>-64000</v>
       </c>
       <c r="J20" s="3">
-        <v>-60600</v>
+        <v>-58300</v>
       </c>
       <c r="K20" s="3">
         <v>9100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>884300</v>
+        <v>847700</v>
       </c>
       <c r="E21" s="3">
-        <v>787900</v>
+        <v>755400</v>
       </c>
       <c r="F21" s="3">
-        <v>673400</v>
+        <v>645600</v>
       </c>
       <c r="G21" s="3">
-        <v>525200</v>
+        <v>503400</v>
       </c>
       <c r="H21" s="3">
-        <v>375500</v>
+        <v>360100</v>
       </c>
       <c r="I21" s="3">
-        <v>313300</v>
+        <v>300400</v>
       </c>
       <c r="J21" s="3">
-        <v>282100</v>
+        <v>270500</v>
       </c>
       <c r="K21" s="3">
         <v>142900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>81200</v>
+        <v>78000</v>
       </c>
       <c r="E22" s="3">
-        <v>67800</v>
+        <v>65100</v>
       </c>
       <c r="F22" s="3">
-        <v>107200</v>
+        <v>103000</v>
       </c>
       <c r="G22" s="3">
-        <v>53700</v>
+        <v>51600</v>
       </c>
       <c r="H22" s="3">
-        <v>24100</v>
+        <v>23200</v>
       </c>
       <c r="I22" s="3">
-        <v>29400</v>
+        <v>28300</v>
       </c>
       <c r="J22" s="3">
-        <v>20300</v>
+        <v>19500</v>
       </c>
       <c r="K22" s="3">
         <v>4200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>307700</v>
+        <v>295600</v>
       </c>
       <c r="E23" s="3">
-        <v>313500</v>
+        <v>301200</v>
       </c>
       <c r="F23" s="3">
-        <v>222900</v>
+        <v>214100</v>
       </c>
       <c r="G23" s="3">
-        <v>181100</v>
+        <v>174000</v>
       </c>
       <c r="H23" s="3">
-        <v>176800</v>
+        <v>169900</v>
       </c>
       <c r="I23" s="3">
-        <v>137700</v>
+        <v>132300</v>
       </c>
       <c r="J23" s="3">
-        <v>149500</v>
+        <v>143600</v>
       </c>
       <c r="K23" s="3">
         <v>78500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-33200</v>
+        <v>-31900</v>
       </c>
       <c r="E24" s="3">
-        <v>26200</v>
+        <v>25200</v>
       </c>
       <c r="F24" s="3">
-        <v>53200</v>
+        <v>51100</v>
       </c>
       <c r="G24" s="3">
-        <v>33600</v>
+        <v>32300</v>
       </c>
       <c r="H24" s="3">
-        <v>38700</v>
+        <v>37200</v>
       </c>
       <c r="I24" s="3">
-        <v>28900</v>
+        <v>27800</v>
       </c>
       <c r="J24" s="3">
-        <v>45200</v>
+        <v>43500</v>
       </c>
       <c r="K24" s="3">
         <v>26100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>340900</v>
+        <v>327500</v>
       </c>
       <c r="E26" s="3">
-        <v>287200</v>
+        <v>276000</v>
       </c>
       <c r="F26" s="3">
-        <v>169700</v>
+        <v>163000</v>
       </c>
       <c r="G26" s="3">
-        <v>147500</v>
+        <v>141700</v>
       </c>
       <c r="H26" s="3">
-        <v>138100</v>
+        <v>132600</v>
       </c>
       <c r="I26" s="3">
-        <v>108800</v>
+        <v>104500</v>
       </c>
       <c r="J26" s="3">
-        <v>104200</v>
+        <v>100100</v>
       </c>
       <c r="K26" s="3">
         <v>52400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>340900</v>
+        <v>327500</v>
       </c>
       <c r="E27" s="3">
-        <v>287100</v>
+        <v>275800</v>
       </c>
       <c r="F27" s="3">
-        <v>167600</v>
+        <v>161000</v>
       </c>
       <c r="G27" s="3">
-        <v>136900</v>
+        <v>131600</v>
       </c>
       <c r="H27" s="3">
-        <v>134100</v>
+        <v>128800</v>
       </c>
       <c r="I27" s="3">
-        <v>105300</v>
+        <v>101100</v>
       </c>
       <c r="J27" s="3">
-        <v>115300</v>
+        <v>110800</v>
       </c>
       <c r="K27" s="3">
         <v>67600</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>52300</v>
+        <v>50300</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="J29" s="3">
-        <v>24900</v>
+        <v>23900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>568500</v>
+        <v>546200</v>
       </c>
       <c r="E32" s="3">
-        <v>149800</v>
+        <v>144000</v>
       </c>
       <c r="F32" s="3">
-        <v>93900</v>
+        <v>90200</v>
       </c>
       <c r="G32" s="3">
-        <v>171900</v>
+        <v>165100</v>
       </c>
       <c r="H32" s="3">
-        <v>52800</v>
+        <v>50800</v>
       </c>
       <c r="I32" s="3">
-        <v>66700</v>
+        <v>64000</v>
       </c>
       <c r="J32" s="3">
-        <v>60600</v>
+        <v>58300</v>
       </c>
       <c r="K32" s="3">
         <v>-9100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>340900</v>
+        <v>327500</v>
       </c>
       <c r="E33" s="3">
-        <v>287100</v>
+        <v>275800</v>
       </c>
       <c r="F33" s="3">
-        <v>219900</v>
+        <v>211300</v>
       </c>
       <c r="G33" s="3">
-        <v>136900</v>
+        <v>131600</v>
       </c>
       <c r="H33" s="3">
-        <v>134100</v>
+        <v>128800</v>
       </c>
       <c r="I33" s="3">
-        <v>102400</v>
+        <v>98400</v>
       </c>
       <c r="J33" s="3">
-        <v>140200</v>
+        <v>134700</v>
       </c>
       <c r="K33" s="3">
         <v>67600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>340900</v>
+        <v>327500</v>
       </c>
       <c r="E35" s="3">
-        <v>287100</v>
+        <v>275800</v>
       </c>
       <c r="F35" s="3">
-        <v>219900</v>
+        <v>211300</v>
       </c>
       <c r="G35" s="3">
-        <v>136900</v>
+        <v>131600</v>
       </c>
       <c r="H35" s="3">
-        <v>134100</v>
+        <v>128800</v>
       </c>
       <c r="I35" s="3">
-        <v>102400</v>
+        <v>98400</v>
       </c>
       <c r="J35" s="3">
-        <v>140200</v>
+        <v>134700</v>
       </c>
       <c r="K35" s="3">
         <v>67600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1262100</v>
+        <v>1212500</v>
       </c>
       <c r="E41" s="3">
-        <v>803600</v>
+        <v>772000</v>
       </c>
       <c r="F41" s="3">
-        <v>693700</v>
+        <v>666400</v>
       </c>
       <c r="G41" s="3">
-        <v>502700</v>
+        <v>482900</v>
       </c>
       <c r="H41" s="3">
-        <v>319300</v>
+        <v>306700</v>
       </c>
       <c r="I41" s="3">
-        <v>410000</v>
+        <v>393900</v>
       </c>
       <c r="J41" s="3">
-        <v>197700</v>
+        <v>190000</v>
       </c>
       <c r="K41" s="3">
         <v>304200</v>
@@ -1863,19 +1863,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E42" s="3">
-        <v>47600</v>
+        <v>45700</v>
       </c>
       <c r="F42" s="3">
-        <v>23800</v>
+        <v>22800</v>
       </c>
       <c r="G42" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>545700</v>
+        <v>524300</v>
       </c>
       <c r="E43" s="3">
-        <v>447300</v>
+        <v>429700</v>
       </c>
       <c r="F43" s="3">
-        <v>494000</v>
+        <v>474600</v>
       </c>
       <c r="G43" s="3">
-        <v>497200</v>
+        <v>477600</v>
       </c>
       <c r="H43" s="3">
-        <v>431300</v>
+        <v>414400</v>
       </c>
       <c r="I43" s="3">
-        <v>336100</v>
+        <v>322900</v>
       </c>
       <c r="J43" s="3">
-        <v>309600</v>
+        <v>297400</v>
       </c>
       <c r="K43" s="3">
         <v>125100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17700</v>
+        <v>17000</v>
       </c>
       <c r="E44" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="F44" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="G44" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="H44" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="I44" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="J44" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="K44" s="3">
         <v>2400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>170200</v>
+        <v>163600</v>
       </c>
       <c r="E45" s="3">
-        <v>82300</v>
+        <v>79100</v>
       </c>
       <c r="F45" s="3">
-        <v>86300</v>
+        <v>82900</v>
       </c>
       <c r="G45" s="3">
-        <v>226800</v>
+        <v>217900</v>
       </c>
       <c r="H45" s="3">
-        <v>194800</v>
+        <v>187100</v>
       </c>
       <c r="I45" s="3">
-        <v>149400</v>
+        <v>143500</v>
       </c>
       <c r="J45" s="3">
-        <v>83400</v>
+        <v>80200</v>
       </c>
       <c r="K45" s="3">
         <v>15900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1999400</v>
+        <v>1920900</v>
       </c>
       <c r="E46" s="3">
-        <v>1394500</v>
+        <v>1339800</v>
       </c>
       <c r="F46" s="3">
-        <v>1309800</v>
+        <v>1258300</v>
       </c>
       <c r="G46" s="3">
-        <v>1242300</v>
+        <v>1193600</v>
       </c>
       <c r="H46" s="3">
-        <v>953200</v>
+        <v>915800</v>
       </c>
       <c r="I46" s="3">
-        <v>904500</v>
+        <v>869000</v>
       </c>
       <c r="J46" s="3">
-        <v>595900</v>
+        <v>572500</v>
       </c>
       <c r="K46" s="3">
         <v>448300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>181600</v>
+        <v>174400</v>
       </c>
       <c r="E47" s="3">
-        <v>46200</v>
+        <v>44400</v>
       </c>
       <c r="F47" s="3">
-        <v>29200</v>
+        <v>28000</v>
       </c>
       <c r="G47" s="3">
-        <v>76100</v>
+        <v>73100</v>
       </c>
       <c r="H47" s="3">
-        <v>105100</v>
+        <v>100900</v>
       </c>
       <c r="I47" s="3">
-        <v>84500</v>
+        <v>81200</v>
       </c>
       <c r="J47" s="3">
-        <v>130200</v>
+        <v>125100</v>
       </c>
       <c r="K47" s="3">
         <v>48800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1423000</v>
+        <v>1367100</v>
       </c>
       <c r="E48" s="3">
-        <v>1104100</v>
+        <v>1060700</v>
       </c>
       <c r="F48" s="3">
-        <v>966000</v>
+        <v>928000</v>
       </c>
       <c r="G48" s="3">
-        <v>843400</v>
+        <v>810300</v>
       </c>
       <c r="H48" s="3">
-        <v>654900</v>
+        <v>629200</v>
       </c>
       <c r="I48" s="3">
-        <v>558400</v>
+        <v>536500</v>
       </c>
       <c r="J48" s="3">
-        <v>465200</v>
+        <v>446900</v>
       </c>
       <c r="K48" s="3">
         <v>199000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>993300</v>
+        <v>954300</v>
       </c>
       <c r="E49" s="3">
-        <v>837900</v>
+        <v>805000</v>
       </c>
       <c r="F49" s="3">
-        <v>766100</v>
+        <v>736000</v>
       </c>
       <c r="G49" s="3">
-        <v>703400</v>
+        <v>675800</v>
       </c>
       <c r="H49" s="3">
-        <v>565100</v>
+        <v>542900</v>
       </c>
       <c r="I49" s="3">
-        <v>558000</v>
+        <v>536100</v>
       </c>
       <c r="J49" s="3">
-        <v>556900</v>
+        <v>535100</v>
       </c>
       <c r="K49" s="3">
         <v>82400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>191500</v>
+        <v>184000</v>
       </c>
       <c r="E52" s="3">
-        <v>106300</v>
+        <v>102100</v>
       </c>
       <c r="F52" s="3">
-        <v>26200</v>
+        <v>25100</v>
       </c>
       <c r="G52" s="3">
-        <v>32100</v>
+        <v>30900</v>
       </c>
       <c r="H52" s="3">
-        <v>24100</v>
+        <v>23200</v>
       </c>
       <c r="I52" s="3">
-        <v>35500</v>
+        <v>34100</v>
       </c>
       <c r="J52" s="3">
-        <v>25800</v>
+        <v>24800</v>
       </c>
       <c r="K52" s="3">
         <v>19700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4788700</v>
+        <v>4600700</v>
       </c>
       <c r="E54" s="3">
-        <v>3489000</v>
+        <v>3352000</v>
       </c>
       <c r="F54" s="3">
-        <v>3097200</v>
+        <v>2975600</v>
       </c>
       <c r="G54" s="3">
-        <v>2897300</v>
+        <v>2783600</v>
       </c>
       <c r="H54" s="3">
-        <v>2302300</v>
+        <v>2211900</v>
       </c>
       <c r="I54" s="3">
-        <v>2140900</v>
+        <v>2056900</v>
       </c>
       <c r="J54" s="3">
-        <v>1774000</v>
+        <v>1704300</v>
       </c>
       <c r="K54" s="3">
         <v>798100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>341300</v>
+        <v>327900</v>
       </c>
       <c r="E57" s="3">
-        <v>251000</v>
+        <v>241200</v>
       </c>
       <c r="F57" s="3">
-        <v>200100</v>
+        <v>192200</v>
       </c>
       <c r="G57" s="3">
-        <v>184400</v>
+        <v>177200</v>
       </c>
       <c r="H57" s="3">
-        <v>191200</v>
+        <v>183700</v>
       </c>
       <c r="I57" s="3">
-        <v>235400</v>
+        <v>226100</v>
       </c>
       <c r="J57" s="3">
-        <v>314800</v>
+        <v>302500</v>
       </c>
       <c r="K57" s="3">
         <v>45500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>599500</v>
+        <v>575900</v>
       </c>
       <c r="E58" s="3">
-        <v>354500</v>
+        <v>340600</v>
       </c>
       <c r="F58" s="3">
-        <v>516800</v>
+        <v>496500</v>
       </c>
       <c r="G58" s="3">
-        <v>476700</v>
+        <v>458000</v>
       </c>
       <c r="H58" s="3">
-        <v>289800</v>
+        <v>278500</v>
       </c>
       <c r="I58" s="3">
-        <v>192800</v>
+        <v>185300</v>
       </c>
       <c r="J58" s="3">
-        <v>49200</v>
+        <v>47300</v>
       </c>
       <c r="K58" s="3">
         <v>82500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>217200</v>
+        <v>208600</v>
       </c>
       <c r="E59" s="3">
-        <v>178000</v>
+        <v>171000</v>
       </c>
       <c r="F59" s="3">
-        <v>140500</v>
+        <v>135000</v>
       </c>
       <c r="G59" s="3">
-        <v>134300</v>
+        <v>129000</v>
       </c>
       <c r="H59" s="3">
-        <v>143900</v>
+        <v>138200</v>
       </c>
       <c r="I59" s="3">
-        <v>70400</v>
+        <v>67600</v>
       </c>
       <c r="J59" s="3">
-        <v>63100</v>
+        <v>60600</v>
       </c>
       <c r="K59" s="3">
         <v>40100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1157900</v>
+        <v>1112500</v>
       </c>
       <c r="E60" s="3">
-        <v>783500</v>
+        <v>752800</v>
       </c>
       <c r="F60" s="3">
-        <v>857400</v>
+        <v>823700</v>
       </c>
       <c r="G60" s="3">
-        <v>795400</v>
+        <v>764200</v>
       </c>
       <c r="H60" s="3">
-        <v>624900</v>
+        <v>600400</v>
       </c>
       <c r="I60" s="3">
-        <v>498600</v>
+        <v>479000</v>
       </c>
       <c r="J60" s="3">
-        <v>427100</v>
+        <v>410400</v>
       </c>
       <c r="K60" s="3">
         <v>168100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1892200</v>
+        <v>1817900</v>
       </c>
       <c r="E61" s="3">
-        <v>1108000</v>
+        <v>1064500</v>
       </c>
       <c r="F61" s="3">
-        <v>858900</v>
+        <v>825200</v>
       </c>
       <c r="G61" s="3">
-        <v>888900</v>
+        <v>854000</v>
       </c>
       <c r="H61" s="3">
-        <v>559500</v>
+        <v>537500</v>
       </c>
       <c r="I61" s="3">
-        <v>469900</v>
+        <v>451400</v>
       </c>
       <c r="J61" s="3">
-        <v>236300</v>
+        <v>227000</v>
       </c>
       <c r="K61" s="3">
         <v>42000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>210000</v>
+        <v>201700</v>
       </c>
       <c r="E62" s="3">
-        <v>189300</v>
+        <v>181900</v>
       </c>
       <c r="F62" s="3">
-        <v>155800</v>
+        <v>149600</v>
       </c>
       <c r="G62" s="3">
-        <v>125500</v>
+        <v>120500</v>
       </c>
       <c r="H62" s="3">
-        <v>98600</v>
+        <v>94700</v>
       </c>
       <c r="I62" s="3">
-        <v>83900</v>
+        <v>80600</v>
       </c>
       <c r="J62" s="3">
-        <v>135000</v>
+        <v>129700</v>
       </c>
       <c r="K62" s="3">
         <v>25100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3260200</v>
+        <v>3132200</v>
       </c>
       <c r="E66" s="3">
-        <v>2080800</v>
+        <v>1999100</v>
       </c>
       <c r="F66" s="3">
-        <v>1874500</v>
+        <v>1800900</v>
       </c>
       <c r="G66" s="3">
-        <v>1818600</v>
+        <v>1747200</v>
       </c>
       <c r="H66" s="3">
-        <v>1286800</v>
+        <v>1236300</v>
       </c>
       <c r="I66" s="3">
-        <v>1056100</v>
+        <v>1014600</v>
       </c>
       <c r="J66" s="3">
-        <v>802800</v>
+        <v>771300</v>
       </c>
       <c r="K66" s="3">
         <v>222300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1480100</v>
+        <v>1422000</v>
       </c>
       <c r="E72" s="3">
-        <v>1314400</v>
+        <v>1262800</v>
       </c>
       <c r="F72" s="3">
-        <v>1082300</v>
+        <v>1039900</v>
       </c>
       <c r="G72" s="3">
-        <v>921100</v>
+        <v>884900</v>
       </c>
       <c r="H72" s="3">
-        <v>877700</v>
+        <v>843300</v>
       </c>
       <c r="I72" s="3">
-        <v>946900</v>
+        <v>909700</v>
       </c>
       <c r="J72" s="3">
-        <v>843500</v>
+        <v>810400</v>
       </c>
       <c r="K72" s="3">
         <v>446200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1528600</v>
+        <v>1468600</v>
       </c>
       <c r="E76" s="3">
-        <v>1408200</v>
+        <v>1352900</v>
       </c>
       <c r="F76" s="3">
-        <v>1222600</v>
+        <v>1174600</v>
       </c>
       <c r="G76" s="3">
-        <v>1078700</v>
+        <v>1036300</v>
       </c>
       <c r="H76" s="3">
-        <v>1015500</v>
+        <v>975600</v>
       </c>
       <c r="I76" s="3">
-        <v>1084800</v>
+        <v>1042200</v>
       </c>
       <c r="J76" s="3">
-        <v>971200</v>
+        <v>933100</v>
       </c>
       <c r="K76" s="3">
         <v>575800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>340900</v>
+        <v>327500</v>
       </c>
       <c r="E81" s="3">
-        <v>287100</v>
+        <v>275800</v>
       </c>
       <c r="F81" s="3">
-        <v>219900</v>
+        <v>211300</v>
       </c>
       <c r="G81" s="3">
-        <v>136900</v>
+        <v>131600</v>
       </c>
       <c r="H81" s="3">
-        <v>134100</v>
+        <v>128800</v>
       </c>
       <c r="I81" s="3">
-        <v>102400</v>
+        <v>98400</v>
       </c>
       <c r="J81" s="3">
-        <v>140200</v>
+        <v>134700</v>
       </c>
       <c r="K81" s="3">
         <v>67600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>491300</v>
+        <v>472000</v>
       </c>
       <c r="E83" s="3">
-        <v>403300</v>
+        <v>387400</v>
       </c>
       <c r="F83" s="3">
-        <v>340500</v>
+        <v>327100</v>
       </c>
       <c r="G83" s="3">
-        <v>288000</v>
+        <v>276700</v>
       </c>
       <c r="H83" s="3">
-        <v>173100</v>
+        <v>166300</v>
       </c>
       <c r="I83" s="3">
-        <v>144900</v>
+        <v>139300</v>
       </c>
       <c r="J83" s="3">
-        <v>111400</v>
+        <v>107000</v>
       </c>
       <c r="K83" s="3">
         <v>58400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1434300</v>
+        <v>1378000</v>
       </c>
       <c r="E89" s="3">
-        <v>954400</v>
+        <v>917000</v>
       </c>
       <c r="F89" s="3">
-        <v>669400</v>
+        <v>643100</v>
       </c>
       <c r="G89" s="3">
-        <v>444600</v>
+        <v>427100</v>
       </c>
       <c r="H89" s="3">
-        <v>247600</v>
+        <v>237900</v>
       </c>
       <c r="I89" s="3">
-        <v>82500</v>
+        <v>79300</v>
       </c>
       <c r="J89" s="3">
-        <v>180400</v>
+        <v>173300</v>
       </c>
       <c r="K89" s="3">
         <v>62600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-377300</v>
+        <v>-362400</v>
       </c>
       <c r="E91" s="3">
-        <v>-264500</v>
+        <v>-254100</v>
       </c>
       <c r="F91" s="3">
-        <v>-216500</v>
+        <v>-208000</v>
       </c>
       <c r="G91" s="3">
-        <v>-200600</v>
+        <v>-192700</v>
       </c>
       <c r="H91" s="3">
-        <v>-199000</v>
+        <v>-191200</v>
       </c>
       <c r="I91" s="3">
-        <v>-174300</v>
+        <v>-167400</v>
       </c>
       <c r="J91" s="3">
-        <v>-144700</v>
+        <v>-139000</v>
       </c>
       <c r="K91" s="3">
         <v>-52300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-702000</v>
+        <v>-674400</v>
       </c>
       <c r="E94" s="3">
-        <v>-526800</v>
+        <v>-506100</v>
       </c>
       <c r="F94" s="3">
-        <v>-263000</v>
+        <v>-252600</v>
       </c>
       <c r="G94" s="3">
-        <v>-356900</v>
+        <v>-342900</v>
       </c>
       <c r="H94" s="3">
-        <v>-261400</v>
+        <v>-251100</v>
       </c>
       <c r="I94" s="3">
-        <v>-243100</v>
+        <v>-233500</v>
       </c>
       <c r="J94" s="3">
-        <v>-293000</v>
+        <v>-281500</v>
       </c>
       <c r="K94" s="3">
         <v>-44800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-173800</v>
+        <v>-167000</v>
       </c>
       <c r="E96" s="3">
-        <v>-56800</v>
+        <v>-54600</v>
       </c>
       <c r="F96" s="3">
-        <v>-76400</v>
+        <v>-73400</v>
       </c>
       <c r="G96" s="3">
-        <v>-132100</v>
+        <v>-126900</v>
       </c>
       <c r="H96" s="3">
-        <v>-206700</v>
+        <v>-198600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="J96" s="3">
-        <v>-272700</v>
+        <v>-262000</v>
       </c>
       <c r="K96" s="3">
         <v>-300</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-267100</v>
+        <v>-256600</v>
       </c>
       <c r="E100" s="3">
-        <v>-289100</v>
+        <v>-277800</v>
       </c>
       <c r="F100" s="3">
-        <v>-235600</v>
+        <v>-226400</v>
       </c>
       <c r="G100" s="3">
-        <v>-36200</v>
+        <v>-34800</v>
       </c>
       <c r="H100" s="3">
-        <v>-106100</v>
+        <v>-102000</v>
       </c>
       <c r="I100" s="3">
-        <v>327800</v>
+        <v>315000</v>
       </c>
       <c r="J100" s="3">
-        <v>-331100</v>
+        <v>-318100</v>
       </c>
       <c r="K100" s="3">
         <v>3100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="E101" s="3">
-        <v>-28600</v>
+        <v>-27500</v>
       </c>
       <c r="F101" s="3">
-        <v>20200</v>
+        <v>19400</v>
       </c>
       <c r="G101" s="3">
-        <v>131900</v>
+        <v>126700</v>
       </c>
       <c r="H101" s="3">
-        <v>29100</v>
+        <v>28000</v>
       </c>
       <c r="I101" s="3">
-        <v>45000</v>
+        <v>43200</v>
       </c>
       <c r="J101" s="3">
-        <v>29500</v>
+        <v>28400</v>
       </c>
       <c r="K101" s="3">
         <v>-14200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>457900</v>
+        <v>440000</v>
       </c>
       <c r="E102" s="3">
-        <v>109900</v>
+        <v>105600</v>
       </c>
       <c r="F102" s="3">
-        <v>191000</v>
+        <v>183500</v>
       </c>
       <c r="G102" s="3">
-        <v>183400</v>
+        <v>176200</v>
       </c>
       <c r="H102" s="3">
-        <v>-90800</v>
+        <v>-87200</v>
       </c>
       <c r="I102" s="3">
-        <v>212300</v>
+        <v>204000</v>
       </c>
       <c r="J102" s="3">
-        <v>-414200</v>
+        <v>-397900</v>
       </c>
       <c r="K102" s="3">
         <v>6800</v>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2338100</v>
+        <v>1977400</v>
       </c>
       <c r="E8" s="3">
-        <v>1894400</v>
+        <v>1602200</v>
       </c>
       <c r="F8" s="3">
-        <v>1636200</v>
+        <v>1383800</v>
       </c>
       <c r="G8" s="3">
-        <v>1385900</v>
+        <v>1172200</v>
       </c>
       <c r="H8" s="3">
-        <v>1147700</v>
+        <v>970600</v>
       </c>
       <c r="I8" s="3">
-        <v>929800</v>
+        <v>786400</v>
       </c>
       <c r="J8" s="3">
-        <v>831200</v>
+        <v>703000</v>
       </c>
       <c r="K8" s="3">
         <v>430600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1642200</v>
+        <v>1388900</v>
       </c>
       <c r="E9" s="3">
-        <v>1323700</v>
+        <v>1119500</v>
       </c>
       <c r="F9" s="3">
-        <v>1112000</v>
+        <v>940400</v>
       </c>
       <c r="G9" s="3">
-        <v>920800</v>
+        <v>778700</v>
       </c>
       <c r="H9" s="3">
-        <v>738800</v>
+        <v>624800</v>
       </c>
       <c r="I9" s="3">
-        <v>600100</v>
+        <v>507500</v>
       </c>
       <c r="J9" s="3">
-        <v>505500</v>
+        <v>427500</v>
       </c>
       <c r="K9" s="3">
         <v>263700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>695800</v>
+        <v>588500</v>
       </c>
       <c r="E10" s="3">
-        <v>570700</v>
+        <v>482700</v>
       </c>
       <c r="F10" s="3">
-        <v>524200</v>
+        <v>443400</v>
       </c>
       <c r="G10" s="3">
-        <v>465200</v>
+        <v>393400</v>
       </c>
       <c r="H10" s="3">
-        <v>408900</v>
+        <v>345800</v>
       </c>
       <c r="I10" s="3">
-        <v>329800</v>
+        <v>278900</v>
       </c>
       <c r="J10" s="3">
-        <v>325600</v>
+        <v>275400</v>
       </c>
       <c r="K10" s="3">
         <v>166900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>38500</v>
+        <v>32500</v>
       </c>
       <c r="E14" s="3">
-        <v>50000</v>
+        <v>42300</v>
       </c>
       <c r="F14" s="3">
-        <v>43500</v>
+        <v>36800</v>
       </c>
       <c r="G14" s="3">
-        <v>21000</v>
+        <v>17800</v>
       </c>
       <c r="H14" s="3">
-        <v>40000</v>
+        <v>33800</v>
       </c>
       <c r="I14" s="3">
-        <v>9500</v>
+        <v>8100</v>
       </c>
       <c r="J14" s="3">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1418200</v>
+        <v>1199500</v>
       </c>
       <c r="E17" s="3">
-        <v>1384100</v>
+        <v>1170600</v>
       </c>
       <c r="F17" s="3">
-        <v>1228900</v>
+        <v>1039300</v>
       </c>
       <c r="G17" s="3">
-        <v>995200</v>
+        <v>841700</v>
       </c>
       <c r="H17" s="3">
-        <v>903900</v>
+        <v>764400</v>
       </c>
       <c r="I17" s="3">
-        <v>705200</v>
+        <v>596500</v>
       </c>
       <c r="J17" s="3">
-        <v>609800</v>
+        <v>515800</v>
       </c>
       <c r="K17" s="3">
         <v>357000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>919800</v>
+        <v>777900</v>
       </c>
       <c r="E18" s="3">
-        <v>510200</v>
+        <v>431500</v>
       </c>
       <c r="F18" s="3">
-        <v>407300</v>
+        <v>344500</v>
       </c>
       <c r="G18" s="3">
-        <v>390700</v>
+        <v>330500</v>
       </c>
       <c r="H18" s="3">
-        <v>243800</v>
+        <v>206200</v>
       </c>
       <c r="I18" s="3">
-        <v>224600</v>
+        <v>190000</v>
       </c>
       <c r="J18" s="3">
-        <v>221300</v>
+        <v>187200</v>
       </c>
       <c r="K18" s="3">
         <v>73600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-546200</v>
+        <v>-462000</v>
       </c>
       <c r="E20" s="3">
-        <v>-144000</v>
+        <v>-121700</v>
       </c>
       <c r="F20" s="3">
-        <v>-90200</v>
+        <v>-76300</v>
       </c>
       <c r="G20" s="3">
-        <v>-165100</v>
+        <v>-139700</v>
       </c>
       <c r="H20" s="3">
-        <v>-50800</v>
+        <v>-42900</v>
       </c>
       <c r="I20" s="3">
-        <v>-64000</v>
+        <v>-54200</v>
       </c>
       <c r="J20" s="3">
-        <v>-58300</v>
+        <v>-49300</v>
       </c>
       <c r="K20" s="3">
         <v>9100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>847700</v>
+        <v>715800</v>
       </c>
       <c r="E21" s="3">
-        <v>755400</v>
+        <v>637900</v>
       </c>
       <c r="F21" s="3">
-        <v>645600</v>
+        <v>545300</v>
       </c>
       <c r="G21" s="3">
-        <v>503400</v>
+        <v>425100</v>
       </c>
       <c r="H21" s="3">
-        <v>360100</v>
+        <v>304100</v>
       </c>
       <c r="I21" s="3">
-        <v>300400</v>
+        <v>253700</v>
       </c>
       <c r="J21" s="3">
-        <v>270500</v>
+        <v>228600</v>
       </c>
       <c r="K21" s="3">
         <v>142900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>78000</v>
+        <v>66000</v>
       </c>
       <c r="E22" s="3">
-        <v>65100</v>
+        <v>55100</v>
       </c>
       <c r="F22" s="3">
-        <v>103000</v>
+        <v>87100</v>
       </c>
       <c r="G22" s="3">
-        <v>51600</v>
+        <v>43600</v>
       </c>
       <c r="H22" s="3">
-        <v>23200</v>
+        <v>19600</v>
       </c>
       <c r="I22" s="3">
-        <v>28300</v>
+        <v>23900</v>
       </c>
       <c r="J22" s="3">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="K22" s="3">
         <v>4200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>295600</v>
+        <v>250000</v>
       </c>
       <c r="E23" s="3">
-        <v>301200</v>
+        <v>254700</v>
       </c>
       <c r="F23" s="3">
-        <v>214100</v>
+        <v>181100</v>
       </c>
       <c r="G23" s="3">
-        <v>174000</v>
+        <v>147100</v>
       </c>
       <c r="H23" s="3">
-        <v>169900</v>
+        <v>143700</v>
       </c>
       <c r="I23" s="3">
-        <v>132300</v>
+        <v>111900</v>
       </c>
       <c r="J23" s="3">
-        <v>143600</v>
+        <v>121400</v>
       </c>
       <c r="K23" s="3">
         <v>78500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-31900</v>
+        <v>-27000</v>
       </c>
       <c r="E24" s="3">
-        <v>25200</v>
+        <v>21300</v>
       </c>
       <c r="F24" s="3">
-        <v>51100</v>
+        <v>43200</v>
       </c>
       <c r="G24" s="3">
-        <v>32300</v>
+        <v>27300</v>
       </c>
       <c r="H24" s="3">
-        <v>37200</v>
+        <v>31500</v>
       </c>
       <c r="I24" s="3">
-        <v>27800</v>
+        <v>23500</v>
       </c>
       <c r="J24" s="3">
-        <v>43500</v>
+        <v>36800</v>
       </c>
       <c r="K24" s="3">
         <v>26100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>327500</v>
+        <v>277000</v>
       </c>
       <c r="E26" s="3">
-        <v>276000</v>
+        <v>233400</v>
       </c>
       <c r="F26" s="3">
-        <v>163000</v>
+        <v>137900</v>
       </c>
       <c r="G26" s="3">
-        <v>141700</v>
+        <v>119900</v>
       </c>
       <c r="H26" s="3">
-        <v>132600</v>
+        <v>112200</v>
       </c>
       <c r="I26" s="3">
-        <v>104500</v>
+        <v>88400</v>
       </c>
       <c r="J26" s="3">
-        <v>100100</v>
+        <v>84700</v>
       </c>
       <c r="K26" s="3">
         <v>52400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>327500</v>
+        <v>277000</v>
       </c>
       <c r="E27" s="3">
-        <v>275800</v>
+        <v>233300</v>
       </c>
       <c r="F27" s="3">
-        <v>161000</v>
+        <v>136200</v>
       </c>
       <c r="G27" s="3">
-        <v>131600</v>
+        <v>111300</v>
       </c>
       <c r="H27" s="3">
-        <v>128800</v>
+        <v>109000</v>
       </c>
       <c r="I27" s="3">
-        <v>101100</v>
+        <v>85500</v>
       </c>
       <c r="J27" s="3">
-        <v>110800</v>
+        <v>93700</v>
       </c>
       <c r="K27" s="3">
         <v>67600</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>50300</v>
+        <v>42500</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-2700</v>
+        <v>-2300</v>
       </c>
       <c r="J29" s="3">
-        <v>23900</v>
+        <v>20200</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>546200</v>
+        <v>462000</v>
       </c>
       <c r="E32" s="3">
-        <v>144000</v>
+        <v>121700</v>
       </c>
       <c r="F32" s="3">
-        <v>90200</v>
+        <v>76300</v>
       </c>
       <c r="G32" s="3">
-        <v>165100</v>
+        <v>139700</v>
       </c>
       <c r="H32" s="3">
-        <v>50800</v>
+        <v>42900</v>
       </c>
       <c r="I32" s="3">
-        <v>64000</v>
+        <v>54200</v>
       </c>
       <c r="J32" s="3">
-        <v>58300</v>
+        <v>49300</v>
       </c>
       <c r="K32" s="3">
         <v>-9100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>327500</v>
+        <v>277000</v>
       </c>
       <c r="E33" s="3">
-        <v>275800</v>
+        <v>233300</v>
       </c>
       <c r="F33" s="3">
-        <v>211300</v>
+        <v>178700</v>
       </c>
       <c r="G33" s="3">
-        <v>131600</v>
+        <v>111300</v>
       </c>
       <c r="H33" s="3">
-        <v>128800</v>
+        <v>109000</v>
       </c>
       <c r="I33" s="3">
-        <v>98400</v>
+        <v>83200</v>
       </c>
       <c r="J33" s="3">
-        <v>134700</v>
+        <v>113900</v>
       </c>
       <c r="K33" s="3">
         <v>67600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>327500</v>
+        <v>277000</v>
       </c>
       <c r="E35" s="3">
-        <v>275800</v>
+        <v>233300</v>
       </c>
       <c r="F35" s="3">
-        <v>211300</v>
+        <v>178700</v>
       </c>
       <c r="G35" s="3">
-        <v>131600</v>
+        <v>111300</v>
       </c>
       <c r="H35" s="3">
-        <v>128800</v>
+        <v>109000</v>
       </c>
       <c r="I35" s="3">
-        <v>98400</v>
+        <v>83200</v>
       </c>
       <c r="J35" s="3">
-        <v>134700</v>
+        <v>113900</v>
       </c>
       <c r="K35" s="3">
         <v>67600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1212500</v>
+        <v>1025500</v>
       </c>
       <c r="E41" s="3">
-        <v>772000</v>
+        <v>652900</v>
       </c>
       <c r="F41" s="3">
-        <v>666400</v>
+        <v>563600</v>
       </c>
       <c r="G41" s="3">
-        <v>482900</v>
+        <v>408400</v>
       </c>
       <c r="H41" s="3">
-        <v>306700</v>
+        <v>259400</v>
       </c>
       <c r="I41" s="3">
-        <v>393900</v>
+        <v>333200</v>
       </c>
       <c r="J41" s="3">
-        <v>190000</v>
+        <v>160700</v>
       </c>
       <c r="K41" s="3">
         <v>304200</v>
@@ -1863,19 +1863,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="E42" s="3">
-        <v>45700</v>
+        <v>38600</v>
       </c>
       <c r="F42" s="3">
-        <v>22800</v>
+        <v>19300</v>
       </c>
       <c r="G42" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="H42" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>524300</v>
+        <v>443400</v>
       </c>
       <c r="E43" s="3">
-        <v>429700</v>
+        <v>363400</v>
       </c>
       <c r="F43" s="3">
-        <v>474600</v>
+        <v>401400</v>
       </c>
       <c r="G43" s="3">
-        <v>477600</v>
+        <v>404000</v>
       </c>
       <c r="H43" s="3">
-        <v>414400</v>
+        <v>350500</v>
       </c>
       <c r="I43" s="3">
-        <v>322900</v>
+        <v>273100</v>
       </c>
       <c r="J43" s="3">
-        <v>297400</v>
+        <v>251500</v>
       </c>
       <c r="K43" s="3">
         <v>125100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17000</v>
+        <v>14300</v>
       </c>
       <c r="E44" s="3">
-        <v>13300</v>
+        <v>11200</v>
       </c>
       <c r="F44" s="3">
-        <v>11600</v>
+        <v>9800</v>
       </c>
       <c r="G44" s="3">
-        <v>11700</v>
+        <v>9900</v>
       </c>
       <c r="H44" s="3">
-        <v>6800</v>
+        <v>5700</v>
       </c>
       <c r="I44" s="3">
-        <v>8600</v>
+        <v>7300</v>
       </c>
       <c r="J44" s="3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="K44" s="3">
         <v>2400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>163600</v>
+        <v>138300</v>
       </c>
       <c r="E45" s="3">
-        <v>79100</v>
+        <v>66900</v>
       </c>
       <c r="F45" s="3">
-        <v>82900</v>
+        <v>70100</v>
       </c>
       <c r="G45" s="3">
-        <v>217900</v>
+        <v>184300</v>
       </c>
       <c r="H45" s="3">
-        <v>187100</v>
+        <v>158300</v>
       </c>
       <c r="I45" s="3">
-        <v>143500</v>
+        <v>121400</v>
       </c>
       <c r="J45" s="3">
-        <v>80200</v>
+        <v>67800</v>
       </c>
       <c r="K45" s="3">
         <v>15900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1920900</v>
+        <v>1624600</v>
       </c>
       <c r="E46" s="3">
-        <v>1339800</v>
+        <v>1133100</v>
       </c>
       <c r="F46" s="3">
-        <v>1258300</v>
+        <v>1064200</v>
       </c>
       <c r="G46" s="3">
-        <v>1193600</v>
+        <v>1009500</v>
       </c>
       <c r="H46" s="3">
-        <v>915800</v>
+        <v>774500</v>
       </c>
       <c r="I46" s="3">
-        <v>869000</v>
+        <v>735000</v>
       </c>
       <c r="J46" s="3">
-        <v>572500</v>
+        <v>484200</v>
       </c>
       <c r="K46" s="3">
         <v>448300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>174400</v>
+        <v>147500</v>
       </c>
       <c r="E47" s="3">
-        <v>44400</v>
+        <v>37500</v>
       </c>
       <c r="F47" s="3">
-        <v>28000</v>
+        <v>23700</v>
       </c>
       <c r="G47" s="3">
-        <v>73100</v>
+        <v>61800</v>
       </c>
       <c r="H47" s="3">
-        <v>100900</v>
+        <v>85400</v>
       </c>
       <c r="I47" s="3">
-        <v>81200</v>
+        <v>68600</v>
       </c>
       <c r="J47" s="3">
-        <v>125100</v>
+        <v>105800</v>
       </c>
       <c r="K47" s="3">
         <v>48800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1367100</v>
+        <v>1156200</v>
       </c>
       <c r="E48" s="3">
-        <v>1060700</v>
+        <v>897100</v>
       </c>
       <c r="F48" s="3">
-        <v>928000</v>
+        <v>784900</v>
       </c>
       <c r="G48" s="3">
-        <v>810300</v>
+        <v>685300</v>
       </c>
       <c r="H48" s="3">
-        <v>629200</v>
+        <v>532100</v>
       </c>
       <c r="I48" s="3">
-        <v>536500</v>
+        <v>453700</v>
       </c>
       <c r="J48" s="3">
-        <v>446900</v>
+        <v>378000</v>
       </c>
       <c r="K48" s="3">
         <v>199000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>954300</v>
+        <v>807100</v>
       </c>
       <c r="E49" s="3">
-        <v>805000</v>
+        <v>680800</v>
       </c>
       <c r="F49" s="3">
-        <v>736000</v>
+        <v>622500</v>
       </c>
       <c r="G49" s="3">
-        <v>675800</v>
+        <v>571600</v>
       </c>
       <c r="H49" s="3">
-        <v>542900</v>
+        <v>459100</v>
       </c>
       <c r="I49" s="3">
-        <v>536100</v>
+        <v>453400</v>
       </c>
       <c r="J49" s="3">
-        <v>535100</v>
+        <v>452500</v>
       </c>
       <c r="K49" s="3">
         <v>82400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>184000</v>
+        <v>155600</v>
       </c>
       <c r="E52" s="3">
-        <v>102100</v>
+        <v>86400</v>
       </c>
       <c r="F52" s="3">
-        <v>25100</v>
+        <v>21300</v>
       </c>
       <c r="G52" s="3">
-        <v>30900</v>
+        <v>26100</v>
       </c>
       <c r="H52" s="3">
-        <v>23200</v>
+        <v>19600</v>
       </c>
       <c r="I52" s="3">
-        <v>34100</v>
+        <v>28900</v>
       </c>
       <c r="J52" s="3">
-        <v>24800</v>
+        <v>21000</v>
       </c>
       <c r="K52" s="3">
         <v>19700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4600700</v>
+        <v>3891100</v>
       </c>
       <c r="E54" s="3">
-        <v>3352000</v>
+        <v>2835000</v>
       </c>
       <c r="F54" s="3">
-        <v>2975600</v>
+        <v>2516600</v>
       </c>
       <c r="G54" s="3">
-        <v>2783600</v>
+        <v>2354200</v>
       </c>
       <c r="H54" s="3">
-        <v>2211900</v>
+        <v>1870700</v>
       </c>
       <c r="I54" s="3">
-        <v>2056900</v>
+        <v>1739600</v>
       </c>
       <c r="J54" s="3">
-        <v>1704300</v>
+        <v>1441400</v>
       </c>
       <c r="K54" s="3">
         <v>798100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>327900</v>
+        <v>277300</v>
       </c>
       <c r="E57" s="3">
-        <v>241200</v>
+        <v>204000</v>
       </c>
       <c r="F57" s="3">
-        <v>192200</v>
+        <v>162600</v>
       </c>
       <c r="G57" s="3">
-        <v>177200</v>
+        <v>149800</v>
       </c>
       <c r="H57" s="3">
-        <v>183700</v>
+        <v>155400</v>
       </c>
       <c r="I57" s="3">
-        <v>226100</v>
+        <v>191300</v>
       </c>
       <c r="J57" s="3">
-        <v>302500</v>
+        <v>255800</v>
       </c>
       <c r="K57" s="3">
         <v>45500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>575900</v>
+        <v>487100</v>
       </c>
       <c r="E58" s="3">
-        <v>340600</v>
+        <v>288100</v>
       </c>
       <c r="F58" s="3">
-        <v>496500</v>
+        <v>419900</v>
       </c>
       <c r="G58" s="3">
-        <v>458000</v>
+        <v>387300</v>
       </c>
       <c r="H58" s="3">
-        <v>278500</v>
+        <v>235500</v>
       </c>
       <c r="I58" s="3">
-        <v>185300</v>
+        <v>156700</v>
       </c>
       <c r="J58" s="3">
-        <v>47300</v>
+        <v>40000</v>
       </c>
       <c r="K58" s="3">
         <v>82500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>208600</v>
+        <v>176500</v>
       </c>
       <c r="E59" s="3">
-        <v>171000</v>
+        <v>144600</v>
       </c>
       <c r="F59" s="3">
-        <v>135000</v>
+        <v>114200</v>
       </c>
       <c r="G59" s="3">
-        <v>129000</v>
+        <v>109100</v>
       </c>
       <c r="H59" s="3">
-        <v>138200</v>
+        <v>116900</v>
       </c>
       <c r="I59" s="3">
-        <v>67600</v>
+        <v>57200</v>
       </c>
       <c r="J59" s="3">
-        <v>60600</v>
+        <v>51300</v>
       </c>
       <c r="K59" s="3">
         <v>40100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1112500</v>
+        <v>940900</v>
       </c>
       <c r="E60" s="3">
-        <v>752800</v>
+        <v>636700</v>
       </c>
       <c r="F60" s="3">
-        <v>823700</v>
+        <v>696700</v>
       </c>
       <c r="G60" s="3">
-        <v>764200</v>
+        <v>646300</v>
       </c>
       <c r="H60" s="3">
-        <v>600400</v>
+        <v>507800</v>
       </c>
       <c r="I60" s="3">
-        <v>479000</v>
+        <v>405100</v>
       </c>
       <c r="J60" s="3">
-        <v>410400</v>
+        <v>347100</v>
       </c>
       <c r="K60" s="3">
         <v>168100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1817900</v>
+        <v>1537500</v>
       </c>
       <c r="E61" s="3">
-        <v>1064500</v>
+        <v>900300</v>
       </c>
       <c r="F61" s="3">
-        <v>825200</v>
+        <v>697900</v>
       </c>
       <c r="G61" s="3">
-        <v>854000</v>
+        <v>722200</v>
       </c>
       <c r="H61" s="3">
-        <v>537500</v>
+        <v>454600</v>
       </c>
       <c r="I61" s="3">
-        <v>451400</v>
+        <v>381800</v>
       </c>
       <c r="J61" s="3">
-        <v>227000</v>
+        <v>192000</v>
       </c>
       <c r="K61" s="3">
         <v>42000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>201700</v>
+        <v>170600</v>
       </c>
       <c r="E62" s="3">
-        <v>181900</v>
+        <v>153800</v>
       </c>
       <c r="F62" s="3">
-        <v>149600</v>
+        <v>126600</v>
       </c>
       <c r="G62" s="3">
-        <v>120500</v>
+        <v>102000</v>
       </c>
       <c r="H62" s="3">
-        <v>94700</v>
+        <v>80100</v>
       </c>
       <c r="I62" s="3">
-        <v>80600</v>
+        <v>68100</v>
       </c>
       <c r="J62" s="3">
-        <v>129700</v>
+        <v>109700</v>
       </c>
       <c r="K62" s="3">
         <v>25100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3132200</v>
+        <v>2649000</v>
       </c>
       <c r="E66" s="3">
-        <v>1999100</v>
+        <v>1690800</v>
       </c>
       <c r="F66" s="3">
-        <v>1800900</v>
+        <v>1523200</v>
       </c>
       <c r="G66" s="3">
-        <v>1747200</v>
+        <v>1477700</v>
       </c>
       <c r="H66" s="3">
-        <v>1236300</v>
+        <v>1045600</v>
       </c>
       <c r="I66" s="3">
-        <v>1014600</v>
+        <v>858100</v>
       </c>
       <c r="J66" s="3">
-        <v>771300</v>
+        <v>652300</v>
       </c>
       <c r="K66" s="3">
         <v>222300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1422000</v>
+        <v>1202600</v>
       </c>
       <c r="E72" s="3">
-        <v>1262800</v>
+        <v>1068000</v>
       </c>
       <c r="F72" s="3">
-        <v>1039900</v>
+        <v>879500</v>
       </c>
       <c r="G72" s="3">
-        <v>884900</v>
+        <v>748400</v>
       </c>
       <c r="H72" s="3">
-        <v>843300</v>
+        <v>713200</v>
       </c>
       <c r="I72" s="3">
-        <v>909700</v>
+        <v>769400</v>
       </c>
       <c r="J72" s="3">
-        <v>810400</v>
+        <v>685400</v>
       </c>
       <c r="K72" s="3">
         <v>446200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1468600</v>
+        <v>1242000</v>
       </c>
       <c r="E76" s="3">
-        <v>1352900</v>
+        <v>1144200</v>
       </c>
       <c r="F76" s="3">
-        <v>1174600</v>
+        <v>993500</v>
       </c>
       <c r="G76" s="3">
-        <v>1036300</v>
+        <v>876500</v>
       </c>
       <c r="H76" s="3">
-        <v>975600</v>
+        <v>825200</v>
       </c>
       <c r="I76" s="3">
-        <v>1042200</v>
+        <v>881400</v>
       </c>
       <c r="J76" s="3">
-        <v>933100</v>
+        <v>789200</v>
       </c>
       <c r="K76" s="3">
         <v>575800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>327500</v>
+        <v>277000</v>
       </c>
       <c r="E81" s="3">
-        <v>275800</v>
+        <v>233300</v>
       </c>
       <c r="F81" s="3">
-        <v>211300</v>
+        <v>178700</v>
       </c>
       <c r="G81" s="3">
-        <v>131600</v>
+        <v>111300</v>
       </c>
       <c r="H81" s="3">
-        <v>128800</v>
+        <v>109000</v>
       </c>
       <c r="I81" s="3">
-        <v>98400</v>
+        <v>83200</v>
       </c>
       <c r="J81" s="3">
-        <v>134700</v>
+        <v>113900</v>
       </c>
       <c r="K81" s="3">
         <v>67600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>472000</v>
+        <v>399200</v>
       </c>
       <c r="E83" s="3">
-        <v>387400</v>
+        <v>327700</v>
       </c>
       <c r="F83" s="3">
-        <v>327100</v>
+        <v>276700</v>
       </c>
       <c r="G83" s="3">
-        <v>276700</v>
+        <v>234000</v>
       </c>
       <c r="H83" s="3">
-        <v>166300</v>
+        <v>140700</v>
       </c>
       <c r="I83" s="3">
-        <v>139300</v>
+        <v>117800</v>
       </c>
       <c r="J83" s="3">
-        <v>107000</v>
+        <v>90500</v>
       </c>
       <c r="K83" s="3">
         <v>58400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1378000</v>
+        <v>1165500</v>
       </c>
       <c r="E89" s="3">
-        <v>917000</v>
+        <v>775500</v>
       </c>
       <c r="F89" s="3">
-        <v>643100</v>
+        <v>543900</v>
       </c>
       <c r="G89" s="3">
-        <v>427100</v>
+        <v>361200</v>
       </c>
       <c r="H89" s="3">
-        <v>237900</v>
+        <v>201200</v>
       </c>
       <c r="I89" s="3">
-        <v>79300</v>
+        <v>67000</v>
       </c>
       <c r="J89" s="3">
-        <v>173300</v>
+        <v>146600</v>
       </c>
       <c r="K89" s="3">
         <v>62600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-362400</v>
+        <v>-306500</v>
       </c>
       <c r="E91" s="3">
-        <v>-254100</v>
+        <v>-214900</v>
       </c>
       <c r="F91" s="3">
-        <v>-208000</v>
+        <v>-175900</v>
       </c>
       <c r="G91" s="3">
-        <v>-192700</v>
+        <v>-163000</v>
       </c>
       <c r="H91" s="3">
-        <v>-191200</v>
+        <v>-161700</v>
       </c>
       <c r="I91" s="3">
-        <v>-167400</v>
+        <v>-141600</v>
       </c>
       <c r="J91" s="3">
-        <v>-139000</v>
+        <v>-117600</v>
       </c>
       <c r="K91" s="3">
         <v>-52300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-674400</v>
+        <v>-570400</v>
       </c>
       <c r="E94" s="3">
-        <v>-506100</v>
+        <v>-428000</v>
       </c>
       <c r="F94" s="3">
-        <v>-252600</v>
+        <v>-213700</v>
       </c>
       <c r="G94" s="3">
-        <v>-342900</v>
+        <v>-290000</v>
       </c>
       <c r="H94" s="3">
-        <v>-251100</v>
+        <v>-212400</v>
       </c>
       <c r="I94" s="3">
-        <v>-233500</v>
+        <v>-197500</v>
       </c>
       <c r="J94" s="3">
-        <v>-281500</v>
+        <v>-238100</v>
       </c>
       <c r="K94" s="3">
         <v>-44800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-167000</v>
+        <v>-141300</v>
       </c>
       <c r="E96" s="3">
-        <v>-54600</v>
+        <v>-46100</v>
       </c>
       <c r="F96" s="3">
-        <v>-73400</v>
+        <v>-62100</v>
       </c>
       <c r="G96" s="3">
-        <v>-126900</v>
+        <v>-107300</v>
       </c>
       <c r="H96" s="3">
-        <v>-198600</v>
+        <v>-168000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3300</v>
+        <v>-2800</v>
       </c>
       <c r="J96" s="3">
-        <v>-262000</v>
+        <v>-221600</v>
       </c>
       <c r="K96" s="3">
         <v>-300</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-256600</v>
+        <v>-217000</v>
       </c>
       <c r="E100" s="3">
-        <v>-277800</v>
+        <v>-234900</v>
       </c>
       <c r="F100" s="3">
-        <v>-226400</v>
+        <v>-191500</v>
       </c>
       <c r="G100" s="3">
-        <v>-34800</v>
+        <v>-29400</v>
       </c>
       <c r="H100" s="3">
-        <v>-102000</v>
+        <v>-86200</v>
       </c>
       <c r="I100" s="3">
-        <v>315000</v>
+        <v>266400</v>
       </c>
       <c r="J100" s="3">
-        <v>-318100</v>
+        <v>-269100</v>
       </c>
       <c r="K100" s="3">
         <v>3100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7000</v>
+        <v>-5900</v>
       </c>
       <c r="E101" s="3">
-        <v>-27500</v>
+        <v>-23300</v>
       </c>
       <c r="F101" s="3">
-        <v>19400</v>
+        <v>16400</v>
       </c>
       <c r="G101" s="3">
-        <v>126700</v>
+        <v>107200</v>
       </c>
       <c r="H101" s="3">
-        <v>28000</v>
+        <v>23700</v>
       </c>
       <c r="I101" s="3">
-        <v>43200</v>
+        <v>36600</v>
       </c>
       <c r="J101" s="3">
-        <v>28400</v>
+        <v>24000</v>
       </c>
       <c r="K101" s="3">
         <v>-14200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>440000</v>
+        <v>372100</v>
       </c>
       <c r="E102" s="3">
-        <v>105600</v>
+        <v>89300</v>
       </c>
       <c r="F102" s="3">
-        <v>183500</v>
+        <v>155200</v>
       </c>
       <c r="G102" s="3">
-        <v>176200</v>
+        <v>149000</v>
       </c>
       <c r="H102" s="3">
-        <v>-87200</v>
+        <v>-73800</v>
       </c>
       <c r="I102" s="3">
-        <v>204000</v>
+        <v>172500</v>
       </c>
       <c r="J102" s="3">
-        <v>-397900</v>
+        <v>-336500</v>
       </c>
       <c r="K102" s="3">
         <v>6800</v>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1977400</v>
+        <v>1943700</v>
       </c>
       <c r="E8" s="3">
-        <v>1602200</v>
+        <v>1574800</v>
       </c>
       <c r="F8" s="3">
-        <v>1383800</v>
+        <v>1360200</v>
       </c>
       <c r="G8" s="3">
-        <v>1172200</v>
+        <v>1152100</v>
       </c>
       <c r="H8" s="3">
-        <v>970600</v>
+        <v>954100</v>
       </c>
       <c r="I8" s="3">
-        <v>786400</v>
+        <v>773000</v>
       </c>
       <c r="J8" s="3">
-        <v>703000</v>
+        <v>691000</v>
       </c>
       <c r="K8" s="3">
         <v>430600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1388900</v>
+        <v>1365200</v>
       </c>
       <c r="E9" s="3">
-        <v>1119500</v>
+        <v>1100400</v>
       </c>
       <c r="F9" s="3">
-        <v>940400</v>
+        <v>924400</v>
       </c>
       <c r="G9" s="3">
-        <v>778700</v>
+        <v>765400</v>
       </c>
       <c r="H9" s="3">
-        <v>624800</v>
+        <v>614200</v>
       </c>
       <c r="I9" s="3">
-        <v>507500</v>
+        <v>498800</v>
       </c>
       <c r="J9" s="3">
-        <v>427500</v>
+        <v>420200</v>
       </c>
       <c r="K9" s="3">
         <v>263700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>588500</v>
+        <v>578500</v>
       </c>
       <c r="E10" s="3">
-        <v>482700</v>
+        <v>474400</v>
       </c>
       <c r="F10" s="3">
-        <v>443400</v>
+        <v>435800</v>
       </c>
       <c r="G10" s="3">
-        <v>393400</v>
+        <v>386700</v>
       </c>
       <c r="H10" s="3">
-        <v>345800</v>
+        <v>339900</v>
       </c>
       <c r="I10" s="3">
-        <v>278900</v>
+        <v>274100</v>
       </c>
       <c r="J10" s="3">
-        <v>275400</v>
+        <v>270700</v>
       </c>
       <c r="K10" s="3">
         <v>166900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>32500</v>
+        <v>32000</v>
       </c>
       <c r="E14" s="3">
-        <v>42300</v>
+        <v>41600</v>
       </c>
       <c r="F14" s="3">
-        <v>36800</v>
+        <v>36200</v>
       </c>
       <c r="G14" s="3">
-        <v>17800</v>
+        <v>17500</v>
       </c>
       <c r="H14" s="3">
-        <v>33800</v>
+        <v>33300</v>
       </c>
       <c r="I14" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="J14" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1199500</v>
+        <v>1179000</v>
       </c>
       <c r="E17" s="3">
-        <v>1170600</v>
+        <v>1150600</v>
       </c>
       <c r="F17" s="3">
-        <v>1039300</v>
+        <v>1021600</v>
       </c>
       <c r="G17" s="3">
-        <v>841700</v>
+        <v>827300</v>
       </c>
       <c r="H17" s="3">
-        <v>764400</v>
+        <v>751400</v>
       </c>
       <c r="I17" s="3">
-        <v>596500</v>
+        <v>586300</v>
       </c>
       <c r="J17" s="3">
-        <v>515800</v>
+        <v>506900</v>
       </c>
       <c r="K17" s="3">
         <v>357000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>777900</v>
+        <v>764700</v>
       </c>
       <c r="E18" s="3">
-        <v>431500</v>
+        <v>424200</v>
       </c>
       <c r="F18" s="3">
-        <v>344500</v>
+        <v>338600</v>
       </c>
       <c r="G18" s="3">
-        <v>330500</v>
+        <v>324800</v>
       </c>
       <c r="H18" s="3">
-        <v>206200</v>
+        <v>202700</v>
       </c>
       <c r="I18" s="3">
-        <v>190000</v>
+        <v>186700</v>
       </c>
       <c r="J18" s="3">
-        <v>187200</v>
+        <v>184000</v>
       </c>
       <c r="K18" s="3">
         <v>73600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-462000</v>
+        <v>-454100</v>
       </c>
       <c r="E20" s="3">
-        <v>-121700</v>
+        <v>-119700</v>
       </c>
       <c r="F20" s="3">
-        <v>-76300</v>
+        <v>-75000</v>
       </c>
       <c r="G20" s="3">
-        <v>-139700</v>
+        <v>-137300</v>
       </c>
       <c r="H20" s="3">
-        <v>-42900</v>
+        <v>-42200</v>
       </c>
       <c r="I20" s="3">
-        <v>-54200</v>
+        <v>-53200</v>
       </c>
       <c r="J20" s="3">
-        <v>-49300</v>
+        <v>-48400</v>
       </c>
       <c r="K20" s="3">
         <v>9100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>715800</v>
+        <v>700700</v>
       </c>
       <c r="E21" s="3">
-        <v>637900</v>
+        <v>624700</v>
       </c>
       <c r="F21" s="3">
-        <v>545300</v>
+        <v>534000</v>
       </c>
       <c r="G21" s="3">
-        <v>425100</v>
+        <v>416200</v>
       </c>
       <c r="H21" s="3">
-        <v>304100</v>
+        <v>297900</v>
       </c>
       <c r="I21" s="3">
-        <v>253700</v>
+        <v>248600</v>
       </c>
       <c r="J21" s="3">
-        <v>228600</v>
+        <v>224000</v>
       </c>
       <c r="K21" s="3">
         <v>142900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66000</v>
+        <v>64900</v>
       </c>
       <c r="E22" s="3">
-        <v>55100</v>
+        <v>54100</v>
       </c>
       <c r="F22" s="3">
-        <v>87100</v>
+        <v>85600</v>
       </c>
       <c r="G22" s="3">
-        <v>43600</v>
+        <v>42900</v>
       </c>
       <c r="H22" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="I22" s="3">
-        <v>23900</v>
+        <v>23500</v>
       </c>
       <c r="J22" s="3">
-        <v>16500</v>
+        <v>16200</v>
       </c>
       <c r="K22" s="3">
         <v>4200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>250000</v>
+        <v>245700</v>
       </c>
       <c r="E23" s="3">
-        <v>254700</v>
+        <v>250400</v>
       </c>
       <c r="F23" s="3">
-        <v>181100</v>
+        <v>178000</v>
       </c>
       <c r="G23" s="3">
-        <v>147100</v>
+        <v>144600</v>
       </c>
       <c r="H23" s="3">
-        <v>143700</v>
+        <v>141200</v>
       </c>
       <c r="I23" s="3">
-        <v>111900</v>
+        <v>110000</v>
       </c>
       <c r="J23" s="3">
-        <v>121400</v>
+        <v>119400</v>
       </c>
       <c r="K23" s="3">
         <v>78500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-27000</v>
+        <v>-26500</v>
       </c>
       <c r="E24" s="3">
-        <v>21300</v>
+        <v>21000</v>
       </c>
       <c r="F24" s="3">
-        <v>43200</v>
+        <v>42500</v>
       </c>
       <c r="G24" s="3">
-        <v>27300</v>
+        <v>26800</v>
       </c>
       <c r="H24" s="3">
-        <v>31500</v>
+        <v>30900</v>
       </c>
       <c r="I24" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="J24" s="3">
-        <v>36800</v>
+        <v>36100</v>
       </c>
       <c r="K24" s="3">
         <v>26100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>277000</v>
+        <v>272200</v>
       </c>
       <c r="E26" s="3">
-        <v>233400</v>
+        <v>229400</v>
       </c>
       <c r="F26" s="3">
-        <v>137900</v>
+        <v>135500</v>
       </c>
       <c r="G26" s="3">
-        <v>119900</v>
+        <v>117800</v>
       </c>
       <c r="H26" s="3">
-        <v>112200</v>
+        <v>110300</v>
       </c>
       <c r="I26" s="3">
-        <v>88400</v>
+        <v>86900</v>
       </c>
       <c r="J26" s="3">
-        <v>84700</v>
+        <v>83200</v>
       </c>
       <c r="K26" s="3">
         <v>52400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>277000</v>
+        <v>272200</v>
       </c>
       <c r="E27" s="3">
-        <v>233300</v>
+        <v>229300</v>
       </c>
       <c r="F27" s="3">
-        <v>136200</v>
+        <v>133900</v>
       </c>
       <c r="G27" s="3">
-        <v>111300</v>
+        <v>109400</v>
       </c>
       <c r="H27" s="3">
-        <v>109000</v>
+        <v>107100</v>
       </c>
       <c r="I27" s="3">
-        <v>85500</v>
+        <v>84100</v>
       </c>
       <c r="J27" s="3">
-        <v>93700</v>
+        <v>92100</v>
       </c>
       <c r="K27" s="3">
         <v>67600</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>42500</v>
+        <v>41800</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>-2300</v>
       </c>
       <c r="J29" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>462000</v>
+        <v>454100</v>
       </c>
       <c r="E32" s="3">
-        <v>121700</v>
+        <v>119700</v>
       </c>
       <c r="F32" s="3">
-        <v>76300</v>
+        <v>75000</v>
       </c>
       <c r="G32" s="3">
-        <v>139700</v>
+        <v>137300</v>
       </c>
       <c r="H32" s="3">
-        <v>42900</v>
+        <v>42200</v>
       </c>
       <c r="I32" s="3">
-        <v>54200</v>
+        <v>53200</v>
       </c>
       <c r="J32" s="3">
-        <v>49300</v>
+        <v>48400</v>
       </c>
       <c r="K32" s="3">
         <v>-9100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>277000</v>
+        <v>272200</v>
       </c>
       <c r="E33" s="3">
-        <v>233300</v>
+        <v>229300</v>
       </c>
       <c r="F33" s="3">
-        <v>178700</v>
+        <v>175700</v>
       </c>
       <c r="G33" s="3">
-        <v>111300</v>
+        <v>109400</v>
       </c>
       <c r="H33" s="3">
-        <v>109000</v>
+        <v>107100</v>
       </c>
       <c r="I33" s="3">
-        <v>83200</v>
+        <v>81800</v>
       </c>
       <c r="J33" s="3">
-        <v>113900</v>
+        <v>112000</v>
       </c>
       <c r="K33" s="3">
         <v>67600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>277000</v>
+        <v>272200</v>
       </c>
       <c r="E35" s="3">
-        <v>233300</v>
+        <v>229300</v>
       </c>
       <c r="F35" s="3">
-        <v>178700</v>
+        <v>175700</v>
       </c>
       <c r="G35" s="3">
-        <v>111300</v>
+        <v>109400</v>
       </c>
       <c r="H35" s="3">
-        <v>109000</v>
+        <v>107100</v>
       </c>
       <c r="I35" s="3">
-        <v>83200</v>
+        <v>81800</v>
       </c>
       <c r="J35" s="3">
-        <v>113900</v>
+        <v>112000</v>
       </c>
       <c r="K35" s="3">
         <v>67600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1025500</v>
+        <v>1008000</v>
       </c>
       <c r="E41" s="3">
-        <v>652900</v>
+        <v>641800</v>
       </c>
       <c r="F41" s="3">
-        <v>563600</v>
+        <v>554000</v>
       </c>
       <c r="G41" s="3">
-        <v>408400</v>
+        <v>401500</v>
       </c>
       <c r="H41" s="3">
-        <v>259400</v>
+        <v>255000</v>
       </c>
       <c r="I41" s="3">
-        <v>333200</v>
+        <v>327500</v>
       </c>
       <c r="J41" s="3">
-        <v>160700</v>
+        <v>157900</v>
       </c>
       <c r="K41" s="3">
         <v>304200</v>
@@ -1866,13 +1866,13 @@
         <v>3000</v>
       </c>
       <c r="E42" s="3">
-        <v>38600</v>
+        <v>38000</v>
       </c>
       <c r="F42" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="G42" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H42" s="3">
         <v>600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>443400</v>
+        <v>435800</v>
       </c>
       <c r="E43" s="3">
-        <v>363400</v>
+        <v>357200</v>
       </c>
       <c r="F43" s="3">
-        <v>401400</v>
+        <v>394500</v>
       </c>
       <c r="G43" s="3">
-        <v>404000</v>
+        <v>397100</v>
       </c>
       <c r="H43" s="3">
-        <v>350500</v>
+        <v>344500</v>
       </c>
       <c r="I43" s="3">
-        <v>273100</v>
+        <v>268500</v>
       </c>
       <c r="J43" s="3">
-        <v>251500</v>
+        <v>247200</v>
       </c>
       <c r="K43" s="3">
         <v>125100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="E44" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="F44" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G44" s="3">
         <v>9800</v>
       </c>
-      <c r="G44" s="3">
-        <v>9900</v>
-      </c>
       <c r="H44" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="I44" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="J44" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K44" s="3">
         <v>2400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>138300</v>
+        <v>136000</v>
       </c>
       <c r="E45" s="3">
-        <v>66900</v>
+        <v>65800</v>
       </c>
       <c r="F45" s="3">
-        <v>70100</v>
+        <v>68900</v>
       </c>
       <c r="G45" s="3">
-        <v>184300</v>
+        <v>181100</v>
       </c>
       <c r="H45" s="3">
-        <v>158300</v>
+        <v>155600</v>
       </c>
       <c r="I45" s="3">
-        <v>121400</v>
+        <v>119300</v>
       </c>
       <c r="J45" s="3">
-        <v>67800</v>
+        <v>66600</v>
       </c>
       <c r="K45" s="3">
         <v>15900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1624600</v>
+        <v>1596900</v>
       </c>
       <c r="E46" s="3">
-        <v>1133100</v>
+        <v>1113800</v>
       </c>
       <c r="F46" s="3">
-        <v>1064200</v>
+        <v>1046100</v>
       </c>
       <c r="G46" s="3">
-        <v>1009500</v>
+        <v>992200</v>
       </c>
       <c r="H46" s="3">
-        <v>774500</v>
+        <v>761300</v>
       </c>
       <c r="I46" s="3">
-        <v>735000</v>
+        <v>722400</v>
       </c>
       <c r="J46" s="3">
-        <v>484200</v>
+        <v>475900</v>
       </c>
       <c r="K46" s="3">
         <v>448300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>147500</v>
+        <v>145000</v>
       </c>
       <c r="E47" s="3">
-        <v>37500</v>
+        <v>36900</v>
       </c>
       <c r="F47" s="3">
-        <v>23700</v>
+        <v>23300</v>
       </c>
       <c r="G47" s="3">
-        <v>61800</v>
+        <v>60700</v>
       </c>
       <c r="H47" s="3">
-        <v>85400</v>
+        <v>83900</v>
       </c>
       <c r="I47" s="3">
-        <v>68600</v>
+        <v>67500</v>
       </c>
       <c r="J47" s="3">
-        <v>105800</v>
+        <v>104000</v>
       </c>
       <c r="K47" s="3">
         <v>48800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1156200</v>
+        <v>1136500</v>
       </c>
       <c r="E48" s="3">
-        <v>897100</v>
+        <v>881800</v>
       </c>
       <c r="F48" s="3">
-        <v>784900</v>
+        <v>771500</v>
       </c>
       <c r="G48" s="3">
-        <v>685300</v>
+        <v>673600</v>
       </c>
       <c r="H48" s="3">
-        <v>532100</v>
+        <v>523000</v>
       </c>
       <c r="I48" s="3">
-        <v>453700</v>
+        <v>446000</v>
       </c>
       <c r="J48" s="3">
-        <v>378000</v>
+        <v>371500</v>
       </c>
       <c r="K48" s="3">
         <v>199000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>807100</v>
+        <v>793300</v>
       </c>
       <c r="E49" s="3">
-        <v>680800</v>
+        <v>669200</v>
       </c>
       <c r="F49" s="3">
-        <v>622500</v>
+        <v>611900</v>
       </c>
       <c r="G49" s="3">
-        <v>571600</v>
+        <v>561800</v>
       </c>
       <c r="H49" s="3">
-        <v>459100</v>
+        <v>451300</v>
       </c>
       <c r="I49" s="3">
-        <v>453400</v>
+        <v>445600</v>
       </c>
       <c r="J49" s="3">
-        <v>452500</v>
+        <v>444800</v>
       </c>
       <c r="K49" s="3">
         <v>82400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>155600</v>
+        <v>152900</v>
       </c>
       <c r="E52" s="3">
-        <v>86400</v>
+        <v>84900</v>
       </c>
       <c r="F52" s="3">
-        <v>21300</v>
+        <v>20900</v>
       </c>
       <c r="G52" s="3">
-        <v>26100</v>
+        <v>25700</v>
       </c>
       <c r="H52" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="I52" s="3">
-        <v>28900</v>
+        <v>28400</v>
       </c>
       <c r="J52" s="3">
-        <v>21000</v>
+        <v>20600</v>
       </c>
       <c r="K52" s="3">
         <v>19700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3891100</v>
+        <v>3824600</v>
       </c>
       <c r="E54" s="3">
-        <v>2835000</v>
+        <v>2786600</v>
       </c>
       <c r="F54" s="3">
-        <v>2516600</v>
+        <v>2473600</v>
       </c>
       <c r="G54" s="3">
-        <v>2354200</v>
+        <v>2314000</v>
       </c>
       <c r="H54" s="3">
-        <v>1870700</v>
+        <v>1838800</v>
       </c>
       <c r="I54" s="3">
-        <v>1739600</v>
+        <v>1709900</v>
       </c>
       <c r="J54" s="3">
-        <v>1441400</v>
+        <v>1416800</v>
       </c>
       <c r="K54" s="3">
         <v>798100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>277300</v>
+        <v>272600</v>
       </c>
       <c r="E57" s="3">
-        <v>204000</v>
+        <v>200500</v>
       </c>
       <c r="F57" s="3">
-        <v>162600</v>
+        <v>159800</v>
       </c>
       <c r="G57" s="3">
-        <v>149800</v>
+        <v>147300</v>
       </c>
       <c r="H57" s="3">
-        <v>155400</v>
+        <v>152700</v>
       </c>
       <c r="I57" s="3">
-        <v>191300</v>
+        <v>188000</v>
       </c>
       <c r="J57" s="3">
-        <v>255800</v>
+        <v>251400</v>
       </c>
       <c r="K57" s="3">
         <v>45500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>487100</v>
+        <v>478800</v>
       </c>
       <c r="E58" s="3">
-        <v>288100</v>
+        <v>283100</v>
       </c>
       <c r="F58" s="3">
-        <v>419900</v>
+        <v>412800</v>
       </c>
       <c r="G58" s="3">
-        <v>387300</v>
+        <v>380700</v>
       </c>
       <c r="H58" s="3">
-        <v>235500</v>
+        <v>231500</v>
       </c>
       <c r="I58" s="3">
-        <v>156700</v>
+        <v>154000</v>
       </c>
       <c r="J58" s="3">
-        <v>40000</v>
+        <v>39300</v>
       </c>
       <c r="K58" s="3">
         <v>82500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>176500</v>
+        <v>173400</v>
       </c>
       <c r="E59" s="3">
-        <v>144600</v>
+        <v>142100</v>
       </c>
       <c r="F59" s="3">
-        <v>114200</v>
+        <v>112200</v>
       </c>
       <c r="G59" s="3">
-        <v>109100</v>
+        <v>107300</v>
       </c>
       <c r="H59" s="3">
-        <v>116900</v>
+        <v>114900</v>
       </c>
       <c r="I59" s="3">
-        <v>57200</v>
+        <v>56200</v>
       </c>
       <c r="J59" s="3">
-        <v>51300</v>
+        <v>50400</v>
       </c>
       <c r="K59" s="3">
         <v>40100</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>940900</v>
+        <v>924800</v>
       </c>
       <c r="E60" s="3">
-        <v>636700</v>
+        <v>625800</v>
       </c>
       <c r="F60" s="3">
-        <v>696700</v>
+        <v>684800</v>
       </c>
       <c r="G60" s="3">
-        <v>646300</v>
+        <v>635300</v>
       </c>
       <c r="H60" s="3">
-        <v>507800</v>
+        <v>499100</v>
       </c>
       <c r="I60" s="3">
-        <v>405100</v>
+        <v>398200</v>
       </c>
       <c r="J60" s="3">
-        <v>347100</v>
+        <v>341100</v>
       </c>
       <c r="K60" s="3">
         <v>168100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1537500</v>
+        <v>1511300</v>
       </c>
       <c r="E61" s="3">
-        <v>900300</v>
+        <v>884900</v>
       </c>
       <c r="F61" s="3">
-        <v>697900</v>
+        <v>686000</v>
       </c>
       <c r="G61" s="3">
-        <v>722200</v>
+        <v>709900</v>
       </c>
       <c r="H61" s="3">
-        <v>454600</v>
+        <v>446800</v>
       </c>
       <c r="I61" s="3">
-        <v>381800</v>
+        <v>375300</v>
       </c>
       <c r="J61" s="3">
-        <v>192000</v>
+        <v>188700</v>
       </c>
       <c r="K61" s="3">
         <v>42000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>170600</v>
+        <v>167700</v>
       </c>
       <c r="E62" s="3">
-        <v>153800</v>
+        <v>151200</v>
       </c>
       <c r="F62" s="3">
-        <v>126600</v>
+        <v>124400</v>
       </c>
       <c r="G62" s="3">
-        <v>102000</v>
+        <v>100200</v>
       </c>
       <c r="H62" s="3">
-        <v>80100</v>
+        <v>78800</v>
       </c>
       <c r="I62" s="3">
-        <v>68100</v>
+        <v>67000</v>
       </c>
       <c r="J62" s="3">
-        <v>109700</v>
+        <v>107800</v>
       </c>
       <c r="K62" s="3">
         <v>25100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2649000</v>
+        <v>2603800</v>
       </c>
       <c r="E66" s="3">
-        <v>1690800</v>
+        <v>1661900</v>
       </c>
       <c r="F66" s="3">
-        <v>1523200</v>
+        <v>1497100</v>
       </c>
       <c r="G66" s="3">
-        <v>1477700</v>
+        <v>1452500</v>
       </c>
       <c r="H66" s="3">
-        <v>1045600</v>
+        <v>1027700</v>
       </c>
       <c r="I66" s="3">
-        <v>858100</v>
+        <v>843500</v>
       </c>
       <c r="J66" s="3">
-        <v>652300</v>
+        <v>641200</v>
       </c>
       <c r="K66" s="3">
         <v>222300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1202600</v>
+        <v>1182100</v>
       </c>
       <c r="E72" s="3">
-        <v>1068000</v>
+        <v>1049800</v>
       </c>
       <c r="F72" s="3">
-        <v>879500</v>
+        <v>864400</v>
       </c>
       <c r="G72" s="3">
-        <v>748400</v>
+        <v>735600</v>
       </c>
       <c r="H72" s="3">
-        <v>713200</v>
+        <v>701000</v>
       </c>
       <c r="I72" s="3">
-        <v>769400</v>
+        <v>756300</v>
       </c>
       <c r="J72" s="3">
-        <v>685400</v>
+        <v>673700</v>
       </c>
       <c r="K72" s="3">
         <v>446200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1242000</v>
+        <v>1220800</v>
       </c>
       <c r="E76" s="3">
-        <v>1144200</v>
+        <v>1124700</v>
       </c>
       <c r="F76" s="3">
-        <v>993500</v>
+        <v>976500</v>
       </c>
       <c r="G76" s="3">
-        <v>876500</v>
+        <v>861500</v>
       </c>
       <c r="H76" s="3">
-        <v>825200</v>
+        <v>811100</v>
       </c>
       <c r="I76" s="3">
-        <v>881400</v>
+        <v>866400</v>
       </c>
       <c r="J76" s="3">
-        <v>789200</v>
+        <v>775700</v>
       </c>
       <c r="K76" s="3">
         <v>575800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>277000</v>
+        <v>272200</v>
       </c>
       <c r="E81" s="3">
-        <v>233300</v>
+        <v>229300</v>
       </c>
       <c r="F81" s="3">
-        <v>178700</v>
+        <v>175700</v>
       </c>
       <c r="G81" s="3">
-        <v>111300</v>
+        <v>109400</v>
       </c>
       <c r="H81" s="3">
-        <v>109000</v>
+        <v>107100</v>
       </c>
       <c r="I81" s="3">
-        <v>83200</v>
+        <v>81800</v>
       </c>
       <c r="J81" s="3">
-        <v>113900</v>
+        <v>112000</v>
       </c>
       <c r="K81" s="3">
         <v>67600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>399200</v>
+        <v>392400</v>
       </c>
       <c r="E83" s="3">
-        <v>327700</v>
+        <v>322100</v>
       </c>
       <c r="F83" s="3">
-        <v>276700</v>
+        <v>272000</v>
       </c>
       <c r="G83" s="3">
-        <v>234000</v>
+        <v>230000</v>
       </c>
       <c r="H83" s="3">
-        <v>140700</v>
+        <v>138300</v>
       </c>
       <c r="I83" s="3">
-        <v>117800</v>
+        <v>115800</v>
       </c>
       <c r="J83" s="3">
-        <v>90500</v>
+        <v>88900</v>
       </c>
       <c r="K83" s="3">
         <v>58400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1165500</v>
+        <v>1145600</v>
       </c>
       <c r="E89" s="3">
-        <v>775500</v>
+        <v>762300</v>
       </c>
       <c r="F89" s="3">
-        <v>543900</v>
+        <v>534600</v>
       </c>
       <c r="G89" s="3">
-        <v>361200</v>
+        <v>355100</v>
       </c>
       <c r="H89" s="3">
-        <v>201200</v>
+        <v>197700</v>
       </c>
       <c r="I89" s="3">
-        <v>67000</v>
+        <v>65900</v>
       </c>
       <c r="J89" s="3">
-        <v>146600</v>
+        <v>144100</v>
       </c>
       <c r="K89" s="3">
         <v>62600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-306500</v>
+        <v>-301300</v>
       </c>
       <c r="E91" s="3">
-        <v>-214900</v>
+        <v>-211300</v>
       </c>
       <c r="F91" s="3">
-        <v>-175900</v>
+        <v>-172900</v>
       </c>
       <c r="G91" s="3">
-        <v>-163000</v>
+        <v>-160200</v>
       </c>
       <c r="H91" s="3">
-        <v>-161700</v>
+        <v>-158900</v>
       </c>
       <c r="I91" s="3">
-        <v>-141600</v>
+        <v>-139200</v>
       </c>
       <c r="J91" s="3">
-        <v>-117600</v>
+        <v>-115500</v>
       </c>
       <c r="K91" s="3">
         <v>-52300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-570400</v>
+        <v>-560700</v>
       </c>
       <c r="E94" s="3">
-        <v>-428000</v>
+        <v>-420700</v>
       </c>
       <c r="F94" s="3">
-        <v>-213700</v>
+        <v>-210000</v>
       </c>
       <c r="G94" s="3">
-        <v>-290000</v>
+        <v>-285000</v>
       </c>
       <c r="H94" s="3">
-        <v>-212400</v>
+        <v>-208700</v>
       </c>
       <c r="I94" s="3">
-        <v>-197500</v>
+        <v>-194100</v>
       </c>
       <c r="J94" s="3">
-        <v>-238100</v>
+        <v>-234000</v>
       </c>
       <c r="K94" s="3">
         <v>-44800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-141300</v>
+        <v>-138800</v>
       </c>
       <c r="E96" s="3">
-        <v>-46100</v>
+        <v>-45400</v>
       </c>
       <c r="F96" s="3">
-        <v>-62100</v>
+        <v>-61000</v>
       </c>
       <c r="G96" s="3">
-        <v>-107300</v>
+        <v>-105500</v>
       </c>
       <c r="H96" s="3">
-        <v>-168000</v>
+        <v>-165100</v>
       </c>
       <c r="I96" s="3">
         <v>-2800</v>
       </c>
       <c r="J96" s="3">
-        <v>-221600</v>
+        <v>-217800</v>
       </c>
       <c r="K96" s="3">
         <v>-300</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-217000</v>
+        <v>-213300</v>
       </c>
       <c r="E100" s="3">
-        <v>-234900</v>
+        <v>-230900</v>
       </c>
       <c r="F100" s="3">
-        <v>-191500</v>
+        <v>-188200</v>
       </c>
       <c r="G100" s="3">
-        <v>-29400</v>
+        <v>-28900</v>
       </c>
       <c r="H100" s="3">
-        <v>-86200</v>
+        <v>-84800</v>
       </c>
       <c r="I100" s="3">
-        <v>266400</v>
+        <v>261800</v>
       </c>
       <c r="J100" s="3">
-        <v>-269100</v>
+        <v>-264500</v>
       </c>
       <c r="K100" s="3">
         <v>3100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="E101" s="3">
-        <v>-23300</v>
+        <v>-22900</v>
       </c>
       <c r="F101" s="3">
-        <v>16400</v>
+        <v>16100</v>
       </c>
       <c r="G101" s="3">
-        <v>107200</v>
+        <v>105400</v>
       </c>
       <c r="H101" s="3">
-        <v>23700</v>
+        <v>23300</v>
       </c>
       <c r="I101" s="3">
-        <v>36600</v>
+        <v>35900</v>
       </c>
       <c r="J101" s="3">
-        <v>24000</v>
+        <v>23600</v>
       </c>
       <c r="K101" s="3">
         <v>-14200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>372100</v>
+        <v>365700</v>
       </c>
       <c r="E102" s="3">
-        <v>89300</v>
+        <v>87800</v>
       </c>
       <c r="F102" s="3">
-        <v>155200</v>
+        <v>152600</v>
       </c>
       <c r="G102" s="3">
-        <v>149000</v>
+        <v>146500</v>
       </c>
       <c r="H102" s="3">
-        <v>-73800</v>
+        <v>-72500</v>
       </c>
       <c r="I102" s="3">
-        <v>172500</v>
+        <v>169600</v>
       </c>
       <c r="J102" s="3">
-        <v>-336500</v>
+        <v>-330800</v>
       </c>
       <c r="K102" s="3">
         <v>6800</v>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TKC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1943700</v>
+        <v>2843700</v>
       </c>
       <c r="E8" s="3">
-        <v>1574800</v>
+        <v>1895900</v>
       </c>
       <c r="F8" s="3">
-        <v>1360200</v>
+        <v>1536100</v>
       </c>
       <c r="G8" s="3">
-        <v>1152100</v>
+        <v>1326700</v>
       </c>
       <c r="H8" s="3">
-        <v>954100</v>
+        <v>1123800</v>
       </c>
       <c r="I8" s="3">
-        <v>773000</v>
+        <v>930600</v>
       </c>
       <c r="J8" s="3">
+        <v>754000</v>
+      </c>
+      <c r="K8" s="3">
         <v>691000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>430600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>762800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>979900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>920800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1365200</v>
+        <v>1941700</v>
       </c>
       <c r="E9" s="3">
-        <v>1100400</v>
+        <v>1331600</v>
       </c>
       <c r="F9" s="3">
-        <v>924400</v>
+        <v>1073300</v>
       </c>
       <c r="G9" s="3">
-        <v>765400</v>
+        <v>901700</v>
       </c>
       <c r="H9" s="3">
-        <v>614200</v>
+        <v>746600</v>
       </c>
       <c r="I9" s="3">
-        <v>498800</v>
+        <v>599100</v>
       </c>
       <c r="J9" s="3">
+        <v>486600</v>
+      </c>
+      <c r="K9" s="3">
         <v>420200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>263700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>471500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>605100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>579300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>578500</v>
+        <v>902000</v>
       </c>
       <c r="E10" s="3">
-        <v>474400</v>
+        <v>564200</v>
       </c>
       <c r="F10" s="3">
-        <v>435800</v>
+        <v>462800</v>
       </c>
       <c r="G10" s="3">
-        <v>386700</v>
+        <v>425100</v>
       </c>
       <c r="H10" s="3">
-        <v>339900</v>
+        <v>377200</v>
       </c>
       <c r="I10" s="3">
-        <v>274100</v>
+        <v>331600</v>
       </c>
       <c r="J10" s="3">
+        <v>267400</v>
+      </c>
+      <c r="K10" s="3">
         <v>270700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>166900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>291300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>374800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>341600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>32000</v>
+        <v>25400</v>
       </c>
       <c r="E14" s="3">
-        <v>41600</v>
+        <v>31200</v>
       </c>
       <c r="F14" s="3">
-        <v>36200</v>
+        <v>40600</v>
       </c>
       <c r="G14" s="3">
-        <v>17500</v>
+        <v>35300</v>
       </c>
       <c r="H14" s="3">
-        <v>33300</v>
+        <v>17100</v>
       </c>
       <c r="I14" s="3">
-        <v>7900</v>
+        <v>32400</v>
       </c>
       <c r="J14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K14" s="3">
         <v>4500</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>4300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17300</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1179000</v>
+        <v>1824200</v>
       </c>
       <c r="E17" s="3">
-        <v>1150600</v>
+        <v>1150000</v>
       </c>
       <c r="F17" s="3">
-        <v>1021600</v>
+        <v>1122400</v>
       </c>
       <c r="G17" s="3">
-        <v>827300</v>
+        <v>996500</v>
       </c>
       <c r="H17" s="3">
-        <v>751400</v>
+        <v>807000</v>
       </c>
       <c r="I17" s="3">
-        <v>586300</v>
+        <v>732900</v>
       </c>
       <c r="J17" s="3">
+        <v>571900</v>
+      </c>
+      <c r="K17" s="3">
         <v>506900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>357000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>634900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>819400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>806800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>764700</v>
+        <v>1019500</v>
       </c>
       <c r="E18" s="3">
-        <v>424200</v>
+        <v>745900</v>
       </c>
       <c r="F18" s="3">
-        <v>338600</v>
+        <v>413700</v>
       </c>
       <c r="G18" s="3">
-        <v>324800</v>
+        <v>330300</v>
       </c>
       <c r="H18" s="3">
-        <v>202700</v>
+        <v>316800</v>
       </c>
       <c r="I18" s="3">
-        <v>186700</v>
+        <v>197700</v>
       </c>
       <c r="J18" s="3">
+        <v>182100</v>
+      </c>
+      <c r="K18" s="3">
         <v>184000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>73600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>127900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>160500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>114100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-454100</v>
+        <v>-457600</v>
       </c>
       <c r="E20" s="3">
-        <v>-119700</v>
+        <v>-442900</v>
       </c>
       <c r="F20" s="3">
-        <v>-75000</v>
+        <v>-116700</v>
       </c>
       <c r="G20" s="3">
-        <v>-137300</v>
+        <v>-73200</v>
       </c>
       <c r="H20" s="3">
-        <v>-42200</v>
+        <v>-133900</v>
       </c>
       <c r="I20" s="3">
-        <v>-53200</v>
+        <v>-41200</v>
       </c>
       <c r="J20" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-48400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>75700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>98600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>62100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>700700</v>
+        <v>1052800</v>
       </c>
       <c r="E21" s="3">
-        <v>624700</v>
+        <v>686100</v>
       </c>
       <c r="F21" s="3">
-        <v>534000</v>
+        <v>611500</v>
       </c>
       <c r="G21" s="3">
-        <v>416200</v>
+        <v>522700</v>
       </c>
       <c r="H21" s="3">
-        <v>297900</v>
+        <v>407500</v>
       </c>
       <c r="I21" s="3">
-        <v>248600</v>
+        <v>291500</v>
       </c>
       <c r="J21" s="3">
+        <v>243200</v>
+      </c>
+      <c r="K21" s="3">
         <v>224000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>142900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>308700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>391000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>326600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64900</v>
+        <v>164200</v>
       </c>
       <c r="E22" s="3">
-        <v>54100</v>
+        <v>63300</v>
       </c>
       <c r="F22" s="3">
-        <v>85600</v>
+        <v>52800</v>
       </c>
       <c r="G22" s="3">
-        <v>42900</v>
+        <v>83500</v>
       </c>
       <c r="H22" s="3">
-        <v>19300</v>
+        <v>41800</v>
       </c>
       <c r="I22" s="3">
-        <v>23500</v>
+        <v>18800</v>
       </c>
       <c r="J22" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K22" s="3">
         <v>16200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>245700</v>
+        <v>397800</v>
       </c>
       <c r="E23" s="3">
-        <v>250400</v>
+        <v>239700</v>
       </c>
       <c r="F23" s="3">
-        <v>178000</v>
+        <v>244200</v>
       </c>
       <c r="G23" s="3">
-        <v>144600</v>
+        <v>173600</v>
       </c>
       <c r="H23" s="3">
-        <v>141200</v>
+        <v>141100</v>
       </c>
       <c r="I23" s="3">
-        <v>110000</v>
+        <v>137700</v>
       </c>
       <c r="J23" s="3">
+        <v>107300</v>
+      </c>
+      <c r="K23" s="3">
         <v>119400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>78500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>196600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>240300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>167000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-26500</v>
+        <v>-185600</v>
       </c>
       <c r="E24" s="3">
-        <v>21000</v>
+        <v>-25900</v>
       </c>
       <c r="F24" s="3">
-        <v>42500</v>
+        <v>20400</v>
       </c>
       <c r="G24" s="3">
-        <v>26800</v>
+        <v>41500</v>
       </c>
       <c r="H24" s="3">
-        <v>30900</v>
+        <v>26200</v>
       </c>
       <c r="I24" s="3">
-        <v>23100</v>
+        <v>30200</v>
       </c>
       <c r="J24" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K24" s="3">
         <v>36100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>48000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>272200</v>
+        <v>583300</v>
       </c>
       <c r="E26" s="3">
-        <v>229400</v>
+        <v>265600</v>
       </c>
       <c r="F26" s="3">
-        <v>135500</v>
+        <v>223800</v>
       </c>
       <c r="G26" s="3">
-        <v>117800</v>
+        <v>132200</v>
       </c>
       <c r="H26" s="3">
-        <v>110300</v>
+        <v>114900</v>
       </c>
       <c r="I26" s="3">
-        <v>86900</v>
+        <v>107600</v>
       </c>
       <c r="J26" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K26" s="3">
         <v>83200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>157000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>191600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>119000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>272200</v>
+        <v>583400</v>
       </c>
       <c r="E27" s="3">
-        <v>229300</v>
+        <v>265500</v>
       </c>
       <c r="F27" s="3">
-        <v>133900</v>
+        <v>223600</v>
       </c>
       <c r="G27" s="3">
-        <v>109400</v>
+        <v>130600</v>
       </c>
       <c r="H27" s="3">
-        <v>107100</v>
+        <v>106700</v>
       </c>
       <c r="I27" s="3">
-        <v>84100</v>
+        <v>104500</v>
       </c>
       <c r="J27" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K27" s="3">
         <v>92100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>156800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>193600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>123400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,35 +1523,38 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>41800</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>40800</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K29" s="3">
         <v>19900</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>454100</v>
+        <v>457600</v>
       </c>
       <c r="E32" s="3">
-        <v>119700</v>
+        <v>442900</v>
       </c>
       <c r="F32" s="3">
-        <v>75000</v>
+        <v>116700</v>
       </c>
       <c r="G32" s="3">
-        <v>137300</v>
+        <v>73200</v>
       </c>
       <c r="H32" s="3">
-        <v>42200</v>
+        <v>133900</v>
       </c>
       <c r="I32" s="3">
-        <v>53200</v>
+        <v>41200</v>
       </c>
       <c r="J32" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K32" s="3">
         <v>48400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-75700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-98600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-62100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>272200</v>
+        <v>583400</v>
       </c>
       <c r="E33" s="3">
-        <v>229300</v>
+        <v>265500</v>
       </c>
       <c r="F33" s="3">
-        <v>175700</v>
+        <v>223600</v>
       </c>
       <c r="G33" s="3">
-        <v>109400</v>
+        <v>171300</v>
       </c>
       <c r="H33" s="3">
-        <v>107100</v>
+        <v>106700</v>
       </c>
       <c r="I33" s="3">
-        <v>81800</v>
+        <v>104500</v>
       </c>
       <c r="J33" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K33" s="3">
         <v>112000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>156800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>193600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>123400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>272200</v>
+        <v>583400</v>
       </c>
       <c r="E35" s="3">
-        <v>229300</v>
+        <v>265500</v>
       </c>
       <c r="F35" s="3">
-        <v>175700</v>
+        <v>223600</v>
       </c>
       <c r="G35" s="3">
-        <v>109400</v>
+        <v>171300</v>
       </c>
       <c r="H35" s="3">
-        <v>107100</v>
+        <v>106700</v>
       </c>
       <c r="I35" s="3">
-        <v>81800</v>
+        <v>104500</v>
       </c>
       <c r="J35" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K35" s="3">
         <v>112000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>156800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>193600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>123400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1008000</v>
+        <v>1378800</v>
       </c>
       <c r="E41" s="3">
-        <v>641800</v>
+        <v>983200</v>
       </c>
       <c r="F41" s="3">
-        <v>554000</v>
+        <v>626000</v>
       </c>
       <c r="G41" s="3">
-        <v>401500</v>
+        <v>540400</v>
       </c>
       <c r="H41" s="3">
-        <v>255000</v>
+        <v>391600</v>
       </c>
       <c r="I41" s="3">
-        <v>327500</v>
+        <v>248700</v>
       </c>
       <c r="J41" s="3">
+        <v>319400</v>
+      </c>
+      <c r="K41" s="3">
         <v>157900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>304200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3000</v>
+        <v>252500</v>
       </c>
       <c r="E42" s="3">
-        <v>38000</v>
+        <v>2900</v>
       </c>
       <c r="F42" s="3">
-        <v>19000</v>
+        <v>37100</v>
       </c>
       <c r="G42" s="3">
-        <v>2800</v>
+        <v>18500</v>
       </c>
       <c r="H42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I42" s="3">
         <v>600</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>463200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>659500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>550400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>435800</v>
+        <v>659700</v>
       </c>
       <c r="E43" s="3">
-        <v>357200</v>
+        <v>425100</v>
       </c>
       <c r="F43" s="3">
-        <v>394500</v>
+        <v>348400</v>
       </c>
       <c r="G43" s="3">
-        <v>397100</v>
+        <v>384800</v>
       </c>
       <c r="H43" s="3">
-        <v>344500</v>
+        <v>387300</v>
       </c>
       <c r="I43" s="3">
-        <v>268500</v>
+        <v>336000</v>
       </c>
       <c r="J43" s="3">
+        <v>261900</v>
+      </c>
+      <c r="K43" s="3">
         <v>247200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>125100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>175100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>215500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>158300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="E44" s="3">
-        <v>11000</v>
+        <v>13800</v>
       </c>
       <c r="F44" s="3">
-        <v>9700</v>
+        <v>10800</v>
       </c>
       <c r="G44" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="H44" s="3">
-        <v>5600</v>
+        <v>9500</v>
       </c>
       <c r="I44" s="3">
-        <v>7100</v>
+        <v>5500</v>
       </c>
       <c r="J44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K44" s="3">
         <v>4100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>136000</v>
+        <v>164800</v>
       </c>
       <c r="E45" s="3">
-        <v>65800</v>
+        <v>132600</v>
       </c>
       <c r="F45" s="3">
-        <v>68900</v>
+        <v>64100</v>
       </c>
       <c r="G45" s="3">
-        <v>181100</v>
+        <v>67200</v>
       </c>
       <c r="H45" s="3">
-        <v>155600</v>
+        <v>176700</v>
       </c>
       <c r="I45" s="3">
-        <v>119300</v>
+        <v>151800</v>
       </c>
       <c r="J45" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K45" s="3">
         <v>66600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1596900</v>
+        <v>2470500</v>
       </c>
       <c r="E46" s="3">
-        <v>1113800</v>
+        <v>1557600</v>
       </c>
       <c r="F46" s="3">
-        <v>1046100</v>
+        <v>1086400</v>
       </c>
       <c r="G46" s="3">
-        <v>992200</v>
+        <v>1020400</v>
       </c>
       <c r="H46" s="3">
-        <v>761300</v>
+        <v>967800</v>
       </c>
       <c r="I46" s="3">
-        <v>722400</v>
+        <v>742600</v>
       </c>
       <c r="J46" s="3">
+        <v>704700</v>
+      </c>
+      <c r="K46" s="3">
         <v>475900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>448300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>696400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>916100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>732700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>145000</v>
+        <v>224800</v>
       </c>
       <c r="E47" s="3">
-        <v>36900</v>
+        <v>141400</v>
       </c>
       <c r="F47" s="3">
-        <v>23300</v>
+        <v>36000</v>
       </c>
       <c r="G47" s="3">
-        <v>60700</v>
+        <v>22700</v>
       </c>
       <c r="H47" s="3">
-        <v>83900</v>
+        <v>59200</v>
       </c>
       <c r="I47" s="3">
-        <v>67500</v>
+        <v>81800</v>
       </c>
       <c r="J47" s="3">
+        <v>65800</v>
+      </c>
+      <c r="K47" s="3">
         <v>104000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>48800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>64200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>98200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>103000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1136500</v>
+        <v>1318300</v>
       </c>
       <c r="E48" s="3">
-        <v>881800</v>
+        <v>1108500</v>
       </c>
       <c r="F48" s="3">
-        <v>771500</v>
+        <v>860100</v>
       </c>
       <c r="G48" s="3">
-        <v>673600</v>
+        <v>752500</v>
       </c>
       <c r="H48" s="3">
-        <v>523000</v>
+        <v>657100</v>
       </c>
       <c r="I48" s="3">
-        <v>446000</v>
+        <v>510200</v>
       </c>
       <c r="J48" s="3">
+        <v>435000</v>
+      </c>
+      <c r="K48" s="3">
         <v>371500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>199000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>351800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>511400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>444800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>793300</v>
+        <v>936400</v>
       </c>
       <c r="E49" s="3">
-        <v>669200</v>
+        <v>773800</v>
       </c>
       <c r="F49" s="3">
-        <v>611900</v>
+        <v>652800</v>
       </c>
       <c r="G49" s="3">
-        <v>561800</v>
+        <v>596800</v>
       </c>
       <c r="H49" s="3">
-        <v>451300</v>
+        <v>548000</v>
       </c>
       <c r="I49" s="3">
-        <v>445600</v>
+        <v>440200</v>
       </c>
       <c r="J49" s="3">
+        <v>434700</v>
+      </c>
+      <c r="K49" s="3">
         <v>444800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>82400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>141300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>216500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>204600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>152900</v>
+        <v>394800</v>
       </c>
       <c r="E52" s="3">
-        <v>84900</v>
+        <v>149200</v>
       </c>
       <c r="F52" s="3">
-        <v>20900</v>
+        <v>82800</v>
       </c>
       <c r="G52" s="3">
-        <v>25700</v>
+        <v>20400</v>
       </c>
       <c r="H52" s="3">
-        <v>19300</v>
+        <v>25000</v>
       </c>
       <c r="I52" s="3">
-        <v>28400</v>
+        <v>18800</v>
       </c>
       <c r="J52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K52" s="3">
         <v>20600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3824600</v>
+        <v>5344800</v>
       </c>
       <c r="E54" s="3">
-        <v>2786600</v>
+        <v>3730600</v>
       </c>
       <c r="F54" s="3">
-        <v>2473600</v>
+        <v>2718100</v>
       </c>
       <c r="G54" s="3">
-        <v>2314000</v>
+        <v>2412800</v>
       </c>
       <c r="H54" s="3">
-        <v>1838800</v>
+        <v>2257200</v>
       </c>
       <c r="I54" s="3">
-        <v>1709900</v>
+        <v>1793600</v>
       </c>
       <c r="J54" s="3">
+        <v>1667900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1416800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>798100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1273100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1751300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1493600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>272600</v>
+        <v>412800</v>
       </c>
       <c r="E57" s="3">
-        <v>200500</v>
+        <v>265900</v>
       </c>
       <c r="F57" s="3">
-        <v>159800</v>
+        <v>195600</v>
       </c>
       <c r="G57" s="3">
-        <v>147300</v>
+        <v>155900</v>
       </c>
       <c r="H57" s="3">
-        <v>152700</v>
+        <v>143600</v>
       </c>
       <c r="I57" s="3">
-        <v>188000</v>
+        <v>148900</v>
       </c>
       <c r="J57" s="3">
+        <v>183400</v>
+      </c>
+      <c r="K57" s="3">
         <v>251400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>83700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>94900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>87100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>478800</v>
+        <v>882500</v>
       </c>
       <c r="E58" s="3">
-        <v>283100</v>
+        <v>467000</v>
       </c>
       <c r="F58" s="3">
-        <v>412800</v>
+        <v>276200</v>
       </c>
       <c r="G58" s="3">
-        <v>380700</v>
+        <v>402600</v>
       </c>
       <c r="H58" s="3">
-        <v>231500</v>
+        <v>371400</v>
       </c>
       <c r="I58" s="3">
-        <v>154000</v>
+        <v>225800</v>
       </c>
       <c r="J58" s="3">
+        <v>150200</v>
+      </c>
+      <c r="K58" s="3">
         <v>39300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>82500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>108100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>181400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>133300</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>173400</v>
+        <v>248900</v>
       </c>
       <c r="E59" s="3">
-        <v>142100</v>
+        <v>169200</v>
       </c>
       <c r="F59" s="3">
-        <v>112200</v>
+        <v>138700</v>
       </c>
       <c r="G59" s="3">
-        <v>107300</v>
+        <v>109500</v>
       </c>
       <c r="H59" s="3">
-        <v>114900</v>
+        <v>104600</v>
       </c>
       <c r="I59" s="3">
-        <v>56200</v>
+        <v>112100</v>
       </c>
       <c r="J59" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K59" s="3">
         <v>50400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>116600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>118400</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>924800</v>
+        <v>1544300</v>
       </c>
       <c r="E60" s="3">
-        <v>625800</v>
+        <v>902100</v>
       </c>
       <c r="F60" s="3">
-        <v>684800</v>
+        <v>610400</v>
       </c>
       <c r="G60" s="3">
-        <v>635300</v>
+        <v>668000</v>
       </c>
       <c r="H60" s="3">
-        <v>499100</v>
+        <v>619600</v>
       </c>
       <c r="I60" s="3">
-        <v>398200</v>
+        <v>486800</v>
       </c>
       <c r="J60" s="3">
+        <v>388400</v>
+      </c>
+      <c r="K60" s="3">
         <v>341100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>168100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>257900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>392800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>338700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1511300</v>
+        <v>1959900</v>
       </c>
       <c r="E61" s="3">
-        <v>884900</v>
+        <v>1474100</v>
       </c>
       <c r="F61" s="3">
-        <v>686000</v>
+        <v>863100</v>
       </c>
       <c r="G61" s="3">
-        <v>709900</v>
+        <v>669100</v>
       </c>
       <c r="H61" s="3">
-        <v>446800</v>
+        <v>692500</v>
       </c>
       <c r="I61" s="3">
-        <v>375300</v>
+        <v>435900</v>
       </c>
       <c r="J61" s="3">
+        <v>366000</v>
+      </c>
+      <c r="K61" s="3">
         <v>188700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>91400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>103400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>173600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>167700</v>
+        <v>210000</v>
       </c>
       <c r="E62" s="3">
-        <v>151200</v>
+        <v>163600</v>
       </c>
       <c r="F62" s="3">
-        <v>124400</v>
+        <v>147500</v>
       </c>
       <c r="G62" s="3">
-        <v>100200</v>
+        <v>121300</v>
       </c>
       <c r="H62" s="3">
-        <v>78800</v>
+        <v>97800</v>
       </c>
       <c r="I62" s="3">
-        <v>67000</v>
+        <v>76800</v>
       </c>
       <c r="J62" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K62" s="3">
         <v>107800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>58900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2603800</v>
+        <v>3714300</v>
       </c>
       <c r="E66" s="3">
-        <v>1661900</v>
+        <v>2539800</v>
       </c>
       <c r="F66" s="3">
-        <v>1497100</v>
+        <v>1621100</v>
       </c>
       <c r="G66" s="3">
-        <v>1452500</v>
+        <v>1460300</v>
       </c>
       <c r="H66" s="3">
-        <v>1027700</v>
+        <v>1416800</v>
       </c>
       <c r="I66" s="3">
-        <v>843500</v>
+        <v>1002500</v>
       </c>
       <c r="J66" s="3">
+        <v>822800</v>
+      </c>
+      <c r="K66" s="3">
         <v>641200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>222300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>380900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>542000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>542800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1182100</v>
+        <v>1671900</v>
       </c>
       <c r="E72" s="3">
-        <v>1049800</v>
+        <v>1153100</v>
       </c>
       <c r="F72" s="3">
-        <v>864400</v>
+        <v>1024000</v>
       </c>
       <c r="G72" s="3">
-        <v>735600</v>
+        <v>843200</v>
       </c>
       <c r="H72" s="3">
-        <v>701000</v>
+        <v>717600</v>
       </c>
       <c r="I72" s="3">
-        <v>756300</v>
+        <v>683800</v>
       </c>
       <c r="J72" s="3">
+        <v>737700</v>
+      </c>
+      <c r="K72" s="3">
         <v>673700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>446200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>680400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1250000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1041500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1220800</v>
+        <v>1630400</v>
       </c>
       <c r="E76" s="3">
-        <v>1124700</v>
+        <v>1190800</v>
       </c>
       <c r="F76" s="3">
-        <v>976500</v>
+        <v>1097000</v>
       </c>
       <c r="G76" s="3">
-        <v>861500</v>
+        <v>952500</v>
       </c>
       <c r="H76" s="3">
-        <v>811100</v>
+        <v>840300</v>
       </c>
       <c r="I76" s="3">
-        <v>866400</v>
+        <v>791100</v>
       </c>
       <c r="J76" s="3">
+        <v>845100</v>
+      </c>
+      <c r="K76" s="3">
         <v>775700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>575800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>892200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1209300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>950800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>272200</v>
+        <v>583400</v>
       </c>
       <c r="E81" s="3">
-        <v>229300</v>
+        <v>265500</v>
       </c>
       <c r="F81" s="3">
-        <v>175700</v>
+        <v>223600</v>
       </c>
       <c r="G81" s="3">
-        <v>109400</v>
+        <v>171300</v>
       </c>
       <c r="H81" s="3">
-        <v>107100</v>
+        <v>106700</v>
       </c>
       <c r="I81" s="3">
-        <v>81800</v>
+        <v>104500</v>
       </c>
       <c r="J81" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K81" s="3">
         <v>112000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>156800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>193600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>123400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>392400</v>
+        <v>490300</v>
       </c>
       <c r="E83" s="3">
-        <v>322100</v>
+        <v>382800</v>
       </c>
       <c r="F83" s="3">
-        <v>272000</v>
+        <v>314200</v>
       </c>
       <c r="G83" s="3">
-        <v>230000</v>
+        <v>265300</v>
       </c>
       <c r="H83" s="3">
-        <v>138300</v>
+        <v>224300</v>
       </c>
       <c r="I83" s="3">
-        <v>115800</v>
+        <v>134900</v>
       </c>
       <c r="J83" s="3">
+        <v>112900</v>
+      </c>
+      <c r="K83" s="3">
         <v>88900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>105500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>131700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>151800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1145600</v>
+        <v>1327500</v>
       </c>
       <c r="E89" s="3">
-        <v>762300</v>
+        <v>1117400</v>
       </c>
       <c r="F89" s="3">
-        <v>534600</v>
+        <v>743500</v>
       </c>
       <c r="G89" s="3">
-        <v>355100</v>
+        <v>521500</v>
       </c>
       <c r="H89" s="3">
-        <v>197700</v>
+        <v>346300</v>
       </c>
       <c r="I89" s="3">
-        <v>65900</v>
+        <v>192900</v>
       </c>
       <c r="J89" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K89" s="3">
         <v>144100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>126900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>198500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>152000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-301300</v>
+        <v>-380900</v>
       </c>
       <c r="E91" s="3">
-        <v>-211300</v>
+        <v>-293900</v>
       </c>
       <c r="F91" s="3">
-        <v>-172900</v>
+        <v>-206100</v>
       </c>
       <c r="G91" s="3">
-        <v>-160200</v>
+        <v>-168600</v>
       </c>
       <c r="H91" s="3">
-        <v>-158900</v>
+        <v>-156300</v>
       </c>
       <c r="I91" s="3">
-        <v>-139200</v>
+        <v>-155000</v>
       </c>
       <c r="J91" s="3">
+        <v>-135800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-115500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-80600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-126800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-141000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-560700</v>
+        <v>-1037000</v>
       </c>
       <c r="E94" s="3">
-        <v>-420700</v>
+        <v>-546900</v>
       </c>
       <c r="F94" s="3">
-        <v>-210000</v>
+        <v>-410400</v>
       </c>
       <c r="G94" s="3">
-        <v>-285000</v>
+        <v>-204900</v>
       </c>
       <c r="H94" s="3">
-        <v>-208700</v>
+        <v>-278000</v>
       </c>
       <c r="I94" s="3">
-        <v>-194100</v>
+        <v>-203600</v>
       </c>
       <c r="J94" s="3">
+        <v>-189400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-234000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>50900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-231500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-138800</v>
+        <v>-65900</v>
       </c>
       <c r="E96" s="3">
-        <v>-45400</v>
+        <v>-135400</v>
       </c>
       <c r="F96" s="3">
-        <v>-61000</v>
+        <v>-44200</v>
       </c>
       <c r="G96" s="3">
-        <v>-105500</v>
+        <v>-59500</v>
       </c>
       <c r="H96" s="3">
-        <v>-165100</v>
+        <v>-102900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2800</v>
+        <v>-161000</v>
       </c>
       <c r="J96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-217800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-700</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-213300</v>
+        <v>92900</v>
       </c>
       <c r="E100" s="3">
-        <v>-230900</v>
+        <v>-208100</v>
       </c>
       <c r="F100" s="3">
-        <v>-188200</v>
+        <v>-225300</v>
       </c>
       <c r="G100" s="3">
-        <v>-28900</v>
+        <v>-183600</v>
       </c>
       <c r="H100" s="3">
-        <v>-84800</v>
+        <v>-28200</v>
       </c>
       <c r="I100" s="3">
-        <v>261800</v>
+        <v>-82700</v>
       </c>
       <c r="J100" s="3">
+        <v>255400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-264500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5800</v>
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
-        <v>-22900</v>
+        <v>-5700</v>
       </c>
       <c r="F101" s="3">
-        <v>16100</v>
+        <v>-22300</v>
       </c>
       <c r="G101" s="3">
-        <v>105400</v>
+        <v>15700</v>
       </c>
       <c r="H101" s="3">
-        <v>23300</v>
+        <v>102800</v>
       </c>
       <c r="I101" s="3">
-        <v>35900</v>
+        <v>22700</v>
       </c>
       <c r="J101" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K101" s="3">
         <v>23600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-66400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-55100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>365700</v>
+        <v>386400</v>
       </c>
       <c r="E102" s="3">
-        <v>87800</v>
+        <v>356800</v>
       </c>
       <c r="F102" s="3">
-        <v>152600</v>
+        <v>85600</v>
       </c>
       <c r="G102" s="3">
-        <v>146500</v>
+        <v>148800</v>
       </c>
       <c r="H102" s="3">
-        <v>-72500</v>
+        <v>142900</v>
       </c>
       <c r="I102" s="3">
-        <v>169600</v>
+        <v>-70700</v>
       </c>
       <c r="J102" s="3">
+        <v>165400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-330800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>237000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-129500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2843700</v>
+        <v>2723000</v>
       </c>
       <c r="E8" s="3">
-        <v>1895900</v>
+        <v>1815400</v>
       </c>
       <c r="F8" s="3">
-        <v>1536100</v>
+        <v>1470900</v>
       </c>
       <c r="G8" s="3">
-        <v>1326700</v>
+        <v>1270400</v>
       </c>
       <c r="H8" s="3">
-        <v>1123800</v>
+        <v>1076100</v>
       </c>
       <c r="I8" s="3">
-        <v>930600</v>
+        <v>891100</v>
       </c>
       <c r="J8" s="3">
-        <v>754000</v>
+        <v>722000</v>
       </c>
       <c r="K8" s="3">
         <v>691000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1941700</v>
+        <v>1859300</v>
       </c>
       <c r="E9" s="3">
-        <v>1331600</v>
+        <v>1275100</v>
       </c>
       <c r="F9" s="3">
-        <v>1073300</v>
+        <v>1027800</v>
       </c>
       <c r="G9" s="3">
-        <v>901700</v>
+        <v>863400</v>
       </c>
       <c r="H9" s="3">
-        <v>746600</v>
+        <v>714900</v>
       </c>
       <c r="I9" s="3">
-        <v>599100</v>
+        <v>573600</v>
       </c>
       <c r="J9" s="3">
-        <v>486600</v>
+        <v>465900</v>
       </c>
       <c r="K9" s="3">
         <v>420200</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>902000</v>
+        <v>863700</v>
       </c>
       <c r="E10" s="3">
-        <v>564200</v>
+        <v>540300</v>
       </c>
       <c r="F10" s="3">
-        <v>462800</v>
+        <v>443100</v>
       </c>
       <c r="G10" s="3">
-        <v>425100</v>
+        <v>407000</v>
       </c>
       <c r="H10" s="3">
-        <v>377200</v>
+        <v>361200</v>
       </c>
       <c r="I10" s="3">
-        <v>331600</v>
+        <v>317500</v>
       </c>
       <c r="J10" s="3">
-        <v>267400</v>
+        <v>256100</v>
       </c>
       <c r="K10" s="3">
         <v>270700</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25400</v>
+        <v>24400</v>
       </c>
       <c r="E14" s="3">
-        <v>31200</v>
+        <v>29900</v>
       </c>
       <c r="F14" s="3">
-        <v>40600</v>
+        <v>38900</v>
       </c>
       <c r="G14" s="3">
-        <v>35300</v>
+        <v>33800</v>
       </c>
       <c r="H14" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="I14" s="3">
-        <v>32400</v>
+        <v>31100</v>
       </c>
       <c r="J14" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="K14" s="3">
         <v>4500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1824200</v>
+        <v>1746800</v>
       </c>
       <c r="E17" s="3">
-        <v>1150000</v>
+        <v>1101200</v>
       </c>
       <c r="F17" s="3">
-        <v>1122400</v>
+        <v>1074700</v>
       </c>
       <c r="G17" s="3">
-        <v>996500</v>
+        <v>954200</v>
       </c>
       <c r="H17" s="3">
-        <v>807000</v>
+        <v>772700</v>
       </c>
       <c r="I17" s="3">
-        <v>732900</v>
+        <v>701800</v>
       </c>
       <c r="J17" s="3">
-        <v>571900</v>
+        <v>547600</v>
       </c>
       <c r="K17" s="3">
         <v>506900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1019500</v>
+        <v>976300</v>
       </c>
       <c r="E18" s="3">
-        <v>745900</v>
+        <v>714200</v>
       </c>
       <c r="F18" s="3">
-        <v>413700</v>
+        <v>396200</v>
       </c>
       <c r="G18" s="3">
-        <v>330300</v>
+        <v>316300</v>
       </c>
       <c r="H18" s="3">
-        <v>316800</v>
+        <v>303400</v>
       </c>
       <c r="I18" s="3">
-        <v>197700</v>
+        <v>189300</v>
       </c>
       <c r="J18" s="3">
-        <v>182100</v>
+        <v>174400</v>
       </c>
       <c r="K18" s="3">
         <v>184000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-457600</v>
+        <v>-438200</v>
       </c>
       <c r="E20" s="3">
-        <v>-442900</v>
+        <v>-424100</v>
       </c>
       <c r="F20" s="3">
-        <v>-116700</v>
+        <v>-111800</v>
       </c>
       <c r="G20" s="3">
-        <v>-73200</v>
+        <v>-70000</v>
       </c>
       <c r="H20" s="3">
-        <v>-133900</v>
+        <v>-128200</v>
       </c>
       <c r="I20" s="3">
-        <v>-41200</v>
+        <v>-39400</v>
       </c>
       <c r="J20" s="3">
-        <v>-51900</v>
+        <v>-49700</v>
       </c>
       <c r="K20" s="3">
         <v>-48400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1052800</v>
+        <v>1008600</v>
       </c>
       <c r="E21" s="3">
-        <v>686100</v>
+        <v>657400</v>
       </c>
       <c r="F21" s="3">
-        <v>611500</v>
+        <v>585900</v>
       </c>
       <c r="G21" s="3">
-        <v>522700</v>
+        <v>500800</v>
       </c>
       <c r="H21" s="3">
-        <v>407500</v>
+        <v>390400</v>
       </c>
       <c r="I21" s="3">
-        <v>291500</v>
+        <v>279300</v>
       </c>
       <c r="J21" s="3">
-        <v>243200</v>
+        <v>233000</v>
       </c>
       <c r="K21" s="3">
         <v>224000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>164200</v>
+        <v>157200</v>
       </c>
       <c r="E22" s="3">
-        <v>63300</v>
+        <v>60600</v>
       </c>
       <c r="F22" s="3">
-        <v>52800</v>
+        <v>50600</v>
       </c>
       <c r="G22" s="3">
-        <v>83500</v>
+        <v>79900</v>
       </c>
       <c r="H22" s="3">
-        <v>41800</v>
+        <v>40100</v>
       </c>
       <c r="I22" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="J22" s="3">
-        <v>22900</v>
+        <v>22000</v>
       </c>
       <c r="K22" s="3">
         <v>16200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>397800</v>
+        <v>380900</v>
       </c>
       <c r="E23" s="3">
-        <v>239700</v>
+        <v>229500</v>
       </c>
       <c r="F23" s="3">
-        <v>244200</v>
+        <v>233800</v>
       </c>
       <c r="G23" s="3">
-        <v>173600</v>
+        <v>166300</v>
       </c>
       <c r="H23" s="3">
-        <v>141100</v>
+        <v>135100</v>
       </c>
       <c r="I23" s="3">
-        <v>137700</v>
+        <v>131900</v>
       </c>
       <c r="J23" s="3">
-        <v>107300</v>
+        <v>102700</v>
       </c>
       <c r="K23" s="3">
         <v>119400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-185600</v>
+        <v>-177700</v>
       </c>
       <c r="E24" s="3">
-        <v>-25900</v>
+        <v>-24800</v>
       </c>
       <c r="F24" s="3">
-        <v>20400</v>
+        <v>19600</v>
       </c>
       <c r="G24" s="3">
-        <v>41500</v>
+        <v>39700</v>
       </c>
       <c r="H24" s="3">
-        <v>26200</v>
+        <v>25000</v>
       </c>
       <c r="I24" s="3">
-        <v>30200</v>
+        <v>28900</v>
       </c>
       <c r="J24" s="3">
-        <v>22500</v>
+        <v>21600</v>
       </c>
       <c r="K24" s="3">
         <v>36100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>583300</v>
+        <v>558600</v>
       </c>
       <c r="E26" s="3">
-        <v>265600</v>
+        <v>254300</v>
       </c>
       <c r="F26" s="3">
-        <v>223800</v>
+        <v>214300</v>
       </c>
       <c r="G26" s="3">
-        <v>132200</v>
+        <v>126600</v>
       </c>
       <c r="H26" s="3">
-        <v>114900</v>
+        <v>110000</v>
       </c>
       <c r="I26" s="3">
-        <v>107600</v>
+        <v>103000</v>
       </c>
       <c r="J26" s="3">
-        <v>84700</v>
+        <v>81100</v>
       </c>
       <c r="K26" s="3">
         <v>83200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>583400</v>
+        <v>558600</v>
       </c>
       <c r="E27" s="3">
-        <v>265500</v>
+        <v>254300</v>
       </c>
       <c r="F27" s="3">
-        <v>223600</v>
+        <v>214100</v>
       </c>
       <c r="G27" s="3">
-        <v>130600</v>
+        <v>125000</v>
       </c>
       <c r="H27" s="3">
-        <v>106700</v>
+        <v>102100</v>
       </c>
       <c r="I27" s="3">
-        <v>104500</v>
+        <v>100000</v>
       </c>
       <c r="J27" s="3">
-        <v>82000</v>
+        <v>78500</v>
       </c>
       <c r="K27" s="3">
         <v>92100</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>40800</v>
+        <v>39000</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K29" s="3">
         <v>19900</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>457600</v>
+        <v>438200</v>
       </c>
       <c r="E32" s="3">
-        <v>442900</v>
+        <v>424100</v>
       </c>
       <c r="F32" s="3">
-        <v>116700</v>
+        <v>111800</v>
       </c>
       <c r="G32" s="3">
-        <v>73200</v>
+        <v>70000</v>
       </c>
       <c r="H32" s="3">
-        <v>133900</v>
+        <v>128200</v>
       </c>
       <c r="I32" s="3">
-        <v>41200</v>
+        <v>39400</v>
       </c>
       <c r="J32" s="3">
-        <v>51900</v>
+        <v>49700</v>
       </c>
       <c r="K32" s="3">
         <v>48400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>583400</v>
+        <v>558600</v>
       </c>
       <c r="E33" s="3">
-        <v>265500</v>
+        <v>254300</v>
       </c>
       <c r="F33" s="3">
-        <v>223600</v>
+        <v>214100</v>
       </c>
       <c r="G33" s="3">
-        <v>171300</v>
+        <v>164100</v>
       </c>
       <c r="H33" s="3">
-        <v>106700</v>
+        <v>102100</v>
       </c>
       <c r="I33" s="3">
-        <v>104500</v>
+        <v>100000</v>
       </c>
       <c r="J33" s="3">
-        <v>79800</v>
+        <v>76400</v>
       </c>
       <c r="K33" s="3">
         <v>112000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>583400</v>
+        <v>558600</v>
       </c>
       <c r="E35" s="3">
-        <v>265500</v>
+        <v>254300</v>
       </c>
       <c r="F35" s="3">
-        <v>223600</v>
+        <v>214100</v>
       </c>
       <c r="G35" s="3">
-        <v>171300</v>
+        <v>164100</v>
       </c>
       <c r="H35" s="3">
-        <v>106700</v>
+        <v>102100</v>
       </c>
       <c r="I35" s="3">
-        <v>104500</v>
+        <v>100000</v>
       </c>
       <c r="J35" s="3">
-        <v>79800</v>
+        <v>76400</v>
       </c>
       <c r="K35" s="3">
         <v>112000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1378800</v>
+        <v>1320300</v>
       </c>
       <c r="E41" s="3">
-        <v>983200</v>
+        <v>941500</v>
       </c>
       <c r="F41" s="3">
-        <v>626000</v>
+        <v>599400</v>
       </c>
       <c r="G41" s="3">
-        <v>540400</v>
+        <v>517500</v>
       </c>
       <c r="H41" s="3">
-        <v>391600</v>
+        <v>375000</v>
       </c>
       <c r="I41" s="3">
-        <v>248700</v>
+        <v>238200</v>
       </c>
       <c r="J41" s="3">
-        <v>319400</v>
+        <v>305900</v>
       </c>
       <c r="K41" s="3">
         <v>157900</v>
@@ -1952,19 +1952,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>252500</v>
+        <v>241800</v>
       </c>
       <c r="E42" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F42" s="3">
-        <v>37100</v>
+        <v>35500</v>
       </c>
       <c r="G42" s="3">
-        <v>18500</v>
+        <v>17700</v>
       </c>
       <c r="H42" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I42" s="3">
         <v>600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>659700</v>
+        <v>631700</v>
       </c>
       <c r="E43" s="3">
-        <v>425100</v>
+        <v>407100</v>
       </c>
       <c r="F43" s="3">
-        <v>348400</v>
+        <v>333700</v>
       </c>
       <c r="G43" s="3">
-        <v>384800</v>
+        <v>368500</v>
       </c>
       <c r="H43" s="3">
-        <v>387300</v>
+        <v>370900</v>
       </c>
       <c r="I43" s="3">
-        <v>336000</v>
+        <v>321700</v>
       </c>
       <c r="J43" s="3">
-        <v>261900</v>
+        <v>250800</v>
       </c>
       <c r="K43" s="3">
         <v>247200</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="E44" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="F44" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="G44" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="H44" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="I44" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="J44" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="K44" s="3">
         <v>4100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>164800</v>
+        <v>157800</v>
       </c>
       <c r="E45" s="3">
-        <v>132600</v>
+        <v>127000</v>
       </c>
       <c r="F45" s="3">
-        <v>64100</v>
+        <v>61400</v>
       </c>
       <c r="G45" s="3">
-        <v>67200</v>
+        <v>64300</v>
       </c>
       <c r="H45" s="3">
-        <v>176700</v>
+        <v>169200</v>
       </c>
       <c r="I45" s="3">
-        <v>151800</v>
+        <v>145300</v>
       </c>
       <c r="J45" s="3">
-        <v>116400</v>
+        <v>111400</v>
       </c>
       <c r="K45" s="3">
         <v>66600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2470500</v>
+        <v>2365600</v>
       </c>
       <c r="E46" s="3">
-        <v>1557600</v>
+        <v>1491500</v>
       </c>
       <c r="F46" s="3">
-        <v>1086400</v>
+        <v>1040300</v>
       </c>
       <c r="G46" s="3">
-        <v>1020400</v>
+        <v>977000</v>
       </c>
       <c r="H46" s="3">
-        <v>967800</v>
+        <v>926800</v>
       </c>
       <c r="I46" s="3">
-        <v>742600</v>
+        <v>711100</v>
       </c>
       <c r="J46" s="3">
-        <v>704700</v>
+        <v>674800</v>
       </c>
       <c r="K46" s="3">
         <v>475900</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>224800</v>
+        <v>215300</v>
       </c>
       <c r="E47" s="3">
-        <v>141400</v>
+        <v>135400</v>
       </c>
       <c r="F47" s="3">
-        <v>36000</v>
+        <v>34400</v>
       </c>
       <c r="G47" s="3">
-        <v>22700</v>
+        <v>21800</v>
       </c>
       <c r="H47" s="3">
-        <v>59200</v>
+        <v>56700</v>
       </c>
       <c r="I47" s="3">
-        <v>81800</v>
+        <v>78400</v>
       </c>
       <c r="J47" s="3">
-        <v>65800</v>
+        <v>63000</v>
       </c>
       <c r="K47" s="3">
         <v>104000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1318300</v>
+        <v>1262400</v>
       </c>
       <c r="E48" s="3">
-        <v>1108500</v>
+        <v>1061500</v>
       </c>
       <c r="F48" s="3">
-        <v>860100</v>
+        <v>823600</v>
       </c>
       <c r="G48" s="3">
-        <v>752500</v>
+        <v>720600</v>
       </c>
       <c r="H48" s="3">
-        <v>657100</v>
+        <v>629200</v>
       </c>
       <c r="I48" s="3">
-        <v>510200</v>
+        <v>488500</v>
       </c>
       <c r="J48" s="3">
-        <v>435000</v>
+        <v>416500</v>
       </c>
       <c r="K48" s="3">
         <v>371500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>936400</v>
+        <v>896700</v>
       </c>
       <c r="E49" s="3">
-        <v>773800</v>
+        <v>741000</v>
       </c>
       <c r="F49" s="3">
-        <v>652800</v>
+        <v>625100</v>
       </c>
       <c r="G49" s="3">
-        <v>596800</v>
+        <v>571500</v>
       </c>
       <c r="H49" s="3">
-        <v>548000</v>
+        <v>524700</v>
       </c>
       <c r="I49" s="3">
-        <v>440200</v>
+        <v>421500</v>
       </c>
       <c r="J49" s="3">
-        <v>434700</v>
+        <v>416200</v>
       </c>
       <c r="K49" s="3">
         <v>444800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>394800</v>
+        <v>378000</v>
       </c>
       <c r="E52" s="3">
-        <v>149200</v>
+        <v>142900</v>
       </c>
       <c r="F52" s="3">
-        <v>82800</v>
+        <v>79300</v>
       </c>
       <c r="G52" s="3">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="H52" s="3">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="I52" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="J52" s="3">
-        <v>27700</v>
+        <v>26500</v>
       </c>
       <c r="K52" s="3">
         <v>20600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5344800</v>
+        <v>5117900</v>
       </c>
       <c r="E54" s="3">
-        <v>3730600</v>
+        <v>3572300</v>
       </c>
       <c r="F54" s="3">
-        <v>2718100</v>
+        <v>2602700</v>
       </c>
       <c r="G54" s="3">
-        <v>2412800</v>
+        <v>2310400</v>
       </c>
       <c r="H54" s="3">
-        <v>2257200</v>
+        <v>2161400</v>
       </c>
       <c r="I54" s="3">
-        <v>1793600</v>
+        <v>1717500</v>
       </c>
       <c r="J54" s="3">
-        <v>1667900</v>
+        <v>1597100</v>
       </c>
       <c r="K54" s="3">
         <v>1416800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>412800</v>
+        <v>395300</v>
       </c>
       <c r="E57" s="3">
-        <v>265900</v>
+        <v>254600</v>
       </c>
       <c r="F57" s="3">
-        <v>195600</v>
+        <v>187300</v>
       </c>
       <c r="G57" s="3">
-        <v>155900</v>
+        <v>149300</v>
       </c>
       <c r="H57" s="3">
-        <v>143600</v>
+        <v>137600</v>
       </c>
       <c r="I57" s="3">
-        <v>148900</v>
+        <v>142600</v>
       </c>
       <c r="J57" s="3">
-        <v>183400</v>
+        <v>175600</v>
       </c>
       <c r="K57" s="3">
         <v>251400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>882500</v>
+        <v>845100</v>
       </c>
       <c r="E58" s="3">
-        <v>467000</v>
+        <v>447200</v>
       </c>
       <c r="F58" s="3">
-        <v>276200</v>
+        <v>264500</v>
       </c>
       <c r="G58" s="3">
-        <v>402600</v>
+        <v>385500</v>
       </c>
       <c r="H58" s="3">
-        <v>371400</v>
+        <v>355600</v>
       </c>
       <c r="I58" s="3">
-        <v>225800</v>
+        <v>216200</v>
       </c>
       <c r="J58" s="3">
-        <v>150200</v>
+        <v>143800</v>
       </c>
       <c r="K58" s="3">
         <v>39300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>248900</v>
+        <v>238300</v>
       </c>
       <c r="E59" s="3">
-        <v>169200</v>
+        <v>162000</v>
       </c>
       <c r="F59" s="3">
-        <v>138700</v>
+        <v>132800</v>
       </c>
       <c r="G59" s="3">
-        <v>109500</v>
+        <v>104800</v>
       </c>
       <c r="H59" s="3">
-        <v>104600</v>
+        <v>100200</v>
       </c>
       <c r="I59" s="3">
-        <v>112100</v>
+        <v>107300</v>
       </c>
       <c r="J59" s="3">
-        <v>54800</v>
+        <v>52500</v>
       </c>
       <c r="K59" s="3">
         <v>50400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1544300</v>
+        <v>1478700</v>
       </c>
       <c r="E60" s="3">
-        <v>902100</v>
+        <v>863800</v>
       </c>
       <c r="F60" s="3">
-        <v>610400</v>
+        <v>584500</v>
       </c>
       <c r="G60" s="3">
-        <v>668000</v>
+        <v>639600</v>
       </c>
       <c r="H60" s="3">
-        <v>619600</v>
+        <v>593300</v>
       </c>
       <c r="I60" s="3">
-        <v>486800</v>
+        <v>466200</v>
       </c>
       <c r="J60" s="3">
-        <v>388400</v>
+        <v>371900</v>
       </c>
       <c r="K60" s="3">
         <v>341100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1959900</v>
+        <v>1876700</v>
       </c>
       <c r="E61" s="3">
-        <v>1474100</v>
+        <v>1411600</v>
       </c>
       <c r="F61" s="3">
-        <v>863100</v>
+        <v>826500</v>
       </c>
       <c r="G61" s="3">
-        <v>669100</v>
+        <v>640700</v>
       </c>
       <c r="H61" s="3">
-        <v>692500</v>
+        <v>663100</v>
       </c>
       <c r="I61" s="3">
-        <v>435900</v>
+        <v>417400</v>
       </c>
       <c r="J61" s="3">
-        <v>366000</v>
+        <v>350500</v>
       </c>
       <c r="K61" s="3">
         <v>188700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>210000</v>
+        <v>201000</v>
       </c>
       <c r="E62" s="3">
-        <v>163600</v>
+        <v>156600</v>
       </c>
       <c r="F62" s="3">
-        <v>147500</v>
+        <v>141200</v>
       </c>
       <c r="G62" s="3">
-        <v>121300</v>
+        <v>116200</v>
       </c>
       <c r="H62" s="3">
-        <v>97800</v>
+        <v>93600</v>
       </c>
       <c r="I62" s="3">
-        <v>76800</v>
+        <v>73600</v>
       </c>
       <c r="J62" s="3">
-        <v>65300</v>
+        <v>62600</v>
       </c>
       <c r="K62" s="3">
         <v>107800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3714300</v>
+        <v>3556700</v>
       </c>
       <c r="E66" s="3">
-        <v>2539800</v>
+        <v>2432000</v>
       </c>
       <c r="F66" s="3">
-        <v>1621100</v>
+        <v>1552300</v>
       </c>
       <c r="G66" s="3">
-        <v>1460300</v>
+        <v>1398400</v>
       </c>
       <c r="H66" s="3">
-        <v>1416800</v>
+        <v>1356700</v>
       </c>
       <c r="I66" s="3">
-        <v>1002500</v>
+        <v>959900</v>
       </c>
       <c r="J66" s="3">
-        <v>822800</v>
+        <v>787800</v>
       </c>
       <c r="K66" s="3">
         <v>641200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1671900</v>
+        <v>1600900</v>
       </c>
       <c r="E72" s="3">
-        <v>1153100</v>
+        <v>1104100</v>
       </c>
       <c r="F72" s="3">
-        <v>1024000</v>
+        <v>980500</v>
       </c>
       <c r="G72" s="3">
-        <v>843200</v>
+        <v>807400</v>
       </c>
       <c r="H72" s="3">
-        <v>717600</v>
+        <v>687100</v>
       </c>
       <c r="I72" s="3">
-        <v>683800</v>
+        <v>654800</v>
       </c>
       <c r="J72" s="3">
-        <v>737700</v>
+        <v>706400</v>
       </c>
       <c r="K72" s="3">
         <v>673700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1630400</v>
+        <v>1561200</v>
       </c>
       <c r="E76" s="3">
-        <v>1190800</v>
+        <v>1140300</v>
       </c>
       <c r="F76" s="3">
-        <v>1097000</v>
+        <v>1050500</v>
       </c>
       <c r="G76" s="3">
-        <v>952500</v>
+        <v>912100</v>
       </c>
       <c r="H76" s="3">
-        <v>840300</v>
+        <v>804700</v>
       </c>
       <c r="I76" s="3">
-        <v>791100</v>
+        <v>757600</v>
       </c>
       <c r="J76" s="3">
-        <v>845100</v>
+        <v>809200</v>
       </c>
       <c r="K76" s="3">
         <v>775700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>583400</v>
+        <v>558600</v>
       </c>
       <c r="E81" s="3">
-        <v>265500</v>
+        <v>254300</v>
       </c>
       <c r="F81" s="3">
-        <v>223600</v>
+        <v>214100</v>
       </c>
       <c r="G81" s="3">
-        <v>171300</v>
+        <v>164100</v>
       </c>
       <c r="H81" s="3">
-        <v>106700</v>
+        <v>102100</v>
       </c>
       <c r="I81" s="3">
-        <v>104500</v>
+        <v>100000</v>
       </c>
       <c r="J81" s="3">
-        <v>79800</v>
+        <v>76400</v>
       </c>
       <c r="K81" s="3">
         <v>112000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>490300</v>
+        <v>469500</v>
       </c>
       <c r="E83" s="3">
-        <v>382800</v>
+        <v>366500</v>
       </c>
       <c r="F83" s="3">
-        <v>314200</v>
+        <v>300800</v>
       </c>
       <c r="G83" s="3">
-        <v>265300</v>
+        <v>254000</v>
       </c>
       <c r="H83" s="3">
-        <v>224300</v>
+        <v>214800</v>
       </c>
       <c r="I83" s="3">
-        <v>134900</v>
+        <v>129100</v>
       </c>
       <c r="J83" s="3">
-        <v>112900</v>
+        <v>108100</v>
       </c>
       <c r="K83" s="3">
         <v>88900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1327500</v>
+        <v>1271200</v>
       </c>
       <c r="E89" s="3">
-        <v>1117400</v>
+        <v>1070000</v>
       </c>
       <c r="F89" s="3">
-        <v>743500</v>
+        <v>712000</v>
       </c>
       <c r="G89" s="3">
-        <v>521500</v>
+        <v>499400</v>
       </c>
       <c r="H89" s="3">
-        <v>346300</v>
+        <v>331600</v>
       </c>
       <c r="I89" s="3">
-        <v>192900</v>
+        <v>184700</v>
       </c>
       <c r="J89" s="3">
-        <v>64300</v>
+        <v>61600</v>
       </c>
       <c r="K89" s="3">
         <v>144100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-380900</v>
+        <v>-364700</v>
       </c>
       <c r="E91" s="3">
-        <v>-293900</v>
+        <v>-281400</v>
       </c>
       <c r="F91" s="3">
-        <v>-206100</v>
+        <v>-197300</v>
       </c>
       <c r="G91" s="3">
-        <v>-168600</v>
+        <v>-161500</v>
       </c>
       <c r="H91" s="3">
-        <v>-156300</v>
+        <v>-149600</v>
       </c>
       <c r="I91" s="3">
-        <v>-155000</v>
+        <v>-148400</v>
       </c>
       <c r="J91" s="3">
-        <v>-135800</v>
+        <v>-130000</v>
       </c>
       <c r="K91" s="3">
         <v>-115500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1037000</v>
+        <v>-993000</v>
       </c>
       <c r="E94" s="3">
-        <v>-546900</v>
+        <v>-523700</v>
       </c>
       <c r="F94" s="3">
-        <v>-410400</v>
+        <v>-393000</v>
       </c>
       <c r="G94" s="3">
-        <v>-204900</v>
+        <v>-196200</v>
       </c>
       <c r="H94" s="3">
-        <v>-278000</v>
+        <v>-266200</v>
       </c>
       <c r="I94" s="3">
-        <v>-203600</v>
+        <v>-195000</v>
       </c>
       <c r="J94" s="3">
-        <v>-189400</v>
+        <v>-181300</v>
       </c>
       <c r="K94" s="3">
         <v>-234000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-65900</v>
+        <v>-63100</v>
       </c>
       <c r="E96" s="3">
-        <v>-135400</v>
+        <v>-129700</v>
       </c>
       <c r="F96" s="3">
-        <v>-44200</v>
+        <v>-42400</v>
       </c>
       <c r="G96" s="3">
-        <v>-59500</v>
+        <v>-57000</v>
       </c>
       <c r="H96" s="3">
-        <v>-102900</v>
+        <v>-98500</v>
       </c>
       <c r="I96" s="3">
-        <v>-161000</v>
+        <v>-154200</v>
       </c>
       <c r="J96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="K96" s="3">
         <v>-217800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>92900</v>
+        <v>89000</v>
       </c>
       <c r="E100" s="3">
-        <v>-208100</v>
+        <v>-199200</v>
       </c>
       <c r="F100" s="3">
-        <v>-225300</v>
+        <v>-215700</v>
       </c>
       <c r="G100" s="3">
-        <v>-183600</v>
+        <v>-175800</v>
       </c>
       <c r="H100" s="3">
-        <v>-28200</v>
+        <v>-27000</v>
       </c>
       <c r="I100" s="3">
-        <v>-82700</v>
+        <v>-79200</v>
       </c>
       <c r="J100" s="3">
-        <v>255400</v>
+        <v>244600</v>
       </c>
       <c r="K100" s="3">
         <v>-264500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E101" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="F101" s="3">
-        <v>-22300</v>
+        <v>-21400</v>
       </c>
       <c r="G101" s="3">
-        <v>15700</v>
+        <v>15100</v>
       </c>
       <c r="H101" s="3">
-        <v>102800</v>
+        <v>98400</v>
       </c>
       <c r="I101" s="3">
-        <v>22700</v>
+        <v>21700</v>
       </c>
       <c r="J101" s="3">
-        <v>35100</v>
+        <v>33600</v>
       </c>
       <c r="K101" s="3">
         <v>23600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>386400</v>
+        <v>370000</v>
       </c>
       <c r="E102" s="3">
-        <v>356800</v>
+        <v>341600</v>
       </c>
       <c r="F102" s="3">
-        <v>85600</v>
+        <v>82000</v>
       </c>
       <c r="G102" s="3">
-        <v>148800</v>
+        <v>142500</v>
       </c>
       <c r="H102" s="3">
-        <v>142900</v>
+        <v>136800</v>
       </c>
       <c r="I102" s="3">
-        <v>-70700</v>
+        <v>-67700</v>
       </c>
       <c r="J102" s="3">
-        <v>165400</v>
+        <v>158400</v>
       </c>
       <c r="K102" s="3">
         <v>-330800</v>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2723000</v>
+        <v>2021500</v>
       </c>
       <c r="E8" s="3">
-        <v>1815400</v>
+        <v>1347700</v>
       </c>
       <c r="F8" s="3">
-        <v>1470900</v>
+        <v>1092000</v>
       </c>
       <c r="G8" s="3">
-        <v>1270400</v>
+        <v>943100</v>
       </c>
       <c r="H8" s="3">
-        <v>1076100</v>
+        <v>798900</v>
       </c>
       <c r="I8" s="3">
-        <v>891100</v>
+        <v>661600</v>
       </c>
       <c r="J8" s="3">
-        <v>722000</v>
+        <v>536000</v>
       </c>
       <c r="K8" s="3">
         <v>691000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1859300</v>
+        <v>1380300</v>
       </c>
       <c r="E9" s="3">
-        <v>1275100</v>
+        <v>946600</v>
       </c>
       <c r="F9" s="3">
-        <v>1027800</v>
+        <v>763000</v>
       </c>
       <c r="G9" s="3">
-        <v>863400</v>
+        <v>641000</v>
       </c>
       <c r="H9" s="3">
-        <v>714900</v>
+        <v>530800</v>
       </c>
       <c r="I9" s="3">
-        <v>573600</v>
+        <v>425900</v>
       </c>
       <c r="J9" s="3">
-        <v>465900</v>
+        <v>345900</v>
       </c>
       <c r="K9" s="3">
         <v>420200</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>863700</v>
+        <v>641200</v>
       </c>
       <c r="E10" s="3">
-        <v>540300</v>
+        <v>401100</v>
       </c>
       <c r="F10" s="3">
-        <v>443100</v>
+        <v>329000</v>
       </c>
       <c r="G10" s="3">
-        <v>407000</v>
+        <v>302200</v>
       </c>
       <c r="H10" s="3">
-        <v>361200</v>
+        <v>268100</v>
       </c>
       <c r="I10" s="3">
-        <v>317500</v>
+        <v>235700</v>
       </c>
       <c r="J10" s="3">
-        <v>256100</v>
+        <v>190100</v>
       </c>
       <c r="K10" s="3">
         <v>270700</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24400</v>
+        <v>18100</v>
       </c>
       <c r="E14" s="3">
-        <v>29900</v>
+        <v>22200</v>
       </c>
       <c r="F14" s="3">
-        <v>38900</v>
+        <v>28800</v>
       </c>
       <c r="G14" s="3">
-        <v>33800</v>
+        <v>25100</v>
       </c>
       <c r="H14" s="3">
-        <v>16300</v>
+        <v>12100</v>
       </c>
       <c r="I14" s="3">
-        <v>31100</v>
+        <v>23100</v>
       </c>
       <c r="J14" s="3">
-        <v>7400</v>
+        <v>5500</v>
       </c>
       <c r="K14" s="3">
         <v>4500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1746800</v>
+        <v>1296800</v>
       </c>
       <c r="E17" s="3">
-        <v>1101200</v>
+        <v>817500</v>
       </c>
       <c r="F17" s="3">
-        <v>1074700</v>
+        <v>797900</v>
       </c>
       <c r="G17" s="3">
-        <v>954200</v>
+        <v>708400</v>
       </c>
       <c r="H17" s="3">
-        <v>772700</v>
+        <v>573700</v>
       </c>
       <c r="I17" s="3">
-        <v>701800</v>
+        <v>521000</v>
       </c>
       <c r="J17" s="3">
-        <v>547600</v>
+        <v>406500</v>
       </c>
       <c r="K17" s="3">
         <v>506900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>976300</v>
+        <v>724800</v>
       </c>
       <c r="E18" s="3">
-        <v>714200</v>
+        <v>530200</v>
       </c>
       <c r="F18" s="3">
-        <v>396200</v>
+        <v>294100</v>
       </c>
       <c r="G18" s="3">
-        <v>316300</v>
+        <v>234800</v>
       </c>
       <c r="H18" s="3">
-        <v>303400</v>
+        <v>225200</v>
       </c>
       <c r="I18" s="3">
-        <v>189300</v>
+        <v>140500</v>
       </c>
       <c r="J18" s="3">
-        <v>174400</v>
+        <v>129500</v>
       </c>
       <c r="K18" s="3">
         <v>184000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-438200</v>
+        <v>-325300</v>
       </c>
       <c r="E20" s="3">
-        <v>-424100</v>
+        <v>-314900</v>
       </c>
       <c r="F20" s="3">
-        <v>-111800</v>
+        <v>-83000</v>
       </c>
       <c r="G20" s="3">
-        <v>-70000</v>
+        <v>-52000</v>
       </c>
       <c r="H20" s="3">
-        <v>-128200</v>
+        <v>-95200</v>
       </c>
       <c r="I20" s="3">
-        <v>-39400</v>
+        <v>-29300</v>
       </c>
       <c r="J20" s="3">
-        <v>-49700</v>
+        <v>-36900</v>
       </c>
       <c r="K20" s="3">
         <v>-48400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1008600</v>
+        <v>748000</v>
       </c>
       <c r="E21" s="3">
-        <v>657400</v>
+        <v>487500</v>
       </c>
       <c r="F21" s="3">
-        <v>585900</v>
+        <v>434500</v>
       </c>
       <c r="G21" s="3">
-        <v>500800</v>
+        <v>371400</v>
       </c>
       <c r="H21" s="3">
-        <v>390400</v>
+        <v>289500</v>
       </c>
       <c r="I21" s="3">
-        <v>279300</v>
+        <v>207100</v>
       </c>
       <c r="J21" s="3">
-        <v>233000</v>
+        <v>172800</v>
       </c>
       <c r="K21" s="3">
         <v>224000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>157200</v>
+        <v>116700</v>
       </c>
       <c r="E22" s="3">
-        <v>60600</v>
+        <v>45000</v>
       </c>
       <c r="F22" s="3">
-        <v>50600</v>
+        <v>37500</v>
       </c>
       <c r="G22" s="3">
-        <v>79900</v>
+        <v>59300</v>
       </c>
       <c r="H22" s="3">
-        <v>40100</v>
+        <v>29700</v>
       </c>
       <c r="I22" s="3">
-        <v>18000</v>
+        <v>13400</v>
       </c>
       <c r="J22" s="3">
-        <v>22000</v>
+        <v>16300</v>
       </c>
       <c r="K22" s="3">
         <v>16200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>380900</v>
+        <v>282800</v>
       </c>
       <c r="E23" s="3">
-        <v>229500</v>
+        <v>170400</v>
       </c>
       <c r="F23" s="3">
-        <v>233800</v>
+        <v>173600</v>
       </c>
       <c r="G23" s="3">
-        <v>166300</v>
+        <v>123400</v>
       </c>
       <c r="H23" s="3">
-        <v>135100</v>
+        <v>100300</v>
       </c>
       <c r="I23" s="3">
-        <v>131900</v>
+        <v>97900</v>
       </c>
       <c r="J23" s="3">
-        <v>102700</v>
+        <v>76200</v>
       </c>
       <c r="K23" s="3">
         <v>119400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-177700</v>
+        <v>-131900</v>
       </c>
       <c r="E24" s="3">
-        <v>-24800</v>
+        <v>-18400</v>
       </c>
       <c r="F24" s="3">
-        <v>19600</v>
+        <v>14500</v>
       </c>
       <c r="G24" s="3">
-        <v>39700</v>
+        <v>29500</v>
       </c>
       <c r="H24" s="3">
-        <v>25000</v>
+        <v>18600</v>
       </c>
       <c r="I24" s="3">
-        <v>28900</v>
+        <v>21500</v>
       </c>
       <c r="J24" s="3">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="K24" s="3">
         <v>36100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>558600</v>
+        <v>414700</v>
       </c>
       <c r="E26" s="3">
-        <v>254300</v>
+        <v>188800</v>
       </c>
       <c r="F26" s="3">
-        <v>214300</v>
+        <v>159100</v>
       </c>
       <c r="G26" s="3">
-        <v>126600</v>
+        <v>94000</v>
       </c>
       <c r="H26" s="3">
-        <v>110000</v>
+        <v>81700</v>
       </c>
       <c r="I26" s="3">
-        <v>103000</v>
+        <v>76500</v>
       </c>
       <c r="J26" s="3">
-        <v>81100</v>
+        <v>60200</v>
       </c>
       <c r="K26" s="3">
         <v>83200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>558600</v>
+        <v>414700</v>
       </c>
       <c r="E27" s="3">
-        <v>254300</v>
+        <v>188800</v>
       </c>
       <c r="F27" s="3">
-        <v>214100</v>
+        <v>159000</v>
       </c>
       <c r="G27" s="3">
-        <v>125000</v>
+        <v>92800</v>
       </c>
       <c r="H27" s="3">
-        <v>102100</v>
+        <v>75800</v>
       </c>
       <c r="I27" s="3">
-        <v>100000</v>
+        <v>74300</v>
       </c>
       <c r="J27" s="3">
-        <v>78500</v>
+        <v>58300</v>
       </c>
       <c r="K27" s="3">
         <v>92100</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>39000</v>
+        <v>29000</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-2100</v>
+        <v>-1600</v>
       </c>
       <c r="K29" s="3">
         <v>19900</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>438200</v>
+        <v>325300</v>
       </c>
       <c r="E32" s="3">
-        <v>424100</v>
+        <v>314900</v>
       </c>
       <c r="F32" s="3">
-        <v>111800</v>
+        <v>83000</v>
       </c>
       <c r="G32" s="3">
-        <v>70000</v>
+        <v>52000</v>
       </c>
       <c r="H32" s="3">
-        <v>128200</v>
+        <v>95200</v>
       </c>
       <c r="I32" s="3">
-        <v>39400</v>
+        <v>29300</v>
       </c>
       <c r="J32" s="3">
-        <v>49700</v>
+        <v>36900</v>
       </c>
       <c r="K32" s="3">
         <v>48400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>558600</v>
+        <v>414700</v>
       </c>
       <c r="E33" s="3">
-        <v>254300</v>
+        <v>188800</v>
       </c>
       <c r="F33" s="3">
-        <v>214100</v>
+        <v>159000</v>
       </c>
       <c r="G33" s="3">
-        <v>164100</v>
+        <v>121800</v>
       </c>
       <c r="H33" s="3">
-        <v>102100</v>
+        <v>75800</v>
       </c>
       <c r="I33" s="3">
-        <v>100000</v>
+        <v>74300</v>
       </c>
       <c r="J33" s="3">
-        <v>76400</v>
+        <v>56700</v>
       </c>
       <c r="K33" s="3">
         <v>112000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>558600</v>
+        <v>414700</v>
       </c>
       <c r="E35" s="3">
-        <v>254300</v>
+        <v>188800</v>
       </c>
       <c r="F35" s="3">
-        <v>214100</v>
+        <v>159000</v>
       </c>
       <c r="G35" s="3">
-        <v>164100</v>
+        <v>121800</v>
       </c>
       <c r="H35" s="3">
-        <v>102100</v>
+        <v>75800</v>
       </c>
       <c r="I35" s="3">
-        <v>100000</v>
+        <v>74300</v>
       </c>
       <c r="J35" s="3">
-        <v>76400</v>
+        <v>56700</v>
       </c>
       <c r="K35" s="3">
         <v>112000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1320300</v>
+        <v>980100</v>
       </c>
       <c r="E41" s="3">
-        <v>941500</v>
+        <v>698900</v>
       </c>
       <c r="F41" s="3">
-        <v>599400</v>
+        <v>445000</v>
       </c>
       <c r="G41" s="3">
-        <v>517500</v>
+        <v>384200</v>
       </c>
       <c r="H41" s="3">
-        <v>375000</v>
+        <v>278400</v>
       </c>
       <c r="I41" s="3">
-        <v>238200</v>
+        <v>176800</v>
       </c>
       <c r="J41" s="3">
-        <v>305900</v>
+        <v>227100</v>
       </c>
       <c r="K41" s="3">
         <v>157900</v>
@@ -1952,22 +1952,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>241800</v>
+        <v>179500</v>
       </c>
       <c r="E42" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="F42" s="3">
-        <v>35500</v>
+        <v>26300</v>
       </c>
       <c r="G42" s="3">
-        <v>17700</v>
+        <v>13200</v>
       </c>
       <c r="H42" s="3">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="I42" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>631700</v>
+        <v>469000</v>
       </c>
       <c r="E43" s="3">
-        <v>407100</v>
+        <v>302200</v>
       </c>
       <c r="F43" s="3">
-        <v>333700</v>
+        <v>247700</v>
       </c>
       <c r="G43" s="3">
-        <v>368500</v>
+        <v>273600</v>
       </c>
       <c r="H43" s="3">
-        <v>370900</v>
+        <v>275300</v>
       </c>
       <c r="I43" s="3">
-        <v>321700</v>
+        <v>238900</v>
       </c>
       <c r="J43" s="3">
-        <v>250800</v>
+        <v>186200</v>
       </c>
       <c r="K43" s="3">
         <v>247200</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14000</v>
+        <v>10400</v>
       </c>
       <c r="E44" s="3">
-        <v>13200</v>
+        <v>9800</v>
       </c>
       <c r="F44" s="3">
-        <v>10300</v>
+        <v>7600</v>
       </c>
       <c r="G44" s="3">
-        <v>9000</v>
+        <v>6700</v>
       </c>
       <c r="H44" s="3">
-        <v>9100</v>
+        <v>6800</v>
       </c>
       <c r="I44" s="3">
-        <v>5300</v>
+        <v>3900</v>
       </c>
       <c r="J44" s="3">
-        <v>6700</v>
+        <v>5000</v>
       </c>
       <c r="K44" s="3">
         <v>4100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>157800</v>
+        <v>117200</v>
       </c>
       <c r="E45" s="3">
-        <v>127000</v>
+        <v>94300</v>
       </c>
       <c r="F45" s="3">
-        <v>61400</v>
+        <v>45600</v>
       </c>
       <c r="G45" s="3">
-        <v>64300</v>
+        <v>47800</v>
       </c>
       <c r="H45" s="3">
-        <v>169200</v>
+        <v>125600</v>
       </c>
       <c r="I45" s="3">
-        <v>145300</v>
+        <v>107900</v>
       </c>
       <c r="J45" s="3">
-        <v>111400</v>
+        <v>82700</v>
       </c>
       <c r="K45" s="3">
         <v>66600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2365600</v>
+        <v>1756200</v>
       </c>
       <c r="E46" s="3">
-        <v>1491500</v>
+        <v>1107300</v>
       </c>
       <c r="F46" s="3">
-        <v>1040300</v>
+        <v>772300</v>
       </c>
       <c r="G46" s="3">
-        <v>977000</v>
+        <v>725300</v>
       </c>
       <c r="H46" s="3">
-        <v>926800</v>
+        <v>688000</v>
       </c>
       <c r="I46" s="3">
-        <v>711100</v>
+        <v>527900</v>
       </c>
       <c r="J46" s="3">
-        <v>674800</v>
+        <v>500900</v>
       </c>
       <c r="K46" s="3">
         <v>475900</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>215300</v>
+        <v>159800</v>
       </c>
       <c r="E47" s="3">
-        <v>135400</v>
+        <v>100500</v>
       </c>
       <c r="F47" s="3">
-        <v>34400</v>
+        <v>25600</v>
       </c>
       <c r="G47" s="3">
-        <v>21800</v>
+        <v>16200</v>
       </c>
       <c r="H47" s="3">
-        <v>56700</v>
+        <v>42100</v>
       </c>
       <c r="I47" s="3">
-        <v>78400</v>
+        <v>58200</v>
       </c>
       <c r="J47" s="3">
-        <v>63000</v>
+        <v>46800</v>
       </c>
       <c r="K47" s="3">
         <v>104000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1262400</v>
+        <v>937200</v>
       </c>
       <c r="E48" s="3">
-        <v>1061500</v>
+        <v>788000</v>
       </c>
       <c r="F48" s="3">
-        <v>823600</v>
+        <v>611400</v>
       </c>
       <c r="G48" s="3">
-        <v>720600</v>
+        <v>535000</v>
       </c>
       <c r="H48" s="3">
-        <v>629200</v>
+        <v>467100</v>
       </c>
       <c r="I48" s="3">
-        <v>488500</v>
+        <v>362700</v>
       </c>
       <c r="J48" s="3">
-        <v>416500</v>
+        <v>309200</v>
       </c>
       <c r="K48" s="3">
         <v>371500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>896700</v>
+        <v>665700</v>
       </c>
       <c r="E49" s="3">
-        <v>741000</v>
+        <v>550100</v>
       </c>
       <c r="F49" s="3">
-        <v>625100</v>
+        <v>464000</v>
       </c>
       <c r="G49" s="3">
-        <v>571500</v>
+        <v>424300</v>
       </c>
       <c r="H49" s="3">
-        <v>524700</v>
+        <v>389600</v>
       </c>
       <c r="I49" s="3">
-        <v>421500</v>
+        <v>312900</v>
       </c>
       <c r="J49" s="3">
-        <v>416200</v>
+        <v>309000</v>
       </c>
       <c r="K49" s="3">
         <v>444800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>378000</v>
+        <v>280600</v>
       </c>
       <c r="E52" s="3">
-        <v>142900</v>
+        <v>106100</v>
       </c>
       <c r="F52" s="3">
-        <v>79300</v>
+        <v>58900</v>
       </c>
       <c r="G52" s="3">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="H52" s="3">
-        <v>24000</v>
+        <v>17800</v>
       </c>
       <c r="I52" s="3">
-        <v>18000</v>
+        <v>13400</v>
       </c>
       <c r="J52" s="3">
-        <v>26500</v>
+        <v>19700</v>
       </c>
       <c r="K52" s="3">
         <v>20600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5117900</v>
+        <v>3799500</v>
       </c>
       <c r="E54" s="3">
-        <v>3572300</v>
+        <v>2652000</v>
       </c>
       <c r="F54" s="3">
-        <v>2602700</v>
+        <v>1932200</v>
       </c>
       <c r="G54" s="3">
-        <v>2310400</v>
+        <v>1715200</v>
       </c>
       <c r="H54" s="3">
-        <v>2161400</v>
+        <v>1604600</v>
       </c>
       <c r="I54" s="3">
-        <v>1717500</v>
+        <v>1275000</v>
       </c>
       <c r="J54" s="3">
-        <v>1597100</v>
+        <v>1185600</v>
       </c>
       <c r="K54" s="3">
         <v>1416800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>395300</v>
+        <v>293500</v>
       </c>
       <c r="E57" s="3">
-        <v>254600</v>
+        <v>189000</v>
       </c>
       <c r="F57" s="3">
-        <v>187300</v>
+        <v>139000</v>
       </c>
       <c r="G57" s="3">
-        <v>149300</v>
+        <v>110800</v>
       </c>
       <c r="H57" s="3">
-        <v>137600</v>
+        <v>102100</v>
       </c>
       <c r="I57" s="3">
-        <v>142600</v>
+        <v>105900</v>
       </c>
       <c r="J57" s="3">
-        <v>175600</v>
+        <v>130400</v>
       </c>
       <c r="K57" s="3">
         <v>251400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>845100</v>
+        <v>627400</v>
       </c>
       <c r="E58" s="3">
-        <v>447200</v>
+        <v>332000</v>
       </c>
       <c r="F58" s="3">
-        <v>264500</v>
+        <v>196300</v>
       </c>
       <c r="G58" s="3">
-        <v>385500</v>
+        <v>286200</v>
       </c>
       <c r="H58" s="3">
-        <v>355600</v>
+        <v>264000</v>
       </c>
       <c r="I58" s="3">
-        <v>216200</v>
+        <v>160500</v>
       </c>
       <c r="J58" s="3">
-        <v>143800</v>
+        <v>106800</v>
       </c>
       <c r="K58" s="3">
         <v>39300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>238300</v>
+        <v>176900</v>
       </c>
       <c r="E59" s="3">
-        <v>162000</v>
+        <v>120300</v>
       </c>
       <c r="F59" s="3">
-        <v>132800</v>
+        <v>98600</v>
       </c>
       <c r="G59" s="3">
-        <v>104800</v>
+        <v>77800</v>
       </c>
       <c r="H59" s="3">
-        <v>100200</v>
+        <v>74400</v>
       </c>
       <c r="I59" s="3">
-        <v>107300</v>
+        <v>79700</v>
       </c>
       <c r="J59" s="3">
-        <v>52500</v>
+        <v>39000</v>
       </c>
       <c r="K59" s="3">
         <v>50400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1478700</v>
+        <v>1097800</v>
       </c>
       <c r="E60" s="3">
-        <v>863800</v>
+        <v>641300</v>
       </c>
       <c r="F60" s="3">
-        <v>584500</v>
+        <v>433900</v>
       </c>
       <c r="G60" s="3">
-        <v>639600</v>
+        <v>474800</v>
       </c>
       <c r="H60" s="3">
-        <v>593300</v>
+        <v>440500</v>
       </c>
       <c r="I60" s="3">
-        <v>466200</v>
+        <v>346100</v>
       </c>
       <c r="J60" s="3">
-        <v>371900</v>
+        <v>276100</v>
       </c>
       <c r="K60" s="3">
         <v>341100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1876700</v>
+        <v>1393200</v>
       </c>
       <c r="E61" s="3">
-        <v>1411600</v>
+        <v>1047900</v>
       </c>
       <c r="F61" s="3">
-        <v>826500</v>
+        <v>613600</v>
       </c>
       <c r="G61" s="3">
-        <v>640700</v>
+        <v>475700</v>
       </c>
       <c r="H61" s="3">
-        <v>663100</v>
+        <v>492200</v>
       </c>
       <c r="I61" s="3">
-        <v>417400</v>
+        <v>309800</v>
       </c>
       <c r="J61" s="3">
-        <v>350500</v>
+        <v>260200</v>
       </c>
       <c r="K61" s="3">
         <v>188700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>201000</v>
+        <v>149300</v>
       </c>
       <c r="E62" s="3">
-        <v>156600</v>
+        <v>116300</v>
       </c>
       <c r="F62" s="3">
-        <v>141200</v>
+        <v>104800</v>
       </c>
       <c r="G62" s="3">
-        <v>116200</v>
+        <v>86300</v>
       </c>
       <c r="H62" s="3">
-        <v>93600</v>
+        <v>69500</v>
       </c>
       <c r="I62" s="3">
-        <v>73600</v>
+        <v>54600</v>
       </c>
       <c r="J62" s="3">
-        <v>62600</v>
+        <v>46400</v>
       </c>
       <c r="K62" s="3">
         <v>107800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3556700</v>
+        <v>2640400</v>
       </c>
       <c r="E66" s="3">
-        <v>2432000</v>
+        <v>1805500</v>
       </c>
       <c r="F66" s="3">
-        <v>1552300</v>
+        <v>1152400</v>
       </c>
       <c r="G66" s="3">
-        <v>1398400</v>
+        <v>1038100</v>
       </c>
       <c r="H66" s="3">
-        <v>1356700</v>
+        <v>1007200</v>
       </c>
       <c r="I66" s="3">
-        <v>959900</v>
+        <v>712600</v>
       </c>
       <c r="J66" s="3">
-        <v>787800</v>
+        <v>584900</v>
       </c>
       <c r="K66" s="3">
         <v>641200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1600900</v>
+        <v>1188500</v>
       </c>
       <c r="E72" s="3">
-        <v>1104100</v>
+        <v>819700</v>
       </c>
       <c r="F72" s="3">
-        <v>980500</v>
+        <v>727900</v>
       </c>
       <c r="G72" s="3">
-        <v>807400</v>
+        <v>599400</v>
       </c>
       <c r="H72" s="3">
-        <v>687100</v>
+        <v>510100</v>
       </c>
       <c r="I72" s="3">
-        <v>654800</v>
+        <v>486100</v>
       </c>
       <c r="J72" s="3">
-        <v>706400</v>
+        <v>524400</v>
       </c>
       <c r="K72" s="3">
         <v>673700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1561200</v>
+        <v>1159000</v>
       </c>
       <c r="E76" s="3">
-        <v>1140300</v>
+        <v>846500</v>
       </c>
       <c r="F76" s="3">
-        <v>1050500</v>
+        <v>779800</v>
       </c>
       <c r="G76" s="3">
-        <v>912100</v>
+        <v>677100</v>
       </c>
       <c r="H76" s="3">
-        <v>804700</v>
+        <v>597400</v>
       </c>
       <c r="I76" s="3">
-        <v>757600</v>
+        <v>562400</v>
       </c>
       <c r="J76" s="3">
-        <v>809200</v>
+        <v>600800</v>
       </c>
       <c r="K76" s="3">
         <v>775700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>558600</v>
+        <v>414700</v>
       </c>
       <c r="E81" s="3">
-        <v>254300</v>
+        <v>188800</v>
       </c>
       <c r="F81" s="3">
-        <v>214100</v>
+        <v>159000</v>
       </c>
       <c r="G81" s="3">
-        <v>164100</v>
+        <v>121800</v>
       </c>
       <c r="H81" s="3">
-        <v>102100</v>
+        <v>75800</v>
       </c>
       <c r="I81" s="3">
-        <v>100000</v>
+        <v>74300</v>
       </c>
       <c r="J81" s="3">
-        <v>76400</v>
+        <v>56700</v>
       </c>
       <c r="K81" s="3">
         <v>112000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>469500</v>
+        <v>348500</v>
       </c>
       <c r="E83" s="3">
-        <v>366500</v>
+        <v>272100</v>
       </c>
       <c r="F83" s="3">
-        <v>300800</v>
+        <v>223300</v>
       </c>
       <c r="G83" s="3">
-        <v>254000</v>
+        <v>188600</v>
       </c>
       <c r="H83" s="3">
-        <v>214800</v>
+        <v>159500</v>
       </c>
       <c r="I83" s="3">
-        <v>129100</v>
+        <v>95900</v>
       </c>
       <c r="J83" s="3">
-        <v>108100</v>
+        <v>80300</v>
       </c>
       <c r="K83" s="3">
         <v>88900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1271200</v>
+        <v>943700</v>
       </c>
       <c r="E89" s="3">
-        <v>1070000</v>
+        <v>794300</v>
       </c>
       <c r="F89" s="3">
-        <v>712000</v>
+        <v>528600</v>
       </c>
       <c r="G89" s="3">
-        <v>499400</v>
+        <v>370700</v>
       </c>
       <c r="H89" s="3">
-        <v>331600</v>
+        <v>246200</v>
       </c>
       <c r="I89" s="3">
-        <v>184700</v>
+        <v>137100</v>
       </c>
       <c r="J89" s="3">
-        <v>61600</v>
+        <v>45700</v>
       </c>
       <c r="K89" s="3">
         <v>144100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-364700</v>
+        <v>-270800</v>
       </c>
       <c r="E91" s="3">
-        <v>-281400</v>
+        <v>-208900</v>
       </c>
       <c r="F91" s="3">
-        <v>-197300</v>
+        <v>-146500</v>
       </c>
       <c r="G91" s="3">
-        <v>-161500</v>
+        <v>-119900</v>
       </c>
       <c r="H91" s="3">
-        <v>-149600</v>
+        <v>-111100</v>
       </c>
       <c r="I91" s="3">
-        <v>-148400</v>
+        <v>-110200</v>
       </c>
       <c r="J91" s="3">
-        <v>-130000</v>
+        <v>-96500</v>
       </c>
       <c r="K91" s="3">
         <v>-115500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-993000</v>
+        <v>-737200</v>
       </c>
       <c r="E94" s="3">
-        <v>-523700</v>
+        <v>-388800</v>
       </c>
       <c r="F94" s="3">
-        <v>-393000</v>
+        <v>-291700</v>
       </c>
       <c r="G94" s="3">
-        <v>-196200</v>
+        <v>-145600</v>
       </c>
       <c r="H94" s="3">
-        <v>-266200</v>
+        <v>-197600</v>
       </c>
       <c r="I94" s="3">
-        <v>-195000</v>
+        <v>-144700</v>
       </c>
       <c r="J94" s="3">
-        <v>-181300</v>
+        <v>-134600</v>
       </c>
       <c r="K94" s="3">
         <v>-234000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-63100</v>
+        <v>-46800</v>
       </c>
       <c r="E96" s="3">
-        <v>-129700</v>
+        <v>-96300</v>
       </c>
       <c r="F96" s="3">
-        <v>-42400</v>
+        <v>-31500</v>
       </c>
       <c r="G96" s="3">
-        <v>-57000</v>
+        <v>-42300</v>
       </c>
       <c r="H96" s="3">
-        <v>-98500</v>
+        <v>-73100</v>
       </c>
       <c r="I96" s="3">
-        <v>-154200</v>
+        <v>-114500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2600</v>
+        <v>-1900</v>
       </c>
       <c r="K96" s="3">
         <v>-217800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>89000</v>
+        <v>66000</v>
       </c>
       <c r="E100" s="3">
-        <v>-199200</v>
+        <v>-147900</v>
       </c>
       <c r="F100" s="3">
-        <v>-215700</v>
+        <v>-160100</v>
       </c>
       <c r="G100" s="3">
-        <v>-175800</v>
+        <v>-130500</v>
       </c>
       <c r="H100" s="3">
-        <v>-27000</v>
+        <v>-20100</v>
       </c>
       <c r="I100" s="3">
-        <v>-79200</v>
+        <v>-58800</v>
       </c>
       <c r="J100" s="3">
-        <v>244600</v>
+        <v>181600</v>
       </c>
       <c r="K100" s="3">
         <v>-264500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
-        <v>-5500</v>
+        <v>-4100</v>
       </c>
       <c r="F101" s="3">
-        <v>-21400</v>
+        <v>-15900</v>
       </c>
       <c r="G101" s="3">
-        <v>15100</v>
+        <v>11200</v>
       </c>
       <c r="H101" s="3">
-        <v>98400</v>
+        <v>73100</v>
       </c>
       <c r="I101" s="3">
-        <v>21700</v>
+        <v>16100</v>
       </c>
       <c r="J101" s="3">
-        <v>33600</v>
+        <v>24900</v>
       </c>
       <c r="K101" s="3">
         <v>23600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>370000</v>
+        <v>274700</v>
       </c>
       <c r="E102" s="3">
-        <v>341600</v>
+        <v>253600</v>
       </c>
       <c r="F102" s="3">
-        <v>82000</v>
+        <v>60900</v>
       </c>
       <c r="G102" s="3">
-        <v>142500</v>
+        <v>105800</v>
       </c>
       <c r="H102" s="3">
-        <v>136800</v>
+        <v>101600</v>
       </c>
       <c r="I102" s="3">
-        <v>-67700</v>
+        <v>-50300</v>
       </c>
       <c r="J102" s="3">
-        <v>158400</v>
+        <v>117600</v>
       </c>
       <c r="K102" s="3">
         <v>-330800</v>

--- a/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TKC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2021500</v>
+        <v>1887900</v>
       </c>
       <c r="E8" s="3">
-        <v>1347700</v>
+        <v>1258700</v>
       </c>
       <c r="F8" s="3">
-        <v>1092000</v>
+        <v>1019800</v>
       </c>
       <c r="G8" s="3">
-        <v>943100</v>
+        <v>880800</v>
       </c>
       <c r="H8" s="3">
-        <v>798900</v>
+        <v>746100</v>
       </c>
       <c r="I8" s="3">
-        <v>661600</v>
+        <v>617800</v>
       </c>
       <c r="J8" s="3">
-        <v>536000</v>
+        <v>500600</v>
       </c>
       <c r="K8" s="3">
         <v>691000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1380300</v>
+        <v>1289100</v>
       </c>
       <c r="E9" s="3">
-        <v>946600</v>
+        <v>884100</v>
       </c>
       <c r="F9" s="3">
-        <v>763000</v>
+        <v>712600</v>
       </c>
       <c r="G9" s="3">
-        <v>641000</v>
+        <v>598600</v>
       </c>
       <c r="H9" s="3">
-        <v>530800</v>
+        <v>495700</v>
       </c>
       <c r="I9" s="3">
-        <v>425900</v>
+        <v>397700</v>
       </c>
       <c r="J9" s="3">
-        <v>345900</v>
+        <v>323000</v>
       </c>
       <c r="K9" s="3">
         <v>420200</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>641200</v>
+        <v>598800</v>
       </c>
       <c r="E10" s="3">
-        <v>401100</v>
+        <v>374600</v>
       </c>
       <c r="F10" s="3">
-        <v>329000</v>
+        <v>307200</v>
       </c>
       <c r="G10" s="3">
-        <v>302200</v>
+        <v>282200</v>
       </c>
       <c r="H10" s="3">
-        <v>268100</v>
+        <v>250400</v>
       </c>
       <c r="I10" s="3">
-        <v>235700</v>
+        <v>220100</v>
       </c>
       <c r="J10" s="3">
-        <v>190100</v>
+        <v>177500</v>
       </c>
       <c r="K10" s="3">
         <v>270700</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="E14" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="F14" s="3">
-        <v>28800</v>
+        <v>26900</v>
       </c>
       <c r="G14" s="3">
-        <v>25100</v>
+        <v>23400</v>
       </c>
       <c r="H14" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="I14" s="3">
-        <v>23100</v>
+        <v>21500</v>
       </c>
       <c r="J14" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="K14" s="3">
         <v>4500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1296800</v>
+        <v>1211000</v>
       </c>
       <c r="E17" s="3">
-        <v>817500</v>
+        <v>763500</v>
       </c>
       <c r="F17" s="3">
-        <v>797900</v>
+        <v>745100</v>
       </c>
       <c r="G17" s="3">
-        <v>708400</v>
+        <v>661500</v>
       </c>
       <c r="H17" s="3">
-        <v>573700</v>
+        <v>535800</v>
       </c>
       <c r="I17" s="3">
-        <v>521000</v>
+        <v>486600</v>
       </c>
       <c r="J17" s="3">
-        <v>406500</v>
+        <v>379700</v>
       </c>
       <c r="K17" s="3">
         <v>506900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>724800</v>
+        <v>676900</v>
       </c>
       <c r="E18" s="3">
-        <v>530200</v>
+        <v>495200</v>
       </c>
       <c r="F18" s="3">
-        <v>294100</v>
+        <v>274700</v>
       </c>
       <c r="G18" s="3">
-        <v>234800</v>
+        <v>219300</v>
       </c>
       <c r="H18" s="3">
-        <v>225200</v>
+        <v>210300</v>
       </c>
       <c r="I18" s="3">
-        <v>140500</v>
+        <v>131200</v>
       </c>
       <c r="J18" s="3">
-        <v>129500</v>
+        <v>120900</v>
       </c>
       <c r="K18" s="3">
         <v>184000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-325300</v>
+        <v>-303800</v>
       </c>
       <c r="E20" s="3">
-        <v>-314900</v>
+        <v>-294000</v>
       </c>
       <c r="F20" s="3">
-        <v>-83000</v>
+        <v>-77500</v>
       </c>
       <c r="G20" s="3">
-        <v>-52000</v>
+        <v>-48600</v>
       </c>
       <c r="H20" s="3">
-        <v>-95200</v>
+        <v>-88900</v>
       </c>
       <c r="I20" s="3">
-        <v>-29300</v>
+        <v>-27300</v>
       </c>
       <c r="J20" s="3">
-        <v>-36900</v>
+        <v>-34500</v>
       </c>
       <c r="K20" s="3">
         <v>-48400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>748000</v>
+        <v>697300</v>
       </c>
       <c r="E21" s="3">
-        <v>487500</v>
+        <v>454200</v>
       </c>
       <c r="F21" s="3">
-        <v>434500</v>
+        <v>404900</v>
       </c>
       <c r="G21" s="3">
-        <v>371400</v>
+        <v>346100</v>
       </c>
       <c r="H21" s="3">
-        <v>289500</v>
+        <v>269800</v>
       </c>
       <c r="I21" s="3">
-        <v>207100</v>
+        <v>193100</v>
       </c>
       <c r="J21" s="3">
-        <v>172800</v>
+        <v>161100</v>
       </c>
       <c r="K21" s="3">
         <v>224000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>116700</v>
+        <v>109000</v>
       </c>
       <c r="E22" s="3">
-        <v>45000</v>
+        <v>42000</v>
       </c>
       <c r="F22" s="3">
-        <v>37500</v>
+        <v>35100</v>
       </c>
       <c r="G22" s="3">
-        <v>59300</v>
+        <v>55400</v>
       </c>
       <c r="H22" s="3">
-        <v>29700</v>
+        <v>27800</v>
       </c>
       <c r="I22" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="J22" s="3">
-        <v>16300</v>
+        <v>15200</v>
       </c>
       <c r="K22" s="3">
         <v>16200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>282800</v>
+        <v>264100</v>
       </c>
       <c r="E23" s="3">
-        <v>170400</v>
+        <v>159100</v>
       </c>
       <c r="F23" s="3">
-        <v>173600</v>
+        <v>162100</v>
       </c>
       <c r="G23" s="3">
-        <v>123400</v>
+        <v>115300</v>
       </c>
       <c r="H23" s="3">
-        <v>100300</v>
+        <v>93700</v>
       </c>
       <c r="I23" s="3">
-        <v>97900</v>
+        <v>91400</v>
       </c>
       <c r="J23" s="3">
-        <v>76200</v>
+        <v>71200</v>
       </c>
       <c r="K23" s="3">
         <v>119400</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-131900</v>
+        <v>-123200</v>
       </c>
       <c r="E24" s="3">
-        <v>-18400</v>
+        <v>-17200</v>
       </c>
       <c r="F24" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="G24" s="3">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="H24" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="I24" s="3">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="J24" s="3">
-        <v>16000</v>
+        <v>14900</v>
       </c>
       <c r="K24" s="3">
         <v>36100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>414700</v>
+        <v>387300</v>
       </c>
       <c r="E26" s="3">
-        <v>188800</v>
+        <v>176300</v>
       </c>
       <c r="F26" s="3">
-        <v>159100</v>
+        <v>148600</v>
       </c>
       <c r="G26" s="3">
-        <v>94000</v>
+        <v>87700</v>
       </c>
       <c r="H26" s="3">
-        <v>81700</v>
+        <v>76300</v>
       </c>
       <c r="I26" s="3">
-        <v>76500</v>
+        <v>71400</v>
       </c>
       <c r="J26" s="3">
-        <v>60200</v>
+        <v>56300</v>
       </c>
       <c r="K26" s="3">
         <v>83200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>414700</v>
+        <v>387300</v>
       </c>
       <c r="E27" s="3">
-        <v>188800</v>
+        <v>176300</v>
       </c>
       <c r="F27" s="3">
-        <v>159000</v>
+        <v>148500</v>
       </c>
       <c r="G27" s="3">
-        <v>92800</v>
+        <v>86700</v>
       </c>
       <c r="H27" s="3">
-        <v>75800</v>
+        <v>70800</v>
       </c>
       <c r="I27" s="3">
-        <v>74300</v>
+        <v>69300</v>
       </c>
       <c r="J27" s="3">
-        <v>58300</v>
+        <v>54400</v>
       </c>
       <c r="K27" s="3">
         <v>92100</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>29000</v>
+        <v>27100</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K29" s="3">
         <v>19900</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>325300</v>
+        <v>303800</v>
       </c>
       <c r="E32" s="3">
-        <v>314900</v>
+        <v>294000</v>
       </c>
       <c r="F32" s="3">
-        <v>83000</v>
+        <v>77500</v>
       </c>
       <c r="G32" s="3">
-        <v>52000</v>
+        <v>48600</v>
       </c>
       <c r="H32" s="3">
-        <v>95200</v>
+        <v>88900</v>
       </c>
       <c r="I32" s="3">
-        <v>29300</v>
+        <v>27300</v>
       </c>
       <c r="J32" s="3">
-        <v>36900</v>
+        <v>34500</v>
       </c>
       <c r="K32" s="3">
         <v>48400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>414700</v>
+        <v>387300</v>
       </c>
       <c r="E33" s="3">
-        <v>188800</v>
+        <v>176300</v>
       </c>
       <c r="F33" s="3">
-        <v>159000</v>
+        <v>148500</v>
       </c>
       <c r="G33" s="3">
-        <v>121800</v>
+        <v>113800</v>
       </c>
       <c r="H33" s="3">
-        <v>75800</v>
+        <v>70800</v>
       </c>
       <c r="I33" s="3">
-        <v>74300</v>
+        <v>69300</v>
       </c>
       <c r="J33" s="3">
-        <v>56700</v>
+        <v>53000</v>
       </c>
       <c r="K33" s="3">
         <v>112000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>414700</v>
+        <v>387300</v>
       </c>
       <c r="E35" s="3">
-        <v>188800</v>
+        <v>176300</v>
       </c>
       <c r="F35" s="3">
-        <v>159000</v>
+        <v>148500</v>
       </c>
       <c r="G35" s="3">
-        <v>121800</v>
+        <v>113800</v>
       </c>
       <c r="H35" s="3">
-        <v>75800</v>
+        <v>70800</v>
       </c>
       <c r="I35" s="3">
-        <v>74300</v>
+        <v>69300</v>
       </c>
       <c r="J35" s="3">
-        <v>56700</v>
+        <v>53000</v>
       </c>
       <c r="K35" s="3">
         <v>112000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>980100</v>
+        <v>915400</v>
       </c>
       <c r="E41" s="3">
-        <v>698900</v>
+        <v>652700</v>
       </c>
       <c r="F41" s="3">
-        <v>445000</v>
+        <v>415600</v>
       </c>
       <c r="G41" s="3">
-        <v>384200</v>
+        <v>358800</v>
       </c>
       <c r="H41" s="3">
-        <v>278400</v>
+        <v>260000</v>
       </c>
       <c r="I41" s="3">
-        <v>176800</v>
+        <v>165100</v>
       </c>
       <c r="J41" s="3">
-        <v>227100</v>
+        <v>212100</v>
       </c>
       <c r="K41" s="3">
         <v>157900</v>
@@ -1952,19 +1952,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>179500</v>
+        <v>167600</v>
       </c>
       <c r="E42" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="F42" s="3">
-        <v>26300</v>
+        <v>24600</v>
       </c>
       <c r="G42" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="H42" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I42" s="3">
         <v>400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>469000</v>
+        <v>438000</v>
       </c>
       <c r="E43" s="3">
-        <v>302200</v>
+        <v>282200</v>
       </c>
       <c r="F43" s="3">
-        <v>247700</v>
+        <v>231300</v>
       </c>
       <c r="G43" s="3">
-        <v>273600</v>
+        <v>255500</v>
       </c>
       <c r="H43" s="3">
-        <v>275300</v>
+        <v>257100</v>
       </c>
       <c r="I43" s="3">
-        <v>238900</v>
+        <v>223100</v>
       </c>
       <c r="J43" s="3">
-        <v>186200</v>
+        <v>173900</v>
       </c>
       <c r="K43" s="3">
         <v>247200</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="E44" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="F44" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="G44" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="H44" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="I44" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="J44" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="K44" s="3">
         <v>4100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>117200</v>
+        <v>109400</v>
       </c>
       <c r="E45" s="3">
-        <v>94300</v>
+        <v>88000</v>
       </c>
       <c r="F45" s="3">
-        <v>45600</v>
+        <v>42600</v>
       </c>
       <c r="G45" s="3">
-        <v>47800</v>
+        <v>44600</v>
       </c>
       <c r="H45" s="3">
-        <v>125600</v>
+        <v>117300</v>
       </c>
       <c r="I45" s="3">
-        <v>107900</v>
+        <v>100700</v>
       </c>
       <c r="J45" s="3">
-        <v>82700</v>
+        <v>77300</v>
       </c>
       <c r="K45" s="3">
         <v>66600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1756200</v>
+        <v>1640100</v>
       </c>
       <c r="E46" s="3">
-        <v>1107300</v>
+        <v>1034100</v>
       </c>
       <c r="F46" s="3">
-        <v>772300</v>
+        <v>721200</v>
       </c>
       <c r="G46" s="3">
-        <v>725300</v>
+        <v>677400</v>
       </c>
       <c r="H46" s="3">
-        <v>688000</v>
+        <v>642500</v>
       </c>
       <c r="I46" s="3">
-        <v>527900</v>
+        <v>493000</v>
       </c>
       <c r="J46" s="3">
-        <v>500900</v>
+        <v>467800</v>
       </c>
       <c r="K46" s="3">
         <v>475900</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>159800</v>
+        <v>149200</v>
       </c>
       <c r="E47" s="3">
-        <v>100500</v>
+        <v>93900</v>
       </c>
       <c r="F47" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="G47" s="3">
-        <v>16200</v>
+        <v>15100</v>
       </c>
       <c r="H47" s="3">
-        <v>42100</v>
+        <v>39300</v>
       </c>
       <c r="I47" s="3">
-        <v>58200</v>
+        <v>54300</v>
       </c>
       <c r="J47" s="3">
-        <v>46800</v>
+        <v>43700</v>
       </c>
       <c r="K47" s="3">
         <v>104000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>937200</v>
+        <v>875200</v>
       </c>
       <c r="E48" s="3">
-        <v>788000</v>
+        <v>735900</v>
       </c>
       <c r="F48" s="3">
-        <v>611400</v>
+        <v>571000</v>
       </c>
       <c r="G48" s="3">
-        <v>535000</v>
+        <v>499600</v>
       </c>
       <c r="H48" s="3">
-        <v>467100</v>
+        <v>436200</v>
       </c>
       <c r="I48" s="3">
-        <v>362700</v>
+        <v>338700</v>
       </c>
       <c r="J48" s="3">
-        <v>309200</v>
+        <v>288800</v>
       </c>
       <c r="K48" s="3">
         <v>371500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>665700</v>
+        <v>621700</v>
       </c>
       <c r="E49" s="3">
-        <v>550100</v>
+        <v>513700</v>
       </c>
       <c r="F49" s="3">
-        <v>464000</v>
+        <v>433400</v>
       </c>
       <c r="G49" s="3">
-        <v>424300</v>
+        <v>396200</v>
       </c>
       <c r="H49" s="3">
-        <v>389600</v>
+        <v>363800</v>
       </c>
       <c r="I49" s="3">
-        <v>312900</v>
+        <v>292200</v>
       </c>
       <c r="J49" s="3">
-        <v>309000</v>
+        <v>288600</v>
       </c>
       <c r="K49" s="3">
         <v>444800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>280600</v>
+        <v>262100</v>
       </c>
       <c r="E52" s="3">
-        <v>106100</v>
+        <v>99000</v>
       </c>
       <c r="F52" s="3">
-        <v>58900</v>
+        <v>55000</v>
       </c>
       <c r="G52" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="H52" s="3">
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="I52" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="J52" s="3">
-        <v>19700</v>
+        <v>18400</v>
       </c>
       <c r="K52" s="3">
         <v>20600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3799500</v>
+        <v>3548300</v>
       </c>
       <c r="E54" s="3">
-        <v>2652000</v>
+        <v>2476700</v>
       </c>
       <c r="F54" s="3">
-        <v>1932200</v>
+        <v>1804500</v>
       </c>
       <c r="G54" s="3">
-        <v>1715200</v>
+        <v>1601900</v>
       </c>
       <c r="H54" s="3">
-        <v>1604600</v>
+        <v>1498500</v>
       </c>
       <c r="I54" s="3">
-        <v>1275000</v>
+        <v>1190700</v>
       </c>
       <c r="J54" s="3">
-        <v>1185600</v>
+        <v>1107300</v>
       </c>
       <c r="K54" s="3">
         <v>1416800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>293500</v>
+        <v>274100</v>
       </c>
       <c r="E57" s="3">
-        <v>189000</v>
+        <v>176500</v>
       </c>
       <c r="F57" s="3">
-        <v>139000</v>
+        <v>129800</v>
       </c>
       <c r="G57" s="3">
-        <v>110800</v>
+        <v>103500</v>
       </c>
       <c r="H57" s="3">
-        <v>102100</v>
+        <v>95400</v>
       </c>
       <c r="I57" s="3">
-        <v>105900</v>
+        <v>98900</v>
       </c>
       <c r="J57" s="3">
-        <v>130400</v>
+        <v>121700</v>
       </c>
       <c r="K57" s="3">
         <v>251400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>627400</v>
+        <v>585900</v>
       </c>
       <c r="E58" s="3">
-        <v>332000</v>
+        <v>310000</v>
       </c>
       <c r="F58" s="3">
-        <v>196300</v>
+        <v>183400</v>
       </c>
       <c r="G58" s="3">
-        <v>286200</v>
+        <v>267300</v>
       </c>
       <c r="H58" s="3">
-        <v>264000</v>
+        <v>246500</v>
       </c>
       <c r="I58" s="3">
-        <v>160500</v>
+        <v>149900</v>
       </c>
       <c r="J58" s="3">
-        <v>106800</v>
+        <v>99700</v>
       </c>
       <c r="K58" s="3">
         <v>39300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>176900</v>
+        <v>165200</v>
       </c>
       <c r="E59" s="3">
-        <v>120300</v>
+        <v>112300</v>
       </c>
       <c r="F59" s="3">
-        <v>98600</v>
+        <v>92100</v>
       </c>
       <c r="G59" s="3">
-        <v>77800</v>
+        <v>72700</v>
       </c>
       <c r="H59" s="3">
+        <v>69500</v>
+      </c>
+      <c r="I59" s="3">
         <v>74400</v>
       </c>
-      <c r="I59" s="3">
-        <v>79700</v>
-      </c>
       <c r="J59" s="3">
-        <v>39000</v>
+        <v>36400</v>
       </c>
       <c r="K59" s="3">
         <v>50400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1097800</v>
+        <v>1025200</v>
       </c>
       <c r="E60" s="3">
-        <v>641300</v>
+        <v>598900</v>
       </c>
       <c r="F60" s="3">
-        <v>433900</v>
+        <v>405200</v>
       </c>
       <c r="G60" s="3">
-        <v>474800</v>
+        <v>443400</v>
       </c>
       <c r="H60" s="3">
-        <v>440500</v>
+        <v>411400</v>
       </c>
       <c r="I60" s="3">
-        <v>346100</v>
+        <v>323200</v>
       </c>
       <c r="J60" s="3">
-        <v>276100</v>
+        <v>257900</v>
       </c>
       <c r="K60" s="3">
         <v>341100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1393200</v>
+        <v>1301100</v>
       </c>
       <c r="E61" s="3">
-        <v>1047900</v>
+        <v>978700</v>
       </c>
       <c r="F61" s="3">
-        <v>613600</v>
+        <v>573000</v>
       </c>
       <c r="G61" s="3">
-        <v>475700</v>
+        <v>444200</v>
       </c>
       <c r="H61" s="3">
-        <v>492200</v>
+        <v>459700</v>
       </c>
       <c r="I61" s="3">
-        <v>309800</v>
+        <v>289400</v>
       </c>
       <c r="J61" s="3">
-        <v>260200</v>
+        <v>243000</v>
       </c>
       <c r="K61" s="3">
         <v>188700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>149300</v>
+        <v>139400</v>
       </c>
       <c r="E62" s="3">
-        <v>116300</v>
+        <v>108600</v>
       </c>
       <c r="F62" s="3">
-        <v>104800</v>
+        <v>97900</v>
       </c>
       <c r="G62" s="3">
-        <v>86300</v>
+        <v>80600</v>
       </c>
       <c r="H62" s="3">
-        <v>69500</v>
+        <v>64900</v>
       </c>
       <c r="I62" s="3">
-        <v>54600</v>
+        <v>51000</v>
       </c>
       <c r="J62" s="3">
-        <v>46400</v>
+        <v>43400</v>
       </c>
       <c r="K62" s="3">
         <v>107800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2640400</v>
+        <v>2465900</v>
       </c>
       <c r="E66" s="3">
-        <v>1805500</v>
+        <v>1686100</v>
       </c>
       <c r="F66" s="3">
-        <v>1152400</v>
+        <v>1076200</v>
       </c>
       <c r="G66" s="3">
-        <v>1038100</v>
+        <v>969500</v>
       </c>
       <c r="H66" s="3">
-        <v>1007200</v>
+        <v>940600</v>
       </c>
       <c r="I66" s="3">
-        <v>712600</v>
+        <v>665500</v>
       </c>
       <c r="J66" s="3">
-        <v>584900</v>
+        <v>546200</v>
       </c>
       <c r="K66" s="3">
         <v>641200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1188500</v>
+        <v>1110000</v>
       </c>
       <c r="E72" s="3">
-        <v>819700</v>
+        <v>765500</v>
       </c>
       <c r="F72" s="3">
-        <v>727900</v>
+        <v>679800</v>
       </c>
       <c r="G72" s="3">
-        <v>599400</v>
+        <v>559800</v>
       </c>
       <c r="H72" s="3">
-        <v>510100</v>
+        <v>476400</v>
       </c>
       <c r="I72" s="3">
-        <v>486100</v>
+        <v>454000</v>
       </c>
       <c r="J72" s="3">
-        <v>524400</v>
+        <v>489700</v>
       </c>
       <c r="K72" s="3">
         <v>673700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1159000</v>
+        <v>1082400</v>
       </c>
       <c r="E76" s="3">
-        <v>846500</v>
+        <v>790600</v>
       </c>
       <c r="F76" s="3">
-        <v>779800</v>
+        <v>728300</v>
       </c>
       <c r="G76" s="3">
-        <v>677100</v>
+        <v>632300</v>
       </c>
       <c r="H76" s="3">
-        <v>597400</v>
+        <v>557900</v>
       </c>
       <c r="I76" s="3">
-        <v>562400</v>
+        <v>525200</v>
       </c>
       <c r="J76" s="3">
-        <v>600800</v>
+        <v>561100</v>
       </c>
       <c r="K76" s="3">
         <v>775700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>414700</v>
+        <v>387300</v>
       </c>
       <c r="E81" s="3">
-        <v>188800</v>
+        <v>176300</v>
       </c>
       <c r="F81" s="3">
-        <v>159000</v>
+        <v>148500</v>
       </c>
       <c r="G81" s="3">
-        <v>121800</v>
+        <v>113800</v>
       </c>
       <c r="H81" s="3">
-        <v>75800</v>
+        <v>70800</v>
       </c>
       <c r="I81" s="3">
-        <v>74300</v>
+        <v>69300</v>
       </c>
       <c r="J81" s="3">
-        <v>56700</v>
+        <v>53000</v>
       </c>
       <c r="K81" s="3">
         <v>112000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>348500</v>
+        <v>325500</v>
       </c>
       <c r="E83" s="3">
-        <v>272100</v>
+        <v>254100</v>
       </c>
       <c r="F83" s="3">
-        <v>223300</v>
+        <v>208600</v>
       </c>
       <c r="G83" s="3">
-        <v>188600</v>
+        <v>176100</v>
       </c>
       <c r="H83" s="3">
-        <v>159500</v>
+        <v>148900</v>
       </c>
       <c r="I83" s="3">
-        <v>95900</v>
+        <v>89500</v>
       </c>
       <c r="J83" s="3">
-        <v>80300</v>
+        <v>75000</v>
       </c>
       <c r="K83" s="3">
         <v>88900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>943700</v>
+        <v>881300</v>
       </c>
       <c r="E89" s="3">
-        <v>794300</v>
+        <v>741800</v>
       </c>
       <c r="F89" s="3">
-        <v>528600</v>
+        <v>493600</v>
       </c>
       <c r="G89" s="3">
-        <v>370700</v>
+        <v>346200</v>
       </c>
       <c r="H89" s="3">
-        <v>246200</v>
+        <v>229900</v>
       </c>
       <c r="I89" s="3">
-        <v>137100</v>
+        <v>128000</v>
       </c>
       <c r="J89" s="3">
-        <v>45700</v>
+        <v>42700</v>
       </c>
       <c r="K89" s="3">
         <v>144100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-270800</v>
+        <v>-252900</v>
       </c>
       <c r="E91" s="3">
-        <v>-208900</v>
+        <v>-195100</v>
       </c>
       <c r="F91" s="3">
-        <v>-146500</v>
+        <v>-136800</v>
       </c>
       <c r="G91" s="3">
-        <v>-119900</v>
+        <v>-112000</v>
       </c>
       <c r="H91" s="3">
-        <v>-111100</v>
+        <v>-103700</v>
       </c>
       <c r="I91" s="3">
-        <v>-110200</v>
+        <v>-102900</v>
       </c>
       <c r="J91" s="3">
-        <v>-96500</v>
+        <v>-90100</v>
       </c>
       <c r="K91" s="3">
         <v>-115500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-737200</v>
+        <v>-688500</v>
       </c>
       <c r="E94" s="3">
-        <v>-388800</v>
+        <v>-363100</v>
       </c>
       <c r="F94" s="3">
-        <v>-291700</v>
+        <v>-272500</v>
       </c>
       <c r="G94" s="3">
-        <v>-145600</v>
+        <v>-136000</v>
       </c>
       <c r="H94" s="3">
-        <v>-197600</v>
+        <v>-184600</v>
       </c>
       <c r="I94" s="3">
-        <v>-144700</v>
+        <v>-135200</v>
       </c>
       <c r="J94" s="3">
-        <v>-134600</v>
+        <v>-125700</v>
       </c>
       <c r="K94" s="3">
         <v>-234000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-46800</v>
+        <v>-43700</v>
       </c>
       <c r="E96" s="3">
-        <v>-96300</v>
+        <v>-89900</v>
       </c>
       <c r="F96" s="3">
-        <v>-31500</v>
+        <v>-29400</v>
       </c>
       <c r="G96" s="3">
-        <v>-42300</v>
+        <v>-39500</v>
       </c>
       <c r="H96" s="3">
-        <v>-73100</v>
+        <v>-68300</v>
       </c>
       <c r="I96" s="3">
-        <v>-114500</v>
+        <v>-106900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="K96" s="3">
         <v>-217800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>66000</v>
+        <v>61700</v>
       </c>
       <c r="E100" s="3">
-        <v>-147900</v>
+        <v>-138100</v>
       </c>
       <c r="F100" s="3">
-        <v>-160100</v>
+        <v>-149500</v>
       </c>
       <c r="G100" s="3">
-        <v>-130500</v>
+        <v>-121900</v>
       </c>
       <c r="H100" s="3">
-        <v>-20100</v>
+        <v>-18700</v>
       </c>
       <c r="I100" s="3">
-        <v>-58800</v>
+        <v>-54900</v>
       </c>
       <c r="J100" s="3">
-        <v>181600</v>
+        <v>169600</v>
       </c>
       <c r="K100" s="3">
         <v>-264500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-4100</v>
+        <v>-3800</v>
       </c>
       <c r="F101" s="3">
-        <v>-15900</v>
+        <v>-14800</v>
       </c>
       <c r="G101" s="3">
-        <v>11200</v>
+        <v>10400</v>
       </c>
       <c r="H101" s="3">
-        <v>73100</v>
+        <v>68200</v>
       </c>
       <c r="I101" s="3">
-        <v>16100</v>
+        <v>15100</v>
       </c>
       <c r="J101" s="3">
-        <v>24900</v>
+        <v>23300</v>
       </c>
       <c r="K101" s="3">
         <v>23600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>274700</v>
+        <v>256500</v>
       </c>
       <c r="E102" s="3">
-        <v>253600</v>
+        <v>236800</v>
       </c>
       <c r="F102" s="3">
-        <v>60900</v>
+        <v>56800</v>
       </c>
       <c r="G102" s="3">
-        <v>105800</v>
+        <v>98800</v>
       </c>
       <c r="H102" s="3">
-        <v>101600</v>
+        <v>94800</v>
       </c>
       <c r="I102" s="3">
-        <v>-50300</v>
+        <v>-47000</v>
       </c>
       <c r="J102" s="3">
-        <v>117600</v>
+        <v>109800</v>
       </c>
       <c r="K102" s="3">
         <v>-330800</v>
